--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE144E-8437-47CE-8C8C-A356940A6526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A9D61-3ABB-4CAA-B499-F54DD65096F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="126105" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="136425" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="922">
   <si>
     <t>Title</t>
   </si>
@@ -2606,6 +2606,195 @@
   </si>
   <si>
     <t>JCW</t>
+  </si>
+  <si>
+    <t>Data Analytst</t>
+  </si>
+  <si>
+    <t>Applied Resource Group</t>
+  </si>
+  <si>
+    <t>Buckhead</t>
+  </si>
+  <si>
+    <t>RightClick</t>
+  </si>
+  <si>
+    <t>Data Scientist / Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>SS&amp;C Technologies</t>
+  </si>
+  <si>
+    <t>Sandy Hook</t>
+  </si>
+  <si>
+    <t>OneWire</t>
+  </si>
+  <si>
+    <t>Cypress HCM</t>
+  </si>
+  <si>
+    <t>Parcel Data Analyst</t>
+  </si>
+  <si>
+    <t>Verisk</t>
+  </si>
+  <si>
+    <t>Atlantic Broadband</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Workday EIB Data Analyst</t>
+  </si>
+  <si>
+    <t>AimHire</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>HCL America, Inc.</t>
+  </si>
+  <si>
+    <t>Data Validation Analyst</t>
+  </si>
+  <si>
+    <t>Greenwood Village</t>
+  </si>
+  <si>
+    <t>Data Scientist / Applied Mathematician</t>
+  </si>
+  <si>
+    <t>Fullpower-AI</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Data Analyst, Juba Plus (1167)</t>
+  </si>
+  <si>
+    <t>Media Storm</t>
+  </si>
+  <si>
+    <t>REMOTE- Data Engineer-Hands on ETL- Data Warehousing- Data Visualization</t>
+  </si>
+  <si>
+    <t>Business Intelligence Analyst</t>
+  </si>
+  <si>
+    <t>Python Engineer (AI/ML) - Collibra</t>
+  </si>
+  <si>
+    <t>Hub Recruiting | TA for the Modern World Company Location</t>
+  </si>
+  <si>
+    <t>Data Engineering Analyst</t>
+  </si>
+  <si>
+    <t>Machine Learning Researcher</t>
+  </si>
+  <si>
+    <t>Anson McCade</t>
+  </si>
+  <si>
+    <t>Strategic Employment Partners (SEP)</t>
+  </si>
+  <si>
+    <t>Open Systems Technologies</t>
+  </si>
+  <si>
+    <t>BI Analyst (Operations)</t>
+  </si>
+  <si>
+    <t>Concentric</t>
+  </si>
+  <si>
+    <t>FocusKPI, Inc.</t>
+  </si>
+  <si>
+    <t>REMOTE - Data Engineer/Data Quality Engineer, ETL</t>
+  </si>
+  <si>
+    <t>Business Analyst - Data Products</t>
+  </si>
+  <si>
+    <t>Insider, Inc.</t>
+  </si>
+  <si>
+    <t>Data Engineer/Data Scientist</t>
+  </si>
+  <si>
+    <t>US Tech Solutions</t>
+  </si>
+  <si>
+    <t>Selby Jennings</t>
+  </si>
+  <si>
+    <t>Data Analyst – Data Entry</t>
+  </si>
+  <si>
+    <t>Juristat</t>
+  </si>
+  <si>
+    <t>MBS Data Statistical Analyst</t>
+  </si>
+  <si>
+    <t>The Horizon Group</t>
+  </si>
+  <si>
+    <t>Data Science Consultant</t>
+  </si>
+  <si>
+    <t>Marketing Decision Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer II</t>
+  </si>
+  <si>
+    <t>Tableau Developer</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Data Modeler</t>
+  </si>
+  <si>
+    <t>Data Analyst - SQL, R, Python</t>
+  </si>
+  <si>
+    <t>Business/Data Analyst</t>
+  </si>
+  <si>
+    <t>Hire Talent</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>Precision Technologies Corp.</t>
+  </si>
+  <si>
+    <t>Kendall Park</t>
+  </si>
+  <si>
+    <t>Peterson Technology Partners</t>
+  </si>
+  <si>
+    <t>Associa</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Junior Digital Content Data Analyst</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer developing Smart Cities</t>
   </si>
 </sst>
 </file>
@@ -3383,8 +3572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M610" totalsRowShown="0">
-  <autoFilter ref="A1:M610" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M673" totalsRowShown="0">
+  <autoFilter ref="A1:M673" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -3706,12 +3895,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M610"/>
+  <dimension ref="A1:M673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I581" sqref="I581"/>
+      <selection pane="bottomLeft" activeCell="H676" sqref="H676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14799,6 +14988,9 @@
       <c r="H310" s="5">
         <v>44089</v>
       </c>
+      <c r="I310" s="5">
+        <v>44193</v>
+      </c>
       <c r="L310">
         <v>2023515851</v>
       </c>
@@ -23904,6 +24096,9 @@
       <c r="H570" s="5">
         <v>44186</v>
       </c>
+      <c r="I570" s="5">
+        <v>44193</v>
+      </c>
       <c r="L570">
         <v>2335198219</v>
       </c>
@@ -24043,6 +24238,9 @@
       <c r="H574" s="5">
         <v>44186</v>
       </c>
+      <c r="I574" s="5">
+        <v>44193</v>
+      </c>
       <c r="L574">
         <v>2332220792</v>
       </c>
@@ -24784,6 +24982,9 @@
       <c r="H596" s="5">
         <v>44188</v>
       </c>
+      <c r="I596" s="5">
+        <v>44195</v>
+      </c>
       <c r="L596">
         <v>2222612216</v>
       </c>
@@ -25266,6 +25467,2158 @@
       <c r="M610" t="str">
         <f t="shared" si="20"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339958199</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611" t="s">
+        <v>687</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D611" t="s">
+        <v>511</v>
+      </c>
+      <c r="E611" t="s">
+        <v>401</v>
+      </c>
+      <c r="F611" s="16" t="str">
+        <f>VLOOKUP(E611,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G611" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H611" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L611">
+        <v>2327291234</v>
+      </c>
+      <c r="M611" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L611</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2327291234</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>102</v>
+      </c>
+      <c r="B612" t="s">
+        <v>375</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D612" t="s">
+        <v>214</v>
+      </c>
+      <c r="E612" t="s">
+        <v>398</v>
+      </c>
+      <c r="F612" s="16" t="str">
+        <f>VLOOKUP(E612,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G612" s="5">
+        <v>44186</v>
+      </c>
+      <c r="H612" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L612">
+        <v>2151377746</v>
+      </c>
+      <c r="M612" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L612</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2151377746</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>859</v>
+      </c>
+      <c r="B613" t="s">
+        <v>860</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D613" t="s">
+        <v>115</v>
+      </c>
+      <c r="E613" t="s">
+        <v>405</v>
+      </c>
+      <c r="F613" s="16" t="str">
+        <f>VLOOKUP(E613,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G613" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H613" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L613">
+        <v>2324174090</v>
+      </c>
+      <c r="M613" t="str">
+        <f t="shared" ref="M613:M621" si="21">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L613</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2324174090</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>293</v>
+      </c>
+      <c r="B614" t="s">
+        <v>830</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D614" t="s">
+        <v>39</v>
+      </c>
+      <c r="E614" t="s">
+        <v>398</v>
+      </c>
+      <c r="F614" s="16" t="str">
+        <f>VLOOKUP(E614,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H614" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L614">
+        <v>2348184182</v>
+      </c>
+      <c r="M614" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184182</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>300</v>
+      </c>
+      <c r="B615" t="s">
+        <v>900</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D615" t="s">
+        <v>511</v>
+      </c>
+      <c r="E615" t="s">
+        <v>401</v>
+      </c>
+      <c r="F615" s="16" t="str">
+        <f>VLOOKUP(E615,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G615" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H615" s="5">
+        <v>44193</v>
+      </c>
+      <c r="J615" s="5">
+        <v>44194</v>
+      </c>
+      <c r="L615">
+        <v>1950764538</v>
+      </c>
+      <c r="M615" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=1950764538</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>449</v>
+      </c>
+      <c r="B616" t="s">
+        <v>496</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D616" t="s">
+        <v>861</v>
+      </c>
+      <c r="E616" t="s">
+        <v>405</v>
+      </c>
+      <c r="F616" s="16" t="str">
+        <f>VLOOKUP(E616,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G616" s="5">
+        <v>44186</v>
+      </c>
+      <c r="H616" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L616">
+        <v>2291654300</v>
+      </c>
+      <c r="M616" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2291654300</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>519</v>
+      </c>
+      <c r="B617" t="s">
+        <v>862</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D617" t="s">
+        <v>511</v>
+      </c>
+      <c r="E617" t="s">
+        <v>401</v>
+      </c>
+      <c r="F617" s="16" t="str">
+        <f>VLOOKUP(E617,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G617" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H617" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L617">
+        <v>2321946373</v>
+      </c>
+      <c r="M617" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2321946373</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>863</v>
+      </c>
+      <c r="B618" t="s">
+        <v>864</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D618" t="s">
+        <v>865</v>
+      </c>
+      <c r="E618" t="s">
+        <v>413</v>
+      </c>
+      <c r="F618" s="16" t="str">
+        <f>VLOOKUP(E618,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Connecticut</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H618" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L618">
+        <v>2314317360</v>
+      </c>
+      <c r="M618" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2314317360</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>10</v>
+      </c>
+      <c r="B619" t="s">
+        <v>866</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D619" t="s">
+        <v>511</v>
+      </c>
+      <c r="E619" t="s">
+        <v>401</v>
+      </c>
+      <c r="F619" s="16" t="str">
+        <f>VLOOKUP(E619,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G619" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H619" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L619">
+        <v>2329264424</v>
+      </c>
+      <c r="M619" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2329264424</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>110</v>
+      </c>
+      <c r="B620" t="s">
+        <v>172</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D620" t="s">
+        <v>511</v>
+      </c>
+      <c r="E620" t="s">
+        <v>401</v>
+      </c>
+      <c r="F620" s="16" t="str">
+        <f>VLOOKUP(E620,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H620" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L620">
+        <v>2326264142</v>
+      </c>
+      <c r="M620" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2326264142</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" t="s">
+        <v>867</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D621" t="s">
+        <v>214</v>
+      </c>
+      <c r="E621" t="s">
+        <v>398</v>
+      </c>
+      <c r="F621" s="16" t="str">
+        <f>VLOOKUP(E621,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G621" s="5">
+        <v>44186</v>
+      </c>
+      <c r="H621" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L621">
+        <v>2335184819</v>
+      </c>
+      <c r="M621" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2335184819</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A622" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B622" t="s">
+        <v>869</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D622" t="s">
+        <v>228</v>
+      </c>
+      <c r="E622" t="s">
+        <v>397</v>
+      </c>
+      <c r="F622" s="16" t="str">
+        <f>VLOOKUP(E622,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G622" s="5">
+        <v>44186</v>
+      </c>
+      <c r="H622" s="5">
+        <v>44193</v>
+      </c>
+      <c r="L622">
+        <v>2280108348</v>
+      </c>
+      <c r="M622" t="str">
+        <f t="shared" ref="M622:M628" si="22">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L622</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2280108348</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>110</v>
+      </c>
+      <c r="B623" t="s">
+        <v>870</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D623" t="s">
+        <v>871</v>
+      </c>
+      <c r="E623" t="s">
+        <v>397</v>
+      </c>
+      <c r="F623" s="16" t="str">
+        <f>VLOOKUP(E623,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G623" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H623" s="5">
+        <v>44194</v>
+      </c>
+      <c r="J623" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L623">
+        <v>2328683109</v>
+      </c>
+      <c r="M623" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2328683109</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>850</v>
+      </c>
+      <c r="B624" t="s">
+        <v>851</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D624" t="s">
+        <v>511</v>
+      </c>
+      <c r="E624" t="s">
+        <v>401</v>
+      </c>
+      <c r="F624" s="16" t="str">
+        <f>VLOOKUP(E624,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G624" s="5">
+        <v>44193</v>
+      </c>
+      <c r="H624" s="5">
+        <v>44194</v>
+      </c>
+      <c r="L624">
+        <v>2342484923</v>
+      </c>
+      <c r="M624" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2342484923</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>872</v>
+      </c>
+      <c r="B625" t="s">
+        <v>830</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D625" t="s">
+        <v>128</v>
+      </c>
+      <c r="E625" t="s">
+        <v>398</v>
+      </c>
+      <c r="F625" s="16" t="str">
+        <f>VLOOKUP(E625,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G625" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H625" s="5">
+        <v>44194</v>
+      </c>
+      <c r="L625">
+        <v>2348176102</v>
+      </c>
+      <c r="M625" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348176102</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>144</v>
+      </c>
+      <c r="B626" t="s">
+        <v>873</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D626" t="s">
+        <v>874</v>
+      </c>
+      <c r="E626" t="s">
+        <v>412</v>
+      </c>
+      <c r="F626" s="16" t="str">
+        <f>VLOOKUP(E626,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G626" s="5">
+        <v>44188</v>
+      </c>
+      <c r="H626" s="5">
+        <v>44194</v>
+      </c>
+      <c r="J626" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L626">
+        <v>2355345116</v>
+      </c>
+      <c r="M626" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355345116</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>144</v>
+      </c>
+      <c r="B627" t="s">
+        <v>875</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D627" t="s">
+        <v>224</v>
+      </c>
+      <c r="E627" t="s">
+        <v>398</v>
+      </c>
+      <c r="F627" s="16" t="str">
+        <f>VLOOKUP(E627,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G627" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H627" s="5">
+        <v>44194</v>
+      </c>
+      <c r="L627">
+        <v>2345890457</v>
+      </c>
+      <c r="M627" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2345890457</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>876</v>
+      </c>
+      <c r="B628" t="s">
+        <v>687</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D628" t="s">
+        <v>877</v>
+      </c>
+      <c r="E628" t="s">
+        <v>412</v>
+      </c>
+      <c r="F628" s="16" t="str">
+        <f>VLOOKUP(E628,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H628" s="5">
+        <v>44194</v>
+      </c>
+      <c r="J628" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L628">
+        <v>2338908703</v>
+      </c>
+      <c r="M628" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2338908703</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>878</v>
+      </c>
+      <c r="B629" t="s">
+        <v>879</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D629" t="s">
+        <v>880</v>
+      </c>
+      <c r="E629" t="s">
+        <v>398</v>
+      </c>
+      <c r="F629" s="16" t="str">
+        <f>VLOOKUP(E629,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G629" s="5">
+        <v>44188</v>
+      </c>
+      <c r="H629" s="5">
+        <v>44194</v>
+      </c>
+      <c r="J629" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L629">
+        <v>2320796069</v>
+      </c>
+      <c r="M629" t="str">
+        <f t="shared" ref="M629:M635" si="23">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L629</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2320796069</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>881</v>
+      </c>
+      <c r="B630" t="s">
+        <v>882</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D630" t="s">
+        <v>511</v>
+      </c>
+      <c r="E630" t="s">
+        <v>401</v>
+      </c>
+      <c r="F630" s="16" t="str">
+        <f>VLOOKUP(E630,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G630" s="5">
+        <v>44194</v>
+      </c>
+      <c r="H630" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L630">
+        <v>2343666264</v>
+      </c>
+      <c r="M630" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2343666264</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>883</v>
+      </c>
+      <c r="B631" t="s">
+        <v>262</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D631" t="s">
+        <v>489</v>
+      </c>
+      <c r="E631" t="s">
+        <v>396</v>
+      </c>
+      <c r="F631" s="16" t="str">
+        <f>VLOOKUP(E631,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G631" s="5">
+        <v>44193</v>
+      </c>
+      <c r="H631" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L631">
+        <v>2347303658</v>
+      </c>
+      <c r="M631" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347303658</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>144</v>
+      </c>
+      <c r="B632" t="s">
+        <v>135</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D632" t="s">
+        <v>224</v>
+      </c>
+      <c r="E632" t="s">
+        <v>398</v>
+      </c>
+      <c r="F632" s="16" t="str">
+        <f>VLOOKUP(E632,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G632" s="5">
+        <v>44194</v>
+      </c>
+      <c r="H632" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L632">
+        <v>2348447267</v>
+      </c>
+      <c r="M632" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348447267</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>884</v>
+      </c>
+      <c r="B633" t="s">
+        <v>687</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D633" t="s">
+        <v>115</v>
+      </c>
+      <c r="E633" t="s">
+        <v>405</v>
+      </c>
+      <c r="F633" s="16" t="str">
+        <f>VLOOKUP(E633,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G633" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H633" s="5">
+        <v>44195</v>
+      </c>
+      <c r="J633" s="5">
+        <v>44561</v>
+      </c>
+      <c r="L633">
+        <v>2336789108</v>
+      </c>
+      <c r="M633" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2336789108</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" t="s">
+        <v>135</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D634" t="s">
+        <v>89</v>
+      </c>
+      <c r="E634" t="s">
+        <v>396</v>
+      </c>
+      <c r="F634" s="16" t="str">
+        <f>VLOOKUP(E634,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H634" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L634">
+        <v>2332222606</v>
+      </c>
+      <c r="M634" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2332222606</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>885</v>
+      </c>
+      <c r="B635" t="s">
+        <v>886</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D635" t="s">
+        <v>228</v>
+      </c>
+      <c r="E635" t="s">
+        <v>397</v>
+      </c>
+      <c r="F635" s="16" t="str">
+        <f>VLOOKUP(E635,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G635" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H635" s="5">
+        <v>44195</v>
+      </c>
+      <c r="J635" s="5">
+        <v>44195</v>
+      </c>
+      <c r="L635">
+        <v>2344551263</v>
+      </c>
+      <c r="M635" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2344551263</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>887</v>
+      </c>
+      <c r="B636" t="s">
+        <v>818</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D636" t="s">
+        <v>511</v>
+      </c>
+      <c r="E636" t="s">
+        <v>401</v>
+      </c>
+      <c r="F636" s="16" t="str">
+        <f>VLOOKUP(E636,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H636" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L636">
+        <v>2313257578</v>
+      </c>
+      <c r="M636" t="str">
+        <f t="shared" ref="M636:M646" si="24">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L636</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2313257578</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>888</v>
+      </c>
+      <c r="B637" t="s">
+        <v>889</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D637" t="s">
+        <v>511</v>
+      </c>
+      <c r="E637" t="s">
+        <v>401</v>
+      </c>
+      <c r="F637" s="16" t="str">
+        <f>VLOOKUP(E637,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G637" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H637" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L637">
+        <v>2321920622</v>
+      </c>
+      <c r="M637" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2321920622</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>110</v>
+      </c>
+      <c r="B638" t="s">
+        <v>890</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D638" t="s">
+        <v>701</v>
+      </c>
+      <c r="E638" t="s">
+        <v>412</v>
+      </c>
+      <c r="F638" s="16" t="str">
+        <f>VLOOKUP(E638,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H638" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L638">
+        <v>2314546653</v>
+      </c>
+      <c r="M638" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2314546653</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>519</v>
+      </c>
+      <c r="B639" t="s">
+        <v>891</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D639" t="s">
+        <v>511</v>
+      </c>
+      <c r="E639" t="s">
+        <v>401</v>
+      </c>
+      <c r="F639" s="16" t="str">
+        <f>VLOOKUP(E639,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G639" s="5">
+        <v>44195</v>
+      </c>
+      <c r="H639" s="5">
+        <v>44196</v>
+      </c>
+      <c r="J639" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L639">
+        <v>2328474409</v>
+      </c>
+      <c r="M639" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>892</v>
+      </c>
+      <c r="B640" t="s">
+        <v>196</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D640" t="s">
+        <v>214</v>
+      </c>
+      <c r="E640" t="s">
+        <v>398</v>
+      </c>
+      <c r="F640" s="16" t="str">
+        <f>VLOOKUP(E640,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H640" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L640">
+        <v>2329093655</v>
+      </c>
+      <c r="M640" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2329093655</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>144</v>
+      </c>
+      <c r="B641" t="s">
+        <v>893</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D641" t="s">
+        <v>676</v>
+      </c>
+      <c r="G641" s="5">
+        <v>44196</v>
+      </c>
+      <c r="H641" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L641">
+        <v>2363470666</v>
+      </c>
+      <c r="M641" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2363470666</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>884</v>
+      </c>
+      <c r="B642" t="s">
+        <v>894</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D642" t="s">
+        <v>511</v>
+      </c>
+      <c r="E642" t="s">
+        <v>401</v>
+      </c>
+      <c r="F642" s="16" t="str">
+        <f>VLOOKUP(E642,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H642" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L642">
+        <v>2362956946</v>
+      </c>
+      <c r="M642" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2362956946</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>895</v>
+      </c>
+      <c r="B643" t="s">
+        <v>259</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D643" t="s">
+        <v>511</v>
+      </c>
+      <c r="E643" t="s">
+        <v>401</v>
+      </c>
+      <c r="F643" s="16" t="str">
+        <f>VLOOKUP(E643,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G643" s="5">
+        <v>44194</v>
+      </c>
+      <c r="H643" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L643">
+        <v>2347328544</v>
+      </c>
+      <c r="M643" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347328544</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>144</v>
+      </c>
+      <c r="B644" t="s">
+        <v>172</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D644" t="s">
+        <v>511</v>
+      </c>
+      <c r="E644" t="s">
+        <v>401</v>
+      </c>
+      <c r="F644" s="16" t="str">
+        <f>VLOOKUP(E644,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H644" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L644">
+        <v>2322762417</v>
+      </c>
+      <c r="M644" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2322762417</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>896</v>
+      </c>
+      <c r="B645" t="s">
+        <v>897</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D645" t="s">
+        <v>511</v>
+      </c>
+      <c r="E645" t="s">
+        <v>401</v>
+      </c>
+      <c r="F645" s="16" t="str">
+        <f>VLOOKUP(E645,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G645" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H645" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L645">
+        <v>2322738291</v>
+      </c>
+      <c r="M645" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2322738291</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>898</v>
+      </c>
+      <c r="B646" t="s">
+        <v>899</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D646" t="s">
+        <v>128</v>
+      </c>
+      <c r="E646" t="s">
+        <v>398</v>
+      </c>
+      <c r="F646" s="16" t="str">
+        <f>VLOOKUP(E646,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H646" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L646">
+        <v>2354988367</v>
+      </c>
+      <c r="M646" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354988367</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>908</v>
+      </c>
+      <c r="B647" t="s">
+        <v>286</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D647" t="s">
+        <v>909</v>
+      </c>
+      <c r="E647" t="s">
+        <v>437</v>
+      </c>
+      <c r="F647" s="16" t="str">
+        <f>VLOOKUP(E647,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Ohio</v>
+      </c>
+      <c r="G647" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H647" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L647">
+        <v>2314543406</v>
+      </c>
+      <c r="M647" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L647</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2314543406</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>519</v>
+      </c>
+      <c r="B648" t="s">
+        <v>309</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D648" t="s">
+        <v>511</v>
+      </c>
+      <c r="E648" t="s">
+        <v>401</v>
+      </c>
+      <c r="F648" s="16" t="str">
+        <f>VLOOKUP(E648,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G648" s="5">
+        <v>44195</v>
+      </c>
+      <c r="H648" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L648">
+        <v>2328474409</v>
+      </c>
+      <c r="M648" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L648</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>519</v>
+      </c>
+      <c r="B649" t="s">
+        <v>875</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D649" t="s">
+        <v>128</v>
+      </c>
+      <c r="E649" t="s">
+        <v>398</v>
+      </c>
+      <c r="F649" s="16" t="str">
+        <f>VLOOKUP(E649,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G649" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H649" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L649">
+        <v>344675073</v>
+      </c>
+      <c r="M649" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L649</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=344675073</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>288</v>
+      </c>
+      <c r="B650" t="s">
+        <v>335</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D650" t="s">
+        <v>62</v>
+      </c>
+      <c r="E650" t="s">
+        <v>396</v>
+      </c>
+      <c r="F650" s="16" t="str">
+        <f>VLOOKUP(E650,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G650" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H650" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L650">
+        <v>2350245369</v>
+      </c>
+      <c r="M650" t="str">
+        <f t="shared" ref="M650:M651" si="25">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L650</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2350245369</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>905</v>
+      </c>
+      <c r="B651" t="s">
+        <v>375</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D651" t="s">
+        <v>511</v>
+      </c>
+      <c r="E651" t="s">
+        <v>401</v>
+      </c>
+      <c r="F651" s="16" t="str">
+        <f>VLOOKUP(E651,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G651" s="5">
+        <v>44196</v>
+      </c>
+      <c r="H651" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L651">
+        <v>2351004425</v>
+      </c>
+      <c r="M651" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351004425</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>906</v>
+      </c>
+      <c r="B652" t="s">
+        <v>484</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D652" t="s">
+        <v>224</v>
+      </c>
+      <c r="E652" t="s">
+        <v>398</v>
+      </c>
+      <c r="F652" s="16" t="str">
+        <f>VLOOKUP(E652,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H652" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L652">
+        <v>2343339701</v>
+      </c>
+      <c r="M652" t="str">
+        <f t="shared" ref="M652:M666" si="26">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L652</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2343339701</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>901</v>
+      </c>
+      <c r="B653" t="s">
+        <v>902</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D653" t="s">
+        <v>188</v>
+      </c>
+      <c r="E653" t="s">
+        <v>410</v>
+      </c>
+      <c r="F653" s="16" t="str">
+        <f>VLOOKUP(E653,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G653" s="5">
+        <v>44196</v>
+      </c>
+      <c r="H653" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L653">
+        <v>2364405651</v>
+      </c>
+      <c r="M653" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364405651</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>903</v>
+      </c>
+      <c r="B654" t="s">
+        <v>904</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D654" t="s">
+        <v>511</v>
+      </c>
+      <c r="E654" t="s">
+        <v>401</v>
+      </c>
+      <c r="F654" s="16" t="str">
+        <f>VLOOKUP(E654,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H654" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L654">
+        <v>2329250907</v>
+      </c>
+      <c r="M654" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2329250907</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" t="s">
+        <v>535</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D655" t="s">
+        <v>214</v>
+      </c>
+      <c r="E655" t="s">
+        <v>398</v>
+      </c>
+      <c r="F655" s="16" t="str">
+        <f>VLOOKUP(E655,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G655" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H655" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L655">
+        <v>2351065742</v>
+      </c>
+      <c r="M655" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351065742</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>907</v>
+      </c>
+      <c r="B656" t="s">
+        <v>830</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D656" t="s">
+        <v>39</v>
+      </c>
+      <c r="E656" t="s">
+        <v>398</v>
+      </c>
+      <c r="F656" s="16" t="str">
+        <f>VLOOKUP(E656,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H656" s="5">
+        <v>44197</v>
+      </c>
+      <c r="L656">
+        <v>2348185803</v>
+      </c>
+      <c r="M656" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185803</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>910</v>
+      </c>
+      <c r="B657" t="s">
+        <v>882</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D657" t="s">
+        <v>511</v>
+      </c>
+      <c r="E657" t="s">
+        <v>401</v>
+      </c>
+      <c r="F657" s="16" t="str">
+        <f>VLOOKUP(E657,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G657" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H657" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L657">
+        <v>1023481870</v>
+      </c>
+      <c r="M657" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=1023481870</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>911</v>
+      </c>
+      <c r="B658" t="s">
+        <v>262</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D658" t="s">
+        <v>17</v>
+      </c>
+      <c r="E658" t="s">
+        <v>394</v>
+      </c>
+      <c r="F658" s="16" t="str">
+        <f>VLOOKUP(E658,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G658" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H658" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L658">
+        <v>2351086236</v>
+      </c>
+      <c r="M658" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351086236</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>713</v>
+      </c>
+      <c r="B659" t="s">
+        <v>802</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D659" t="s">
+        <v>89</v>
+      </c>
+      <c r="E659" t="s">
+        <v>396</v>
+      </c>
+      <c r="F659" s="16" t="str">
+        <f>VLOOKUP(E659,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G659" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H659" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L659">
+        <v>2363911126</v>
+      </c>
+      <c r="M659" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2363911126</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>883</v>
+      </c>
+      <c r="B660" t="s">
+        <v>262</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D660" t="s">
+        <v>489</v>
+      </c>
+      <c r="E660" t="s">
+        <v>396</v>
+      </c>
+      <c r="F660" s="16" t="str">
+        <f>VLOOKUP(E660,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G660" s="5">
+        <v>44198</v>
+      </c>
+      <c r="H660" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L660">
+        <v>2344153924</v>
+      </c>
+      <c r="M660" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2344153924</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>267</v>
+      </c>
+      <c r="B661" t="s">
+        <v>262</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D661" t="s">
+        <v>5</v>
+      </c>
+      <c r="E661" t="s">
+        <v>399</v>
+      </c>
+      <c r="F661" s="16" t="str">
+        <f>VLOOKUP(E661,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G661" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H661" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L661">
+        <v>2351060869</v>
+      </c>
+      <c r="M661" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351060869</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>912</v>
+      </c>
+      <c r="B662" t="s">
+        <v>913</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D662" t="s">
+        <v>914</v>
+      </c>
+      <c r="E662" t="s">
+        <v>419</v>
+      </c>
+      <c r="F662" s="16" t="str">
+        <f>VLOOKUP(E662,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G662" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H662" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L662">
+        <v>2364969468</v>
+      </c>
+      <c r="M662" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364969468</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>297</v>
+      </c>
+      <c r="B663" t="s">
+        <v>915</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D663" t="s">
+        <v>916</v>
+      </c>
+      <c r="E663" t="s">
+        <v>415</v>
+      </c>
+      <c r="F663" s="16" t="str">
+        <f>VLOOKUP(E663,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G663" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H663" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L663">
+        <v>2364968701</v>
+      </c>
+      <c r="M663" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968701</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>110</v>
+      </c>
+      <c r="B664" t="s">
+        <v>917</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D664" t="s">
+        <v>676</v>
+      </c>
+      <c r="G664" s="5">
+        <v>44196</v>
+      </c>
+      <c r="H664" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L664">
+        <v>2332353686</v>
+      </c>
+      <c r="M664" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2332353686</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>110</v>
+      </c>
+      <c r="B665" t="s">
+        <v>172</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D665" t="s">
+        <v>511</v>
+      </c>
+      <c r="E665" t="s">
+        <v>401</v>
+      </c>
+      <c r="F665" s="16" t="str">
+        <f>VLOOKUP(E665,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H665" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L665">
+        <v>2151312080</v>
+      </c>
+      <c r="M665" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2151312080</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>144</v>
+      </c>
+      <c r="B666" t="s">
+        <v>918</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D666" t="s">
+        <v>919</v>
+      </c>
+      <c r="E666" t="s">
+        <v>396</v>
+      </c>
+      <c r="F666" s="16" t="str">
+        <f>VLOOKUP(E666,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H666" s="5">
+        <v>44198</v>
+      </c>
+      <c r="L666">
+        <v>2344542176</v>
+      </c>
+      <c r="M666" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2344542176</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>911</v>
+      </c>
+      <c r="B667" t="s">
+        <v>262</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D667" t="s">
+        <v>17</v>
+      </c>
+      <c r="E667" t="s">
+        <v>394</v>
+      </c>
+      <c r="F667" s="16" t="str">
+        <f>VLOOKUP(E667,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G667" s="5">
+        <v>44199</v>
+      </c>
+      <c r="H667" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L667">
+        <v>2351897093</v>
+      </c>
+      <c r="M667" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L667</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351897093</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>144</v>
+      </c>
+      <c r="B668" t="s">
+        <v>259</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D668" t="s">
+        <v>386</v>
+      </c>
+      <c r="E668" t="s">
+        <v>397</v>
+      </c>
+      <c r="F668" s="16" t="str">
+        <f>VLOOKUP(E668,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G668" s="5">
+        <v>44198</v>
+      </c>
+      <c r="H668" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L668">
+        <v>2351878287</v>
+      </c>
+      <c r="M668" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L668</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2351878287</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>144</v>
+      </c>
+      <c r="B669" t="s">
+        <v>196</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D669" t="s">
+        <v>39</v>
+      </c>
+      <c r="E669" t="s">
+        <v>398</v>
+      </c>
+      <c r="F669" s="16" t="str">
+        <f>VLOOKUP(E669,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H669" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L669">
+        <v>2341527170</v>
+      </c>
+      <c r="M669" t="str">
+        <f t="shared" ref="M669:M670" si="27">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L669</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2341527170</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>920</v>
+      </c>
+      <c r="B670" t="s">
+        <v>335</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D670" t="s">
+        <v>115</v>
+      </c>
+      <c r="E670" t="s">
+        <v>405</v>
+      </c>
+      <c r="F670" s="16" t="str">
+        <f>VLOOKUP(E670,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H670" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L670">
+        <v>2353656370</v>
+      </c>
+      <c r="M670" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2353656370</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>921</v>
+      </c>
+      <c r="B671" t="s">
+        <v>802</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D671" t="s">
+        <v>726</v>
+      </c>
+      <c r="E671" t="s">
+        <v>397</v>
+      </c>
+      <c r="F671" s="16" t="str">
+        <f>VLOOKUP(E671,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G671" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H671" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L671">
+        <v>2355381171</v>
+      </c>
+      <c r="M671" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L671</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355381171</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>300</v>
+      </c>
+      <c r="B672" t="s">
+        <v>890</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D672" t="s">
+        <v>701</v>
+      </c>
+      <c r="E672" t="s">
+        <v>412</v>
+      </c>
+      <c r="F672" s="16" t="str">
+        <f>VLOOKUP(E672,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H672" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L672">
+        <v>2345422476</v>
+      </c>
+      <c r="M672" t="str">
+        <f t="shared" ref="M671:M673" si="28">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L672</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2345422476</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>144</v>
+      </c>
+      <c r="B673" t="s">
+        <v>830</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D673" t="s">
+        <v>39</v>
+      </c>
+      <c r="E673" t="s">
+        <v>398</v>
+      </c>
+      <c r="F673" s="16" t="str">
+        <f>VLOOKUP(E673,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G673" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H673" s="5">
+        <v>44199</v>
+      </c>
+      <c r="L673">
+        <v>2348186696</v>
+      </c>
+      <c r="M673" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L673</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348186696</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A9D61-3ABB-4CAA-B499-F54DD65096F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBA833-EF49-40D8-869E-D14444E229F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="136425" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="145530" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="991">
   <si>
     <t>Title</t>
   </si>
@@ -2795,6 +2795,213 @@
   </si>
   <si>
     <t>Machine Learning Engineer developing Smart Cities</t>
+  </si>
+  <si>
+    <t>Allentown</t>
+  </si>
+  <si>
+    <t>Life.io</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>MEMX</t>
+  </si>
+  <si>
+    <t>Jersey City</t>
+  </si>
+  <si>
+    <t>RedShred</t>
+  </si>
+  <si>
+    <t>Vivid Resourcing, LTD.</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>777 Partners</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Data Scientist - Intermediate</t>
+  </si>
+  <si>
+    <t>KellyMitchell Group, Inc.</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>neteffects</t>
+  </si>
+  <si>
+    <t>Cancer Expert Now, Inc.</t>
+  </si>
+  <si>
+    <t>Morristown</t>
+  </si>
+  <si>
+    <t>First Call Staffing</t>
+  </si>
+  <si>
+    <t>Westchester</t>
+  </si>
+  <si>
+    <t>Data Scientist / Data Engineer</t>
+  </si>
+  <si>
+    <t>501-200</t>
+  </si>
+  <si>
+    <t>DATA ENGINEERING</t>
+  </si>
+  <si>
+    <t>DATA SCIENTIST</t>
+  </si>
+  <si>
+    <t>Calculated Hire</t>
+  </si>
+  <si>
+    <t>Data Analyst and Data Entry</t>
+  </si>
+  <si>
+    <t>Staff Field Safety Data Scientist</t>
+  </si>
+  <si>
+    <t>Rivian</t>
+  </si>
+  <si>
+    <t>Quality Analyst, Customer Quality</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Charging Network Technical Analyst</t>
+  </si>
+  <si>
+    <t>Operations Launch Analyst</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Data Engineer / Python / Spark / ETL / Data Warehouse</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>Beaverton</t>
+  </si>
+  <si>
+    <t>Big Data Analyst (A+ Players Only)</t>
+  </si>
+  <si>
+    <t>ConsultNet</t>
+  </si>
+  <si>
+    <t>Data Quality Specialist</t>
+  </si>
+  <si>
+    <t>Contract Data Scientist - Streaming Service (REMOTE)</t>
+  </si>
+  <si>
+    <t>The Select Group</t>
+  </si>
+  <si>
+    <t>West Shokan</t>
+  </si>
+  <si>
+    <t>Course Hero</t>
+  </si>
+  <si>
+    <t>Statistical Programmer Analyst</t>
+  </si>
+  <si>
+    <t>Therabody</t>
+  </si>
+  <si>
+    <t>Sales Data Analyst</t>
+  </si>
+  <si>
+    <t>Systems Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTS, Inc. </t>
+  </si>
+  <si>
+    <t>Quantitative Analyst</t>
+  </si>
+  <si>
+    <t>Silverpips</t>
+  </si>
+  <si>
+    <t>Forcura</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Financial Services Systems/Data Analyst</t>
+  </si>
+  <si>
+    <t>Associate Data Analyst, Demand Planning</t>
+  </si>
+  <si>
+    <t>Munchkin</t>
+  </si>
+  <si>
+    <t>Lewisville</t>
+  </si>
+  <si>
+    <t>Kung Fu Factory</t>
+  </si>
+  <si>
+    <t>Stand 8 Technology Services</t>
+  </si>
+  <si>
+    <t>Calabasas</t>
+  </si>
+  <si>
+    <t>Bethesda Softworks</t>
+  </si>
+  <si>
+    <t>Hunt Valley</t>
+  </si>
+  <si>
+    <t>Python/Data Developer</t>
+  </si>
+  <si>
+    <t>Radley James</t>
+  </si>
+  <si>
+    <t>Pernod Ricard</t>
+  </si>
+  <si>
+    <t>AdTheorent</t>
+  </si>
+  <si>
+    <t>Publicis Health Media</t>
+  </si>
+  <si>
+    <t>Adore Me</t>
+  </si>
+  <si>
+    <t>SurveyMonkey</t>
+  </si>
+  <si>
+    <t>Career Movement</t>
+  </si>
+  <si>
+    <t>Allied Universal</t>
+  </si>
+  <si>
+    <t>Tustin</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +3162,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -3572,8 +3779,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M673" totalsRowShown="0">
-  <autoFilter ref="A1:M673" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M736" totalsRowShown="0">
+  <autoFilter ref="A1:M736" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -3895,12 +4102,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M673"/>
+  <dimension ref="A1:M736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H676" sqref="H676"/>
+      <selection pane="bottomLeft" activeCell="A706" sqref="A706:M736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25427,6 +25634,9 @@
       <c r="H609" s="5">
         <v>44192</v>
       </c>
+      <c r="I609" s="5">
+        <v>44199</v>
+      </c>
       <c r="L609">
         <v>2329874875</v>
       </c>
@@ -26082,6 +26292,9 @@
       <c r="H628" s="5">
         <v>44194</v>
       </c>
+      <c r="I628" s="5">
+        <v>44200</v>
+      </c>
       <c r="J628" s="5">
         <v>44195</v>
       </c>
@@ -26668,6 +26881,9 @@
       <c r="H645" s="5">
         <v>44196</v>
       </c>
+      <c r="I645" s="5">
+        <v>44203</v>
+      </c>
       <c r="L645">
         <v>2322738291</v>
       </c>
@@ -26736,6 +26952,9 @@
       <c r="H647" s="5">
         <v>44196</v>
       </c>
+      <c r="I647" s="5">
+        <v>44203</v>
+      </c>
       <c r="L647">
         <v>2314543406</v>
       </c>
@@ -27076,6 +27295,9 @@
       <c r="H657" s="5">
         <v>44198</v>
       </c>
+      <c r="J657" s="5">
+        <v>44199</v>
+      </c>
       <c r="L657">
         <v>1023481870</v>
       </c>
@@ -27144,6 +27366,9 @@
       <c r="H659" s="5">
         <v>44198</v>
       </c>
+      <c r="I659" s="5">
+        <v>44200</v>
+      </c>
       <c r="L659">
         <v>2363911126</v>
       </c>
@@ -27375,6 +27600,9 @@
       <c r="H666" s="5">
         <v>44198</v>
       </c>
+      <c r="J666" s="5">
+        <v>44199</v>
+      </c>
       <c r="L666">
         <v>2344542176</v>
       </c>
@@ -27583,7 +27811,7 @@
         <v>2345422476</v>
       </c>
       <c r="M672" t="str">
-        <f t="shared" ref="M671:M673" si="28">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L672</f>
+        <f t="shared" ref="M672" si="28">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L672</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345422476</v>
       </c>
     </row>
@@ -27617,8 +27845,2156 @@
         <v>2348186696</v>
       </c>
       <c r="M673" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L673</f>
+        <f t="shared" ref="M673:M685" si="29">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L673</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348186696</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>110</v>
+      </c>
+      <c r="B674" t="s">
+        <v>446</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D674" t="s">
+        <v>922</v>
+      </c>
+      <c r="E674" t="s">
+        <v>399</v>
+      </c>
+      <c r="F674" s="16" t="str">
+        <f>VLOOKUP(E674,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G674" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H674" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L674">
+        <v>2364451148</v>
+      </c>
+      <c r="M674" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364451148</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>10</v>
+      </c>
+      <c r="B675" t="s">
+        <v>923</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D675" t="s">
+        <v>924</v>
+      </c>
+      <c r="E675" t="s">
+        <v>415</v>
+      </c>
+      <c r="F675" s="16" t="str">
+        <f>VLOOKUP(E675,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G675" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H675" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L675">
+        <v>2341780885</v>
+      </c>
+      <c r="M675" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2341780885</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676" t="s">
+        <v>925</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D676" t="s">
+        <v>926</v>
+      </c>
+      <c r="E676" t="s">
+        <v>415</v>
+      </c>
+      <c r="F676" s="16" t="str">
+        <f>VLOOKUP(E676,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G676" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H676" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L676">
+        <v>2334433450</v>
+      </c>
+      <c r="M676" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2334433450</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>10</v>
+      </c>
+      <c r="B677" t="s">
+        <v>927</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D677" t="s">
+        <v>537</v>
+      </c>
+      <c r="E677" t="s">
+        <v>181</v>
+      </c>
+      <c r="F677" s="16" t="str">
+        <f>VLOOKUP(E677,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G677" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H677" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L677">
+        <v>2356553293</v>
+      </c>
+      <c r="M677" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2356553293</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>10</v>
+      </c>
+      <c r="B678" t="s">
+        <v>928</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D678" t="s">
+        <v>929</v>
+      </c>
+      <c r="E678" t="s">
+        <v>395</v>
+      </c>
+      <c r="F678" s="16" t="str">
+        <f>VLOOKUP(E678,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G678" s="5">
+        <v>44200</v>
+      </c>
+      <c r="H678" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L678">
+        <v>2352978255</v>
+      </c>
+      <c r="M678" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2352978255</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>10</v>
+      </c>
+      <c r="B679" t="s">
+        <v>930</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D679" t="s">
+        <v>931</v>
+      </c>
+      <c r="E679" t="s">
+        <v>577</v>
+      </c>
+      <c r="F679" s="16" t="str">
+        <f>VLOOKUP(E679,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G679" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H679" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L679">
+        <v>2342676709</v>
+      </c>
+      <c r="M679" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2342676709</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>932</v>
+      </c>
+      <c r="B680" t="s">
+        <v>933</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D680" t="s">
+        <v>934</v>
+      </c>
+      <c r="E680" t="s">
+        <v>410</v>
+      </c>
+      <c r="F680" s="16" t="str">
+        <f>VLOOKUP(E680,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G680" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H680" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L680">
+        <v>2354456228</v>
+      </c>
+      <c r="M680" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354456228</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>10</v>
+      </c>
+      <c r="B681" t="s">
+        <v>935</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D681" t="s">
+        <v>188</v>
+      </c>
+      <c r="E681" t="s">
+        <v>410</v>
+      </c>
+      <c r="F681" s="16" t="str">
+        <f>VLOOKUP(E681,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H681" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L681">
+        <v>2356542385</v>
+      </c>
+      <c r="M681" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2356542385</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>10</v>
+      </c>
+      <c r="B682" t="s">
+        <v>936</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D682" t="s">
+        <v>937</v>
+      </c>
+      <c r="E682" t="s">
+        <v>415</v>
+      </c>
+      <c r="F682" s="16" t="str">
+        <f>VLOOKUP(E682,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G682" s="5">
+        <v>44195</v>
+      </c>
+      <c r="H682" s="5">
+        <v>44200</v>
+      </c>
+      <c r="I682" s="5">
+        <v>44203</v>
+      </c>
+      <c r="L682">
+        <v>2343650668</v>
+      </c>
+      <c r="M682" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2343650668</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>10</v>
+      </c>
+      <c r="B683" t="s">
+        <v>938</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D683" t="s">
+        <v>939</v>
+      </c>
+      <c r="E683" t="s">
+        <v>398</v>
+      </c>
+      <c r="F683" s="16" t="str">
+        <f>VLOOKUP(E683,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G683" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H683" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L683">
+        <v>2364444137</v>
+      </c>
+      <c r="M683" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364444137</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>940</v>
+      </c>
+      <c r="B684" t="s">
+        <v>830</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D684" t="s">
+        <v>216</v>
+      </c>
+      <c r="E684" t="s">
+        <v>398</v>
+      </c>
+      <c r="F684" s="16" t="str">
+        <f>VLOOKUP(E684,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H684" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L684">
+        <v>2348191034</v>
+      </c>
+      <c r="M684" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2348191034</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>10</v>
+      </c>
+      <c r="B685" t="s">
+        <v>528</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D685" t="s">
+        <v>529</v>
+      </c>
+      <c r="E685" t="s">
+        <v>400</v>
+      </c>
+      <c r="F685" s="16" t="str">
+        <f>VLOOKUP(E685,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G685" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H685" s="5">
+        <v>44200</v>
+      </c>
+      <c r="L685">
+        <v>2344243994</v>
+      </c>
+      <c r="M685" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2344243994</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>908</v>
+      </c>
+      <c r="B686" t="s">
+        <v>891</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D686" t="s">
+        <v>188</v>
+      </c>
+      <c r="E686" t="s">
+        <v>410</v>
+      </c>
+      <c r="F686" s="16" t="str">
+        <f>VLOOKUP(E686,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H686" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L686">
+        <v>2331691077</v>
+      </c>
+      <c r="M686" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L686</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2331691077</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>942</v>
+      </c>
+      <c r="B687" t="s">
+        <v>913</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D687" t="s">
+        <v>914</v>
+      </c>
+      <c r="E687" t="s">
+        <v>419</v>
+      </c>
+      <c r="F687" s="16" t="str">
+        <f>VLOOKUP(E687,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G687" s="5">
+        <v>44198</v>
+      </c>
+      <c r="H687" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L687">
+        <v>2364968617</v>
+      </c>
+      <c r="M687" t="str">
+        <f t="shared" ref="M687:M688" si="30">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L687</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968617</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>943</v>
+      </c>
+      <c r="B688" t="s">
+        <v>913</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D688" t="s">
+        <v>914</v>
+      </c>
+      <c r="E688" t="s">
+        <v>419</v>
+      </c>
+      <c r="F688" s="16" t="str">
+        <f>VLOOKUP(E688,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G688" s="5">
+        <v>44198</v>
+      </c>
+      <c r="H688" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L688">
+        <v>2364965753</v>
+      </c>
+      <c r="M688" t="str">
+        <f t="shared" si="30"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364965753</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>144</v>
+      </c>
+      <c r="B689" t="s">
+        <v>944</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D689" t="s">
+        <v>188</v>
+      </c>
+      <c r="E689" t="s">
+        <v>410</v>
+      </c>
+      <c r="F689" s="16" t="str">
+        <f>VLOOKUP(E689,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G689" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H689" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L689">
+        <v>2314989841</v>
+      </c>
+      <c r="M689" t="str">
+        <f t="shared" ref="M689:M701" si="31">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L689</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2314989841</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>519</v>
+      </c>
+      <c r="B690" t="s">
+        <v>443</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D690" t="s">
+        <v>926</v>
+      </c>
+      <c r="E690" t="s">
+        <v>415</v>
+      </c>
+      <c r="F690" s="16" t="str">
+        <f>VLOOKUP(E690,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G690" s="5">
+        <v>44196</v>
+      </c>
+      <c r="H690" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L690">
+        <v>2362599708</v>
+      </c>
+      <c r="M690" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2362599708</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>144</v>
+      </c>
+      <c r="B691" t="s">
+        <v>135</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D691" t="s">
+        <v>224</v>
+      </c>
+      <c r="E691" t="s">
+        <v>398</v>
+      </c>
+      <c r="F691" s="16" t="str">
+        <f>VLOOKUP(E691,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G691" s="5">
+        <v>44200</v>
+      </c>
+      <c r="H691" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L691">
+        <v>2354107658</v>
+      </c>
+      <c r="M691" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354107658</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>911</v>
+      </c>
+      <c r="B692" t="s">
+        <v>262</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D692" t="s">
+        <v>17</v>
+      </c>
+      <c r="E692" t="s">
+        <v>394</v>
+      </c>
+      <c r="F692" s="16" t="str">
+        <f>VLOOKUP(E692,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H692" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L692">
+        <v>2352972415</v>
+      </c>
+      <c r="M692" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2352972415</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>945</v>
+      </c>
+      <c r="B693" t="s">
+        <v>902</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D693" t="s">
+        <v>188</v>
+      </c>
+      <c r="E693" t="s">
+        <v>410</v>
+      </c>
+      <c r="F693" s="16" t="str">
+        <f>VLOOKUP(E693,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G693" s="5">
+        <v>44199</v>
+      </c>
+      <c r="H693" s="5">
+        <v>44201</v>
+      </c>
+      <c r="L693">
+        <v>2366269149</v>
+      </c>
+      <c r="M693" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2366269149</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>946</v>
+      </c>
+      <c r="B694" t="s">
+        <v>947</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D694" t="s">
+        <v>15</v>
+      </c>
+      <c r="E694" t="s">
+        <v>398</v>
+      </c>
+      <c r="F694" s="16" t="str">
+        <f>VLOOKUP(E694,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G694" s="5">
+        <v>44199</v>
+      </c>
+      <c r="H694" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L694">
+        <v>2315550222</v>
+      </c>
+      <c r="M694" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2315550222</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>189</v>
+      </c>
+      <c r="B695" t="s">
+        <v>947</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D695" t="s">
+        <v>15</v>
+      </c>
+      <c r="E695" t="s">
+        <v>398</v>
+      </c>
+      <c r="F695" s="16" t="str">
+        <f>VLOOKUP(E695,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G695" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H695" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L695">
+        <v>2340749860</v>
+      </c>
+      <c r="M695" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2340749860</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>948</v>
+      </c>
+      <c r="B696" t="s">
+        <v>947</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D696" t="s">
+        <v>949</v>
+      </c>
+      <c r="E696" t="s">
+        <v>398</v>
+      </c>
+      <c r="F696" s="16" t="str">
+        <f>VLOOKUP(E696,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H696" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L696">
+        <v>2318769583</v>
+      </c>
+      <c r="M696" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2318769583</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>950</v>
+      </c>
+      <c r="B697" t="s">
+        <v>947</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D697" t="s">
+        <v>15</v>
+      </c>
+      <c r="E697" t="s">
+        <v>398</v>
+      </c>
+      <c r="F697" s="16" t="str">
+        <f>VLOOKUP(E697,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G697" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H697" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L697">
+        <v>103644278</v>
+      </c>
+      <c r="M697" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>951</v>
+      </c>
+      <c r="B698" t="s">
+        <v>947</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D698" t="s">
+        <v>952</v>
+      </c>
+      <c r="E698" t="s">
+        <v>395</v>
+      </c>
+      <c r="F698" s="16" t="str">
+        <f>VLOOKUP(E698,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G698" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H698" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L698">
+        <v>2323924889</v>
+      </c>
+      <c r="M698" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2323924889</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>144</v>
+      </c>
+      <c r="B699" t="s">
+        <v>741</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D699" t="s">
+        <v>188</v>
+      </c>
+      <c r="E699" t="s">
+        <v>410</v>
+      </c>
+      <c r="F699" s="16" t="str">
+        <f>VLOOKUP(E699,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G699" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H699" s="5">
+        <v>44202</v>
+      </c>
+      <c r="I699" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L699">
+        <v>2350314395</v>
+      </c>
+      <c r="M699" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2350314395</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>953</v>
+      </c>
+      <c r="B700" t="s">
+        <v>802</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D700" t="s">
+        <v>224</v>
+      </c>
+      <c r="E700" t="s">
+        <v>398</v>
+      </c>
+      <c r="F700" s="16" t="str">
+        <f>VLOOKUP(E700,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H700" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L700">
+        <v>2347362934</v>
+      </c>
+      <c r="M700" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347362934</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>954</v>
+      </c>
+      <c r="B701" t="s">
+        <v>913</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D701" t="s">
+        <v>955</v>
+      </c>
+      <c r="E701" t="s">
+        <v>419</v>
+      </c>
+      <c r="F701" s="16" t="str">
+        <f>VLOOKUP(E701,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G701" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H701" s="5">
+        <v>44202</v>
+      </c>
+      <c r="L701">
+        <v>2344691472</v>
+      </c>
+      <c r="M701" t="str">
+        <f t="shared" si="31"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2344691472</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>956</v>
+      </c>
+      <c r="B702" t="s">
+        <v>957</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D702" t="s">
+        <v>240</v>
+      </c>
+      <c r="E702" t="s">
+        <v>400</v>
+      </c>
+      <c r="F702" s="16" t="str">
+        <f>VLOOKUP(E702,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G702" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H702" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L702">
+        <v>2353019990</v>
+      </c>
+      <c r="M702" t="str">
+        <f t="shared" ref="M702:M710" si="32">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L702</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2353019990</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>958</v>
+      </c>
+      <c r="B703" t="s">
+        <v>913</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D703" t="s">
+        <v>379</v>
+      </c>
+      <c r="E703" t="s">
+        <v>415</v>
+      </c>
+      <c r="F703" s="16" t="str">
+        <f>VLOOKUP(E703,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G703" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H703" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L703">
+        <v>2356062540</v>
+      </c>
+      <c r="M703" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2356062540</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>330</v>
+      </c>
+      <c r="B704" t="s">
+        <v>135</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D704" t="s">
+        <v>695</v>
+      </c>
+      <c r="E704" t="s">
+        <v>398</v>
+      </c>
+      <c r="F704" s="16" t="str">
+        <f>VLOOKUP(E704,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G704" s="5">
+        <v>44203</v>
+      </c>
+      <c r="H704" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L704">
+        <v>2359405945</v>
+      </c>
+      <c r="M704" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2359405945</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>959</v>
+      </c>
+      <c r="B705" t="s">
+        <v>818</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D705" t="s">
+        <v>511</v>
+      </c>
+      <c r="E705" t="s">
+        <v>401</v>
+      </c>
+      <c r="F705" s="16" t="str">
+        <f>VLOOKUP(E705,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G705" s="5">
+        <v>44203</v>
+      </c>
+      <c r="H705" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L705">
+        <v>2352244134</v>
+      </c>
+      <c r="M705" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2352244134</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>191</v>
+      </c>
+      <c r="B706" t="s">
+        <v>960</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D706" t="s">
+        <v>524</v>
+      </c>
+      <c r="E706" t="s">
+        <v>393</v>
+      </c>
+      <c r="F706" s="16" t="str">
+        <f>VLOOKUP(E706,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G706" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H706" s="5">
+        <v>44204</v>
+      </c>
+      <c r="I706" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L706">
+        <v>2372903004</v>
+      </c>
+      <c r="M706" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372903004</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>361</v>
+      </c>
+      <c r="B707" t="s">
+        <v>362</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D707" t="s">
+        <v>961</v>
+      </c>
+      <c r="E707" t="s">
+        <v>401</v>
+      </c>
+      <c r="F707" s="16" t="str">
+        <f>VLOOKUP(E707,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G707" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H707" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L707">
+        <v>2370822466</v>
+      </c>
+      <c r="M707" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2370822466</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>330</v>
+      </c>
+      <c r="B708" t="s">
+        <v>962</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D708" t="s">
+        <v>216</v>
+      </c>
+      <c r="E708" t="s">
+        <v>398</v>
+      </c>
+      <c r="F708" s="16" t="str">
+        <f>VLOOKUP(E708,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G708" s="5">
+        <v>44203</v>
+      </c>
+      <c r="H708" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L708">
+        <v>2360704412</v>
+      </c>
+      <c r="M708" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360704412</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>963</v>
+      </c>
+      <c r="B709" t="s">
+        <v>443</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D709" t="s">
+        <v>115</v>
+      </c>
+      <c r="E709" t="s">
+        <v>405</v>
+      </c>
+      <c r="F709" s="16" t="str">
+        <f>VLOOKUP(E709,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G709" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H709" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L709">
+        <v>2372706451</v>
+      </c>
+      <c r="M709" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372706451</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>144</v>
+      </c>
+      <c r="B710" t="s">
+        <v>964</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D710" t="s">
+        <v>368</v>
+      </c>
+      <c r="E710" t="s">
+        <v>398</v>
+      </c>
+      <c r="F710" s="16" t="str">
+        <f>VLOOKUP(E710,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G710" s="5">
+        <v>44203</v>
+      </c>
+      <c r="H710" s="5">
+        <v>44204</v>
+      </c>
+      <c r="L710">
+        <v>2360706175</v>
+      </c>
+      <c r="M710" t="str">
+        <f t="shared" si="32"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706175</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>965</v>
+      </c>
+      <c r="B711" t="s">
+        <v>867</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D711" t="s">
+        <v>39</v>
+      </c>
+      <c r="E711" t="s">
+        <v>398</v>
+      </c>
+      <c r="F711" s="16" t="str">
+        <f>VLOOKUP(E711,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G711" s="5">
+        <v>44201</v>
+      </c>
+      <c r="H711" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L711">
+        <v>2321057334</v>
+      </c>
+      <c r="M711" t="str">
+        <f t="shared" ref="M711:M718" si="33">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L711</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2321057334</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>966</v>
+      </c>
+      <c r="B712" t="s">
+        <v>967</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D712" t="s">
+        <v>909</v>
+      </c>
+      <c r="E712" t="s">
+        <v>437</v>
+      </c>
+      <c r="F712" s="16" t="str">
+        <f>VLOOKUP(E712,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Ohio</v>
+      </c>
+      <c r="G712" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H712" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L712">
+        <v>2374599942</v>
+      </c>
+      <c r="M712" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374599942</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>968</v>
+      </c>
+      <c r="B713" t="s">
+        <v>969</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D713" t="s">
+        <v>676</v>
+      </c>
+      <c r="F713" s="16" t="e">
+        <f>VLOOKUP(E713,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G713" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H713" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L713">
+        <v>2374558509</v>
+      </c>
+      <c r="M713" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374558509</v>
+      </c>
+    </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>230</v>
+      </c>
+      <c r="B714" t="s">
+        <v>970</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D714" t="s">
+        <v>971</v>
+      </c>
+      <c r="E714" t="s">
+        <v>577</v>
+      </c>
+      <c r="F714" s="16" t="str">
+        <f>VLOOKUP(E714,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G714" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H714" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L714">
+        <v>2373943688</v>
+      </c>
+      <c r="M714" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373943688</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>972</v>
+      </c>
+      <c r="B715" t="s">
+        <v>335</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D715" t="s">
+        <v>228</v>
+      </c>
+      <c r="E715" t="s">
+        <v>397</v>
+      </c>
+      <c r="F715" s="16" t="str">
+        <f>VLOOKUP(E715,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G715" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H715" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L715">
+        <v>2353739646</v>
+      </c>
+      <c r="M715" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2353739646</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>10</v>
+      </c>
+      <c r="B716" t="s">
+        <v>528</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D716" t="s">
+        <v>529</v>
+      </c>
+      <c r="E716" t="s">
+        <v>400</v>
+      </c>
+      <c r="F716" s="16" t="str">
+        <f>VLOOKUP(E716,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G716" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H716" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L716">
+        <v>2374277934</v>
+      </c>
+      <c r="M716" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277934</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>519</v>
+      </c>
+      <c r="B717" t="s">
+        <v>528</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D717" t="s">
+        <v>529</v>
+      </c>
+      <c r="E717" t="s">
+        <v>400</v>
+      </c>
+      <c r="F717" s="16" t="str">
+        <f>VLOOKUP(E717,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G717" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H717" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L717">
+        <v>2374277935</v>
+      </c>
+      <c r="M717" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277935</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>110</v>
+      </c>
+      <c r="B718" t="s">
+        <v>913</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D718" t="s">
+        <v>955</v>
+      </c>
+      <c r="E718" t="s">
+        <v>419</v>
+      </c>
+      <c r="F718" s="16" t="str">
+        <f>VLOOKUP(E718,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G718" s="5">
+        <v>44201</v>
+      </c>
+      <c r="H718" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L718">
+        <v>2368157280</v>
+      </c>
+      <c r="M718" t="str">
+        <f t="shared" si="33"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368157280</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>144</v>
+      </c>
+      <c r="B719" t="s">
+        <v>172</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D719" t="s">
+        <v>511</v>
+      </c>
+      <c r="E719" t="s">
+        <v>401</v>
+      </c>
+      <c r="F719" s="16" t="str">
+        <f>VLOOKUP(E719,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G719" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H719" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L719">
+        <v>2355644640</v>
+      </c>
+      <c r="M719" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L719</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355644640</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>110</v>
+      </c>
+      <c r="B720" t="s">
+        <v>818</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D720" t="s">
+        <v>511</v>
+      </c>
+      <c r="E720" t="s">
+        <v>401</v>
+      </c>
+      <c r="F720" s="16" t="str">
+        <f>VLOOKUP(E720,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G720" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H720" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L720">
+        <v>2355653268</v>
+      </c>
+      <c r="M720" t="str">
+        <f t="shared" ref="M720:M723" si="34">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L720</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355653268</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>973</v>
+      </c>
+      <c r="B721" t="s">
+        <v>974</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D721" t="s">
+        <v>368</v>
+      </c>
+      <c r="E721" t="s">
+        <v>398</v>
+      </c>
+      <c r="F721" s="16" t="str">
+        <f>VLOOKUP(E721,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G721" s="5">
+        <v>44201</v>
+      </c>
+      <c r="H721" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L721">
+        <v>2352995933</v>
+      </c>
+      <c r="M721" t="str">
+        <f t="shared" si="34"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2352995933</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>10</v>
+      </c>
+      <c r="B722" t="s">
+        <v>843</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D722" t="s">
+        <v>511</v>
+      </c>
+      <c r="E722" t="s">
+        <v>401</v>
+      </c>
+      <c r="F722" s="16" t="str">
+        <f>VLOOKUP(E722,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G722" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H722" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L722">
+        <v>2373845128</v>
+      </c>
+      <c r="M722" t="str">
+        <f t="shared" si="34"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373845128</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>144</v>
+      </c>
+      <c r="B723" t="s">
+        <v>309</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D723" t="s">
+        <v>975</v>
+      </c>
+      <c r="E723" t="s">
+        <v>396</v>
+      </c>
+      <c r="F723" s="16" t="str">
+        <f>VLOOKUP(E723,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G723" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H723" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L723">
+        <v>2339183049</v>
+      </c>
+      <c r="M723" t="str">
+        <f t="shared" si="34"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2339183049</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>144</v>
+      </c>
+      <c r="B724" t="s">
+        <v>976</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D724" t="s">
+        <v>368</v>
+      </c>
+      <c r="E724" t="s">
+        <v>398</v>
+      </c>
+      <c r="F724" s="16" t="str">
+        <f>VLOOKUP(E724,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G724" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H724" s="5">
+        <v>44205</v>
+      </c>
+      <c r="L724">
+        <v>2338913562</v>
+      </c>
+      <c r="M724" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L724</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2338913562</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>519</v>
+      </c>
+      <c r="B725" t="s">
+        <v>977</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D725" t="s">
+        <v>978</v>
+      </c>
+      <c r="E725" t="s">
+        <v>398</v>
+      </c>
+      <c r="F725" s="16" t="str">
+        <f>VLOOKUP(E725,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G725" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H725" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L725">
+        <v>2361560919</v>
+      </c>
+      <c r="M725" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L725</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2361560919</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>110</v>
+      </c>
+      <c r="B726" t="s">
+        <v>979</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D726" t="s">
+        <v>240</v>
+      </c>
+      <c r="E726" t="s">
+        <v>400</v>
+      </c>
+      <c r="F726" s="16" t="str">
+        <f>VLOOKUP(E726,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G726" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H726" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L726">
+        <v>2354636505</v>
+      </c>
+      <c r="M726" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L726</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>110</v>
+      </c>
+      <c r="B727" t="s">
+        <v>979</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D727" t="s">
+        <v>980</v>
+      </c>
+      <c r="E727" t="s">
+        <v>400</v>
+      </c>
+      <c r="F727" s="16" t="str">
+        <f>VLOOKUP(E727,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G727" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H727" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L727">
+        <v>2354636505</v>
+      </c>
+      <c r="M727" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L727</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
+      </c>
+    </row>
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>981</v>
+      </c>
+      <c r="B728" t="s">
+        <v>982</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D728" t="s">
+        <v>511</v>
+      </c>
+      <c r="E728" t="s">
+        <v>401</v>
+      </c>
+      <c r="F728" s="16" t="str">
+        <f>VLOOKUP(E728,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G728" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H728" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L728">
+        <v>2350947337</v>
+      </c>
+      <c r="M728" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L728</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2350947337</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>10</v>
+      </c>
+      <c r="B729" t="s">
+        <v>983</v>
+      </c>
+      <c r="C729">
+        <v>10001</v>
+      </c>
+      <c r="D729" t="s">
+        <v>511</v>
+      </c>
+      <c r="E729" t="s">
+        <v>401</v>
+      </c>
+      <c r="F729" s="16" t="str">
+        <f>VLOOKUP(E729,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G729" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H729" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L729">
+        <v>2368589046</v>
+      </c>
+      <c r="M729" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L729</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368589046</v>
+      </c>
+    </row>
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>10</v>
+      </c>
+      <c r="B730" t="s">
+        <v>984</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D730" t="s">
+        <v>511</v>
+      </c>
+      <c r="E730" t="s">
+        <v>401</v>
+      </c>
+      <c r="F730" s="16" t="str">
+        <f>VLOOKUP(E730,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G730" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H730" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L730">
+        <v>2372186951</v>
+      </c>
+      <c r="M730" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L730</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372186951</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>884</v>
+      </c>
+      <c r="B731" t="s">
+        <v>985</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D731" t="s">
+        <v>511</v>
+      </c>
+      <c r="E731" t="s">
+        <v>401</v>
+      </c>
+      <c r="F731" s="16" t="str">
+        <f>VLOOKUP(E731,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G731" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H731" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L731">
+        <v>2368620019</v>
+      </c>
+      <c r="M731" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L731</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368620019</v>
+      </c>
+    </row>
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>144</v>
+      </c>
+      <c r="B732" t="s">
+        <v>986</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D732" t="s">
+        <v>511</v>
+      </c>
+      <c r="E732" t="s">
+        <v>401</v>
+      </c>
+      <c r="F732" s="16" t="str">
+        <f>VLOOKUP(E732,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G732" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H732" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L732">
+        <v>2354650873</v>
+      </c>
+      <c r="M732" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L732</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354650873</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>965</v>
+      </c>
+      <c r="B733" t="s">
+        <v>335</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D733" t="s">
+        <v>62</v>
+      </c>
+      <c r="E733" t="s">
+        <v>396</v>
+      </c>
+      <c r="F733" s="16" t="str">
+        <f>VLOOKUP(E733,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G733" s="5">
+        <v>44201</v>
+      </c>
+      <c r="H733" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L733">
+        <v>2354143853</v>
+      </c>
+      <c r="M733" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L733</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2354143853</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>14</v>
+      </c>
+      <c r="B734" t="s">
+        <v>987</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D734" t="s">
+        <v>80</v>
+      </c>
+      <c r="E734" t="s">
+        <v>419</v>
+      </c>
+      <c r="F734" s="16" t="str">
+        <f>VLOOKUP(E734,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G734" s="5">
+        <v>44203</v>
+      </c>
+      <c r="H734" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L734">
+        <v>2357764481</v>
+      </c>
+      <c r="M734" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L734</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764481</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>293</v>
+      </c>
+      <c r="B735" t="s">
+        <v>988</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D735" t="s">
+        <v>368</v>
+      </c>
+      <c r="E735" t="s">
+        <v>398</v>
+      </c>
+      <c r="F735" s="16" t="str">
+        <f>VLOOKUP(E735,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G735" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H735" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L735">
+        <v>2358678670</v>
+      </c>
+      <c r="M735" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L735</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2358678670</v>
+      </c>
+    </row>
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>884</v>
+      </c>
+      <c r="B736" t="s">
+        <v>989</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D736" t="s">
+        <v>990</v>
+      </c>
+      <c r="E736" t="s">
+        <v>398</v>
+      </c>
+      <c r="F736" s="16" t="str">
+        <f>VLOOKUP(E736,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G736" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H736" s="5">
+        <v>44206</v>
+      </c>
+      <c r="L736">
+        <v>2355055800</v>
+      </c>
+      <c r="M736" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L736</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355055800</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBA833-EF49-40D8-869E-D14444E229F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2607EC6-4630-4C6D-90E0-376BB48CD6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="145530" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="150390" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="1014">
   <si>
     <t>Title</t>
   </si>
@@ -3002,6 +3002,75 @@
   </si>
   <si>
     <t>Tustin</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Software Data Engineer</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Pangaea</t>
+  </si>
+  <si>
+    <t>Data Analyst - Corporate Housing Technology</t>
+  </si>
+  <si>
+    <t>Elliot Scott HR</t>
+  </si>
+  <si>
+    <t>Tucker Parker Smith Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analyst I </t>
+  </si>
+  <si>
+    <t>Python Developer/ML/Data Engineer</t>
+  </si>
+  <si>
+    <t>X-Team</t>
+  </si>
+  <si>
+    <t>Data Analyst (risk)</t>
+  </si>
+  <si>
+    <t>Product Data Analyst- Analyze the "Healthiverse"</t>
+  </si>
+  <si>
+    <t>DrFirst, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst II (IT)</t>
+  </si>
+  <si>
+    <t>Framingham</t>
+  </si>
+  <si>
+    <t>Data Analyst, Analytics (Contractor)</t>
+  </si>
+  <si>
+    <t>Data Analyst (Merchandising)</t>
+  </si>
+  <si>
+    <t>FIGS</t>
+  </si>
+  <si>
+    <t>Data Reporting Analyst</t>
+  </si>
+  <si>
+    <t>SNI Financial</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Grand Blanc</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
   </si>
 </sst>
 </file>
@@ -3779,8 +3848,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M736" totalsRowShown="0">
-  <autoFilter ref="A1:M736" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M760" totalsRowShown="0">
+  <autoFilter ref="A1:M760" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4102,12 +4171,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M736"/>
+  <dimension ref="A1:M760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A706" sqref="A706:M736"/>
+      <selection pane="bottomLeft" activeCell="D741" sqref="D741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28558,6 +28627,9 @@
       <c r="H694" s="5">
         <v>44202</v>
       </c>
+      <c r="I694" s="5">
+        <v>44210</v>
+      </c>
       <c r="L694">
         <v>2315550222</v>
       </c>
@@ -28592,6 +28664,9 @@
       <c r="H695" s="5">
         <v>44202</v>
       </c>
+      <c r="I695" s="5">
+        <v>44210</v>
+      </c>
       <c r="L695">
         <v>2340749860</v>
       </c>
@@ -28626,6 +28701,9 @@
       <c r="H696" s="5">
         <v>44202</v>
       </c>
+      <c r="I696" s="5">
+        <v>44210</v>
+      </c>
       <c r="L696">
         <v>2318769583</v>
       </c>
@@ -28660,6 +28738,9 @@
       <c r="H697" s="5">
         <v>44202</v>
       </c>
+      <c r="I697" s="5">
+        <v>44210</v>
+      </c>
       <c r="L697">
         <v>103644278</v>
       </c>
@@ -28694,6 +28775,9 @@
       <c r="H698" s="5">
         <v>44202</v>
       </c>
+      <c r="I698" s="5">
+        <v>44210</v>
+      </c>
       <c r="L698">
         <v>2323924889</v>
       </c>
@@ -29176,6 +29260,9 @@
       <c r="H712" s="5">
         <v>44205</v>
       </c>
+      <c r="I712" s="5">
+        <v>44208</v>
+      </c>
       <c r="L712">
         <v>2374599942</v>
       </c>
@@ -29241,6 +29328,9 @@
       <c r="H714" s="5">
         <v>44205</v>
       </c>
+      <c r="I714" s="5">
+        <v>44208</v>
+      </c>
       <c r="L714">
         <v>2373943688</v>
       </c>
@@ -29275,6 +29365,9 @@
       <c r="H715" s="5">
         <v>44205</v>
       </c>
+      <c r="I715" s="5">
+        <v>44206</v>
+      </c>
       <c r="L715">
         <v>2353739646</v>
       </c>
@@ -29585,7 +29678,7 @@
         <v>2338913562</v>
       </c>
       <c r="M724" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L724</f>
+        <f t="shared" ref="M724:M736" si="35">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L724</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338913562</v>
       </c>
     </row>
@@ -29619,7 +29712,7 @@
         <v>2361560919</v>
       </c>
       <c r="M725" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L725</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361560919</v>
       </c>
     </row>
@@ -29653,7 +29746,7 @@
         <v>2354636505</v>
       </c>
       <c r="M726" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L726</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
@@ -29687,7 +29780,7 @@
         <v>2354636505</v>
       </c>
       <c r="M727" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L727</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
@@ -29721,7 +29814,7 @@
         <v>2350947337</v>
       </c>
       <c r="M728" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L728</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350947337</v>
       </c>
     </row>
@@ -29755,7 +29848,7 @@
         <v>2368589046</v>
       </c>
       <c r="M729" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L729</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368589046</v>
       </c>
     </row>
@@ -29789,7 +29882,7 @@
         <v>2372186951</v>
       </c>
       <c r="M730" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L730</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372186951</v>
       </c>
     </row>
@@ -29823,7 +29916,7 @@
         <v>2368620019</v>
       </c>
       <c r="M731" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L731</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368620019</v>
       </c>
     </row>
@@ -29853,11 +29946,14 @@
       <c r="H732" s="5">
         <v>44206</v>
       </c>
+      <c r="J732" s="5">
+        <v>44207</v>
+      </c>
       <c r="L732">
         <v>2354650873</v>
       </c>
       <c r="M732" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L732</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354650873</v>
       </c>
     </row>
@@ -29891,7 +29987,7 @@
         <v>2354143853</v>
       </c>
       <c r="M733" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L733</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354143853</v>
       </c>
     </row>
@@ -29925,7 +30021,7 @@
         <v>2357764481</v>
       </c>
       <c r="M734" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L734</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764481</v>
       </c>
     </row>
@@ -29959,7 +30055,7 @@
         <v>2358678670</v>
       </c>
       <c r="M735" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L735</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2358678670</v>
       </c>
     </row>
@@ -29993,8 +30089,823 @@
         <v>2355055800</v>
       </c>
       <c r="M736" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L736</f>
+        <f t="shared" si="35"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355055800</v>
+      </c>
+    </row>
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>10</v>
+      </c>
+      <c r="B737" t="s">
+        <v>991</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D737" t="s">
+        <v>228</v>
+      </c>
+      <c r="E737" t="s">
+        <v>397</v>
+      </c>
+      <c r="F737" s="16" t="str">
+        <f>VLOOKUP(E737,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G737" s="5">
+        <v>44207</v>
+      </c>
+      <c r="H737" s="5">
+        <v>44207</v>
+      </c>
+      <c r="J737" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L737">
+        <v>2356993969</v>
+      </c>
+      <c r="M737" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L737</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2356993969</v>
+      </c>
+    </row>
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>361</v>
+      </c>
+      <c r="B738" t="s">
+        <v>362</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D738" t="s">
+        <v>961</v>
+      </c>
+      <c r="E738" t="s">
+        <v>401</v>
+      </c>
+      <c r="F738" s="16" t="str">
+        <f>VLOOKUP(E738,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G738" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H738" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L738">
+        <v>2372694423</v>
+      </c>
+      <c r="M738" t="str">
+        <f t="shared" ref="M738:M745" si="36">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L738</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372694423</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>992</v>
+      </c>
+      <c r="B739" t="s">
+        <v>913</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D739" t="s">
+        <v>993</v>
+      </c>
+      <c r="E739" t="s">
+        <v>400</v>
+      </c>
+      <c r="F739" s="16" t="str">
+        <f>VLOOKUP(E739,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G739" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H739" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L739">
+        <v>2359239610</v>
+      </c>
+      <c r="M739" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2359239610</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>144</v>
+      </c>
+      <c r="B740" t="s">
+        <v>994</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D740" t="s">
+        <v>368</v>
+      </c>
+      <c r="E740" t="s">
+        <v>398</v>
+      </c>
+      <c r="F740" s="16" t="str">
+        <f>VLOOKUP(E740,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G740" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H740" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L740">
+        <v>2364729103</v>
+      </c>
+      <c r="M740" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2364729103</v>
+      </c>
+    </row>
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>995</v>
+      </c>
+      <c r="B741" t="s">
+        <v>996</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E741" t="s">
+        <v>577</v>
+      </c>
+      <c r="F741" s="16" t="str">
+        <f>VLOOKUP(E741,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G741" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H741" s="5">
+        <v>44207</v>
+      </c>
+      <c r="J741" s="5">
+        <v>44208</v>
+      </c>
+      <c r="L741">
+        <v>2360706212</v>
+      </c>
+      <c r="M741" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706212</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>10</v>
+      </c>
+      <c r="B742" t="s">
+        <v>853</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D742" t="s">
+        <v>854</v>
+      </c>
+      <c r="E742" t="s">
+        <v>398</v>
+      </c>
+      <c r="F742" s="16" t="str">
+        <f>VLOOKUP(E742,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G742" s="5">
+        <v>44202</v>
+      </c>
+      <c r="H742" s="5">
+        <v>44207</v>
+      </c>
+      <c r="J742" s="5">
+        <v>44208</v>
+      </c>
+      <c r="L742">
+        <v>2355287426</v>
+      </c>
+      <c r="M742" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2355287426</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>144</v>
+      </c>
+      <c r="B743" t="s">
+        <v>997</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D743" t="s">
+        <v>214</v>
+      </c>
+      <c r="E743" t="s">
+        <v>398</v>
+      </c>
+      <c r="F743" s="16" t="str">
+        <f>VLOOKUP(E743,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G743" s="5">
+        <v>44206</v>
+      </c>
+      <c r="H743" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L743">
+        <v>2362798414</v>
+      </c>
+      <c r="M743" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2362798414</v>
+      </c>
+    </row>
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>998</v>
+      </c>
+      <c r="B744" t="s">
+        <v>913</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D744" t="s">
+        <v>214</v>
+      </c>
+      <c r="E744" t="s">
+        <v>398</v>
+      </c>
+      <c r="F744" s="16" t="str">
+        <f>VLOOKUP(E744,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G744" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H744" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L744">
+        <v>2372101133</v>
+      </c>
+      <c r="M744" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372101133</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>144</v>
+      </c>
+      <c r="B745" t="s">
+        <v>899</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D745" t="s">
+        <v>537</v>
+      </c>
+      <c r="E745" t="s">
+        <v>181</v>
+      </c>
+      <c r="F745" s="16" t="str">
+        <f>VLOOKUP(E745,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G745" s="5">
+        <v>44204</v>
+      </c>
+      <c r="H745" s="5">
+        <v>44207</v>
+      </c>
+      <c r="L745">
+        <v>2372193668</v>
+      </c>
+      <c r="M745" t="str">
+        <f t="shared" si="36"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372193668</v>
+      </c>
+    </row>
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>999</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D746" t="s">
+        <v>676</v>
+      </c>
+      <c r="G746" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H746" s="5">
+        <v>44207</v>
+      </c>
+      <c r="J746" s="5">
+        <v>44208</v>
+      </c>
+      <c r="M746" t="str">
+        <f t="shared" ref="M746:M752" si="37">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L746</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>954</v>
+      </c>
+      <c r="B747" t="s">
+        <v>913</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D747" t="s">
+        <v>955</v>
+      </c>
+      <c r="E747" t="s">
+        <v>419</v>
+      </c>
+      <c r="F747" s="16" t="str">
+        <f>VLOOKUP(E747,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G747" s="5">
+        <v>44207</v>
+      </c>
+      <c r="H747" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L747">
+        <v>2376748343</v>
+      </c>
+      <c r="M747" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2376748343</v>
+      </c>
+    </row>
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>144</v>
+      </c>
+      <c r="B748" t="s">
+        <v>299</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D748" t="s">
+        <v>511</v>
+      </c>
+      <c r="E748" t="s">
+        <v>401</v>
+      </c>
+      <c r="F748" s="16" t="str">
+        <f>VLOOKUP(E748,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G748" s="5">
+        <v>44208</v>
+      </c>
+      <c r="H748" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L748">
+        <v>2359609615</v>
+      </c>
+      <c r="M748" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2359609615</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>110</v>
+      </c>
+      <c r="B749" t="s">
+        <v>180</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D749" t="s">
+        <v>228</v>
+      </c>
+      <c r="E749" t="s">
+        <v>397</v>
+      </c>
+      <c r="F749" s="16" t="str">
+        <f>VLOOKUP(E749,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G749" s="5">
+        <v>44207</v>
+      </c>
+      <c r="H749" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L749">
+        <v>2350296378</v>
+      </c>
+      <c r="M749" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2350296378</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B750" t="s">
+        <v>375</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D750" t="s">
+        <v>214</v>
+      </c>
+      <c r="E750" t="s">
+        <v>398</v>
+      </c>
+      <c r="F750" s="16" t="str">
+        <f>VLOOKUP(E750,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G750" s="5">
+        <v>44208</v>
+      </c>
+      <c r="H750" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L750">
+        <v>2368083278</v>
+      </c>
+      <c r="M750" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368083278</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>144</v>
+      </c>
+      <c r="B751" t="s">
+        <v>135</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D751" t="s">
+        <v>128</v>
+      </c>
+      <c r="E751" t="s">
+        <v>398</v>
+      </c>
+      <c r="F751" s="16" t="str">
+        <f>VLOOKUP(E751,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G751" s="5">
+        <v>44209</v>
+      </c>
+      <c r="H751" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L751">
+        <v>2366585560</v>
+      </c>
+      <c r="M751" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2366585560</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D752" t="s">
+        <v>240</v>
+      </c>
+      <c r="E752" t="s">
+        <v>400</v>
+      </c>
+      <c r="F752" s="16" t="str">
+        <f>VLOOKUP(E752,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G752" s="5">
+        <v>44208</v>
+      </c>
+      <c r="H752" s="5">
+        <v>44209</v>
+      </c>
+      <c r="L752">
+        <v>2366505315</v>
+      </c>
+      <c r="M752" t="str">
+        <f t="shared" si="37"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2366505315</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>144</v>
+      </c>
+      <c r="B753" t="s">
+        <v>687</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D753" t="s">
+        <v>511</v>
+      </c>
+      <c r="E753" t="s">
+        <v>401</v>
+      </c>
+      <c r="F753" s="16" t="str">
+        <f>VLOOKUP(E753,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G753" s="5">
+        <v>44209</v>
+      </c>
+      <c r="H753" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L753">
+        <v>2377936621</v>
+      </c>
+      <c r="M753" t="str">
+        <f t="shared" ref="M753:M760" si="38">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L753</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2377936621</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B754" t="s">
+        <v>913</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E754" t="s">
+        <v>397</v>
+      </c>
+      <c r="F754" s="16" t="str">
+        <f>VLOOKUP(E754,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G754" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H754" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L754">
+        <v>2373270367</v>
+      </c>
+      <c r="M754" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373270367</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B755" t="s">
+        <v>750</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D755" t="s">
+        <v>95</v>
+      </c>
+      <c r="E755" t="s">
+        <v>398</v>
+      </c>
+      <c r="F755" s="16" t="str">
+        <f>VLOOKUP(E755,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G755" s="5">
+        <v>44209</v>
+      </c>
+      <c r="H755" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L755">
+        <v>2369175427</v>
+      </c>
+      <c r="M755" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369175427</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D756" t="s">
+        <v>222</v>
+      </c>
+      <c r="E756" t="s">
+        <v>398</v>
+      </c>
+      <c r="F756" s="16" t="str">
+        <f>VLOOKUP(E756,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G756" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H756" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L756">
+        <v>2369186406</v>
+      </c>
+      <c r="M756" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369186406</v>
+      </c>
+    </row>
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>318</v>
+      </c>
+      <c r="B757" t="s">
+        <v>453</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D757" t="s">
+        <v>457</v>
+      </c>
+      <c r="E757" t="s">
+        <v>395</v>
+      </c>
+      <c r="F757" s="16" t="str">
+        <f>VLOOKUP(E757,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G757" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H757" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L757">
+        <v>2368043859</v>
+      </c>
+      <c r="M757" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368043859</v>
+      </c>
+    </row>
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>98</v>
+      </c>
+      <c r="B758" t="s">
+        <v>25</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D758" t="s">
+        <v>115</v>
+      </c>
+      <c r="E758" t="s">
+        <v>405</v>
+      </c>
+      <c r="F758" s="16" t="str">
+        <f>VLOOKUP(E758,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G758" s="5">
+        <v>44209</v>
+      </c>
+      <c r="H758" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L758">
+        <v>2359625710</v>
+      </c>
+      <c r="M758" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2359625710</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E759" t="s">
+        <v>577</v>
+      </c>
+      <c r="F759" s="16" t="str">
+        <f>VLOOKUP(E759,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G759" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H759" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L759">
+        <v>2380952280</v>
+      </c>
+      <c r="M759" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2380952280</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>144</v>
+      </c>
+      <c r="B760" t="s">
+        <v>771</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E760" t="s">
+        <v>416</v>
+      </c>
+      <c r="F760" s="16" t="str">
+        <f>VLOOKUP(E760,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G760" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H760" s="5">
+        <v>44210</v>
+      </c>
+      <c r="L760">
+        <v>2369603611</v>
+      </c>
+      <c r="M760" t="str">
+        <f t="shared" si="38"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369603611</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2607EC6-4630-4C6D-90E0-376BB48CD6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D69A0C-9990-4557-B9D5-59E1D6FB36CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150390" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="155250" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="1038">
   <si>
     <t>Title</t>
   </si>
@@ -3071,6 +3071,78 @@
   </si>
   <si>
     <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>Scientist, Decision Sciences (Data Visualization Team)</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Open Systems Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst II - Growth Marketing</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>Spectrum Reach</t>
+  </si>
+  <si>
+    <t>VA Boston Healthcare System</t>
+  </si>
+  <si>
+    <t>Reports Developer / BI Analyst</t>
+  </si>
+  <si>
+    <t>ML Engineer – Digital Analytics</t>
+  </si>
+  <si>
+    <t>Data Anayst at Circus LA</t>
+  </si>
+  <si>
+    <t>MediaMonks</t>
+  </si>
+  <si>
+    <t>Data Scientist, Population Health</t>
+  </si>
+  <si>
+    <t>Verily Life Sciences</t>
+  </si>
+  <si>
+    <t>Marketing Data Scientist</t>
+  </si>
+  <si>
+    <t>310 Nutrition</t>
+  </si>
+  <si>
+    <t>El Segundo</t>
+  </si>
+  <si>
+    <t>Big Data Solutions Associate</t>
+  </si>
+  <si>
+    <t>E-Solutions</t>
+  </si>
+  <si>
+    <t>Mid-Level Data Engineer</t>
+  </si>
+  <si>
+    <t>CSI Tech</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Roth Staffing</t>
+  </si>
+  <si>
+    <t>Remote Data Engineer</t>
+  </si>
+  <si>
+    <t>Remote - Python Engineer - Remote or San Francisco</t>
   </si>
 </sst>
 </file>
@@ -3848,8 +3920,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M760" totalsRowShown="0">
-  <autoFilter ref="A1:M760" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M791" totalsRowShown="0">
+  <autoFilter ref="A1:M791" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4171,12 +4243,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M760"/>
+  <dimension ref="A1:M791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D741" sqref="D741"/>
+      <selection pane="bottomLeft" activeCell="A794" sqref="A794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30424,6 +30496,9 @@
       <c r="H746" s="5">
         <v>44207</v>
       </c>
+      <c r="I746" s="5">
+        <v>44210</v>
+      </c>
       <c r="J746" s="5">
         <v>44208</v>
       </c>
@@ -30526,6 +30601,9 @@
       <c r="H749" s="5">
         <v>44209</v>
       </c>
+      <c r="J749" s="5">
+        <v>44210</v>
+      </c>
       <c r="L749">
         <v>2350296378</v>
       </c>
@@ -30696,6 +30774,9 @@
       <c r="H754" s="5">
         <v>44210</v>
       </c>
+      <c r="J754" s="5">
+        <v>44211</v>
+      </c>
       <c r="L754">
         <v>2373270367</v>
       </c>
@@ -30906,6 +30987,1063 @@
       <c r="M760" t="str">
         <f t="shared" si="38"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369603611</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>189</v>
+      </c>
+      <c r="B761" t="s">
+        <v>824</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D761" t="s">
+        <v>11</v>
+      </c>
+      <c r="E761" t="s">
+        <v>400</v>
+      </c>
+      <c r="F761" s="16" t="str">
+        <f>VLOOKUP(E761,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G761" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H761" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L761">
+        <v>2381146981</v>
+      </c>
+      <c r="M761" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L761</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381146981</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>753</v>
+      </c>
+      <c r="B762" t="s">
+        <v>687</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D762" t="s">
+        <v>489</v>
+      </c>
+      <c r="E762" t="s">
+        <v>396</v>
+      </c>
+      <c r="F762" s="16" t="str">
+        <f>VLOOKUP(E762,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G762" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H762" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L762">
+        <v>2373008849</v>
+      </c>
+      <c r="M762" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L762</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373008849</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D763" t="s">
+        <v>81</v>
+      </c>
+      <c r="E763" t="s">
+        <v>395</v>
+      </c>
+      <c r="F763" s="16" t="str">
+        <f>VLOOKUP(E763,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G763" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H763" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L763">
+        <v>2381522305</v>
+      </c>
+      <c r="M763" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L763</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381522305</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>293</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D764" t="s">
+        <v>115</v>
+      </c>
+      <c r="E764" t="s">
+        <v>405</v>
+      </c>
+      <c r="F764" s="16" t="str">
+        <f>VLOOKUP(E764,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G764" s="7">
+        <v>44211</v>
+      </c>
+      <c r="H764" s="7">
+        <v>44211</v>
+      </c>
+      <c r="J764" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L764">
+        <v>2381656764</v>
+      </c>
+      <c r="M764" t="str">
+        <f t="shared" ref="M764:M766" si="39">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L764</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381656764</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B765" t="s">
+        <v>962</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D765" t="s">
+        <v>216</v>
+      </c>
+      <c r="E765" t="s">
+        <v>398</v>
+      </c>
+      <c r="F765" s="16" t="str">
+        <f>VLOOKUP(E765,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G765" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H765" s="7">
+        <v>44211</v>
+      </c>
+      <c r="L765">
+        <v>2357764237</v>
+      </c>
+      <c r="M765" t="str">
+        <f t="shared" si="39"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764237</v>
+      </c>
+    </row>
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>144</v>
+      </c>
+      <c r="B766" t="s">
+        <v>918</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D766" t="s">
+        <v>919</v>
+      </c>
+      <c r="E766" t="s">
+        <v>396</v>
+      </c>
+      <c r="F766" s="16" t="str">
+        <f>VLOOKUP(E766,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G766" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H766" s="7">
+        <v>44211</v>
+      </c>
+      <c r="L766">
+        <v>2379919794</v>
+      </c>
+      <c r="M766" t="str">
+        <f t="shared" si="39"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2379919794</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>10</v>
+      </c>
+      <c r="B767" t="s">
+        <v>818</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D767" t="s">
+        <v>115</v>
+      </c>
+      <c r="E767" t="s">
+        <v>405</v>
+      </c>
+      <c r="F767" s="6" t="str">
+        <f>VLOOKUP(E767,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G767" s="7">
+        <v>44210</v>
+      </c>
+      <c r="H767" s="7">
+        <v>44211</v>
+      </c>
+      <c r="L767">
+        <v>2360972941</v>
+      </c>
+      <c r="M767" s="8" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L767</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360972941</v>
+      </c>
+    </row>
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D768" t="s">
+        <v>524</v>
+      </c>
+      <c r="E768" t="s">
+        <v>393</v>
+      </c>
+      <c r="F768" s="16" t="str">
+        <f>VLOOKUP(E768,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G768" s="7">
+        <v>44211</v>
+      </c>
+      <c r="H768" s="7">
+        <v>44211</v>
+      </c>
+      <c r="L768">
+        <v>2381658883</v>
+      </c>
+      <c r="M768" t="str">
+        <f t="shared" ref="M768:M772" si="40">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L768</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381658883</v>
+      </c>
+    </row>
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>10</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D769" t="s">
+        <v>228</v>
+      </c>
+      <c r="E769" t="s">
+        <v>397</v>
+      </c>
+      <c r="F769" s="16" t="str">
+        <f>VLOOKUP(E769,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G769" s="5">
+        <v>44205</v>
+      </c>
+      <c r="H769" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L769">
+        <v>2361703757</v>
+      </c>
+      <c r="M769" t="str">
+        <f t="shared" si="40"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2361703757</v>
+      </c>
+    </row>
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B770" t="s">
+        <v>504</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D770" t="s">
+        <v>949</v>
+      </c>
+      <c r="E770" t="s">
+        <v>398</v>
+      </c>
+      <c r="F770" s="16" t="str">
+        <f>VLOOKUP(E770,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G770" s="5">
+        <v>44209</v>
+      </c>
+      <c r="H770" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L770">
+        <v>2368023936</v>
+      </c>
+      <c r="M770" t="str">
+        <f t="shared" si="40"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368023936</v>
+      </c>
+    </row>
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>10</v>
+      </c>
+      <c r="B771" t="s">
+        <v>535</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D771" t="s">
+        <v>214</v>
+      </c>
+      <c r="E771" t="s">
+        <v>398</v>
+      </c>
+      <c r="F771" s="16" t="str">
+        <f>VLOOKUP(E771,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G771" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H771" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L771">
+        <v>2381499273</v>
+      </c>
+      <c r="M771" t="str">
+        <f t="shared" si="40"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381499273</v>
+      </c>
+    </row>
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>822</v>
+      </c>
+      <c r="B772" t="s">
+        <v>535</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D772" t="s">
+        <v>214</v>
+      </c>
+      <c r="E772" t="s">
+        <v>398</v>
+      </c>
+      <c r="F772" s="16" t="str">
+        <f>VLOOKUP(E772,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G772" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H772" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L772">
+        <v>2381499282</v>
+      </c>
+      <c r="M772" t="str">
+        <f t="shared" si="40"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381499282</v>
+      </c>
+    </row>
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B773" t="s">
+        <v>535</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D773" t="s">
+        <v>214</v>
+      </c>
+      <c r="E773" t="s">
+        <v>398</v>
+      </c>
+      <c r="F773" s="16" t="str">
+        <f>VLOOKUP(E773,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G773" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H773" s="5">
+        <v>44211</v>
+      </c>
+      <c r="L773">
+        <v>2381500253</v>
+      </c>
+      <c r="M773" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L773</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381500253</v>
+      </c>
+    </row>
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>144</v>
+      </c>
+      <c r="B774" t="s">
+        <v>259</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D774" t="s">
+        <v>386</v>
+      </c>
+      <c r="E774" t="s">
+        <v>397</v>
+      </c>
+      <c r="F774" s="16" t="str">
+        <f>VLOOKUP(E774,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G774" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H774" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L774">
+        <v>2369676996</v>
+      </c>
+      <c r="M774" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L774</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369676996</v>
+      </c>
+    </row>
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>110</v>
+      </c>
+      <c r="B775" t="s">
+        <v>262</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D775" t="s">
+        <v>49</v>
+      </c>
+      <c r="E775" t="s">
+        <v>412</v>
+      </c>
+      <c r="F775" s="16" t="str">
+        <f>VLOOKUP(E775,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G775" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H775" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L775">
+        <v>2370666082</v>
+      </c>
+      <c r="M775" t="str">
+        <f t="shared" ref="M775:M777" si="41">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L775</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666082</v>
+      </c>
+    </row>
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D776" t="s">
+        <v>368</v>
+      </c>
+      <c r="E776" t="s">
+        <v>398</v>
+      </c>
+      <c r="F776" s="16" t="str">
+        <f>VLOOKUP(E776,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G776" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H776" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L776">
+        <v>2363819054</v>
+      </c>
+      <c r="M776" t="str">
+        <f t="shared" si="41"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2363819054</v>
+      </c>
+    </row>
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>10</v>
+      </c>
+      <c r="B777" t="s">
+        <v>259</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D777" t="s">
+        <v>368</v>
+      </c>
+      <c r="E777" t="s">
+        <v>398</v>
+      </c>
+      <c r="F777" s="16" t="str">
+        <f>VLOOKUP(E777,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G777" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H777" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L777">
+        <v>2370666188</v>
+      </c>
+      <c r="M777" t="str">
+        <f t="shared" si="41"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666188</v>
+      </c>
+    </row>
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D778" t="s">
+        <v>228</v>
+      </c>
+      <c r="E778" t="s">
+        <v>397</v>
+      </c>
+      <c r="F778" s="16" t="str">
+        <f>VLOOKUP(E778,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G778" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H778" s="5">
+        <v>44212</v>
+      </c>
+      <c r="L778">
+        <v>2370659321</v>
+      </c>
+      <c r="M778" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L778</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2370659321</v>
+      </c>
+    </row>
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>519</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D779" t="s">
+        <v>228</v>
+      </c>
+      <c r="E779" t="s">
+        <v>397</v>
+      </c>
+      <c r="F779" s="16" t="str">
+        <f>VLOOKUP(E779,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G779" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H779" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L779">
+        <v>2361706756</v>
+      </c>
+      <c r="M779" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L779</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2361706756</v>
+      </c>
+    </row>
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E780" t="s">
+        <v>398</v>
+      </c>
+      <c r="F780" s="16" t="str">
+        <f>VLOOKUP(E780,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G780" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H780" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L780">
+        <v>2369142503</v>
+      </c>
+      <c r="M780" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L780</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369142503</v>
+      </c>
+    </row>
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D781" t="s">
+        <v>323</v>
+      </c>
+      <c r="E781" t="s">
+        <v>402</v>
+      </c>
+      <c r="F781" s="16" t="str">
+        <f>VLOOKUP(E781,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G781" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H781" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L781">
+        <v>2381063707</v>
+      </c>
+      <c r="M781" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L781</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381063707</v>
+      </c>
+    </row>
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>144</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D782" t="s">
+        <v>5</v>
+      </c>
+      <c r="E782" t="s">
+        <v>399</v>
+      </c>
+      <c r="F782" s="16" t="str">
+        <f>VLOOKUP(E782,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G782" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H782" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L782">
+        <v>2381056249</v>
+      </c>
+      <c r="M782" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L782</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381056249</v>
+      </c>
+    </row>
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D783" t="s">
+        <v>222</v>
+      </c>
+      <c r="E783" t="s">
+        <v>398</v>
+      </c>
+      <c r="F783" s="16" t="str">
+        <f>VLOOKUP(E783,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G783" s="5">
+        <v>44213</v>
+      </c>
+      <c r="H783" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L783">
+        <v>2371675405</v>
+      </c>
+      <c r="M783" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L783</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2371675405</v>
+      </c>
+    </row>
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>189</v>
+      </c>
+      <c r="B784" t="s">
+        <v>687</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D784" t="s">
+        <v>524</v>
+      </c>
+      <c r="E784" t="s">
+        <v>393</v>
+      </c>
+      <c r="F784" s="16" t="str">
+        <f>VLOOKUP(E784,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G784" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H784" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L784">
+        <v>2385704888</v>
+      </c>
+      <c r="M784" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L784</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2385704888</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>884</v>
+      </c>
+      <c r="B785" t="s">
+        <v>687</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D785" t="s">
+        <v>115</v>
+      </c>
+      <c r="E785" t="s">
+        <v>405</v>
+      </c>
+      <c r="F785" s="16" t="str">
+        <f>VLOOKUP(E785,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G785" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H785" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L785">
+        <v>2381633526</v>
+      </c>
+      <c r="M785" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L785</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381633526</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B786" t="s">
+        <v>262</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D786" t="s">
+        <v>790</v>
+      </c>
+      <c r="E786" t="s">
+        <v>398</v>
+      </c>
+      <c r="F786" s="16" t="str">
+        <f>VLOOKUP(E786,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G786" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H786" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L786">
+        <v>2369689373</v>
+      </c>
+      <c r="M786" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L786</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369689373</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>144</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E787" t="s">
+        <v>577</v>
+      </c>
+      <c r="F787" s="16" t="str">
+        <f>VLOOKUP(E787,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G787" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H787" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L787">
+        <v>2381147827</v>
+      </c>
+      <c r="M787" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L787</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147827</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>144</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D788" t="s">
+        <v>78</v>
+      </c>
+      <c r="E788" t="s">
+        <v>393</v>
+      </c>
+      <c r="F788" s="16" t="str">
+        <f>VLOOKUP(E788,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G788" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H788" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L788">
+        <v>2360976234</v>
+      </c>
+      <c r="M788" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L788</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
+      </c>
+    </row>
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>144</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D789" t="s">
+        <v>62</v>
+      </c>
+      <c r="E789" t="s">
+        <v>396</v>
+      </c>
+      <c r="F789" s="16" t="str">
+        <f>VLOOKUP(E789,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G789" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H789" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L789">
+        <v>2360976234</v>
+      </c>
+      <c r="M789" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L789</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B790" t="s">
+        <v>504</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D790" t="s">
+        <v>214</v>
+      </c>
+      <c r="E790" t="s">
+        <v>398</v>
+      </c>
+      <c r="F790" s="16" t="str">
+        <f>VLOOKUP(E790,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G790" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H790" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L790">
+        <v>2369686955</v>
+      </c>
+      <c r="M790" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L790</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369686955</v>
+      </c>
+    </row>
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B791" t="s">
+        <v>262</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D791" t="s">
+        <v>214</v>
+      </c>
+      <c r="E791" t="s">
+        <v>398</v>
+      </c>
+      <c r="F791" s="16" t="str">
+        <f>VLOOKUP(E791,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G791" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H791" s="5">
+        <v>44214</v>
+      </c>
+      <c r="L791">
+        <v>2369681520</v>
+      </c>
+      <c r="M791" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L791</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369681520</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D69A0C-9990-4557-B9D5-59E1D6FB36CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9E636-7083-434C-AEA3-A2D095D35B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="155250" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="160110" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1074">
   <si>
     <t>Title</t>
   </si>
@@ -3143,6 +3143,114 @@
   </si>
   <si>
     <t>Remote - Python Engineer - Remote or San Francisco</t>
+  </si>
+  <si>
+    <t>Analytics Engineer</t>
+  </si>
+  <si>
+    <t>Jefferson Wells USA</t>
+  </si>
+  <si>
+    <t>Omni Tax Help</t>
+  </si>
+  <si>
+    <t>Thinaer</t>
+  </si>
+  <si>
+    <t>Vegamour, Inc.</t>
+  </si>
+  <si>
+    <t>Staff Data Scientist / Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>States Title</t>
+  </si>
+  <si>
+    <t>eCommerce Placement</t>
+  </si>
+  <si>
+    <t>Bound Brook</t>
+  </si>
+  <si>
+    <t>Visualization Scientist, Decision Sciences (Data Visualization Team)</t>
+  </si>
+  <si>
+    <t>Data Analytics Consultant</t>
+  </si>
+  <si>
+    <t>Data Analyst - A/B Tests, SQL, UX</t>
+  </si>
+  <si>
+    <t>Data Scientist, Signal Processing (South San Francisco, CA)</t>
+  </si>
+  <si>
+    <t>Mindlance</t>
+  </si>
+  <si>
+    <t>Data Engineer - MySQL, Oracle</t>
+  </si>
+  <si>
+    <t>Apptad, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst/Scientist</t>
+  </si>
+  <si>
+    <t>Adwait Algorithm</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>ZenSar</t>
+  </si>
+  <si>
+    <t>SmartIT Frame</t>
+  </si>
+  <si>
+    <t>Tableau Engineer / Data Analyst</t>
+  </si>
+  <si>
+    <t>SignalPath</t>
+  </si>
+  <si>
+    <t>Urbint</t>
+  </si>
+  <si>
+    <t>Photomath</t>
+  </si>
+  <si>
+    <t>Data Analyst (Tableau)</t>
+  </si>
+  <si>
+    <t>The Resource Co.</t>
+  </si>
+  <si>
+    <t>Winston-Salem</t>
+  </si>
+  <si>
+    <t>On The Hook Recruiting, LLC.</t>
+  </si>
+  <si>
+    <t>Loveland</t>
+  </si>
+  <si>
+    <t>JRD Systems</t>
+  </si>
+  <si>
+    <t>Data Scientist, Alteryx</t>
+  </si>
+  <si>
+    <t>Data+</t>
+  </si>
+  <si>
+    <t>Data Analyst / SQL Developer</t>
+  </si>
+  <si>
+    <t>Vero Beach</t>
   </si>
 </sst>
 </file>
@@ -3920,8 +4028,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M791" totalsRowShown="0">
-  <autoFilter ref="A1:M791" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M826" totalsRowShown="0">
+  <autoFilter ref="A1:M826" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4243,12 +4351,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M791"/>
+  <dimension ref="A1:M826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A794" sqref="A794"/>
+      <selection pane="bottomLeft" activeCell="D795" sqref="D795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31290,6 +31398,9 @@
       <c r="H769" s="5">
         <v>44211</v>
       </c>
+      <c r="J769" s="5">
+        <v>44212</v>
+      </c>
       <c r="L769">
         <v>2361703757</v>
       </c>
@@ -31600,7 +31711,7 @@
         <v>2370659321</v>
       </c>
       <c r="M778" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L778</f>
+        <f t="shared" ref="M778:M791" si="42">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L778</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370659321</v>
       </c>
     </row>
@@ -31630,11 +31741,14 @@
       <c r="H779" s="5">
         <v>44214</v>
       </c>
+      <c r="J779" s="5">
+        <v>44215</v>
+      </c>
       <c r="L779">
         <v>2361706756</v>
       </c>
       <c r="M779" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L779</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361706756</v>
       </c>
     </row>
@@ -31664,11 +31778,14 @@
       <c r="H780" s="5">
         <v>44214</v>
       </c>
+      <c r="I780" s="5">
+        <v>44217</v>
+      </c>
       <c r="L780">
         <v>2369142503</v>
       </c>
       <c r="M780" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L780</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369142503</v>
       </c>
     </row>
@@ -31702,7 +31819,7 @@
         <v>2381063707</v>
       </c>
       <c r="M781" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L781</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381063707</v>
       </c>
     </row>
@@ -31736,7 +31853,7 @@
         <v>2381056249</v>
       </c>
       <c r="M782" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L782</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381056249</v>
       </c>
     </row>
@@ -31770,7 +31887,7 @@
         <v>2371675405</v>
       </c>
       <c r="M783" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L783</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371675405</v>
       </c>
     </row>
@@ -31800,11 +31917,14 @@
       <c r="H784" s="5">
         <v>44214</v>
       </c>
+      <c r="J784" s="5">
+        <v>44215</v>
+      </c>
       <c r="L784">
         <v>2385704888</v>
       </c>
       <c r="M784" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L784</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385704888</v>
       </c>
     </row>
@@ -31838,7 +31958,7 @@
         <v>2381633526</v>
       </c>
       <c r="M785" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L785</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381633526</v>
       </c>
     </row>
@@ -31872,7 +31992,7 @@
         <v>2369689373</v>
       </c>
       <c r="M786" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L786</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369689373</v>
       </c>
     </row>
@@ -31906,7 +32026,7 @@
         <v>2381147827</v>
       </c>
       <c r="M787" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L787</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147827</v>
       </c>
     </row>
@@ -31940,7 +32060,7 @@
         <v>2360976234</v>
       </c>
       <c r="M788" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L788</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
@@ -31974,7 +32094,7 @@
         <v>2360976234</v>
       </c>
       <c r="M789" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L789</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
@@ -32008,7 +32128,7 @@
         <v>2369686955</v>
       </c>
       <c r="M790" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L790</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369686955</v>
       </c>
     </row>
@@ -32042,8 +32162,1192 @@
         <v>2369681520</v>
       </c>
       <c r="M791" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L791</f>
+        <f t="shared" si="42"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369681520</v>
+      </c>
+    </row>
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D792" t="s">
+        <v>222</v>
+      </c>
+      <c r="E792" t="s">
+        <v>398</v>
+      </c>
+      <c r="F792" s="16" t="str">
+        <f>VLOOKUP(E792,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G792" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H792" s="5">
+        <v>44215</v>
+      </c>
+      <c r="J792" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L792">
+        <v>2372859629</v>
+      </c>
+      <c r="M792" t="str">
+        <f t="shared" ref="M792:M801" si="43">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L792</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372859629</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>110</v>
+      </c>
+      <c r="B793" t="s">
+        <v>262</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D793" t="s">
+        <v>790</v>
+      </c>
+      <c r="E793" t="s">
+        <v>398</v>
+      </c>
+      <c r="F793" s="16" t="str">
+        <f>VLOOKUP(E793,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G793" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H793" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L793">
+        <v>2372851493</v>
+      </c>
+      <c r="M793" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372851493</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>144</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E794" t="s">
+        <v>416</v>
+      </c>
+      <c r="F794" s="16" t="str">
+        <f>VLOOKUP(E794,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G794" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H794" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L794">
+        <v>2381059386</v>
+      </c>
+      <c r="M794" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381059386</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>144</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E795" t="s">
+        <v>577</v>
+      </c>
+      <c r="F795" s="16" t="str">
+        <f>VLOOKUP(E795,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G795" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H795" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L795">
+        <v>2304696128</v>
+      </c>
+      <c r="M795" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2304696128</v>
+      </c>
+    </row>
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>10</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D796" t="s">
+        <v>489</v>
+      </c>
+      <c r="E796" t="s">
+        <v>396</v>
+      </c>
+      <c r="F796" s="16" t="str">
+        <f>VLOOKUP(E796,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G796" s="5">
+        <v>44210</v>
+      </c>
+      <c r="H796" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L796">
+        <v>2379522826</v>
+      </c>
+      <c r="M796" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2379522826</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>144</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D797" t="s">
+        <v>368</v>
+      </c>
+      <c r="E797" t="s">
+        <v>398</v>
+      </c>
+      <c r="F797" s="16" t="str">
+        <f>VLOOKUP(E797,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G797" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H797" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L797">
+        <v>2386195976</v>
+      </c>
+      <c r="M797" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2386195976</v>
+      </c>
+    </row>
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>144</v>
+      </c>
+      <c r="B798" t="s">
+        <v>687</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D798" t="s">
+        <v>688</v>
+      </c>
+      <c r="E798" t="s">
+        <v>415</v>
+      </c>
+      <c r="F798" s="16" t="str">
+        <f>VLOOKUP(E798,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G798" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H798" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L798">
+        <v>2368477962</v>
+      </c>
+      <c r="M798" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2368477962</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>144</v>
+      </c>
+      <c r="B799" t="s">
+        <v>259</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D799" t="s">
+        <v>386</v>
+      </c>
+      <c r="E799" t="s">
+        <v>397</v>
+      </c>
+      <c r="F799" s="16" t="str">
+        <f>VLOOKUP(E799,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G799" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H799" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L799">
+        <v>2372862299</v>
+      </c>
+      <c r="M799" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372862299</v>
+      </c>
+    </row>
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D800" t="s">
+        <v>214</v>
+      </c>
+      <c r="E800" t="s">
+        <v>398</v>
+      </c>
+      <c r="F800" s="16" t="str">
+        <f>VLOOKUP(E800,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G800" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H800" s="5">
+        <v>44215</v>
+      </c>
+      <c r="L800">
+        <v>2362727424</v>
+      </c>
+      <c r="M800" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2362727424</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>144</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E801" t="s">
+        <v>415</v>
+      </c>
+      <c r="F801" s="16" t="str">
+        <f>VLOOKUP(E801,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G801" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H801" s="5">
+        <v>44215</v>
+      </c>
+      <c r="J801" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L801">
+        <v>2374648415</v>
+      </c>
+      <c r="M801" t="str">
+        <f t="shared" si="43"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374648415</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D802" t="s">
+        <v>81</v>
+      </c>
+      <c r="E802" t="s">
+        <v>395</v>
+      </c>
+      <c r="F802" s="16" t="str">
+        <f>VLOOKUP(E802,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G802" s="5">
+        <v>44213</v>
+      </c>
+      <c r="H802" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L802">
+        <v>2383667508</v>
+      </c>
+      <c r="M802" t="str">
+        <f t="shared" ref="M802:M811" si="44">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L802</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2383667508</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B803" t="s">
+        <v>217</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D803" t="s">
+        <v>112</v>
+      </c>
+      <c r="E803" t="s">
+        <v>414</v>
+      </c>
+      <c r="F803" s="16" t="str">
+        <f>VLOOKUP(E803,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Rhode Island</v>
+      </c>
+      <c r="G803" s="5">
+        <v>44211</v>
+      </c>
+      <c r="H803" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L803">
+        <v>2381147398</v>
+      </c>
+      <c r="M803" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147398</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B804" t="s">
+        <v>259</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D804" t="s">
+        <v>80</v>
+      </c>
+      <c r="E804" t="s">
+        <v>419</v>
+      </c>
+      <c r="F804" s="16" t="str">
+        <f>VLOOKUP(E804,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G804" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H804" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L804">
+        <v>2369673851</v>
+      </c>
+      <c r="M804" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369673851</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>144</v>
+      </c>
+      <c r="B805" t="s">
+        <v>375</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D805" t="s">
+        <v>11</v>
+      </c>
+      <c r="E805" t="s">
+        <v>400</v>
+      </c>
+      <c r="F805" s="16" t="str">
+        <f>VLOOKUP(E805,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G805" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H805" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L805">
+        <v>2373665723</v>
+      </c>
+      <c r="M805" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373665723</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>10</v>
+      </c>
+      <c r="B806" t="s">
+        <v>851</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D806" t="s">
+        <v>511</v>
+      </c>
+      <c r="E806" t="s">
+        <v>401</v>
+      </c>
+      <c r="F806" s="16" t="str">
+        <f>VLOOKUP(E806,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G806" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H806" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L806">
+        <v>2367039143</v>
+      </c>
+      <c r="M806" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2367039143</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D807" t="s">
+        <v>214</v>
+      </c>
+      <c r="E807" t="s">
+        <v>398</v>
+      </c>
+      <c r="F807" s="16" t="str">
+        <f>VLOOKUP(E807,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G807" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H807" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L807">
+        <v>2373656310</v>
+      </c>
+      <c r="M807" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2373656310</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>10</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D808" t="s">
+        <v>214</v>
+      </c>
+      <c r="E808" t="s">
+        <v>398</v>
+      </c>
+      <c r="F808" s="16" t="str">
+        <f>VLOOKUP(E808,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G808" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H808" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L808">
+        <v>2374040643</v>
+      </c>
+      <c r="M808" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374040643</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B809" t="s">
+        <v>262</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D809" t="s">
+        <v>13</v>
+      </c>
+      <c r="E809" t="s">
+        <v>402</v>
+      </c>
+      <c r="F809" s="16" t="str">
+        <f>VLOOKUP(E809,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G809" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H809" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L809">
+        <v>2371666673</v>
+      </c>
+      <c r="M809" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2371666673</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>189</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D810" t="s">
+        <v>678</v>
+      </c>
+      <c r="E810" t="s">
+        <v>402</v>
+      </c>
+      <c r="F810" s="16" t="str">
+        <f>VLOOKUP(E810,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G810" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H810" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L810">
+        <v>2387786851</v>
+      </c>
+      <c r="M810" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786851</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E811" t="s">
+        <v>396</v>
+      </c>
+      <c r="F811" s="16" t="str">
+        <f>VLOOKUP(E811,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G811" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H811" s="5">
+        <v>44216</v>
+      </c>
+      <c r="L811">
+        <v>2387786724</v>
+      </c>
+      <c r="M811" t="str">
+        <f t="shared" si="44"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786724</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D812" t="s">
+        <v>78</v>
+      </c>
+      <c r="E812" t="s">
+        <v>393</v>
+      </c>
+      <c r="F812" s="16" t="str">
+        <f>VLOOKUP(E812,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H812" s="5">
+        <v>44217</v>
+      </c>
+      <c r="M812" t="str">
+        <f t="shared" ref="M812:M826" si="45">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L812</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>908</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D813" t="s">
+        <v>78</v>
+      </c>
+      <c r="E813" t="s">
+        <v>393</v>
+      </c>
+      <c r="F813" s="16" t="str">
+        <f>VLOOKUP(E813,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G813" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H813" s="5">
+        <v>44217</v>
+      </c>
+      <c r="M813" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D814" t="s">
+        <v>78</v>
+      </c>
+      <c r="E814" t="s">
+        <v>393</v>
+      </c>
+      <c r="F814" s="16" t="str">
+        <f>VLOOKUP(E814,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G814" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H814" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L814">
+        <v>2386150009</v>
+      </c>
+      <c r="M814" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2386150009</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>144</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D815" t="s">
+        <v>511</v>
+      </c>
+      <c r="E815" t="s">
+        <v>401</v>
+      </c>
+      <c r="F815" s="16" t="str">
+        <f>VLOOKUP(E815,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G815" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H815" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L815">
+        <v>2388213908</v>
+      </c>
+      <c r="M815" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388213908</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>10</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D816" t="s">
+        <v>214</v>
+      </c>
+      <c r="E816" t="s">
+        <v>398</v>
+      </c>
+      <c r="F816" s="16" t="str">
+        <f>VLOOKUP(E816,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G816" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H816" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L816">
+        <v>2374919220</v>
+      </c>
+      <c r="M816" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374919220</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>144</v>
+      </c>
+      <c r="B817" t="s">
+        <v>335</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E817" t="s">
+        <v>398</v>
+      </c>
+      <c r="F817" s="16" t="str">
+        <f>VLOOKUP(E817,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G817" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H817" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L817">
+        <v>2374912203</v>
+      </c>
+      <c r="M817" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374912203</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>98</v>
+      </c>
+      <c r="B818" t="s">
+        <v>535</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D818" t="s">
+        <v>214</v>
+      </c>
+      <c r="E818" t="s">
+        <v>398</v>
+      </c>
+      <c r="F818" s="16" t="str">
+        <f>VLOOKUP(E818,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G818" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H818" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L818">
+        <v>2374070633</v>
+      </c>
+      <c r="M818" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374070633</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B819" t="s">
+        <v>286</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D819" t="s">
+        <v>287</v>
+      </c>
+      <c r="E819" t="s">
+        <v>408</v>
+      </c>
+      <c r="F819" s="16" t="str">
+        <f>VLOOKUP(E819,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Indiana</v>
+      </c>
+      <c r="G819" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H819" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L819">
+        <v>2388210791</v>
+      </c>
+      <c r="M819" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388210791</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>10</v>
+      </c>
+      <c r="B820" t="s">
+        <v>335</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D820" t="s">
+        <v>214</v>
+      </c>
+      <c r="E820" t="s">
+        <v>398</v>
+      </c>
+      <c r="F820" s="16" t="str">
+        <f>VLOOKUP(E820,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G820" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H820" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L820">
+        <v>2374079669</v>
+      </c>
+      <c r="M820" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374079669</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B821" t="s">
+        <v>443</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D821" t="s">
+        <v>827</v>
+      </c>
+      <c r="E821" t="s">
+        <v>412</v>
+      </c>
+      <c r="F821" s="16" t="str">
+        <f>VLOOKUP(E821,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G821" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H821" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L821">
+        <v>2388194855</v>
+      </c>
+      <c r="M821" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388194855</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>144</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E822" t="s">
+        <v>393</v>
+      </c>
+      <c r="F822" s="16" t="str">
+        <f>VLOOKUP(E822,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G822" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H822" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L822">
+        <v>2367084531</v>
+      </c>
+      <c r="M822" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2367084531</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>144</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E823" t="s">
+        <v>412</v>
+      </c>
+      <c r="F823" s="16" t="str">
+        <f>VLOOKUP(E823,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G823" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H823" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L823">
+        <v>2389399659</v>
+      </c>
+      <c r="M823" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2389399659</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>144</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E824" t="s">
+        <v>577</v>
+      </c>
+      <c r="F824" s="16" t="str">
+        <f>VLOOKUP(E824,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G824" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H824" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L824">
+        <v>2388042311</v>
+      </c>
+      <c r="M824" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388042311</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D825" t="s">
+        <v>13</v>
+      </c>
+      <c r="E825" t="s">
+        <v>402</v>
+      </c>
+      <c r="F825" s="16" t="str">
+        <f>VLOOKUP(E825,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G825" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H825" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L825">
+        <v>2388175503</v>
+      </c>
+      <c r="M825" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388175503</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B826" t="s">
+        <v>309</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D826" t="s">
+        <v>676</v>
+      </c>
+      <c r="E826" t="s">
+        <v>416</v>
+      </c>
+      <c r="F826" s="16" t="str">
+        <f>VLOOKUP(E826,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G826" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H826" s="5">
+        <v>44217</v>
+      </c>
+      <c r="L826">
+        <v>2367097752</v>
+      </c>
+      <c r="M826" t="str">
+        <f t="shared" si="45"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2367097752</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9E636-7083-434C-AEA3-A2D095D35B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60739E4-248E-4D5D-83A4-3E296D6DFAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160110" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="163755" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="1110">
   <si>
     <t>Title</t>
   </si>
@@ -3251,6 +3251,114 @@
   </si>
   <si>
     <t>Vero Beach</t>
+  </si>
+  <si>
+    <t>https://www.postjobfree.com/job/kaz7jh/tableau-raleigh-nc</t>
+  </si>
+  <si>
+    <t>https://www.postjobfree.com/job/ka7zid/tableau-developer-raleigh-nc</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/130k-remoteish-tableau-developer/J3V8276Y11S6TXK3YP2</t>
+  </si>
+  <si>
+    <t>Vaco Technology</t>
+  </si>
+  <si>
+    <t>Remote'ish Tableau Developer</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/job/130k-python-data-engineer-remoteish/J3W6PB6LWMN2V7NWR6Z</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/data-engineer/J3P87F5W1DRSRRPKKXL</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/jr-data-scientist/J3P76G794T1G0C99G9N</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/tableau-developer/J3P6VQ5ZQ5JW5STN4CZ</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/tableau-developer-85-95k-richmond-va/J3W39C77N4PK5GVPK4Q</t>
+  </si>
+  <si>
+    <t>Financial Data Analyst</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/financial-data-analyst/J3R5L662W2XZ05DH9HZ</t>
+  </si>
+  <si>
+    <t>https://jobs.vaco.com/en-US/job/machine-learning-engineer-ohio-w2-only/J3N5JN6GQTB1KL4NHLD</t>
+  </si>
+  <si>
+    <t>Data Analyst (Tableau, Python)</t>
+  </si>
+  <si>
+    <t>Maryland Heights</t>
+  </si>
+  <si>
+    <t>https://vereduscorp.hays.com/Job/Detail/data-analyst-%28tableau-python%29-maryland-heights-en-US_1115352?q=python%20&amp;location=&amp;applyId=JOB_2226691&amp;jobSource=HaysGCJ&amp;isSponsored=N&amp;specialismId=&amp;subSpecialismId=&amp;jobName=projects%2Fmineral-balm-174308%2Fjobs%2F130229082798334662&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Data Scientist (Python, Machine Learning)</t>
+  </si>
+  <si>
+    <t>Consultant Data Scientist - Healthcare</t>
+  </si>
+  <si>
+    <t>Alcimed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scientist </t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>Data Analyst/Data Entry Analyst</t>
+  </si>
+  <si>
+    <t>Chicago Connect</t>
+  </si>
+  <si>
+    <t>Marketing Scientist I</t>
+  </si>
+  <si>
+    <t>Livonia</t>
+  </si>
+  <si>
+    <t>PCR Staffing</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>PYTHON Developer</t>
+  </si>
+  <si>
+    <t>LanceSoft, Inc.</t>
+  </si>
+  <si>
+    <t>Python Developer - Data Engineer</t>
+  </si>
+  <si>
+    <t>CPS, Inc.</t>
+  </si>
+  <si>
+    <t>Data Scientist (Machine learning scientist)</t>
+  </si>
+  <si>
+    <t>Aptonet, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst - SQL</t>
+  </si>
+  <si>
+    <t>Beacon Hill Staffing Group</t>
+  </si>
+  <si>
+    <t>East Hanover</t>
   </si>
 </sst>
 </file>
@@ -3260,10 +3368,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3336,10 +3452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3367,8 +3484,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -4028,8 +4147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M826" totalsRowShown="0">
-  <autoFilter ref="A1:M826" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M851" totalsRowShown="0">
+  <autoFilter ref="A1:M851" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4351,12 +4470,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M826"/>
+  <dimension ref="A1:M851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D795" sqref="D795"/>
+      <selection pane="bottomLeft" activeCell="A838" sqref="A838:M851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26331,6 +26450,9 @@
       <c r="H622" s="5">
         <v>44193</v>
       </c>
+      <c r="I622" s="5">
+        <v>44218</v>
+      </c>
       <c r="L622">
         <v>2280108348</v>
       </c>
@@ -30919,6 +31041,9 @@
       <c r="H755" s="5">
         <v>44210</v>
       </c>
+      <c r="I755" s="5">
+        <v>44218</v>
+      </c>
       <c r="L755">
         <v>2369175427</v>
       </c>
@@ -32538,6 +32663,9 @@
       <c r="H802" s="5">
         <v>44216</v>
       </c>
+      <c r="I802" s="5">
+        <v>44217</v>
+      </c>
       <c r="L802">
         <v>2383667508</v>
       </c>
@@ -32742,6 +32870,9 @@
       <c r="H808" s="5">
         <v>44216</v>
       </c>
+      <c r="J808" s="5">
+        <v>44217</v>
+      </c>
       <c r="L808">
         <v>2374040643</v>
       </c>
@@ -32878,9 +33009,8 @@
       <c r="H812" s="5">
         <v>44217</v>
       </c>
-      <c r="M812" t="str">
-        <f t="shared" ref="M812:M826" si="45">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L812</f>
-        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      <c r="M812" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="813" spans="1:13" x14ac:dyDescent="0.25">
@@ -32906,9 +33036,8 @@
       <c r="H813" s="5">
         <v>44217</v>
       </c>
-      <c r="M813" t="str">
-        <f t="shared" si="45"/>
-        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      <c r="M813" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
@@ -32941,7 +33070,7 @@
         <v>2386150009</v>
       </c>
       <c r="M814" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="M814:M826" si="45">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L814</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386150009</v>
       </c>
     </row>
@@ -33005,6 +33134,9 @@
       <c r="H816" s="5">
         <v>44217</v>
       </c>
+      <c r="J816" s="5">
+        <v>44217</v>
+      </c>
       <c r="L816">
         <v>2374919220</v>
       </c>
@@ -33175,6 +33307,9 @@
       <c r="H821" s="5">
         <v>44217</v>
       </c>
+      <c r="J821" s="5">
+        <v>44218</v>
+      </c>
       <c r="L821">
         <v>2388194855</v>
       </c>
@@ -33348,6 +33483,796 @@
       <c r="M826" t="str">
         <f t="shared" si="45"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367097752</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D827" t="s">
+        <v>296</v>
+      </c>
+      <c r="E827" t="s">
+        <v>404</v>
+      </c>
+      <c r="F827" s="16" t="str">
+        <f>VLOOKUP(E827,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G827" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H827" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M827" s="25" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>110</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D828" t="s">
+        <v>524</v>
+      </c>
+      <c r="E828" t="s">
+        <v>393</v>
+      </c>
+      <c r="F828" s="16" t="str">
+        <f>VLOOKUP(E828,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G828" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H828" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M828" s="25" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>300</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D829" t="s">
+        <v>296</v>
+      </c>
+      <c r="E829" t="s">
+        <v>404</v>
+      </c>
+      <c r="F829" s="16" t="str">
+        <f>VLOOKUP(E829,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G829" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H829" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M829" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>316</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D830" t="s">
+        <v>115</v>
+      </c>
+      <c r="E830" t="s">
+        <v>405</v>
+      </c>
+      <c r="F830" s="16" t="str">
+        <f>VLOOKUP(E830,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H830" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M830" s="25" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>908</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D831" t="s">
+        <v>678</v>
+      </c>
+      <c r="E831" t="s">
+        <v>402</v>
+      </c>
+      <c r="F831" s="16" t="str">
+        <f>VLOOKUP(E831,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G831" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H831" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M831" s="25" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>908</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D832" t="s">
+        <v>678</v>
+      </c>
+      <c r="E832" t="s">
+        <v>402</v>
+      </c>
+      <c r="F832" s="16" t="str">
+        <f>VLOOKUP(E832,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G832" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H832" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M832" s="25" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D833" t="s">
+        <v>877</v>
+      </c>
+      <c r="E833" t="s">
+        <v>412</v>
+      </c>
+      <c r="F833" s="16" t="str">
+        <f>VLOOKUP(E833,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G833" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H833" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M833" s="25" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>293</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D834" t="s">
+        <v>175</v>
+      </c>
+      <c r="E834" t="s">
+        <v>437</v>
+      </c>
+      <c r="F834" s="16" t="str">
+        <f>VLOOKUP(E834,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Ohio</v>
+      </c>
+      <c r="G834" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H834" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M834" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B835" t="s">
+        <v>264</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E835" t="s">
+        <v>410</v>
+      </c>
+      <c r="F835" s="16" t="str">
+        <f>VLOOKUP(E835,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G835" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H835" s="5">
+        <v>44218</v>
+      </c>
+      <c r="M835" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B836" t="s">
+        <v>264</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D836" t="s">
+        <v>78</v>
+      </c>
+      <c r="E836" t="s">
+        <v>393</v>
+      </c>
+      <c r="F836" s="16" t="str">
+        <f>VLOOKUP(E836,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G836" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H836" s="5">
+        <v>44218</v>
+      </c>
+      <c r="L836">
+        <v>103644278</v>
+      </c>
+      <c r="M836" t="str">
+        <f t="shared" ref="M836:M843" si="46">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L836</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
+      </c>
+    </row>
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>519</v>
+      </c>
+      <c r="B837" t="s">
+        <v>264</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D837" t="s">
+        <v>489</v>
+      </c>
+      <c r="E837" t="s">
+        <v>396</v>
+      </c>
+      <c r="F837" s="16" t="str">
+        <f>VLOOKUP(E837,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G837" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H837" s="5">
+        <v>44218</v>
+      </c>
+      <c r="L837">
+        <v>103644278</v>
+      </c>
+      <c r="M837" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>144</v>
+      </c>
+      <c r="B838" t="s">
+        <v>262</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D838" t="s">
+        <v>489</v>
+      </c>
+      <c r="E838" t="s">
+        <v>396</v>
+      </c>
+      <c r="F838" s="16" t="str">
+        <f>VLOOKUP(E838,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G838" s="5">
+        <v>44218</v>
+      </c>
+      <c r="H838" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L838">
+        <v>2377822673</v>
+      </c>
+      <c r="M838" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2377822673</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D839" t="s">
+        <v>924</v>
+      </c>
+      <c r="E839" t="s">
+        <v>415</v>
+      </c>
+      <c r="F839" s="16" t="str">
+        <f>VLOOKUP(E839,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G839" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H839" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L839">
+        <v>2374060955</v>
+      </c>
+      <c r="M839" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374060955</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D840" t="s">
+        <v>676</v>
+      </c>
+      <c r="E840" t="s">
+        <v>419</v>
+      </c>
+      <c r="F840" s="16" t="str">
+        <f>VLOOKUP(E840,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G840" s="5">
+        <v>44218</v>
+      </c>
+      <c r="H840" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L840">
+        <v>2377887650</v>
+      </c>
+      <c r="M840" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2377887650</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D841" t="s">
+        <v>81</v>
+      </c>
+      <c r="E841" t="s">
+        <v>395</v>
+      </c>
+      <c r="F841" s="16" t="str">
+        <f>VLOOKUP(E841,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G841" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H841" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L841">
+        <v>2390326178</v>
+      </c>
+      <c r="M841" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2390326178</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B842" t="s">
+        <v>77</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D842" t="s">
+        <v>492</v>
+      </c>
+      <c r="E842" t="s">
+        <v>393</v>
+      </c>
+      <c r="F842" s="16" t="str">
+        <f>VLOOKUP(E842,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G842" s="5">
+        <v>44213</v>
+      </c>
+      <c r="H842" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L842">
+        <v>2370680356</v>
+      </c>
+      <c r="M842" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2370680356</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B843" t="s">
+        <v>77</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E843" t="s">
+        <v>416</v>
+      </c>
+      <c r="F843" s="16" t="str">
+        <f>VLOOKUP(E843,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G843" s="5">
+        <v>44212</v>
+      </c>
+      <c r="H843" s="5">
+        <v>44219</v>
+      </c>
+      <c r="L843">
+        <v>2376362654</v>
+      </c>
+      <c r="M843" t="str">
+        <f t="shared" si="46"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2376362654</v>
+      </c>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>144</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D844" t="s">
+        <v>524</v>
+      </c>
+      <c r="E844" t="s">
+        <v>393</v>
+      </c>
+      <c r="F844" s="16" t="str">
+        <f>VLOOKUP(E844,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G844" s="5">
+        <v>44220</v>
+      </c>
+      <c r="H844" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L844">
+        <v>2393117700</v>
+      </c>
+      <c r="M844" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L844</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2393117700</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>884</v>
+      </c>
+      <c r="B845" t="s">
+        <v>687</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E845" t="s">
+        <v>405</v>
+      </c>
+      <c r="F845" s="16" t="str">
+        <f>VLOOKUP(E845,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G845" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H845" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L845">
+        <v>2385880598</v>
+      </c>
+      <c r="M845" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L845</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2385880598</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>98</v>
+      </c>
+      <c r="B846" t="s">
+        <v>535</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D846" t="s">
+        <v>214</v>
+      </c>
+      <c r="E846" t="s">
+        <v>398</v>
+      </c>
+      <c r="F846" s="16" t="str">
+        <f>VLOOKUP(E846,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G846" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H846" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L846">
+        <v>2378864395</v>
+      </c>
+      <c r="M846" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L846</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2378864395</v>
+      </c>
+    </row>
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D847" t="s">
+        <v>511</v>
+      </c>
+      <c r="E847" t="s">
+        <v>401</v>
+      </c>
+      <c r="F847" s="16" t="str">
+        <f>VLOOKUP(E847,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G847" s="5">
+        <v>44218</v>
+      </c>
+      <c r="H847" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L847">
+        <v>2377869634</v>
+      </c>
+      <c r="M847" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L847</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2377869634</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>10</v>
+      </c>
+      <c r="B848" t="s">
+        <v>309</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D848" t="s">
+        <v>83</v>
+      </c>
+      <c r="E848" t="s">
+        <v>416</v>
+      </c>
+      <c r="F848" s="16" t="str">
+        <f>VLOOKUP(E848,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G848" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H848" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L848">
+        <v>2374940174</v>
+      </c>
+      <c r="M848" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L848</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374940174</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D849" t="s">
+        <v>81</v>
+      </c>
+      <c r="E849" t="s">
+        <v>395</v>
+      </c>
+      <c r="F849" s="16" t="str">
+        <f>VLOOKUP(E849,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G849" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H849" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L849">
+        <v>2382091467</v>
+      </c>
+      <c r="M849" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L849</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2382091467</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D850" t="s">
+        <v>115</v>
+      </c>
+      <c r="E850" t="s">
+        <v>405</v>
+      </c>
+      <c r="F850" s="16" t="str">
+        <f>VLOOKUP(E850,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G850" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H850" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L850">
+        <v>2365599512</v>
+      </c>
+      <c r="M850" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L850</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2365599512</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E851" t="s">
+        <v>415</v>
+      </c>
+      <c r="F851" s="16" t="str">
+        <f>VLOOKUP(E851,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G851" s="5">
+        <v>44216</v>
+      </c>
+      <c r="H851" s="5">
+        <v>44220</v>
+      </c>
+      <c r="L851">
+        <v>2386891606</v>
+      </c>
+      <c r="M851" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L851</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2386891606</v>
       </c>
     </row>
   </sheetData>
@@ -33355,10 +34280,18 @@
     <sortCondition ref="H2:H477"/>
     <sortCondition ref="B2:B477"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="M828" r:id="rId1" xr:uid="{89BB7168-CCB9-493C-A1C6-C1CB0270F949}"/>
+    <hyperlink ref="M827" r:id="rId2" xr:uid="{36C1793D-88A5-4056-9AFE-B2E6A83B4F70}"/>
+    <hyperlink ref="M830" r:id="rId3" xr:uid="{9FECEA98-F674-4C51-9C16-8572ED35D37B}"/>
+    <hyperlink ref="M831" r:id="rId4" xr:uid="{E1976E39-F92C-4DF2-A1CC-BB26B4B78E80}"/>
+    <hyperlink ref="M832" r:id="rId5" xr:uid="{30596F94-D2CE-45CB-B0C9-F434B445F50D}"/>
+    <hyperlink ref="M833" r:id="rId6" xr:uid="{7C1D754C-1382-48F1-837A-5D2C1DD4C243}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60739E4-248E-4D5D-83A4-3E296D6DFAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174877A2-2A85-4E1D-96E2-AE7F72129D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="163755" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="164970" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="1125">
   <si>
     <t>Title</t>
   </si>
@@ -3359,6 +3359,51 @@
   </si>
   <si>
     <t>East Hanover</t>
+  </si>
+  <si>
+    <t>Data Scientist – Tableau Specialist, Senior Consultant</t>
+  </si>
+  <si>
+    <t>Guidehouse</t>
+  </si>
+  <si>
+    <t>Communications &amp; Data Visualization Consultant</t>
+  </si>
+  <si>
+    <t>Data Scientist, Consultant</t>
+  </si>
+  <si>
+    <t>AI Data Scientist- Machine Learning, Consultant</t>
+  </si>
+  <si>
+    <t>AI/ML Health Data Scientist- Consultant</t>
+  </si>
+  <si>
+    <t>Data Scientist –  Senior Consultant</t>
+  </si>
+  <si>
+    <t>Data Scientist – Machine Learning, Consultant</t>
+  </si>
+  <si>
+    <t>Data Modeling and Analytics Senior Consultant</t>
+  </si>
+  <si>
+    <t>Fairview Heights</t>
+  </si>
+  <si>
+    <t>Tableau Data Visualization Analyst</t>
+  </si>
+  <si>
+    <t>Lake Forest</t>
+  </si>
+  <si>
+    <t>Data Analyst; Spices, Seasonings, and Flavorings Business Unit</t>
+  </si>
+  <si>
+    <t>Techni-Tool, Inc.</t>
+  </si>
+  <si>
+    <t>Sauer Brands</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3575,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4147,8 +4192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M851" totalsRowShown="0">
-  <autoFilter ref="A1:M851" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M869" totalsRowShown="0">
+  <autoFilter ref="A1:M869" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4470,12 +4515,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M851"/>
+  <dimension ref="A1:M869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A838" sqref="A838:M851"/>
+      <selection pane="bottomLeft" activeCell="I596" sqref="I596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25523,6 +25568,9 @@
       <c r="H595" s="5">
         <v>44188</v>
       </c>
+      <c r="I595" s="5">
+        <v>44221</v>
+      </c>
       <c r="L595">
         <v>2321054322</v>
       </c>
@@ -34033,7 +34081,7 @@
         <v>2393117700</v>
       </c>
       <c r="M844" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L844</f>
+        <f t="shared" ref="M844:M851" si="47">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L844</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393117700</v>
       </c>
     </row>
@@ -34067,7 +34115,7 @@
         <v>2385880598</v>
       </c>
       <c r="M845" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L845</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385880598</v>
       </c>
     </row>
@@ -34101,7 +34149,7 @@
         <v>2378864395</v>
       </c>
       <c r="M846" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L846</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2378864395</v>
       </c>
     </row>
@@ -34135,7 +34183,7 @@
         <v>2377869634</v>
       </c>
       <c r="M847" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L847</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377869634</v>
       </c>
     </row>
@@ -34169,7 +34217,7 @@
         <v>2374940174</v>
       </c>
       <c r="M848" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L848</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374940174</v>
       </c>
     </row>
@@ -34203,7 +34251,7 @@
         <v>2382091467</v>
       </c>
       <c r="M849" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L849</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382091467</v>
       </c>
     </row>
@@ -34237,7 +34285,7 @@
         <v>2365599512</v>
       </c>
       <c r="M850" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L850</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2365599512</v>
       </c>
     </row>
@@ -34271,8 +34319,665 @@
         <v>2386891606</v>
       </c>
       <c r="M851" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L851</f>
+        <f t="shared" si="47"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386891606</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D852" t="s">
+        <v>537</v>
+      </c>
+      <c r="E852" t="s">
+        <v>181</v>
+      </c>
+      <c r="F852" s="16" t="str">
+        <f>VLOOKUP(E852,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G852" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H852" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K852" s="2">
+        <v>8320</v>
+      </c>
+      <c r="L852">
+        <v>2329858716</v>
+      </c>
+      <c r="M852" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L852</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858716</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D853" t="s">
+        <v>537</v>
+      </c>
+      <c r="E853" t="s">
+        <v>181</v>
+      </c>
+      <c r="F853" s="16" t="str">
+        <f>VLOOKUP(E853,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G853" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H853" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K853" s="2">
+        <v>6889</v>
+      </c>
+      <c r="L853">
+        <v>2287832985</v>
+      </c>
+      <c r="M853" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L853</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2287832985</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D854" t="s">
+        <v>537</v>
+      </c>
+      <c r="E854" t="s">
+        <v>181</v>
+      </c>
+      <c r="F854" s="16" t="str">
+        <f>VLOOKUP(E854,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G854" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H854" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K854" s="2">
+        <v>8850</v>
+      </c>
+      <c r="L854">
+        <v>2381495210</v>
+      </c>
+      <c r="M854" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L854</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381495210</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D855" t="s">
+        <v>537</v>
+      </c>
+      <c r="E855" t="s">
+        <v>181</v>
+      </c>
+      <c r="F855" s="16" t="str">
+        <f>VLOOKUP(E855,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G855" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H855" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K855" s="2">
+        <v>8494</v>
+      </c>
+      <c r="L855">
+        <v>2329858719</v>
+      </c>
+      <c r="M855" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L855</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858719</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>144</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D856" t="s">
+        <v>537</v>
+      </c>
+      <c r="E856" t="s">
+        <v>181</v>
+      </c>
+      <c r="F856" s="16" t="str">
+        <f>VLOOKUP(E856,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G856" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H856" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K856" s="2">
+        <v>7889</v>
+      </c>
+      <c r="L856">
+        <v>2258367876</v>
+      </c>
+      <c r="M856" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L856</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2258367876</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>10</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D857" t="s">
+        <v>537</v>
+      </c>
+      <c r="E857" t="s">
+        <v>181</v>
+      </c>
+      <c r="F857" s="16" t="str">
+        <f>VLOOKUP(E857,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G857" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H857" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K857" s="2">
+        <v>6927</v>
+      </c>
+      <c r="L857">
+        <v>2311948015</v>
+      </c>
+      <c r="M857" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L857</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2311948015</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D858" t="s">
+        <v>537</v>
+      </c>
+      <c r="E858" t="s">
+        <v>181</v>
+      </c>
+      <c r="F858" s="16" t="str">
+        <f>VLOOKUP(E858,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G858" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H858" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K858" s="2">
+        <v>7742</v>
+      </c>
+      <c r="L858">
+        <v>2311047818</v>
+      </c>
+      <c r="M858" t="str">
+        <f t="shared" ref="M858" si="48">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L858</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2311047818</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D859" t="s">
+        <v>115</v>
+      </c>
+      <c r="E859" t="s">
+        <v>405</v>
+      </c>
+      <c r="F859" s="16" t="str">
+        <f>VLOOKUP(E859,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G859" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H859" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K859" s="2">
+        <v>8511</v>
+      </c>
+      <c r="L859">
+        <v>2347545335</v>
+      </c>
+      <c r="M859" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L859</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C860" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D860" t="s">
+        <v>520</v>
+      </c>
+      <c r="E860" t="s">
+        <v>521</v>
+      </c>
+      <c r="F860" s="16" t="str">
+        <f>VLOOKUP(E860,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="G860" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H860" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K860" s="2">
+        <v>8511</v>
+      </c>
+      <c r="L860">
+        <v>2347545335</v>
+      </c>
+      <c r="M860" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L860</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C861" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D861" t="s">
+        <v>537</v>
+      </c>
+      <c r="E861" t="s">
+        <v>181</v>
+      </c>
+      <c r="F861" s="16" t="str">
+        <f>VLOOKUP(E861,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G861" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H861" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K861" s="2">
+        <v>8511</v>
+      </c>
+      <c r="L861">
+        <v>2347545335</v>
+      </c>
+      <c r="M861" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L861</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C862" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D862" t="s">
+        <v>537</v>
+      </c>
+      <c r="E862" t="s">
+        <v>181</v>
+      </c>
+      <c r="F862" s="16" t="str">
+        <f>VLOOKUP(E862,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G862" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H862" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K862" s="2">
+        <v>8656</v>
+      </c>
+      <c r="L862">
+        <v>2367897041</v>
+      </c>
+      <c r="M862" t="str">
+        <f t="shared" ref="M862:M869" si="49">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L862</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2367897041</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C863" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D863" t="s">
+        <v>537</v>
+      </c>
+      <c r="E863" t="s">
+        <v>181</v>
+      </c>
+      <c r="F863" s="16" t="str">
+        <f>VLOOKUP(E863,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G863" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H863" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K863" s="2">
+        <v>8148</v>
+      </c>
+      <c r="L863">
+        <v>2308280816</v>
+      </c>
+      <c r="M863" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2308280816</v>
+      </c>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C864" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E864" t="s">
+        <v>395</v>
+      </c>
+      <c r="F864" s="16" t="str">
+        <f>VLOOKUP(E864,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G864" s="5">
+        <v>44220</v>
+      </c>
+      <c r="H864" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K864" s="2">
+        <v>8965</v>
+      </c>
+      <c r="L864">
+        <v>2393033909</v>
+      </c>
+      <c r="M864" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2393033909</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B865" t="s">
+        <v>388</v>
+      </c>
+      <c r="C865" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E865" t="s">
+        <v>395</v>
+      </c>
+      <c r="F865" s="16" t="str">
+        <f>VLOOKUP(E865,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G865" s="5">
+        <v>44221</v>
+      </c>
+      <c r="H865" s="5">
+        <v>44221</v>
+      </c>
+      <c r="K865" s="2">
+        <v>694698</v>
+      </c>
+      <c r="L865">
+        <v>2394483545</v>
+      </c>
+      <c r="M865" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L865</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2394483545</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>144</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C866" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D866" t="s">
+        <v>489</v>
+      </c>
+      <c r="E866" t="s">
+        <v>396</v>
+      </c>
+      <c r="F866" s="16" t="str">
+        <f>VLOOKUP(E866,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G866" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H866" s="5">
+        <v>44221</v>
+      </c>
+      <c r="J866" s="5">
+        <v>44221</v>
+      </c>
+      <c r="L866">
+        <v>2381954250</v>
+      </c>
+      <c r="M866" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381954250</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>884</v>
+      </c>
+      <c r="B867" t="s">
+        <v>687</v>
+      </c>
+      <c r="C867" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D867" t="s">
+        <v>115</v>
+      </c>
+      <c r="E867" t="s">
+        <v>405</v>
+      </c>
+      <c r="F867" s="16" t="str">
+        <f>VLOOKUP(E867,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G867" s="5">
+        <v>44217</v>
+      </c>
+      <c r="H867" s="5">
+        <v>44221</v>
+      </c>
+      <c r="L867">
+        <v>2388115374</v>
+      </c>
+      <c r="M867" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388115374</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>911</v>
+      </c>
+      <c r="B868" t="s">
+        <v>262</v>
+      </c>
+      <c r="C868" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D868" t="s">
+        <v>17</v>
+      </c>
+      <c r="E868" t="s">
+        <v>394</v>
+      </c>
+      <c r="F868" s="16" t="str">
+        <f>VLOOKUP(E868,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G868" s="5">
+        <v>44220</v>
+      </c>
+      <c r="H868" s="5">
+        <v>44221</v>
+      </c>
+      <c r="L868">
+        <v>2379438871</v>
+      </c>
+      <c r="M868" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2379438871</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C869" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D869" t="s">
+        <v>373</v>
+      </c>
+      <c r="E869" t="s">
+        <v>395</v>
+      </c>
+      <c r="F869" s="16" t="str">
+        <f>VLOOKUP(E869,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G869" s="5">
+        <v>44220</v>
+      </c>
+      <c r="H869" s="5">
+        <v>44221</v>
+      </c>
+      <c r="L869">
+        <v>2393047482</v>
+      </c>
+      <c r="M869" t="str">
+        <f t="shared" si="49"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2393047482</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174877A2-2A85-4E1D-96E2-AE7F72129D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FE334D-E302-4252-B47B-C32A275EA42F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="164970" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="172260" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1150">
   <si>
     <t>Title</t>
   </si>
@@ -3404,6 +3404,81 @@
   </si>
   <si>
     <t>Sauer Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Engineer </t>
+  </si>
+  <si>
+    <t>Greene Resources</t>
+  </si>
+  <si>
+    <t>Data Engineer, Python/ Spark</t>
+  </si>
+  <si>
+    <t>Odyssey Information Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analyst - Corporate Housing Technology </t>
+  </si>
+  <si>
+    <t>ettain group</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>Rangam Consultants, Inc.</t>
+  </si>
+  <si>
+    <t>Collage.com</t>
+  </si>
+  <si>
+    <t>Associate Data Analyst</t>
+  </si>
+  <si>
+    <t>Ibex Investors, LLC.</t>
+  </si>
+  <si>
+    <t>Analyst, Data and Analysis</t>
+  </si>
+  <si>
+    <t>Colwen Hotels</t>
+  </si>
+  <si>
+    <t>Compliance Analyst</t>
+  </si>
+  <si>
+    <t>The Global Edge Consultants</t>
+  </si>
+  <si>
+    <t>Tableau Data Analyst</t>
+  </si>
+  <si>
+    <t>Amtex Enterprises</t>
+  </si>
+  <si>
+    <t>Roseland</t>
+  </si>
+  <si>
+    <t>Vacasa</t>
+  </si>
+  <si>
+    <t>REMOTE Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Analyst III</t>
+  </si>
+  <si>
+    <t>Hunter Technical</t>
+  </si>
+  <si>
+    <t>Schaumburg</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>Albertsons Companies</t>
   </si>
 </sst>
 </file>
@@ -4192,8 +4267,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M869" totalsRowShown="0">
-  <autoFilter ref="A1:M869" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M898" totalsRowShown="0">
+  <autoFilter ref="A1:M898" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="San Francisco"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4515,12 +4596,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M869"/>
+  <dimension ref="A1:M898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I596" sqref="I596"/>
+      <selection pane="bottomLeft" activeCell="F870" sqref="F870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,7 +4662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4618,7 +4699,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903194294</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4658,7 +4739,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1834056752</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4695,7 +4776,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1839210951</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4732,7 +4813,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1871223701</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4769,7 +4850,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903194681</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4806,7 +4887,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903197521</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4843,7 +4924,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1825195869</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4964,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1926223909</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +5004,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1946875382</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4963,7 +5044,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952552431</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -4997,7 +5078,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959082266</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5034,7 +5115,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1957834108</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5068,7 +5149,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959938713</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5108,7 +5189,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1910162675</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5145,7 +5226,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1951327249</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5185,7 +5266,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903198823</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5225,7 +5306,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1946802848</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5265,7 +5346,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904355080</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5305,7 +5386,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961977239</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5342,7 +5423,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1892358530</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -5382,7 +5463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961914929</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5422,7 +5503,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961986802</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5462,7 +5543,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930342016</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5499,7 +5580,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903130419</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -5539,7 +5620,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1933138620</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5579,7 +5660,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1933137952</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -5619,7 +5700,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1978971304</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5653,7 +5734,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1729204351</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -5687,7 +5768,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5724,7 +5805,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959993135</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -5761,7 +5842,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904306125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -5798,7 +5879,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959994923</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5832,7 +5913,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1964618975</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -5866,7 +5947,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1949264359</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5902,7 +5983,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1948854678</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -5939,7 +6020,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983310023</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5976,7 +6057,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1954925817</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -6000,7 +6081,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -6040,7 +6121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1990548585</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -6080,7 +6161,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959047989</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -6117,7 +6198,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1980694605</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -6151,7 +6232,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -6188,7 +6269,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -6225,7 +6306,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -6259,7 +6340,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -6330,7 +6411,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -6367,7 +6448,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -6407,7 +6488,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974079734</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -6447,7 +6528,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974084041</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -6484,7 +6565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974078539</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6602,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -6558,7 +6639,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -6595,7 +6676,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1987830677</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6635,7 +6716,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969941426</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -6672,7 +6753,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904303193</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -6709,7 +6790,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974018596</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -6746,7 +6827,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967275623</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -6783,7 +6864,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974016517</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -6820,7 +6901,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1975539480</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6857,7 +6938,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967275524</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -6891,7 +6972,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -6928,7 +7009,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000559207</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -6965,7 +7046,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1994925526</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -7002,7 +7083,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000559207</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -7039,7 +7120,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993632542</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -7073,7 +7154,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988998063</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -7110,7 +7191,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983309166</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -7147,7 +7228,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983307291</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -7184,7 +7265,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983308247</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -7255,7 +7336,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983054596</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -7295,7 +7376,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989741920</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -7335,7 +7416,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989741925</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -7375,7 +7456,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969917412</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -7412,7 +7493,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988654269</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -7452,7 +7533,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989748298</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -7492,7 +7573,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979320174</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -7529,7 +7610,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1971520134</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -7566,7 +7647,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002831827</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -7606,7 +7687,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1940155074</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -7646,7 +7727,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1940153598</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -7686,7 +7767,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974051226</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -7726,7 +7807,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969911022</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -7766,7 +7847,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974049468</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -7806,7 +7887,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1949267872</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>545</v>
       </c>
@@ -7846,7 +7927,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997042372</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -7886,7 +7967,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002893815</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -7960,7 +8041,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1939562481</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8081,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983872311</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -8037,7 +8118,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1953530554</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8074,7 +8155,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989887785</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -8108,7 +8189,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1972667771</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -8142,7 +8223,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1891502624</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -8179,7 +8260,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974381618</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -8216,7 +8297,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989891151</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -8250,7 +8331,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1901536224</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -8284,7 +8365,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988623554</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>316</v>
       </c>
@@ -8321,7 +8402,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1939552272</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -8358,7 +8439,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1981694348</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -8392,7 +8473,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1978992847</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -8426,7 +8507,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903130216</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -8463,7 +8544,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983078440</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8497,7 +8578,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1901537210</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>318</v>
       </c>
@@ -8531,7 +8612,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001378185</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -8568,7 +8649,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959971344</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -8605,7 +8686,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1878571737</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>102</v>
       </c>
@@ -8642,7 +8723,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1910040793</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -8679,7 +8760,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002150076</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -8716,7 +8797,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002923334</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -8750,7 +8831,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989795078</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -8790,7 +8871,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997744201</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -8830,7 +8911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952966524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>548</v>
       </c>
@@ -8932,7 +9013,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2003597152</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -8972,7 +9053,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2009329198</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -9012,7 +9093,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007617312</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -9052,7 +9133,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005592891</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -9092,7 +9173,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1948290166</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -9132,7 +9213,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007616331</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>544</v>
       </c>
@@ -9172,7 +9253,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2013644464</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -9206,7 +9287,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1958497622</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -9240,7 +9321,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2003791356</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -9274,7 +9355,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150119945</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>507</v>
       </c>
@@ -9308,7 +9389,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002145413</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -9345,7 +9426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2012406020</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -9382,7 +9463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995972469</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -9419,7 +9500,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979352154</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -9455,7 +9536,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010775948</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -9489,7 +9570,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996436999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -9554,7 +9635,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -9656,7 +9737,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010870926</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -9690,7 +9771,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989940758</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -9724,7 +9805,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2012626550</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>179</v>
       </c>
@@ -9761,7 +9842,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930823448</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -9795,7 +9876,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991671800</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -9829,7 +9910,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997369081</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -9860,7 +9941,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -9891,7 +9972,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -9931,7 +10012,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995901579</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -9968,7 +10049,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991189843</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -10002,7 +10083,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2014223902</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -10036,7 +10117,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006285454</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -10070,7 +10151,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010831823</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -10107,7 +10188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -10144,7 +10225,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2009393663</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -10178,7 +10259,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=200344851</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>144</v>
       </c>
@@ -10212,7 +10293,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930823448</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -10246,7 +10327,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988875637</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -10283,7 +10364,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148646696</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -10317,7 +10398,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979544112</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>223</v>
       </c>
@@ -10351,7 +10432,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996976450</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>110</v>
       </c>
@@ -10385,7 +10466,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018238252</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -10453,7 +10534,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2013857762</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -10487,7 +10568,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998159269</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>205</v>
       </c>
@@ -10521,7 +10602,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1931231386</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -10558,7 +10639,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149052423</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -10595,7 +10676,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005816571</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -10632,7 +10713,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153255048</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>218</v>
       </c>
@@ -10666,7 +10747,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988651750</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>208</v>
       </c>
@@ -10700,7 +10781,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010795513</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -10734,7 +10815,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2017417342</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10771,7 +10852,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011247388</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -10805,7 +10886,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018550564</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>226</v>
       </c>
@@ -10836,7 +10917,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -10873,7 +10954,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2147882487</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -10907,7 +10988,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011246115</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -10941,7 +11022,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153526905</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>549</v>
       </c>
@@ -10978,7 +11059,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153502339</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -11012,7 +11093,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019658230</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -11114,7 +11195,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011311833</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -11148,7 +11229,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150477303</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -11185,7 +11266,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150192626</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>241</v>
       </c>
@@ -11219,7 +11300,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1964618975</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -11259,7 +11340,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019629630</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -11293,7 +11374,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995927659</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>255</v>
       </c>
@@ -11327,7 +11408,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1992885175</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -11361,7 +11442,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983048203</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -11395,7 +11476,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995926578</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -11429,7 +11510,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -11466,7 +11547,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020186644</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -11497,7 +11578,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11534,7 +11615,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010808668</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11571,7 +11652,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000065538</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -11605,7 +11686,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -11639,7 +11720,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000070970</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -11676,7 +11757,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020332854</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -11706,7 +11787,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019451859</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>267</v>
       </c>
@@ -11740,7 +11821,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000086930</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>268</v>
       </c>
@@ -11808,7 +11889,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001209054</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>274</v>
       </c>
@@ -11842,7 +11923,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000047766</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>110</v>
       </c>
@@ -11876,7 +11957,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000090459</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>269</v>
       </c>
@@ -11910,7 +11991,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000089498</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>543</v>
       </c>
@@ -11947,7 +12028,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000080692</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -11981,7 +12062,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2021813077</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -12015,7 +12096,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001207267</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -12049,7 +12130,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001202939</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>263</v>
       </c>
@@ -12080,7 +12161,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -12114,7 +12195,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995047731</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -12148,7 +12229,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000051351</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>110</v>
       </c>
@@ -12182,7 +12263,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000009988</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -12216,7 +12297,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000015186</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>265</v>
       </c>
@@ -12250,7 +12331,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000047737</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>270</v>
       </c>
@@ -12284,7 +12365,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000015210</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>278</v>
       </c>
@@ -12318,7 +12399,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011460378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>285</v>
       </c>
@@ -12355,7 +12436,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022410265</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>283</v>
       </c>
@@ -12392,7 +12473,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020248958</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -12426,7 +12507,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011463841</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -12463,7 +12544,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000058543</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -12494,7 +12575,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -12528,7 +12609,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1954921266</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>110</v>
       </c>
@@ -12562,7 +12643,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002424768</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>144</v>
       </c>
@@ -12596,7 +12677,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148062281</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>297</v>
       </c>
@@ -12701,7 +12782,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002466621</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>148</v>
       </c>
@@ -12735,7 +12816,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476905</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -12769,7 +12850,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2156618139</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>300</v>
       </c>
@@ -12803,7 +12884,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022380440</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -12840,7 +12921,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011468036</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>290</v>
       </c>
@@ -12877,7 +12958,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157565752</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -12911,7 +12992,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019381606</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>144</v>
       </c>
@@ -12945,7 +13026,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011563381</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>189</v>
       </c>
@@ -12979,7 +13060,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002464335</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -13013,7 +13094,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476195</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>290</v>
       </c>
@@ -13050,7 +13131,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157565752</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>144</v>
       </c>
@@ -13118,7 +13199,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002493168</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>325</v>
       </c>
@@ -13152,7 +13233,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001271000</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>306</v>
       </c>
@@ -13186,7 +13267,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002479203</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -13220,7 +13301,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023648973</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -13254,7 +13335,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148121636</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>316</v>
       </c>
@@ -13291,7 +13372,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022323004</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>546</v>
       </c>
@@ -13325,7 +13406,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001275373</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>315</v>
       </c>
@@ -13359,7 +13440,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002481422</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -13396,7 +13477,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952771561</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>327</v>
       </c>
@@ -13430,7 +13511,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011573379</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -13464,7 +13545,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002483205</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -13498,7 +13579,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998105266</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -13532,7 +13613,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011472137</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>313</v>
       </c>
@@ -13566,7 +13647,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023648205</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>670</v>
       </c>
@@ -13603,7 +13684,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011573375</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -13637,7 +13718,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011448981</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -13671,7 +13752,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011553737</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>318</v>
       </c>
@@ -13708,7 +13789,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002483137</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -13742,7 +13823,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -13773,7 +13854,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -13810,7 +13891,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002929659</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -13844,7 +13925,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001276188</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>110</v>
       </c>
@@ -13881,7 +13962,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011251574</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -13915,7 +13996,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023689255</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -13949,7 +14030,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011248127</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>110</v>
       </c>
@@ -13983,7 +14064,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011579679</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -14017,7 +14098,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996941373</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>316</v>
       </c>
@@ -14051,7 +14132,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023643891</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -14085,7 +14166,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023649281</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -14119,7 +14200,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150321636</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>98</v>
       </c>
@@ -14159,7 +14240,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2158385377</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -14193,7 +14274,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476191</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -14227,7 +14308,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023684576</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>330</v>
       </c>
@@ -14261,7 +14342,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011567463</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>110</v>
       </c>
@@ -14295,7 +14376,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004831470</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -14332,7 +14413,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>144</v>
       </c>
@@ -14437,7 +14518,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>38</v>
       </c>
@@ -14477,7 +14558,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004854285</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>148</v>
       </c>
@@ -14511,7 +14592,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004836596</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>336</v>
       </c>
@@ -14548,7 +14629,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>336</v>
       </c>
@@ -14585,7 +14666,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -14619,7 +14700,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023829335</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -14653,7 +14734,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018836363</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -14687,7 +14768,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004830405</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>336</v>
       </c>
@@ -14724,7 +14805,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>336</v>
       </c>
@@ -14761,7 +14842,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -14795,7 +14876,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002477563</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>110</v>
       </c>
@@ -14832,7 +14913,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023800952</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>144</v>
       </c>
@@ -14903,7 +14984,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885747</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>342</v>
       </c>
@@ -14937,7 +15018,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004855673</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>547</v>
       </c>
@@ -14971,7 +15052,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004880624</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>268</v>
       </c>
@@ -15005,7 +15086,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004882558</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -15073,7 +15154,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163095743</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -15107,7 +15188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150526666</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>509</v>
       </c>
@@ -15141,7 +15222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2162219450</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -15175,7 +15256,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023835019</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>293</v>
       </c>
@@ -15209,7 +15290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023896421</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>110</v>
       </c>
@@ -15246,7 +15327,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894487</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>144</v>
       </c>
@@ -15279,7 +15360,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150460281</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>349</v>
       </c>
@@ -15313,7 +15394,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011663780</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>350</v>
       </c>
@@ -15347,7 +15428,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150499952</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>340</v>
       </c>
@@ -15381,7 +15462,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163093984</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>340</v>
       </c>
@@ -15415,7 +15496,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163093982</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -15449,7 +15530,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163095744</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>144</v>
       </c>
@@ -15483,7 +15564,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150482485</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>110</v>
       </c>
@@ -15517,7 +15598,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004850470</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -15551,7 +15632,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023874896</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>357</v>
       </c>
@@ -15585,7 +15666,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885797</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -15619,7 +15700,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023515851</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -15653,7 +15734,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163096609</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -15687,7 +15768,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004858179</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>10</v>
       </c>
@@ -15721,7 +15802,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004889177</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>267</v>
       </c>
@@ -15755,7 +15836,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004884146</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -15789,7 +15870,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004895045</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>380</v>
       </c>
@@ -15857,7 +15938,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002499371</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>269</v>
       </c>
@@ -15891,7 +15972,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004884161</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>366</v>
       </c>
@@ -15925,7 +16006,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148286545</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>366</v>
       </c>
@@ -15962,7 +16043,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023934977</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>278</v>
       </c>
@@ -15996,7 +16077,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150366165</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>102</v>
       </c>
@@ -16033,7 +16114,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011670243</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>377</v>
       </c>
@@ -16067,7 +16148,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011555299</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>267</v>
       </c>
@@ -16101,7 +16182,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004898735</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>144</v>
       </c>
@@ -16135,7 +16216,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001286434</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>378</v>
       </c>
@@ -16169,7 +16250,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004864863</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -16206,7 +16287,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011675690</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>381</v>
       </c>
@@ -16240,7 +16321,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004867583</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>267</v>
       </c>
@@ -16274,7 +16355,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885080</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>369</v>
       </c>
@@ -16308,7 +16389,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894884</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -16342,7 +16423,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023893992</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>364</v>
       </c>
@@ -16376,7 +16457,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004863035</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>144</v>
       </c>
@@ -16410,7 +16491,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004895022</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>70</v>
       </c>
@@ -16444,7 +16525,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163176780</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>421</v>
       </c>
@@ -16549,7 +16630,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2025056517</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -16583,7 +16664,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011702656</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>144</v>
       </c>
@@ -16617,7 +16698,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004883424</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>372</v>
       </c>
@@ -16651,7 +16732,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023887173</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>425</v>
       </c>
@@ -16691,7 +16772,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157568273</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -16731,7 +16812,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159653610</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>387</v>
       </c>
@@ -16765,7 +16846,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894635</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>361</v>
       </c>
@@ -16799,7 +16880,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163469814</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>189</v>
       </c>
@@ -16833,7 +16914,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1842963432</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>10</v>
       </c>
@@ -16867,7 +16948,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163295426</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>436</v>
       </c>
@@ -16904,7 +16985,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005251853</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>426</v>
       </c>
@@ -16944,7 +17025,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005593763</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>424</v>
       </c>
@@ -16984,7 +17065,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002024179</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>427</v>
       </c>
@@ -17024,7 +17105,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993227048</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>427</v>
       </c>
@@ -17064,7 +17145,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993227048</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>425</v>
       </c>
@@ -17104,7 +17185,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157568273</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -17172,7 +17253,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006337616</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>131</v>
       </c>
@@ -17206,7 +17287,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006340870</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>144</v>
       </c>
@@ -17237,7 +17318,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>449</v>
       </c>
@@ -17271,7 +17352,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006307232</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>10</v>
       </c>
@@ -17308,7 +17389,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004873200</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -17345,7 +17426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004890024</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>459</v>
       </c>
@@ -17382,7 +17463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148173936</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>10</v>
       </c>
@@ -17419,7 +17500,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004867934</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>459</v>
       </c>
@@ -17459,7 +17540,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006680164</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>508</v>
       </c>
@@ -17493,7 +17574,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150491865</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>318</v>
       </c>
@@ -17533,7 +17614,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148365056</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>267</v>
       </c>
@@ -17567,7 +17648,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006361244</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>471</v>
       </c>
@@ -17604,7 +17685,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002482099</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>470</v>
       </c>
@@ -17672,7 +17753,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149765659</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>148</v>
       </c>
@@ -17740,7 +17821,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149718655</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>482</v>
       </c>
@@ -17777,7 +17858,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151169816</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>144</v>
       </c>
@@ -17811,7 +17892,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151250348</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>486</v>
       </c>
@@ -17845,7 +17926,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173523034</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -17879,7 +17960,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151010611</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>361</v>
       </c>
@@ -17913,7 +17994,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173523034</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>476</v>
       </c>
@@ -17950,7 +18031,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011663355</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>10</v>
       </c>
@@ -17987,7 +18068,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149676794</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -18021,7 +18102,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166236635</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -18058,7 +18139,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149679831</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>267</v>
       </c>
@@ -18095,7 +18176,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149679722</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -18129,7 +18210,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149727665</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -18163,7 +18244,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>10</v>
       </c>
@@ -18197,7 +18278,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149703104</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>483</v>
       </c>
@@ -18268,7 +18349,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149957885</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -18305,7 +18386,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150471493</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>512</v>
       </c>
@@ -18332,7 +18413,7 @@
         <v>44101</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -18366,7 +18447,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149955311</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>522</v>
       </c>
@@ -18403,7 +18484,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011646968</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>144</v>
       </c>
@@ -18440,7 +18521,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172045255</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>519</v>
       </c>
@@ -18477,7 +18558,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148269243</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>144</v>
       </c>
@@ -18551,7 +18632,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149969097</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -18588,7 +18669,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011685804</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>144</v>
       </c>
@@ -18625,7 +18706,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151314924</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>144</v>
       </c>
@@ -18662,7 +18743,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011716562</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -18696,7 +18777,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174385346</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -18733,7 +18814,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151074708</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -18770,7 +18851,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1509059247</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -18807,7 +18888,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1509059247</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>144</v>
       </c>
@@ -18844,7 +18925,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991231615</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -18884,7 +18965,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004805241</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -18921,7 +19002,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011685852</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>530</v>
       </c>
@@ -18958,7 +19039,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011686310</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>534</v>
       </c>
@@ -18992,7 +19073,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998190369</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>671</v>
       </c>
@@ -19026,7 +19107,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174386037</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>542</v>
       </c>
@@ -19060,7 +19141,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172124640</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>144</v>
       </c>
@@ -19097,7 +19178,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151287803</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>685</v>
       </c>
@@ -19165,7 +19246,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148344069</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>690</v>
       </c>
@@ -19199,7 +19280,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149789625</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -19233,7 +19314,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182156168</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>144</v>
       </c>
@@ -19267,7 +19348,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151300187</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>681</v>
       </c>
@@ -19301,7 +19382,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007200140</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>672</v>
       </c>
@@ -19335,7 +19416,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2171690942</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>327</v>
       </c>
@@ -19369,7 +19450,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151218125</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>10</v>
       </c>
@@ -19403,7 +19484,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166352321</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -19437,7 +19518,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019609504</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -19471,7 +19552,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182037080</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>10</v>
       </c>
@@ -19505,7 +19586,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149970980</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>674</v>
       </c>
@@ -19532,7 +19613,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155368391</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>10</v>
       </c>
@@ -19562,7 +19643,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023660526</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>693</v>
       </c>
@@ -19599,7 +19680,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183478749</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>293</v>
       </c>
@@ -19633,7 +19714,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182198220</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>699</v>
       </c>
@@ -19670,7 +19751,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>685</v>
       </c>
@@ -19707,7 +19788,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173016810</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>449</v>
       </c>
@@ -19741,7 +19822,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757472</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>297</v>
       </c>
@@ -19775,7 +19856,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2171698821</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>704</v>
       </c>
@@ -19812,7 +19893,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183951386</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>699</v>
       </c>
@@ -19849,7 +19930,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>703</v>
       </c>
@@ -19886,7 +19967,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757160</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>708</v>
       </c>
@@ -19920,7 +20001,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149771617</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>381</v>
       </c>
@@ -19954,7 +20035,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155335171</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>110</v>
       </c>
@@ -19988,7 +20069,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151311102</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>696</v>
       </c>
@@ -20025,7 +20106,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183372249</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>709</v>
       </c>
@@ -20059,7 +20140,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011759907</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -20093,7 +20174,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159736898</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>267</v>
       </c>
@@ -20127,7 +20208,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150860964</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>706</v>
       </c>
@@ -20154,7 +20235,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152177388</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>719</v>
       </c>
@@ -20191,7 +20272,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186865305</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>110</v>
       </c>
@@ -20225,7 +20306,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165552942</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>10</v>
       </c>
@@ -20262,7 +20343,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185386896</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>725</v>
       </c>
@@ -20296,7 +20377,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>722</v>
       </c>
@@ -20330,7 +20411,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157971267</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>725</v>
       </c>
@@ -20364,7 +20445,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>725</v>
       </c>
@@ -20398,7 +20479,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>725</v>
       </c>
@@ -20432,7 +20513,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -20466,7 +20547,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163554811</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>725</v>
       </c>
@@ -20500,7 +20581,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>713</v>
       </c>
@@ -20534,7 +20615,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165557310</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -20568,7 +20649,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189079637</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>10</v>
       </c>
@@ -20601,7 +20682,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189078270</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>725</v>
       </c>
@@ -20635,7 +20716,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>723</v>
       </c>
@@ -20669,7 +20750,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152069177</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>715</v>
       </c>
@@ -20706,7 +20787,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185261833</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>267</v>
       </c>
@@ -20740,7 +20821,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165542461</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>725</v>
       </c>
@@ -20777,7 +20858,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>10</v>
       </c>
@@ -20811,7 +20892,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157909056</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>711</v>
       </c>
@@ -20845,7 +20926,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157904598</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>270</v>
       </c>
@@ -20879,7 +20960,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165547094</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>725</v>
       </c>
@@ -20947,7 +21028,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165593155</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>293</v>
       </c>
@@ -20984,7 +21065,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189606471</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>10</v>
       </c>
@@ -21021,7 +21102,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>729</v>
       </c>
@@ -21055,7 +21136,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159753905</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>732</v>
       </c>
@@ -21095,7 +21176,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>10</v>
       </c>
@@ -21129,7 +21210,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190416610</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>10</v>
       </c>
@@ -21169,7 +21250,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>10</v>
       </c>
@@ -21206,7 +21287,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>732</v>
       </c>
@@ -21283,7 +21364,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190968595</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>737</v>
       </c>
@@ -21317,7 +21398,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191690582</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>740</v>
       </c>
@@ -21351,7 +21432,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191817150</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>144</v>
       </c>
@@ -21422,7 +21503,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193017933</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>325</v>
       </c>
@@ -21456,7 +21537,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172508115</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>743</v>
       </c>
@@ -21493,7 +21574,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2164741884</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>144</v>
       </c>
@@ -21530,7 +21611,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193267345</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>144</v>
       </c>
@@ -21564,7 +21645,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509339</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>746</v>
       </c>
@@ -21598,7 +21679,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193132664</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>744</v>
       </c>
@@ -21632,7 +21713,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172522919</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>267</v>
       </c>
@@ -21666,7 +21747,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170984715</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>325</v>
       </c>
@@ -21700,7 +21781,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172506338</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>325</v>
       </c>
@@ -21737,7 +21818,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509058</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>38</v>
       </c>
@@ -21777,7 +21858,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173781459</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>753</v>
       </c>
@@ -21814,7 +21895,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193716463</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -21848,7 +21929,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -21885,7 +21966,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195056161</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -21919,7 +22000,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172593126</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -21959,7 +22040,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>144</v>
       </c>
@@ -21993,7 +22074,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170855305</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>110</v>
       </c>
@@ -22024,7 +22105,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189147960</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>756</v>
       </c>
@@ -22061,7 +22142,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193706917</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -22095,7 +22176,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172589165</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>760</v>
       </c>
@@ -22197,7 +22278,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179939169</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>144</v>
       </c>
@@ -22231,7 +22312,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179929178</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>776</v>
       </c>
@@ -22265,7 +22346,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202366985</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>102</v>
       </c>
@@ -22299,7 +22380,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179906495</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>144</v>
       </c>
@@ -22333,7 +22414,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172575351</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>772</v>
       </c>
@@ -22366,7 +22447,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179920328</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>144</v>
       </c>
@@ -22400,7 +22481,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202434558</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>519</v>
       </c>
@@ -22434,7 +22515,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2196526593</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>110</v>
       </c>
@@ -22471,7 +22552,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2176217822</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>767</v>
       </c>
@@ -22505,7 +22586,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174485612</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>267</v>
       </c>
@@ -22539,7 +22620,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179907759</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>769</v>
       </c>
@@ -22573,7 +22654,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202381402</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -22607,7 +22688,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170947437</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -22641,7 +22722,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173732367</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -22675,7 +22756,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2175460661</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>788</v>
       </c>
@@ -22709,7 +22790,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2181363709</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>449</v>
       </c>
@@ -22743,7 +22824,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183081870</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>144</v>
       </c>
@@ -22777,7 +22858,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206198614</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>144</v>
       </c>
@@ -22814,7 +22895,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206335036</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -22851,7 +22932,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205045808</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -22885,7 +22966,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195596704</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>778</v>
       </c>
@@ -22919,7 +23000,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206107960</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>744</v>
       </c>
@@ -22953,7 +23034,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183029460</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>708</v>
       </c>
@@ -22987,7 +23068,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184308308</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>189</v>
       </c>
@@ -23021,7 +23102,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2204624044</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -23055,7 +23136,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2209090491</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>787</v>
       </c>
@@ -23086,7 +23167,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202487664</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -23120,7 +23201,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183079310</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -23159,7 +23240,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166001645</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>144</v>
       </c>
@@ -23193,7 +23274,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184305114</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>792</v>
       </c>
@@ -23230,7 +23311,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183020877</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="16" t="s">
         <v>10</v>
       </c>
@@ -23268,7 +23349,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2167680222</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -23301,7 +23382,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2211780884</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -23368,7 +23449,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183099248</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -23402,7 +23483,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149684074</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -23436,7 +23517,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186317142</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -23507,7 +23588,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194363196</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>800</v>
       </c>
@@ -23541,7 +23622,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194364148</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>144</v>
       </c>
@@ -23575,7 +23656,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193874004</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>144</v>
       </c>
@@ -23612,7 +23693,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218701448</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>801</v>
       </c>
@@ -23683,7 +23764,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218965080</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>803</v>
       </c>
@@ -23717,7 +23798,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200152665</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>267</v>
       </c>
@@ -23751,7 +23832,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2227763771</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>300</v>
       </c>
@@ -23785,7 +23866,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218618464</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>519</v>
       </c>
@@ -23822,7 +23903,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218678601</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>189</v>
       </c>
@@ -23859,7 +23940,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200151775</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>325</v>
       </c>
@@ -23893,7 +23974,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205265334</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>325</v>
       </c>
@@ -23927,7 +24008,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193872411</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -23964,7 +24045,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2252922985</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -24001,7 +24082,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>808</v>
       </c>
@@ -24035,7 +24116,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -24072,7 +24153,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218866571</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>325</v>
       </c>
@@ -24106,7 +24187,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>325</v>
       </c>
@@ -24140,7 +24221,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>325</v>
       </c>
@@ -24174,7 +24255,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>325</v>
       </c>
@@ -24208,7 +24289,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>810</v>
       </c>
@@ -24242,7 +24323,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187501790</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>788</v>
       </c>
@@ -24279,7 +24360,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2232822439</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>811</v>
       </c>
@@ -24313,7 +24394,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187577364</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>144</v>
       </c>
@@ -24350,7 +24431,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2241595564</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -24384,7 +24465,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2268547992</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>814</v>
       </c>
@@ -24452,7 +24533,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2238583006</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -24486,7 +24567,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316876761</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>817</v>
       </c>
@@ -24520,7 +24601,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323935181</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -24588,7 +24669,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329009935</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -24656,7 +24737,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328274427</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -24727,7 +24808,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335198219</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -24798,7 +24879,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2326288632</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>144</v>
       </c>
@@ -24832,7 +24913,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353653997</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -24869,7 +24950,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332220792</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>144</v>
       </c>
@@ -24937,7 +25018,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329012353</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -24971,7 +25052,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340612987</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -25005,7 +25086,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184825</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>144</v>
       </c>
@@ -25073,7 +25154,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114908</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -25107,7 +25188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185802</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>831</v>
       </c>
@@ -25141,7 +25222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2337825747</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>293</v>
       </c>
@@ -25209,7 +25290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335117331</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>833</v>
       </c>
@@ -25243,7 +25324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2298378514</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -25277,7 +25358,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316122554</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>835</v>
       </c>
@@ -25311,7 +25392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2271185716</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>144</v>
       </c>
@@ -25345,7 +25426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341545173</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -25379,7 +25460,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355460043</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -25406,7 +25487,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2306003868</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -25440,7 +25521,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341554371</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -25474,7 +25555,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353683570</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -25508,7 +25589,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344817540</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>840</v>
       </c>
@@ -25542,7 +25623,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318782562</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -25616,7 +25697,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222612216</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -25650,7 +25731,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355013229</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -25684,7 +25765,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316104905</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>847</v>
       </c>
@@ -25718,7 +25799,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340497329</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>144</v>
       </c>
@@ -25752,7 +25833,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348189277</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -25820,7 +25901,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114213</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>850</v>
       </c>
@@ -25854,7 +25935,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222476417</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>519</v>
       </c>
@@ -25888,7 +25969,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353898804</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -25922,7 +26003,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323009537</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>144</v>
       </c>
@@ -25956,7 +26037,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329908728</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>855</v>
       </c>
@@ -25990,7 +26071,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332229796</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>46</v>
       </c>
@@ -26024,7 +26105,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329072882</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -26061,7 +26142,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329874875</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>857</v>
       </c>
@@ -26095,7 +26176,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339958199</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -26163,7 +26244,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151377746</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>859</v>
       </c>
@@ -26197,7 +26278,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2324174090</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>293</v>
       </c>
@@ -26231,7 +26312,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184182</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>300</v>
       </c>
@@ -26268,7 +26349,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1950764538</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>449</v>
       </c>
@@ -26302,7 +26383,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2291654300</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>519</v>
       </c>
@@ -26336,7 +26417,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321946373</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>863</v>
       </c>
@@ -26370,7 +26451,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314317360</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -26404,7 +26485,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329264424</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>110</v>
       </c>
@@ -26472,7 +26553,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335184819</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>868</v>
       </c>
@@ -26509,7 +26590,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2280108348</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>110</v>
       </c>
@@ -26546,7 +26627,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328683109</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>850</v>
       </c>
@@ -26580,7 +26661,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342484923</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>872</v>
       </c>
@@ -26614,7 +26695,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348176102</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>144</v>
       </c>
@@ -26651,7 +26732,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355345116</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>144</v>
       </c>
@@ -26685,7 +26766,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345890457</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>876</v>
       </c>
@@ -26725,7 +26806,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338908703</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>878</v>
       </c>
@@ -26762,7 +26843,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2320796069</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>881</v>
       </c>
@@ -26796,7 +26877,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343666264</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>883</v>
       </c>
@@ -26830,7 +26911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347303658</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>144</v>
       </c>
@@ -26864,7 +26945,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348447267</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>884</v>
       </c>
@@ -26901,7 +26982,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2336789108</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -26935,7 +27016,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332222606</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>885</v>
       </c>
@@ -26972,7 +27053,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344551263</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>887</v>
       </c>
@@ -27006,7 +27087,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2313257578</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>888</v>
       </c>
@@ -27040,7 +27121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321920622</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>110</v>
       </c>
@@ -27074,7 +27155,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314546653</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>519</v>
       </c>
@@ -27145,7 +27226,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329093655</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>144</v>
       </c>
@@ -27172,7 +27253,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363470666</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>884</v>
       </c>
@@ -27206,7 +27287,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362956946</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>895</v>
       </c>
@@ -27240,7 +27321,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347328544</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>144</v>
       </c>
@@ -27274,7 +27355,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322762417</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>896</v>
       </c>
@@ -27311,7 +27392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322738291</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>898</v>
       </c>
@@ -27345,7 +27426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354988367</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>908</v>
       </c>
@@ -27382,7 +27463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314543406</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>519</v>
       </c>
@@ -27416,7 +27497,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>519</v>
       </c>
@@ -27450,7 +27531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=344675073</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>288</v>
       </c>
@@ -27484,7 +27565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350245369</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>905</v>
       </c>
@@ -27518,7 +27599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351004425</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>906</v>
       </c>
@@ -27552,7 +27633,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343339701</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>901</v>
       </c>
@@ -27586,7 +27667,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364405651</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>903</v>
       </c>
@@ -27654,7 +27735,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351065742</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>907</v>
       </c>
@@ -27688,7 +27769,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185803</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>910</v>
       </c>
@@ -27725,7 +27806,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1023481870</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>911</v>
       </c>
@@ -27759,7 +27840,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351086236</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>713</v>
       </c>
@@ -27796,7 +27877,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363911126</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>883</v>
       </c>
@@ -27830,7 +27911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344153924</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>267</v>
       </c>
@@ -27864,7 +27945,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351060869</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>912</v>
       </c>
@@ -27898,7 +27979,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364969468</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>297</v>
       </c>
@@ -27932,7 +28013,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968701</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>110</v>
       </c>
@@ -27959,7 +28040,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332353686</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>110</v>
       </c>
@@ -27993,7 +28074,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151312080</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>144</v>
       </c>
@@ -28030,7 +28111,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344542176</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>911</v>
       </c>
@@ -28064,7 +28145,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351897093</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>144</v>
       </c>
@@ -28098,7 +28179,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351878287</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>144</v>
       </c>
@@ -28132,7 +28213,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341527170</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>920</v>
       </c>
@@ -28166,7 +28247,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353656370</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>921</v>
       </c>
@@ -28200,7 +28281,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355381171</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>300</v>
       </c>
@@ -28234,7 +28315,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345422476</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>144</v>
       </c>
@@ -28268,7 +28349,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348186696</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>110</v>
       </c>
@@ -28302,7 +28383,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364451148</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -28336,7 +28417,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341780885</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -28370,7 +28451,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2334433450</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -28404,7 +28485,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356553293</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -28438,7 +28519,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352978255</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -28472,7 +28553,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342676709</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>932</v>
       </c>
@@ -28506,7 +28587,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354456228</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -28540,7 +28621,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356542385</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -28577,7 +28658,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343650668</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -28611,7 +28692,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364444137</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>940</v>
       </c>
@@ -28645,7 +28726,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348191034</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -28679,7 +28760,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344243994</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>908</v>
       </c>
@@ -28713,7 +28794,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2331691077</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>942</v>
       </c>
@@ -28747,7 +28828,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968617</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>943</v>
       </c>
@@ -28781,7 +28862,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364965753</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>144</v>
       </c>
@@ -28815,7 +28896,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314989841</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>519</v>
       </c>
@@ -28849,7 +28930,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362599708</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>144</v>
       </c>
@@ -28883,7 +28964,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354107658</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>911</v>
       </c>
@@ -28917,7 +28998,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352972415</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>945</v>
       </c>
@@ -28951,7 +29032,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366269149</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>946</v>
       </c>
@@ -28988,7 +29069,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2315550222</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>189</v>
       </c>
@@ -29025,7 +29106,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340749860</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>948</v>
       </c>
@@ -29062,7 +29143,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318769583</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>950</v>
       </c>
@@ -29099,7 +29180,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>951</v>
       </c>
@@ -29136,7 +29217,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323924889</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>144</v>
       </c>
@@ -29173,7 +29254,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350314395</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>953</v>
       </c>
@@ -29207,7 +29288,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347362934</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>954</v>
       </c>
@@ -29241,7 +29322,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344691472</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>956</v>
       </c>
@@ -29275,7 +29356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353019990</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>958</v>
       </c>
@@ -29309,7 +29390,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356062540</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>330</v>
       </c>
@@ -29343,7 +29424,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359405945</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>959</v>
       </c>
@@ -29377,7 +29458,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352244134</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>191</v>
       </c>
@@ -29414,7 +29495,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372903004</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>361</v>
       </c>
@@ -29448,7 +29529,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370822466</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>330</v>
       </c>
@@ -29482,7 +29563,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360704412</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>963</v>
       </c>
@@ -29516,7 +29597,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372706451</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>144</v>
       </c>
@@ -29550,7 +29631,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706175</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>965</v>
       </c>
@@ -29584,7 +29665,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321057334</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>966</v>
       </c>
@@ -29621,7 +29702,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374599942</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>968</v>
       </c>
@@ -29652,7 +29733,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374558509</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>230</v>
       </c>
@@ -29689,7 +29770,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373943688</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>972</v>
       </c>
@@ -29726,7 +29807,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353739646</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -29760,7 +29841,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277934</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>519</v>
       </c>
@@ -29794,7 +29875,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277935</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>110</v>
       </c>
@@ -29828,7 +29909,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368157280</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>144</v>
       </c>
@@ -29862,7 +29943,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355644640</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>110</v>
       </c>
@@ -29896,7 +29977,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355653268</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>973</v>
       </c>
@@ -29930,7 +30011,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352995933</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -29956,6 +30037,9 @@
       <c r="H722" s="5">
         <v>44205</v>
       </c>
+      <c r="I722" s="5">
+        <v>44221</v>
+      </c>
       <c r="L722">
         <v>2373845128</v>
       </c>
@@ -29964,7 +30048,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373845128</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>144</v>
       </c>
@@ -29998,7 +30082,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339183049</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>144</v>
       </c>
@@ -30032,7 +30116,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338913562</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>519</v>
       </c>
@@ -30066,7 +30150,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361560919</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>110</v>
       </c>
@@ -30100,7 +30184,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>110</v>
       </c>
@@ -30134,7 +30218,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>981</v>
       </c>
@@ -30168,7 +30252,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350947337</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>10</v>
       </c>
@@ -30202,7 +30286,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368589046</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>10</v>
       </c>
@@ -30236,7 +30320,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372186951</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>884</v>
       </c>
@@ -30270,7 +30354,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368620019</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>144</v>
       </c>
@@ -30307,7 +30391,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354650873</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>965</v>
       </c>
@@ -30341,7 +30425,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354143853</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>14</v>
       </c>
@@ -30375,7 +30459,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764481</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>293</v>
       </c>
@@ -30409,7 +30493,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2358678670</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>884</v>
       </c>
@@ -30443,7 +30527,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355055800</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>10</v>
       </c>
@@ -30480,7 +30564,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356993969</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>361</v>
       </c>
@@ -30514,7 +30598,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372694423</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>992</v>
       </c>
@@ -30548,7 +30632,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359239610</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>144</v>
       </c>
@@ -30582,7 +30666,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364729103</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>995</v>
       </c>
@@ -30619,7 +30703,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706212</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>10</v>
       </c>
@@ -30724,7 +30808,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372101133</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>144</v>
       </c>
@@ -30758,7 +30842,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372193668</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>999</v>
       </c>
@@ -30785,7 +30869,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>954</v>
       </c>
@@ -30819,7 +30903,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376748343</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>144</v>
       </c>
@@ -30853,7 +30937,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359609615</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>110</v>
       </c>
@@ -30924,7 +31008,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368083278</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>144</v>
       </c>
@@ -30958,7 +31042,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366585560</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1002</v>
       </c>
@@ -30992,7 +31076,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366505315</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>144</v>
       </c>
@@ -31026,7 +31110,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377936621</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1004</v>
       </c>
@@ -31063,7 +31147,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373270367</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1006</v>
       </c>
@@ -31100,7 +31184,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369175427</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1007</v>
       </c>
@@ -31134,7 +31218,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369186406</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>318</v>
       </c>
@@ -31168,7 +31252,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368043859</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>98</v>
       </c>
@@ -31202,7 +31286,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359625710</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1009</v>
       </c>
@@ -31236,7 +31320,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2380952280</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>144</v>
       </c>
@@ -31270,7 +31354,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369603611</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>189</v>
       </c>
@@ -31304,7 +31388,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381146981</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>753</v>
       </c>
@@ -31338,7 +31422,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373008849</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1014</v>
       </c>
@@ -31364,6 +31448,9 @@
       <c r="H763" s="5">
         <v>44211</v>
       </c>
+      <c r="I763" s="5">
+        <v>44221</v>
+      </c>
       <c r="L763">
         <v>2381522305</v>
       </c>
@@ -31372,7 +31459,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381522305</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>293</v>
       </c>
@@ -31409,7 +31496,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381656764</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1017</v>
       </c>
@@ -31443,7 +31530,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764237</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>144</v>
       </c>
@@ -31477,7 +31564,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379919794</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>10</v>
       </c>
@@ -31511,7 +31598,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360972941</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1018</v>
       </c>
@@ -31545,7 +31632,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381658883</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>10</v>
       </c>
@@ -31582,7 +31669,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361703757</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1021</v>
       </c>
@@ -31718,7 +31805,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381500253</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>144</v>
       </c>
@@ -31752,7 +31839,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369676996</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>110</v>
       </c>
@@ -31786,7 +31873,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666082</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1023</v>
       </c>
@@ -31820,7 +31907,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363819054</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>10</v>
       </c>
@@ -31854,7 +31941,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666188</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1025</v>
       </c>
@@ -31888,7 +31975,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370659321</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>519</v>
       </c>
@@ -31925,7 +32012,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361706756</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1027</v>
       </c>
@@ -31962,7 +32049,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369142503</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1030</v>
       </c>
@@ -31996,7 +32083,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381063707</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>144</v>
       </c>
@@ -32030,7 +32117,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381056249</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1007</v>
       </c>
@@ -32064,7 +32151,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371675405</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>189</v>
       </c>
@@ -32101,7 +32188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385704888</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>884</v>
       </c>
@@ -32135,7 +32222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381633526</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1032</v>
       </c>
@@ -32169,7 +32256,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369689373</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>144</v>
       </c>
@@ -32203,7 +32290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147827</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>144</v>
       </c>
@@ -32237,7 +32324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>144</v>
       </c>
@@ -32339,7 +32426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369681520</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1038</v>
       </c>
@@ -32376,7 +32463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372859629</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>110</v>
       </c>
@@ -32410,7 +32497,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372851493</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>144</v>
       </c>
@@ -32444,7 +32531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381059386</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>144</v>
       </c>
@@ -32478,7 +32565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2304696128</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>10</v>
       </c>
@@ -32512,7 +32599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379522826</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>144</v>
       </c>
@@ -32546,7 +32633,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386195976</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>144</v>
       </c>
@@ -32580,7 +32667,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368477962</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>144</v>
       </c>
@@ -32640,6 +32727,9 @@
       <c r="H800" s="5">
         <v>44215</v>
       </c>
+      <c r="I800" s="5">
+        <v>44221</v>
+      </c>
       <c r="L800">
         <v>2362727424</v>
       </c>
@@ -32648,7 +32738,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362727424</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>144</v>
       </c>
@@ -32685,7 +32775,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374648415</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1047</v>
       </c>
@@ -32722,7 +32812,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2383667508</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1048</v>
       </c>
@@ -32756,7 +32846,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147398</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1049</v>
       </c>
@@ -32790,7 +32880,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369673851</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>144</v>
       </c>
@@ -32824,7 +32914,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373665723</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>10</v>
       </c>
@@ -32929,7 +33019,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374040643</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1052</v>
       </c>
@@ -32963,7 +33053,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371666673</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>189</v>
       </c>
@@ -32997,7 +33087,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786851</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1054</v>
       </c>
@@ -33031,7 +33121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786724</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1057</v>
       </c>
@@ -33061,7 +33151,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>908</v>
       </c>
@@ -33088,7 +33178,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1060</v>
       </c>
@@ -33122,7 +33212,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386150009</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>144</v>
       </c>
@@ -33193,7 +33283,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374919220</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>144</v>
       </c>
@@ -33261,7 +33351,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374070633</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1054</v>
       </c>
@@ -33329,7 +33419,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374079669</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1064</v>
       </c>
@@ -33366,7 +33456,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388194855</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>144</v>
       </c>
@@ -33392,6 +33482,9 @@
       <c r="H822" s="5">
         <v>44217</v>
       </c>
+      <c r="I822" s="5">
+        <v>44222</v>
+      </c>
       <c r="L822">
         <v>2367084531</v>
       </c>
@@ -33400,7 +33493,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367084531</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>144</v>
       </c>
@@ -33423,6 +33516,9 @@
       <c r="H823" s="5">
         <v>44217</v>
       </c>
+      <c r="I823" s="5">
+        <v>44223</v>
+      </c>
       <c r="L823">
         <v>2389399659</v>
       </c>
@@ -33431,7 +33527,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2389399659</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>144</v>
       </c>
@@ -33465,7 +33561,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388042311</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1070</v>
       </c>
@@ -33499,7 +33595,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388175503</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1072</v>
       </c>
@@ -33533,7 +33629,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367097752</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1078</v>
       </c>
@@ -33560,7 +33656,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>110</v>
       </c>
@@ -33587,7 +33683,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>300</v>
       </c>
@@ -33614,7 +33710,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>316</v>
       </c>
@@ -33641,7 +33737,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>908</v>
       </c>
@@ -33668,7 +33764,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>908</v>
       </c>
@@ -33695,7 +33791,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1084</v>
       </c>
@@ -33722,7 +33818,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>293</v>
       </c>
@@ -33749,7 +33845,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1087</v>
       </c>
@@ -33779,7 +33875,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1090</v>
       </c>
@@ -33813,7 +33909,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>519</v>
       </c>
@@ -33847,7 +33943,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>144</v>
       </c>
@@ -33881,7 +33977,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377822673</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1091</v>
       </c>
@@ -33915,7 +34011,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374060955</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1093</v>
       </c>
@@ -33949,7 +34045,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377887650</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1095</v>
       </c>
@@ -33983,7 +34079,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2390326178</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1097</v>
       </c>
@@ -34017,7 +34113,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370680356</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1097</v>
       </c>
@@ -34051,7 +34147,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376362654</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>144</v>
       </c>
@@ -34085,7 +34181,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393117700</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>884</v>
       </c>
@@ -34153,7 +34249,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2378864395</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1101</v>
       </c>
@@ -34187,7 +34283,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377869634</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>10</v>
       </c>
@@ -34221,7 +34317,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374940174</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1103</v>
       </c>
@@ -34247,6 +34343,9 @@
       <c r="H849" s="5">
         <v>44220</v>
       </c>
+      <c r="J849" s="5">
+        <v>44221</v>
+      </c>
       <c r="L849">
         <v>2382091467</v>
       </c>
@@ -34255,7 +34354,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382091467</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1105</v>
       </c>
@@ -34289,7 +34388,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2365599512</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1107</v>
       </c>
@@ -34323,7 +34422,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386891606</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1110</v>
       </c>
@@ -34356,11 +34455,11 @@
         <v>2329858716</v>
       </c>
       <c r="M852" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L852</f>
+        <f t="shared" ref="M852:M857" si="48">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L852</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858716</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1112</v>
       </c>
@@ -34393,11 +34492,11 @@
         <v>2287832985</v>
       </c>
       <c r="M853" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L853</f>
+        <f t="shared" si="48"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2287832985</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1113</v>
       </c>
@@ -34430,11 +34529,11 @@
         <v>2381495210</v>
       </c>
       <c r="M854" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L854</f>
+        <f t="shared" si="48"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381495210</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1110</v>
       </c>
@@ -34467,11 +34566,11 @@
         <v>2329858719</v>
       </c>
       <c r="M855" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L855</f>
+        <f t="shared" si="48"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858719</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>144</v>
       </c>
@@ -34504,11 +34603,11 @@
         <v>2258367876</v>
       </c>
       <c r="M856" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L856</f>
+        <f t="shared" si="48"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2258367876</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>10</v>
       </c>
@@ -34541,11 +34640,11 @@
         <v>2311948015</v>
       </c>
       <c r="M857" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L857</f>
+        <f t="shared" si="48"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311948015</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1114</v>
       </c>
@@ -34578,11 +34677,11 @@
         <v>2311047818</v>
       </c>
       <c r="M858" t="str">
-        <f t="shared" ref="M858" si="48">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L858</f>
+        <f t="shared" ref="M858" si="49">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L858</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311047818</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1115</v>
       </c>
@@ -34619,7 +34718,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1115</v>
       </c>
@@ -34656,7 +34755,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1115</v>
       </c>
@@ -34693,7 +34792,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1116</v>
       </c>
@@ -34726,11 +34825,11 @@
         <v>2367897041</v>
       </c>
       <c r="M862" t="str">
-        <f t="shared" ref="M862:M869" si="49">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L862</f>
+        <f t="shared" ref="M862:M869" si="50">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L862</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367897041</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1117</v>
       </c>
@@ -34763,11 +34862,11 @@
         <v>2308280816</v>
       </c>
       <c r="M863" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2308280816</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1118</v>
       </c>
@@ -34800,11 +34899,11 @@
         <v>2393033909</v>
       </c>
       <c r="M864" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393033909</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1120</v>
       </c>
@@ -34841,7 +34940,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394483545</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>144</v>
       </c>
@@ -34874,11 +34973,11 @@
         <v>2381954250</v>
       </c>
       <c r="M866" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381954250</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>884</v>
       </c>
@@ -34904,15 +35003,18 @@
       <c r="H867" s="5">
         <v>44221</v>
       </c>
+      <c r="J867" s="5">
+        <v>44222</v>
+      </c>
       <c r="L867">
         <v>2388115374</v>
       </c>
       <c r="M867" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388115374</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>911</v>
       </c>
@@ -34942,11 +35044,11 @@
         <v>2379438871</v>
       </c>
       <c r="M868" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379438871</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1122</v>
       </c>
@@ -34976,8 +35078,991 @@
         <v>2393047482</v>
       </c>
       <c r="M869" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393047482</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B870" t="s">
+        <v>262</v>
+      </c>
+      <c r="C870" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D870" t="s">
+        <v>214</v>
+      </c>
+      <c r="E870" t="s">
+        <v>398</v>
+      </c>
+      <c r="F870" s="16" t="str">
+        <f>VLOOKUP(E870,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G870" s="5">
+        <v>44222</v>
+      </c>
+      <c r="H870" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L870">
+        <v>2380339742</v>
+      </c>
+      <c r="M870" t="str">
+        <f t="shared" ref="M870:M879" si="51">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L870</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2380339742</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>377</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C871" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D871" t="s">
+        <v>533</v>
+      </c>
+      <c r="E871" t="s">
+        <v>393</v>
+      </c>
+      <c r="F871" s="16" t="str">
+        <f>VLOOKUP(E871,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G871" s="5">
+        <v>44222</v>
+      </c>
+      <c r="H871" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L871">
+        <v>2374401373</v>
+      </c>
+      <c r="M871" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374401373</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C872" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D872" t="s">
+        <v>62</v>
+      </c>
+      <c r="E872" t="s">
+        <v>396</v>
+      </c>
+      <c r="F872" s="16" t="str">
+        <f>VLOOKUP(E872,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G872" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H872" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L872">
+        <v>2386084891</v>
+      </c>
+      <c r="M872" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2386084891</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B873" t="s">
+        <v>504</v>
+      </c>
+      <c r="C873" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D873" t="s">
+        <v>214</v>
+      </c>
+      <c r="E873" t="s">
+        <v>398</v>
+      </c>
+      <c r="F873" s="16" t="str">
+        <f>VLOOKUP(E873,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G873" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H873" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L873">
+        <v>2369695871</v>
+      </c>
+      <c r="M873" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2369695871</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C874" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E874" t="s">
+        <v>415</v>
+      </c>
+      <c r="F874" s="16" t="str">
+        <f>VLOOKUP(E874,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G874" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H874" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L874">
+        <v>2397629788</v>
+      </c>
+      <c r="M874" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2397629788</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>144</v>
+      </c>
+      <c r="B875" t="s">
+        <v>687</v>
+      </c>
+      <c r="C875" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D875" t="s">
+        <v>49</v>
+      </c>
+      <c r="E875" t="s">
+        <v>412</v>
+      </c>
+      <c r="F875" s="16" t="str">
+        <f>VLOOKUP(E875,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G875" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H875" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L875">
+        <v>2396249342</v>
+      </c>
+      <c r="M875" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2396249342</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>10</v>
+      </c>
+      <c r="B876" t="s">
+        <v>858</v>
+      </c>
+      <c r="C876" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D876" t="s">
+        <v>511</v>
+      </c>
+      <c r="E876" t="s">
+        <v>401</v>
+      </c>
+      <c r="F876" s="16" t="str">
+        <f>VLOOKUP(E876,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G876" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H876" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L876">
+        <v>2376177251</v>
+      </c>
+      <c r="M876" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2376177251</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B877" t="s">
+        <v>996</v>
+      </c>
+      <c r="C877" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E877" t="s">
+        <v>577</v>
+      </c>
+      <c r="F877" s="16" t="str">
+        <f>VLOOKUP(E877,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G877" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H877" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L877">
+        <v>2382440246</v>
+      </c>
+      <c r="M877" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2382440246</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>519</v>
+      </c>
+      <c r="B878" t="s">
+        <v>135</v>
+      </c>
+      <c r="C878" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D878" t="s">
+        <v>926</v>
+      </c>
+      <c r="E878" t="s">
+        <v>415</v>
+      </c>
+      <c r="F878" s="16" t="str">
+        <f>VLOOKUP(E878,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G878" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H878" s="5">
+        <v>44224</v>
+      </c>
+      <c r="L878">
+        <v>2381399425</v>
+      </c>
+      <c r="M878" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381399425</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>110</v>
+      </c>
+      <c r="B879" t="s">
+        <v>988</v>
+      </c>
+      <c r="C879" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D879" t="s">
+        <v>368</v>
+      </c>
+      <c r="E879" t="s">
+        <v>398</v>
+      </c>
+      <c r="F879" s="16" t="str">
+        <f>VLOOKUP(E879,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G879" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H879" s="5">
+        <v>44224</v>
+      </c>
+      <c r="J879" s="5">
+        <v>44225</v>
+      </c>
+      <c r="L879">
+        <v>2374939415</v>
+      </c>
+      <c r="M879" t="str">
+        <f t="shared" si="51"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374939415</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>144</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C880" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D880" t="s">
+        <v>524</v>
+      </c>
+      <c r="E880" t="s">
+        <v>393</v>
+      </c>
+      <c r="F880" s="16" t="str">
+        <f>VLOOKUP(E880,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G880" s="5">
+        <v>44226</v>
+      </c>
+      <c r="H880" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L880">
+        <v>2400918909</v>
+      </c>
+      <c r="M880" t="str">
+        <f t="shared" ref="M880:M891" si="52">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L880</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2400918909</v>
+      </c>
+    </row>
+    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>316</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C881" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E881" t="s">
+        <v>393</v>
+      </c>
+      <c r="F881" s="16" t="str">
+        <f>VLOOKUP(E881,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G881" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H881" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L881">
+        <v>2367035673</v>
+      </c>
+      <c r="M881" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2367035673</v>
+      </c>
+    </row>
+    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>144</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C882" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D882" t="s">
+        <v>524</v>
+      </c>
+      <c r="E882" t="s">
+        <v>393</v>
+      </c>
+      <c r="F882" s="16" t="str">
+        <f>VLOOKUP(E882,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G882" s="5">
+        <v>44226</v>
+      </c>
+      <c r="H882" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L882">
+        <v>2379751026</v>
+      </c>
+      <c r="M882" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2379751026</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>110</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C883" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D883" t="s">
+        <v>224</v>
+      </c>
+      <c r="E883" t="s">
+        <v>398</v>
+      </c>
+      <c r="F883" s="16" t="str">
+        <f>VLOOKUP(E883,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G883" s="5">
+        <v>44224</v>
+      </c>
+      <c r="H883" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L883">
+        <v>2398017025</v>
+      </c>
+      <c r="M883" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2398017025</v>
+      </c>
+    </row>
+    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>144</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C884" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D884" t="s">
+        <v>49</v>
+      </c>
+      <c r="E884" t="s">
+        <v>412</v>
+      </c>
+      <c r="F884" s="16" t="str">
+        <f>VLOOKUP(E884,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G884" s="5">
+        <v>44224</v>
+      </c>
+      <c r="H884" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L884">
+        <v>2398071537</v>
+      </c>
+      <c r="M884" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2398071537</v>
+      </c>
+    </row>
+    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>10</v>
+      </c>
+      <c r="B885" t="s">
+        <v>528</v>
+      </c>
+      <c r="C885" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D885" t="s">
+        <v>529</v>
+      </c>
+      <c r="E885" t="s">
+        <v>400</v>
+      </c>
+      <c r="F885" s="16" t="str">
+        <f>VLOOKUP(E885,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G885" s="5">
+        <v>44225</v>
+      </c>
+      <c r="H885" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L885">
+        <v>2400342548</v>
+      </c>
+      <c r="M885" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2400342548</v>
+      </c>
+    </row>
+    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B886" t="s">
+        <v>687</v>
+      </c>
+      <c r="C886" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D886" t="s">
+        <v>188</v>
+      </c>
+      <c r="E886" t="s">
+        <v>410</v>
+      </c>
+      <c r="F886" s="16" t="str">
+        <f>VLOOKUP(E886,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G886" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H886" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L886">
+        <v>2390963119</v>
+      </c>
+      <c r="M886" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2390963119</v>
+      </c>
+    </row>
+    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>144</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C887" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D887" t="s">
+        <v>49</v>
+      </c>
+      <c r="E887" t="s">
+        <v>412</v>
+      </c>
+      <c r="F887" s="16" t="str">
+        <f>VLOOKUP(E887,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G887" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H887" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L887">
+        <v>2395265517</v>
+      </c>
+      <c r="M887" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2395265517</v>
+      </c>
+    </row>
+    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C888" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D888" t="s">
+        <v>228</v>
+      </c>
+      <c r="E888" t="s">
+        <v>397</v>
+      </c>
+      <c r="F888" s="16" t="str">
+        <f>VLOOKUP(E888,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G888" s="5">
+        <v>44224</v>
+      </c>
+      <c r="H888" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L888">
+        <v>2399183457</v>
+      </c>
+      <c r="M888" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
+      </c>
+    </row>
+    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C889" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D889" t="s">
+        <v>26</v>
+      </c>
+      <c r="E889" t="s">
+        <v>396</v>
+      </c>
+      <c r="F889" s="16" t="str">
+        <f>VLOOKUP(E889,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G889" s="5">
+        <v>44228</v>
+      </c>
+      <c r="H889" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L889">
+        <v>2403984709</v>
+      </c>
+      <c r="M889" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403984709</v>
+      </c>
+    </row>
+    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E890" t="s">
+        <v>415</v>
+      </c>
+      <c r="F890" s="16" t="str">
+        <f>VLOOKUP(E890,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G890" s="5">
+        <v>44228</v>
+      </c>
+      <c r="H890" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L890">
+        <v>2404006603</v>
+      </c>
+      <c r="M890" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2404006603</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>144</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C891" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D891" t="s">
+        <v>80</v>
+      </c>
+      <c r="E891" t="s">
+        <v>419</v>
+      </c>
+      <c r="F891" s="16" t="str">
+        <f>VLOOKUP(E891,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G891" s="5">
+        <v>44223</v>
+      </c>
+      <c r="H891" s="5">
+        <v>44228</v>
+      </c>
+      <c r="L891">
+        <v>2397650270</v>
+      </c>
+      <c r="M891" t="str">
+        <f t="shared" si="52"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2397650270</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B892" t="s">
+        <v>259</v>
+      </c>
+      <c r="C892" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D892" t="s">
+        <v>11</v>
+      </c>
+      <c r="E892" t="s">
+        <v>400</v>
+      </c>
+      <c r="F892" s="16" t="str">
+        <f>VLOOKUP(E892,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G892" s="5">
+        <v>44230</v>
+      </c>
+      <c r="H892" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L892">
+        <v>2393656286</v>
+      </c>
+      <c r="M892" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L892</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2393656286</v>
+      </c>
+    </row>
+    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>10</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C893" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D893" t="s">
+        <v>81</v>
+      </c>
+      <c r="E893" t="s">
+        <v>395</v>
+      </c>
+      <c r="F893" s="16" t="str">
+        <f>VLOOKUP(E893,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G893" s="5">
+        <v>44229</v>
+      </c>
+      <c r="H893" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L893">
+        <v>2384551990</v>
+      </c>
+      <c r="M893" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L893</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2384551990</v>
+      </c>
+    </row>
+    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B894" t="s">
+        <v>933</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="E894" t="s">
+        <v>412</v>
+      </c>
+      <c r="F894" s="16" t="str">
+        <f>VLOOKUP(E894,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G894" s="5">
+        <v>44225</v>
+      </c>
+      <c r="H894" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L894">
+        <v>2399600876</v>
+      </c>
+      <c r="M894" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L894</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2399600876</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>110</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C895" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D895" t="s">
+        <v>845</v>
+      </c>
+      <c r="E895" t="s">
+        <v>405</v>
+      </c>
+      <c r="F895" s="16" t="str">
+        <f>VLOOKUP(E895,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G895" s="5">
+        <v>44229</v>
+      </c>
+      <c r="H895" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L895">
+        <v>2384574784</v>
+      </c>
+      <c r="M895" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L895</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2384574784</v>
+      </c>
+    </row>
+    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>144</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C896" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E896" t="s">
+        <v>395</v>
+      </c>
+      <c r="F896" s="16" t="str">
+        <f>VLOOKUP(E896,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G896" s="5">
+        <v>44229</v>
+      </c>
+      <c r="H896" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L896">
+        <v>2399183457</v>
+      </c>
+      <c r="M896" t="str">
+        <f t="shared" ref="M896" si="53">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L896</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>144</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C897" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D897" t="s">
+        <v>81</v>
+      </c>
+      <c r="E897" t="s">
+        <v>395</v>
+      </c>
+      <c r="F897" s="16" t="str">
+        <f>VLOOKUP(E897,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G897" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H897" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L897">
+        <v>2388288764</v>
+      </c>
+      <c r="M897" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L897</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2388288764</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>10</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C898" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D898" t="s">
+        <v>214</v>
+      </c>
+      <c r="E898" t="s">
+        <v>398</v>
+      </c>
+      <c r="F898" s="16" t="str">
+        <f>VLOOKUP(E898,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G898" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H898" s="5">
+        <v>44230</v>
+      </c>
+      <c r="L898">
+        <v>2374932085</v>
+      </c>
+      <c r="M898" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L898</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2374932085</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FE334D-E302-4252-B47B-C32A275EA42F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FB552E-6BCC-4AE9-BFD3-94639789B921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="172260" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="178335" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="1173">
   <si>
     <t>Title</t>
   </si>
@@ -3479,6 +3479,75 @@
   </si>
   <si>
     <t>Albertsons Companies</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Data Analyst (Mobile Gaming) - Python/SQL/MySQL</t>
+  </si>
+  <si>
+    <t>Senior Revenue Operations Analyst - Tableau, SQL, Excel</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Santa Fe Springs</t>
+  </si>
+  <si>
+    <t>Allstacks</t>
+  </si>
+  <si>
+    <t>NielsenIQ</t>
+  </si>
+  <si>
+    <t>Segpay</t>
+  </si>
+  <si>
+    <t>Deerfield Beach</t>
+  </si>
+  <si>
+    <t>TM Floyd &amp; Company (TMF)</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>100% REMOTE Data Scientist</t>
+  </si>
+  <si>
+    <t>Market Street Taleint, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst (Visualizations)</t>
+  </si>
+  <si>
+    <t>Known</t>
+  </si>
+  <si>
+    <t>Talent 360 Solutions</t>
+  </si>
+  <si>
+    <t>Ledgent Technology</t>
+  </si>
+  <si>
+    <t>Data Scientist - R, Shiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorien </t>
+  </si>
+  <si>
+    <t>ReMark</t>
+  </si>
+  <si>
+    <t>Data Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Interactive Resources</t>
   </si>
 </sst>
 </file>
@@ -3650,7 +3719,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4267,14 +4336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M898" totalsRowShown="0">
-  <autoFilter ref="A1:M898" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="San Francisco"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M925" totalsRowShown="0">
+  <autoFilter ref="A1:M925" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M534">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4596,12 +4659,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M898"/>
+  <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F870" sqref="F870"/>
+      <selection pane="bottomLeft" activeCell="D921" sqref="D921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4699,7 +4762,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903194294</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4739,7 +4802,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1834056752</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +4839,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1839210951</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4813,7 +4876,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1871223701</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4850,7 +4913,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903194681</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4887,7 +4950,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903197521</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4924,7 +4987,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1825195869</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4964,7 +5027,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1926223909</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5004,7 +5067,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1946875382</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5044,7 +5107,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952552431</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -5078,7 +5141,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959082266</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5115,7 +5178,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1957834108</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5149,7 +5212,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959938713</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5189,7 +5252,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1910162675</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5226,7 +5289,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1951327249</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5266,7 +5329,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903198823</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5306,7 +5369,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1946802848</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -5346,7 +5409,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904355080</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5386,7 +5449,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961977239</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5412,6 +5475,9 @@
       <c r="H21" s="5">
         <v>44055</v>
       </c>
+      <c r="I21" s="5">
+        <v>44230</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>466</v>
       </c>
@@ -5423,7 +5489,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1892358530</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -5463,7 +5529,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961914929</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5503,7 +5569,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1961986802</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5543,7 +5609,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930342016</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5569,6 +5635,9 @@
       <c r="H25" s="5">
         <v>44055</v>
       </c>
+      <c r="I25" s="5">
+        <v>44231</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>465</v>
       </c>
@@ -5580,7 +5649,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903130419</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -5620,7 +5689,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1933138620</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5660,7 +5729,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1933137952</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -5700,7 +5769,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1978971304</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5803,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1729204351</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -5768,7 +5837,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5805,7 +5874,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959993135</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -5842,7 +5911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904306125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +5948,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959994923</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5913,7 +5982,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1964618975</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -5947,7 +6016,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1949264359</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5983,7 +6052,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1948854678</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -6020,7 +6089,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983310023</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -6057,7 +6126,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1954925817</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -6081,7 +6150,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -6121,7 +6190,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1990548585</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -6161,7 +6230,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959047989</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -6198,7 +6267,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1980694605</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -6232,7 +6301,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -6269,7 +6338,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -6306,7 +6375,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -6340,7 +6409,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -6411,7 +6480,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -6448,7 +6517,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -6488,7 +6557,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974079734</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -6528,7 +6597,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974084041</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -6565,7 +6634,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974078539</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -6602,7 +6671,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967202997</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -6639,7 +6708,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -6676,7 +6745,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1987830677</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +6785,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969941426</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -6753,7 +6822,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1904303193</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6859,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974018596</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -6827,7 +6896,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967275623</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -6864,7 +6933,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974016517</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -6901,7 +6970,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1975539480</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6938,7 +7007,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1967275524</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -6972,7 +7041,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=197403026</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -7009,7 +7078,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000559207</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -7046,7 +7115,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1994925526</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -7083,7 +7152,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000559207</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -7120,7 +7189,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993632542</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -7154,7 +7223,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988998063</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -7191,7 +7260,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983309166</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -7228,7 +7297,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983307291</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -7265,7 +7334,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983308247</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -7336,7 +7405,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983054596</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -7376,7 +7445,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989741920</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -7416,7 +7485,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989741925</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7525,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969917412</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -7493,7 +7562,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988654269</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -7533,7 +7602,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989748298</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -7573,7 +7642,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979320174</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -7610,7 +7679,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1971520134</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -7647,7 +7716,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002831827</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -7687,7 +7756,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1940155074</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -7727,7 +7796,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1940153598</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -7767,7 +7836,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974051226</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -7807,7 +7876,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1969911022</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -7847,7 +7916,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974049468</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -7887,7 +7956,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1949267872</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>545</v>
       </c>
@@ -7927,7 +7996,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997042372</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -7967,7 +8036,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002893815</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -8041,7 +8110,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1939562481</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -8081,7 +8150,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983872311</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -8118,7 +8187,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1953530554</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8155,7 +8224,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989887785</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -8189,7 +8258,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1972667771</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -8223,7 +8292,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1891502624</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -8260,7 +8329,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1974381618</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -8297,7 +8366,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989891151</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -8331,7 +8400,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1901536224</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -8365,7 +8434,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988623554</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>316</v>
       </c>
@@ -8402,7 +8471,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1939552272</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -8439,7 +8508,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1981694348</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -8473,7 +8542,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1978992847</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -8507,7 +8576,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1903130216</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -8544,7 +8613,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983078440</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8578,7 +8647,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1901537210</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>318</v>
       </c>
@@ -8612,7 +8681,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001378185</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -8649,7 +8718,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1959971344</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -8686,7 +8755,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1878571737</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>102</v>
       </c>
@@ -8723,7 +8792,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1910040793</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -8760,7 +8829,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002150076</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -8797,7 +8866,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002923334</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -8831,7 +8900,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989795078</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -8871,7 +8940,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997744201</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -8911,7 +8980,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952966524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>548</v>
       </c>
@@ -9013,7 +9082,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2003597152</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -9053,7 +9122,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2009329198</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -9093,7 +9162,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007617312</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -9133,7 +9202,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005592891</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -9173,7 +9242,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1948290166</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -9213,7 +9282,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007616331</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>544</v>
       </c>
@@ -9253,7 +9322,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2013644464</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -9287,7 +9356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1958497622</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -9321,7 +9390,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2003791356</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -9355,7 +9424,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150119945</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>507</v>
       </c>
@@ -9389,7 +9458,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002145413</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -9426,7 +9495,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2012406020</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -9463,7 +9532,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995972469</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -9500,7 +9569,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979352154</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -9536,7 +9605,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010775948</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -9570,7 +9639,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996436999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -9635,7 +9704,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -9737,7 +9806,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010870926</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -9771,7 +9840,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1989940758</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -9805,7 +9874,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2012626550</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>179</v>
       </c>
@@ -9842,7 +9911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930823448</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -9876,7 +9945,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991671800</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -9910,7 +9979,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1997369081</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -9941,7 +10010,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -9972,7 +10041,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -10012,7 +10081,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995901579</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -10049,7 +10118,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991189843</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -10083,7 +10152,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2014223902</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -10117,7 +10186,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006285454</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -10151,7 +10220,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010831823</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -10188,7 +10257,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -10225,7 +10294,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2009393663</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -10259,7 +10328,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=200344851</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>144</v>
       </c>
@@ -10293,7 +10362,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1930823448</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -10327,7 +10396,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988875637</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -10364,7 +10433,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148646696</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -10398,7 +10467,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1979544112</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>223</v>
       </c>
@@ -10432,7 +10501,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996976450</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>110</v>
       </c>
@@ -10466,7 +10535,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018238252</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -10534,7 +10603,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2013857762</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -10568,7 +10637,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998159269</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>205</v>
       </c>
@@ -10602,7 +10671,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1931231386</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -10639,7 +10708,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149052423</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -10676,7 +10745,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005816571</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -10713,7 +10782,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153255048</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>218</v>
       </c>
@@ -10747,7 +10816,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1988651750</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>208</v>
       </c>
@@ -10781,7 +10850,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010795513</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>144</v>
       </c>
@@ -10815,7 +10884,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2017417342</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10852,7 +10921,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011247388</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -10886,7 +10955,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018550564</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>226</v>
       </c>
@@ -10917,7 +10986,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -10954,7 +11023,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2147882487</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>144</v>
       </c>
@@ -10988,7 +11057,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011246115</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -11022,7 +11091,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153526905</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>549</v>
       </c>
@@ -11059,7 +11128,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2153502339</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -11093,7 +11162,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019658230</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -11195,7 +11264,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011311833</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -11229,7 +11298,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150477303</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -11266,7 +11335,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150192626</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>241</v>
       </c>
@@ -11300,7 +11369,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1964618975</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -11340,7 +11409,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019629630</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -11374,7 +11443,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995927659</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>255</v>
       </c>
@@ -11408,7 +11477,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1992885175</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -11442,7 +11511,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1983048203</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -11476,7 +11545,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995926578</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -11510,7 +11579,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -11547,7 +11616,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020186644</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -11578,7 +11647,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11615,7 +11684,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2010808668</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11652,7 +11721,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000065538</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -11686,7 +11755,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -11720,7 +11789,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000070970</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -11757,7 +11826,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020332854</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -11787,7 +11856,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019451859</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>267</v>
       </c>
@@ -11821,7 +11890,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000086930</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>268</v>
       </c>
@@ -11889,7 +11958,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001209054</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>274</v>
       </c>
@@ -11923,7 +11992,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000047766</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>110</v>
       </c>
@@ -11957,7 +12026,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000090459</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>269</v>
       </c>
@@ -11991,7 +12060,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000089498</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>543</v>
       </c>
@@ -12028,7 +12097,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000080692</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -12062,7 +12131,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2021813077</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -12096,7 +12165,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001207267</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -12130,7 +12199,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001202939</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>263</v>
       </c>
@@ -12161,7 +12230,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -12195,7 +12264,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1995047731</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -12229,7 +12298,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000051351</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>110</v>
       </c>
@@ -12263,7 +12332,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000009988</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -12297,7 +12366,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000015186</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>265</v>
       </c>
@@ -12331,7 +12400,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000047737</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>270</v>
       </c>
@@ -12365,7 +12434,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000015210</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>278</v>
       </c>
@@ -12399,7 +12468,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011460378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>285</v>
       </c>
@@ -12436,7 +12505,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022410265</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>283</v>
       </c>
@@ -12473,7 +12542,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2020248958</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -12507,7 +12576,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011463841</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -12544,7 +12613,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2000058543</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -12575,7 +12644,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -12609,7 +12678,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1954921266</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>110</v>
       </c>
@@ -12643,7 +12712,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002424768</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>144</v>
       </c>
@@ -12677,7 +12746,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148062281</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>297</v>
       </c>
@@ -12782,7 +12851,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002466621</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>148</v>
       </c>
@@ -12816,7 +12885,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476905</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -12850,7 +12919,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2156618139</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>300</v>
       </c>
@@ -12884,7 +12953,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022380440</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -12921,7 +12990,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011468036</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>290</v>
       </c>
@@ -12958,7 +13027,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157565752</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -12992,7 +13061,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019381606</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>144</v>
       </c>
@@ -13026,7 +13095,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011563381</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>189</v>
       </c>
@@ -13060,7 +13129,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002464335</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -13094,7 +13163,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476195</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>290</v>
       </c>
@@ -13131,7 +13200,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157565752</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>144</v>
       </c>
@@ -13199,7 +13268,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002493168</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>325</v>
       </c>
@@ -13233,7 +13302,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001271000</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>306</v>
       </c>
@@ -13267,7 +13336,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002479203</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -13301,7 +13370,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023648973</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -13335,7 +13404,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148121636</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>316</v>
       </c>
@@ -13372,7 +13441,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2022323004</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>546</v>
       </c>
@@ -13406,7 +13475,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001275373</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>315</v>
       </c>
@@ -13440,7 +13509,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002481422</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -13477,7 +13546,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1952771561</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>327</v>
       </c>
@@ -13511,7 +13580,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011573379</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>144</v>
       </c>
@@ -13545,7 +13614,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002483205</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -13579,7 +13648,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998105266</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -13613,7 +13682,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011472137</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>313</v>
       </c>
@@ -13647,7 +13716,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023648205</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>670</v>
       </c>
@@ -13684,7 +13753,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011573375</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -13718,7 +13787,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011448981</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -13752,7 +13821,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011553737</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>318</v>
       </c>
@@ -13789,7 +13858,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002483137</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -13823,7 +13892,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -13854,7 +13923,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -13891,7 +13960,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002929659</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -13925,7 +13994,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001276188</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>110</v>
       </c>
@@ -13962,7 +14031,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011251574</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -13996,7 +14065,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023689255</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -14030,7 +14099,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011248127</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>110</v>
       </c>
@@ -14064,7 +14133,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011579679</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>144</v>
       </c>
@@ -14098,7 +14167,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1996941373</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>316</v>
       </c>
@@ -14132,7 +14201,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023643891</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -14166,7 +14235,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023649281</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -14200,7 +14269,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150321636</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>98</v>
       </c>
@@ -14240,7 +14309,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2158385377</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -14274,7 +14343,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002476191</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -14308,7 +14377,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023684576</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>330</v>
       </c>
@@ -14342,7 +14411,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011567463</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>110</v>
       </c>
@@ -14376,7 +14445,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004831470</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -14413,7 +14482,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>144</v>
       </c>
@@ -14518,7 +14587,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>38</v>
       </c>
@@ -14558,7 +14627,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004854285</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>148</v>
       </c>
@@ -14592,7 +14661,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004836596</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>336</v>
       </c>
@@ -14629,7 +14698,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>336</v>
       </c>
@@ -14666,7 +14735,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -14700,7 +14769,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023829335</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -14734,7 +14803,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2018836363</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -14768,7 +14837,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004830405</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>336</v>
       </c>
@@ -14805,7 +14874,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>336</v>
       </c>
@@ -14842,7 +14911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148144707</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -14876,7 +14945,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002477563</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>110</v>
       </c>
@@ -14913,7 +14982,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023800952</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>144</v>
       </c>
@@ -14984,7 +15053,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885747</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>342</v>
       </c>
@@ -15018,7 +15087,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004855673</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>547</v>
       </c>
@@ -15052,7 +15121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004880624</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>268</v>
       </c>
@@ -15086,7 +15155,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004882558</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -15154,7 +15223,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163095743</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -15188,7 +15257,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150526666</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>509</v>
       </c>
@@ -15222,7 +15291,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2162219450</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -15256,7 +15325,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023835019</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>293</v>
       </c>
@@ -15290,7 +15359,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023896421</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>110</v>
       </c>
@@ -15327,7 +15396,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894487</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>144</v>
       </c>
@@ -15360,7 +15429,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150460281</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>349</v>
       </c>
@@ -15394,7 +15463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011663780</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>350</v>
       </c>
@@ -15428,7 +15497,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150499952</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>340</v>
       </c>
@@ -15462,7 +15531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163093984</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>340</v>
       </c>
@@ -15496,7 +15565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163093982</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -15530,7 +15599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163095744</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>144</v>
       </c>
@@ -15564,7 +15633,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150482485</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>110</v>
       </c>
@@ -15598,7 +15667,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004850470</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -15632,7 +15701,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023874896</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>357</v>
       </c>
@@ -15666,7 +15735,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885797</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -15700,7 +15769,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023515851</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -15734,7 +15803,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163096609</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -15768,7 +15837,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004858179</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>10</v>
       </c>
@@ -15802,7 +15871,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004889177</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>267</v>
       </c>
@@ -15836,7 +15905,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004884146</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -15870,7 +15939,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004895045</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>380</v>
       </c>
@@ -15938,7 +16007,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002499371</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>269</v>
       </c>
@@ -15972,7 +16041,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004884161</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>366</v>
       </c>
@@ -16006,7 +16075,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148286545</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>366</v>
       </c>
@@ -16043,7 +16112,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023934977</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>278</v>
       </c>
@@ -16077,7 +16146,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150366165</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>102</v>
       </c>
@@ -16114,7 +16183,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011670243</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>377</v>
       </c>
@@ -16148,7 +16217,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011555299</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>267</v>
       </c>
@@ -16182,7 +16251,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004898735</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>144</v>
       </c>
@@ -16216,7 +16285,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2001286434</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>378</v>
       </c>
@@ -16250,7 +16319,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004864863</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -16287,7 +16356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011675690</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>381</v>
       </c>
@@ -16321,7 +16390,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004867583</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>267</v>
       </c>
@@ -16355,7 +16424,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004885080</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>369</v>
       </c>
@@ -16389,7 +16458,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894884</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -16423,7 +16492,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023893992</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>364</v>
       </c>
@@ -16457,7 +16526,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004863035</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>144</v>
       </c>
@@ -16491,7 +16560,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004895022</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>70</v>
       </c>
@@ -16525,7 +16594,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163176780</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>421</v>
       </c>
@@ -16630,7 +16699,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2025056517</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -16664,7 +16733,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011702656</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>144</v>
       </c>
@@ -16698,7 +16767,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004883424</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>372</v>
       </c>
@@ -16732,7 +16801,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023887173</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>425</v>
       </c>
@@ -16772,7 +16841,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157568273</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -16812,7 +16881,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159653610</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>387</v>
       </c>
@@ -16846,7 +16915,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023894635</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>361</v>
       </c>
@@ -16880,7 +16949,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163469814</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>189</v>
       </c>
@@ -16914,7 +16983,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1842963432</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>10</v>
       </c>
@@ -16948,7 +17017,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163295426</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>436</v>
       </c>
@@ -16985,7 +17054,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005251853</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>426</v>
       </c>
@@ -17025,7 +17094,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2005593763</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>424</v>
       </c>
@@ -17065,7 +17134,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002024179</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>427</v>
       </c>
@@ -17105,7 +17174,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993227048</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>427</v>
       </c>
@@ -17145,7 +17214,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1993227048</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>425</v>
       </c>
@@ -17185,7 +17254,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157568273</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -17253,7 +17322,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006337616</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>131</v>
       </c>
@@ -17287,7 +17356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006340870</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>144</v>
       </c>
@@ -17318,7 +17387,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>449</v>
       </c>
@@ -17352,7 +17421,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006307232</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>10</v>
       </c>
@@ -17389,7 +17458,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004873200</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -17426,7 +17495,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004890024</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>459</v>
       </c>
@@ -17463,7 +17532,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148173936</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>10</v>
       </c>
@@ -17500,7 +17569,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004867934</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>459</v>
       </c>
@@ -17540,7 +17609,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006680164</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>508</v>
       </c>
@@ -17574,7 +17643,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150491865</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>318</v>
       </c>
@@ -17614,7 +17683,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148365056</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>267</v>
       </c>
@@ -17648,7 +17717,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2006361244</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>471</v>
       </c>
@@ -17685,7 +17754,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2002482099</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>470</v>
       </c>
@@ -17753,7 +17822,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149765659</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>148</v>
       </c>
@@ -17821,7 +17890,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149718655</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>482</v>
       </c>
@@ -17858,7 +17927,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151169816</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>144</v>
       </c>
@@ -17892,7 +17961,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151250348</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>486</v>
       </c>
@@ -17926,7 +17995,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173523034</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -17960,7 +18029,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151010611</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>361</v>
       </c>
@@ -17994,7 +18063,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173523034</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>476</v>
       </c>
@@ -18031,7 +18100,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011663355</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>10</v>
       </c>
@@ -18068,7 +18137,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149676794</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -18102,7 +18171,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166236635</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -18139,7 +18208,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149679831</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>267</v>
       </c>
@@ -18176,7 +18245,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149679722</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -18210,7 +18279,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149727665</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -18244,7 +18313,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>10</v>
       </c>
@@ -18278,7 +18347,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149703104</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>483</v>
       </c>
@@ -18349,7 +18418,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149957885</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -18386,7 +18455,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150471493</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>512</v>
       </c>
@@ -18413,7 +18482,7 @@
         <v>44101</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -18447,7 +18516,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149955311</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>522</v>
       </c>
@@ -18484,7 +18553,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011646968</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>144</v>
       </c>
@@ -18521,7 +18590,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172045255</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>519</v>
       </c>
@@ -18558,7 +18627,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148269243</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>144</v>
       </c>
@@ -18632,7 +18701,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149969097</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -18669,7 +18738,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011685804</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>144</v>
       </c>
@@ -18706,7 +18775,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151314924</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>144</v>
       </c>
@@ -18743,7 +18812,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011716562</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -18777,7 +18846,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174385346</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -18814,7 +18883,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151074708</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -18851,7 +18920,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1509059247</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -18888,7 +18957,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1509059247</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>144</v>
       </c>
@@ -18925,7 +18994,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1991231615</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -18965,7 +19034,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2004805241</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -19002,7 +19071,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011685852</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>530</v>
       </c>
@@ -19039,7 +19108,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011686310</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>534</v>
       </c>
@@ -19073,7 +19142,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1998190369</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>671</v>
       </c>
@@ -19107,7 +19176,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174386037</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>542</v>
       </c>
@@ -19141,7 +19210,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172124640</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>144</v>
       </c>
@@ -19178,7 +19247,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151287803</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>685</v>
       </c>
@@ -19246,7 +19315,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148344069</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>690</v>
       </c>
@@ -19280,7 +19349,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149789625</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>189</v>
       </c>
@@ -19314,7 +19383,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182156168</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>144</v>
       </c>
@@ -19348,7 +19417,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151300187</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>681</v>
       </c>
@@ -19382,7 +19451,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2007200140</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>672</v>
       </c>
@@ -19416,7 +19485,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2171690942</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>327</v>
       </c>
@@ -19450,7 +19519,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151218125</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>10</v>
       </c>
@@ -19484,7 +19553,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166352321</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -19518,7 +19587,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2019609504</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -19552,7 +19621,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182037080</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>10</v>
       </c>
@@ -19586,7 +19655,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149970980</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>674</v>
       </c>
@@ -19613,7 +19682,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155368391</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>10</v>
       </c>
@@ -19643,7 +19712,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023660526</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>693</v>
       </c>
@@ -19680,7 +19749,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183478749</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>293</v>
       </c>
@@ -19714,7 +19783,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182198220</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>699</v>
       </c>
@@ -19751,7 +19820,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>685</v>
       </c>
@@ -19788,7 +19857,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173016810</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>449</v>
       </c>
@@ -19822,7 +19891,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757472</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>297</v>
       </c>
@@ -19856,7 +19925,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2171698821</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>704</v>
       </c>
@@ -19893,7 +19962,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183951386</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>699</v>
       </c>
@@ -19930,7 +19999,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>703</v>
       </c>
@@ -19967,7 +20036,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757160</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>708</v>
       </c>
@@ -20001,7 +20070,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149771617</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>381</v>
       </c>
@@ -20035,7 +20104,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155335171</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>110</v>
       </c>
@@ -20069,7 +20138,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151311102</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>696</v>
       </c>
@@ -20106,7 +20175,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183372249</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>709</v>
       </c>
@@ -20140,7 +20209,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011759907</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -20174,7 +20243,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159736898</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>267</v>
       </c>
@@ -20208,7 +20277,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150860964</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>706</v>
       </c>
@@ -20235,7 +20304,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152177388</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>719</v>
       </c>
@@ -20272,7 +20341,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186865305</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>110</v>
       </c>
@@ -20306,7 +20375,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165552942</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>10</v>
       </c>
@@ -20343,7 +20412,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185386896</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>725</v>
       </c>
@@ -20377,7 +20446,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>722</v>
       </c>
@@ -20411,7 +20480,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157971267</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>725</v>
       </c>
@@ -20445,7 +20514,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>725</v>
       </c>
@@ -20479,7 +20548,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>725</v>
       </c>
@@ -20513,7 +20582,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -20547,7 +20616,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163554811</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>725</v>
       </c>
@@ -20581,7 +20650,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>713</v>
       </c>
@@ -20615,7 +20684,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165557310</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -20649,7 +20718,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189079637</v>
       </c>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>10</v>
       </c>
@@ -20682,7 +20751,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189078270</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>725</v>
       </c>
@@ -20716,7 +20785,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>723</v>
       </c>
@@ -20750,7 +20819,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152069177</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>715</v>
       </c>
@@ -20787,7 +20856,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185261833</v>
       </c>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>267</v>
       </c>
@@ -20821,7 +20890,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165542461</v>
       </c>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>725</v>
       </c>
@@ -20858,7 +20927,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>10</v>
       </c>
@@ -20892,7 +20961,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157909056</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>711</v>
       </c>
@@ -20926,7 +20995,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157904598</v>
       </c>
     </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>270</v>
       </c>
@@ -20960,7 +21029,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165547094</v>
       </c>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>725</v>
       </c>
@@ -21028,7 +21097,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165593155</v>
       </c>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>293</v>
       </c>
@@ -21065,7 +21134,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189606471</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>10</v>
       </c>
@@ -21102,7 +21171,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>729</v>
       </c>
@@ -21136,7 +21205,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159753905</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>732</v>
       </c>
@@ -21176,7 +21245,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>10</v>
       </c>
@@ -21210,7 +21279,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190416610</v>
       </c>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>10</v>
       </c>
@@ -21250,7 +21319,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>10</v>
       </c>
@@ -21287,7 +21356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>732</v>
       </c>
@@ -21364,7 +21433,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190968595</v>
       </c>
     </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>737</v>
       </c>
@@ -21398,7 +21467,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191690582</v>
       </c>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>740</v>
       </c>
@@ -21432,7 +21501,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191817150</v>
       </c>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>144</v>
       </c>
@@ -21503,7 +21572,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193017933</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>325</v>
       </c>
@@ -21537,7 +21606,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172508115</v>
       </c>
     </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>743</v>
       </c>
@@ -21574,7 +21643,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2164741884</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>144</v>
       </c>
@@ -21611,7 +21680,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193267345</v>
       </c>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>144</v>
       </c>
@@ -21645,7 +21714,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509339</v>
       </c>
     </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>746</v>
       </c>
@@ -21679,7 +21748,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193132664</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>744</v>
       </c>
@@ -21713,7 +21782,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172522919</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>267</v>
       </c>
@@ -21747,7 +21816,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170984715</v>
       </c>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>325</v>
       </c>
@@ -21781,7 +21850,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172506338</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>325</v>
       </c>
@@ -21818,7 +21887,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509058</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>38</v>
       </c>
@@ -21858,7 +21927,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173781459</v>
       </c>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>753</v>
       </c>
@@ -21895,7 +21964,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193716463</v>
       </c>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>10</v>
       </c>
@@ -21929,7 +21998,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -21966,7 +22035,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195056161</v>
       </c>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>10</v>
       </c>
@@ -22000,7 +22069,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172593126</v>
       </c>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -22040,7 +22109,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>144</v>
       </c>
@@ -22074,7 +22143,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170855305</v>
       </c>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>110</v>
       </c>
@@ -22105,7 +22174,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189147960</v>
       </c>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>756</v>
       </c>
@@ -22142,7 +22211,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193706917</v>
       </c>
     </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>10</v>
       </c>
@@ -22176,7 +22245,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172589165</v>
       </c>
     </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>760</v>
       </c>
@@ -22278,7 +22347,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179939169</v>
       </c>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>144</v>
       </c>
@@ -22312,7 +22381,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179929178</v>
       </c>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>776</v>
       </c>
@@ -22346,7 +22415,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202366985</v>
       </c>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>102</v>
       </c>
@@ -22380,7 +22449,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179906495</v>
       </c>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>144</v>
       </c>
@@ -22414,7 +22483,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172575351</v>
       </c>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>772</v>
       </c>
@@ -22447,7 +22516,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179920328</v>
       </c>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>144</v>
       </c>
@@ -22481,7 +22550,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202434558</v>
       </c>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>519</v>
       </c>
@@ -22515,7 +22584,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2196526593</v>
       </c>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>110</v>
       </c>
@@ -22552,7 +22621,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2176217822</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>767</v>
       </c>
@@ -22586,7 +22655,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174485612</v>
       </c>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>267</v>
       </c>
@@ -22620,7 +22689,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179907759</v>
       </c>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>769</v>
       </c>
@@ -22654,7 +22723,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202381402</v>
       </c>
     </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>10</v>
       </c>
@@ -22688,7 +22757,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170947437</v>
       </c>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>10</v>
       </c>
@@ -22722,7 +22791,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173732367</v>
       </c>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -22756,7 +22825,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2175460661</v>
       </c>
     </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>788</v>
       </c>
@@ -22790,7 +22859,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2181363709</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>449</v>
       </c>
@@ -22824,7 +22893,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183081870</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>144</v>
       </c>
@@ -22858,7 +22927,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206198614</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>144</v>
       </c>
@@ -22895,7 +22964,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206335036</v>
       </c>
     </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>10</v>
       </c>
@@ -22932,7 +23001,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205045808</v>
       </c>
     </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -22966,7 +23035,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195596704</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>778</v>
       </c>
@@ -23000,7 +23069,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206107960</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>744</v>
       </c>
@@ -23034,7 +23103,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183029460</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>708</v>
       </c>
@@ -23068,7 +23137,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184308308</v>
       </c>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>189</v>
       </c>
@@ -23102,7 +23171,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2204624044</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>10</v>
       </c>
@@ -23136,7 +23205,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2209090491</v>
       </c>
     </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>787</v>
       </c>
@@ -23167,7 +23236,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202487664</v>
       </c>
     </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -23201,7 +23270,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183079310</v>
       </c>
     </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>10</v>
       </c>
@@ -23240,7 +23309,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166001645</v>
       </c>
     </row>
-    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>144</v>
       </c>
@@ -23274,7 +23343,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184305114</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>792</v>
       </c>
@@ -23311,7 +23380,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183020877</v>
       </c>
     </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="16" t="s">
         <v>10</v>
       </c>
@@ -23349,7 +23418,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2167680222</v>
       </c>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>10</v>
       </c>
@@ -23382,7 +23451,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2211780884</v>
       </c>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -23449,7 +23518,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183099248</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>10</v>
       </c>
@@ -23483,7 +23552,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149684074</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>10</v>
       </c>
@@ -23517,7 +23586,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186317142</v>
       </c>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>10</v>
       </c>
@@ -23588,7 +23657,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194363196</v>
       </c>
     </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>800</v>
       </c>
@@ -23622,7 +23691,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194364148</v>
       </c>
     </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>144</v>
       </c>
@@ -23656,7 +23725,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193874004</v>
       </c>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>144</v>
       </c>
@@ -23693,7 +23762,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218701448</v>
       </c>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>801</v>
       </c>
@@ -23764,7 +23833,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218965080</v>
       </c>
     </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>803</v>
       </c>
@@ -23798,7 +23867,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200152665</v>
       </c>
     </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>267</v>
       </c>
@@ -23832,7 +23901,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2227763771</v>
       </c>
     </row>
-    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>300</v>
       </c>
@@ -23866,7 +23935,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218618464</v>
       </c>
     </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>519</v>
       </c>
@@ -23903,7 +23972,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218678601</v>
       </c>
     </row>
-    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>189</v>
       </c>
@@ -23940,7 +24009,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200151775</v>
       </c>
     </row>
-    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>325</v>
       </c>
@@ -23974,7 +24043,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205265334</v>
       </c>
     </row>
-    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>325</v>
       </c>
@@ -24008,7 +24077,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193872411</v>
       </c>
     </row>
-    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>10</v>
       </c>
@@ -24045,7 +24114,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2252922985</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>10</v>
       </c>
@@ -24082,7 +24151,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>808</v>
       </c>
@@ -24116,7 +24185,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -24153,7 +24222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218866571</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>325</v>
       </c>
@@ -24187,7 +24256,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>325</v>
       </c>
@@ -24221,7 +24290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>325</v>
       </c>
@@ -24255,7 +24324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>325</v>
       </c>
@@ -24289,7 +24358,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>810</v>
       </c>
@@ -24323,7 +24392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187501790</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>788</v>
       </c>
@@ -24360,7 +24429,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2232822439</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>811</v>
       </c>
@@ -24394,7 +24463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187577364</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>144</v>
       </c>
@@ -24431,7 +24500,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2241595564</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -24465,7 +24534,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2268547992</v>
       </c>
     </row>
-    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>814</v>
       </c>
@@ -24533,7 +24602,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2238583006</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>10</v>
       </c>
@@ -24567,7 +24636,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316876761</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>817</v>
       </c>
@@ -24601,7 +24670,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323935181</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -24669,7 +24738,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329009935</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>10</v>
       </c>
@@ -24737,7 +24806,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328274427</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>10</v>
       </c>
@@ -24808,7 +24877,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335198219</v>
       </c>
     </row>
-    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>10</v>
       </c>
@@ -24879,7 +24948,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2326288632</v>
       </c>
     </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>144</v>
       </c>
@@ -24913,7 +24982,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353653997</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>10</v>
       </c>
@@ -24950,7 +25019,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332220792</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>144</v>
       </c>
@@ -25018,7 +25087,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329012353</v>
       </c>
     </row>
-    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>10</v>
       </c>
@@ -25052,7 +25121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340612987</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>10</v>
       </c>
@@ -25086,7 +25155,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184825</v>
       </c>
     </row>
-    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>144</v>
       </c>
@@ -25154,7 +25223,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114908</v>
       </c>
     </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>10</v>
       </c>
@@ -25188,7 +25257,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185802</v>
       </c>
     </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>831</v>
       </c>
@@ -25222,7 +25291,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2337825747</v>
       </c>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>293</v>
       </c>
@@ -25290,7 +25359,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335117331</v>
       </c>
     </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>833</v>
       </c>
@@ -25324,7 +25393,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2298378514</v>
       </c>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -25358,7 +25427,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316122554</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>835</v>
       </c>
@@ -25392,7 +25461,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2271185716</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>144</v>
       </c>
@@ -25426,7 +25495,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341545173</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -25460,7 +25529,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355460043</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>10</v>
       </c>
@@ -25487,7 +25556,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2306003868</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -25521,7 +25590,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341554371</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>10</v>
       </c>
@@ -25555,7 +25624,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353683570</v>
       </c>
     </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -25589,7 +25658,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344817540</v>
       </c>
     </row>
-    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>840</v>
       </c>
@@ -25623,7 +25692,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318782562</v>
       </c>
     </row>
-    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -25697,7 +25766,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222612216</v>
       </c>
     </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -25731,7 +25800,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355013229</v>
       </c>
     </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -25765,7 +25834,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316104905</v>
       </c>
     </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>847</v>
       </c>
@@ -25799,7 +25868,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340497329</v>
       </c>
     </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>144</v>
       </c>
@@ -25833,7 +25902,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348189277</v>
       </c>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -25901,7 +25970,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114213</v>
       </c>
     </row>
-    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>850</v>
       </c>
@@ -25935,7 +26004,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222476417</v>
       </c>
     </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>519</v>
       </c>
@@ -25969,7 +26038,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353898804</v>
       </c>
     </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>10</v>
       </c>
@@ -26003,7 +26072,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323009537</v>
       </c>
     </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>144</v>
       </c>
@@ -26037,7 +26106,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329908728</v>
       </c>
     </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>855</v>
       </c>
@@ -26071,7 +26140,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332229796</v>
       </c>
     </row>
-    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>46</v>
       </c>
@@ -26105,7 +26174,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329072882</v>
       </c>
     </row>
-    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>10</v>
       </c>
@@ -26142,7 +26211,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329874875</v>
       </c>
     </row>
-    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>857</v>
       </c>
@@ -26176,7 +26245,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339958199</v>
       </c>
     </row>
-    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>10</v>
       </c>
@@ -26244,7 +26313,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151377746</v>
       </c>
     </row>
-    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>859</v>
       </c>
@@ -26278,7 +26347,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2324174090</v>
       </c>
     </row>
-    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>293</v>
       </c>
@@ -26312,7 +26381,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184182</v>
       </c>
     </row>
-    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>300</v>
       </c>
@@ -26349,7 +26418,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1950764538</v>
       </c>
     </row>
-    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>449</v>
       </c>
@@ -26383,7 +26452,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2291654300</v>
       </c>
     </row>
-    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>519</v>
       </c>
@@ -26417,7 +26486,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321946373</v>
       </c>
     </row>
-    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>863</v>
       </c>
@@ -26451,7 +26520,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314317360</v>
       </c>
     </row>
-    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -26485,7 +26554,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329264424</v>
       </c>
     </row>
-    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>110</v>
       </c>
@@ -26553,7 +26622,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335184819</v>
       </c>
     </row>
-    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>868</v>
       </c>
@@ -26590,7 +26659,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2280108348</v>
       </c>
     </row>
-    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>110</v>
       </c>
@@ -26627,7 +26696,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328683109</v>
       </c>
     </row>
-    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>850</v>
       </c>
@@ -26661,7 +26730,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342484923</v>
       </c>
     </row>
-    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>872</v>
       </c>
@@ -26695,7 +26764,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348176102</v>
       </c>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>144</v>
       </c>
@@ -26732,7 +26801,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355345116</v>
       </c>
     </row>
-    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>144</v>
       </c>
@@ -26766,7 +26835,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345890457</v>
       </c>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>876</v>
       </c>
@@ -26806,7 +26875,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338908703</v>
       </c>
     </row>
-    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>878</v>
       </c>
@@ -26843,7 +26912,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2320796069</v>
       </c>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>881</v>
       </c>
@@ -26877,7 +26946,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343666264</v>
       </c>
     </row>
-    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>883</v>
       </c>
@@ -26911,7 +26980,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347303658</v>
       </c>
     </row>
-    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>144</v>
       </c>
@@ -26945,7 +27014,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348447267</v>
       </c>
     </row>
-    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>884</v>
       </c>
@@ -26982,7 +27051,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2336789108</v>
       </c>
     </row>
-    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>10</v>
       </c>
@@ -27016,7 +27085,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332222606</v>
       </c>
     </row>
-    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>885</v>
       </c>
@@ -27053,7 +27122,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344551263</v>
       </c>
     </row>
-    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>887</v>
       </c>
@@ -27087,7 +27156,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2313257578</v>
       </c>
     </row>
-    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>888</v>
       </c>
@@ -27121,7 +27190,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321920622</v>
       </c>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>110</v>
       </c>
@@ -27155,7 +27224,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314546653</v>
       </c>
     </row>
-    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>519</v>
       </c>
@@ -27226,7 +27295,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329093655</v>
       </c>
     </row>
-    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>144</v>
       </c>
@@ -27253,7 +27322,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363470666</v>
       </c>
     </row>
-    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>884</v>
       </c>
@@ -27287,7 +27356,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362956946</v>
       </c>
     </row>
-    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>895</v>
       </c>
@@ -27321,7 +27390,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347328544</v>
       </c>
     </row>
-    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>144</v>
       </c>
@@ -27355,7 +27424,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322762417</v>
       </c>
     </row>
-    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>896</v>
       </c>
@@ -27392,7 +27461,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322738291</v>
       </c>
     </row>
-    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>898</v>
       </c>
@@ -27426,7 +27495,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354988367</v>
       </c>
     </row>
-    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>908</v>
       </c>
@@ -27463,7 +27532,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314543406</v>
       </c>
     </row>
-    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>519</v>
       </c>
@@ -27497,7 +27566,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
       </c>
     </row>
-    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>519</v>
       </c>
@@ -27531,7 +27600,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=344675073</v>
       </c>
     </row>
-    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>288</v>
       </c>
@@ -27565,7 +27634,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350245369</v>
       </c>
     </row>
-    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>905</v>
       </c>
@@ -27599,7 +27668,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351004425</v>
       </c>
     </row>
-    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>906</v>
       </c>
@@ -27633,7 +27702,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343339701</v>
       </c>
     </row>
-    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>901</v>
       </c>
@@ -27667,7 +27736,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364405651</v>
       </c>
     </row>
-    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>903</v>
       </c>
@@ -27735,7 +27804,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351065742</v>
       </c>
     </row>
-    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>907</v>
       </c>
@@ -27769,7 +27838,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185803</v>
       </c>
     </row>
-    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>910</v>
       </c>
@@ -27806,7 +27875,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1023481870</v>
       </c>
     </row>
-    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>911</v>
       </c>
@@ -27840,7 +27909,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351086236</v>
       </c>
     </row>
-    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>713</v>
       </c>
@@ -27877,7 +27946,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363911126</v>
       </c>
     </row>
-    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>883</v>
       </c>
@@ -27911,7 +27980,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344153924</v>
       </c>
     </row>
-    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>267</v>
       </c>
@@ -27945,7 +28014,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351060869</v>
       </c>
     </row>
-    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>912</v>
       </c>
@@ -27979,7 +28048,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364969468</v>
       </c>
     </row>
-    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>297</v>
       </c>
@@ -28013,7 +28082,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968701</v>
       </c>
     </row>
-    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>110</v>
       </c>
@@ -28040,7 +28109,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332353686</v>
       </c>
     </row>
-    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>110</v>
       </c>
@@ -28074,7 +28143,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151312080</v>
       </c>
     </row>
-    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>144</v>
       </c>
@@ -28111,7 +28180,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344542176</v>
       </c>
     </row>
-    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>911</v>
       </c>
@@ -28145,7 +28214,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351897093</v>
       </c>
     </row>
-    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>144</v>
       </c>
@@ -28179,7 +28248,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351878287</v>
       </c>
     </row>
-    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>144</v>
       </c>
@@ -28213,7 +28282,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341527170</v>
       </c>
     </row>
-    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>920</v>
       </c>
@@ -28247,7 +28316,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353656370</v>
       </c>
     </row>
-    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>921</v>
       </c>
@@ -28281,7 +28350,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355381171</v>
       </c>
     </row>
-    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>300</v>
       </c>
@@ -28315,7 +28384,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345422476</v>
       </c>
     </row>
-    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>144</v>
       </c>
@@ -28349,7 +28418,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348186696</v>
       </c>
     </row>
-    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>110</v>
       </c>
@@ -28383,7 +28452,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364451148</v>
       </c>
     </row>
-    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>10</v>
       </c>
@@ -28417,7 +28486,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341780885</v>
       </c>
     </row>
-    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>10</v>
       </c>
@@ -28451,7 +28520,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2334433450</v>
       </c>
     </row>
-    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>10</v>
       </c>
@@ -28485,7 +28554,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356553293</v>
       </c>
     </row>
-    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -28519,7 +28588,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352978255</v>
       </c>
     </row>
-    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>10</v>
       </c>
@@ -28553,7 +28622,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342676709</v>
       </c>
     </row>
-    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>932</v>
       </c>
@@ -28587,7 +28656,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354456228</v>
       </c>
     </row>
-    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>10</v>
       </c>
@@ -28621,7 +28690,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356542385</v>
       </c>
     </row>
-    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>10</v>
       </c>
@@ -28658,7 +28727,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343650668</v>
       </c>
     </row>
-    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>10</v>
       </c>
@@ -28692,7 +28761,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364444137</v>
       </c>
     </row>
-    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>940</v>
       </c>
@@ -28726,7 +28795,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348191034</v>
       </c>
     </row>
-    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>10</v>
       </c>
@@ -28760,7 +28829,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344243994</v>
       </c>
     </row>
-    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>908</v>
       </c>
@@ -28794,7 +28863,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2331691077</v>
       </c>
     </row>
-    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>942</v>
       </c>
@@ -28828,7 +28897,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968617</v>
       </c>
     </row>
-    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>943</v>
       </c>
@@ -28862,7 +28931,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364965753</v>
       </c>
     </row>
-    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>144</v>
       </c>
@@ -28888,6 +28957,9 @@
       <c r="H689" s="5">
         <v>44201</v>
       </c>
+      <c r="I689" s="5">
+        <v>44230</v>
+      </c>
       <c r="L689">
         <v>2314989841</v>
       </c>
@@ -28896,7 +28968,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314989841</v>
       </c>
     </row>
-    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>519</v>
       </c>
@@ -28930,7 +29002,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362599708</v>
       </c>
     </row>
-    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>144</v>
       </c>
@@ -28964,7 +29036,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354107658</v>
       </c>
     </row>
-    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>911</v>
       </c>
@@ -28998,7 +29070,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352972415</v>
       </c>
     </row>
-    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>945</v>
       </c>
@@ -29032,7 +29104,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366269149</v>
       </c>
     </row>
-    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>946</v>
       </c>
@@ -29069,7 +29141,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2315550222</v>
       </c>
     </row>
-    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>189</v>
       </c>
@@ -29106,7 +29178,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340749860</v>
       </c>
     </row>
-    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>948</v>
       </c>
@@ -29143,7 +29215,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318769583</v>
       </c>
     </row>
-    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>950</v>
       </c>
@@ -29180,7 +29252,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>951</v>
       </c>
@@ -29217,7 +29289,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323924889</v>
       </c>
     </row>
-    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>144</v>
       </c>
@@ -29254,7 +29326,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350314395</v>
       </c>
     </row>
-    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>953</v>
       </c>
@@ -29288,7 +29360,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347362934</v>
       </c>
     </row>
-    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>954</v>
       </c>
@@ -29322,7 +29394,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344691472</v>
       </c>
     </row>
-    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>956</v>
       </c>
@@ -29356,7 +29428,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353019990</v>
       </c>
     </row>
-    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>958</v>
       </c>
@@ -29390,7 +29462,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356062540</v>
       </c>
     </row>
-    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>330</v>
       </c>
@@ -29424,7 +29496,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359405945</v>
       </c>
     </row>
-    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>959</v>
       </c>
@@ -29458,7 +29530,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352244134</v>
       </c>
     </row>
-    <row r="706" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>191</v>
       </c>
@@ -29495,7 +29567,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372903004</v>
       </c>
     </row>
-    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>361</v>
       </c>
@@ -29529,7 +29601,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370822466</v>
       </c>
     </row>
-    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>330</v>
       </c>
@@ -29563,7 +29635,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360704412</v>
       </c>
     </row>
-    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>963</v>
       </c>
@@ -29597,7 +29669,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372706451</v>
       </c>
     </row>
-    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>144</v>
       </c>
@@ -29631,7 +29703,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706175</v>
       </c>
     </row>
-    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>965</v>
       </c>
@@ -29665,7 +29737,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321057334</v>
       </c>
     </row>
-    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>966</v>
       </c>
@@ -29702,7 +29774,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374599942</v>
       </c>
     </row>
-    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>968</v>
       </c>
@@ -29733,7 +29805,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374558509</v>
       </c>
     </row>
-    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>230</v>
       </c>
@@ -29770,7 +29842,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373943688</v>
       </c>
     </row>
-    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>972</v>
       </c>
@@ -29807,7 +29879,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353739646</v>
       </c>
     </row>
-    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>10</v>
       </c>
@@ -29841,7 +29913,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277934</v>
       </c>
     </row>
-    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>519</v>
       </c>
@@ -29875,7 +29947,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277935</v>
       </c>
     </row>
-    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>110</v>
       </c>
@@ -29909,7 +29981,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368157280</v>
       </c>
     </row>
-    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>144</v>
       </c>
@@ -29943,7 +30015,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355644640</v>
       </c>
     </row>
-    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>110</v>
       </c>
@@ -29977,7 +30049,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355653268</v>
       </c>
     </row>
-    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>973</v>
       </c>
@@ -30011,7 +30083,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352995933</v>
       </c>
     </row>
-    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>10</v>
       </c>
@@ -30048,7 +30120,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373845128</v>
       </c>
     </row>
-    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>144</v>
       </c>
@@ -30082,7 +30154,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339183049</v>
       </c>
     </row>
-    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>144</v>
       </c>
@@ -30116,7 +30188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338913562</v>
       </c>
     </row>
-    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>519</v>
       </c>
@@ -30150,7 +30222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361560919</v>
       </c>
     </row>
-    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>110</v>
       </c>
@@ -30184,7 +30256,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
-    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>110</v>
       </c>
@@ -30218,7 +30290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
-    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>981</v>
       </c>
@@ -30252,7 +30324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350947337</v>
       </c>
     </row>
-    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>10</v>
       </c>
@@ -30286,7 +30358,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368589046</v>
       </c>
     </row>
-    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>10</v>
       </c>
@@ -30320,7 +30392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372186951</v>
       </c>
     </row>
-    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>884</v>
       </c>
@@ -30354,7 +30426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368620019</v>
       </c>
     </row>
-    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>144</v>
       </c>
@@ -30391,7 +30463,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354650873</v>
       </c>
     </row>
-    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>965</v>
       </c>
@@ -30425,7 +30497,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354143853</v>
       </c>
     </row>
-    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>14</v>
       </c>
@@ -30459,7 +30531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764481</v>
       </c>
     </row>
-    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>293</v>
       </c>
@@ -30493,7 +30565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2358678670</v>
       </c>
     </row>
-    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>884</v>
       </c>
@@ -30527,7 +30599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355055800</v>
       </c>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>10</v>
       </c>
@@ -30564,7 +30636,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356993969</v>
       </c>
     </row>
-    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>361</v>
       </c>
@@ -30598,7 +30670,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372694423</v>
       </c>
     </row>
-    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>992</v>
       </c>
@@ -30632,7 +30704,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359239610</v>
       </c>
     </row>
-    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>144</v>
       </c>
@@ -30666,7 +30738,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364729103</v>
       </c>
     </row>
-    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>995</v>
       </c>
@@ -30703,7 +30775,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706212</v>
       </c>
     </row>
-    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>10</v>
       </c>
@@ -30808,7 +30880,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372101133</v>
       </c>
     </row>
-    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>144</v>
       </c>
@@ -30842,7 +30914,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372193668</v>
       </c>
     </row>
-    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>999</v>
       </c>
@@ -30869,7 +30941,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
-    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>954</v>
       </c>
@@ -30903,7 +30975,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376748343</v>
       </c>
     </row>
-    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>144</v>
       </c>
@@ -30937,7 +31009,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359609615</v>
       </c>
     </row>
-    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>110</v>
       </c>
@@ -31008,7 +31080,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368083278</v>
       </c>
     </row>
-    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>144</v>
       </c>
@@ -31042,7 +31114,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366585560</v>
       </c>
     </row>
-    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1002</v>
       </c>
@@ -31076,7 +31148,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366505315</v>
       </c>
     </row>
-    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>144</v>
       </c>
@@ -31110,7 +31182,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377936621</v>
       </c>
     </row>
-    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1004</v>
       </c>
@@ -31147,7 +31219,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373270367</v>
       </c>
     </row>
-    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1006</v>
       </c>
@@ -31184,7 +31256,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369175427</v>
       </c>
     </row>
-    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1007</v>
       </c>
@@ -31218,7 +31290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369186406</v>
       </c>
     </row>
-    <row r="757" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>318</v>
       </c>
@@ -31252,7 +31324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368043859</v>
       </c>
     </row>
-    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>98</v>
       </c>
@@ -31286,7 +31358,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359625710</v>
       </c>
     </row>
-    <row r="759" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1009</v>
       </c>
@@ -31320,7 +31392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2380952280</v>
       </c>
     </row>
-    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>144</v>
       </c>
@@ -31354,7 +31426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369603611</v>
       </c>
     </row>
-    <row r="761" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>189</v>
       </c>
@@ -31388,7 +31460,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381146981</v>
       </c>
     </row>
-    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>753</v>
       </c>
@@ -31422,7 +31494,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373008849</v>
       </c>
     </row>
-    <row r="763" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1014</v>
       </c>
@@ -31459,7 +31531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381522305</v>
       </c>
     </row>
-    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>293</v>
       </c>
@@ -31496,7 +31568,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381656764</v>
       </c>
     </row>
-    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1017</v>
       </c>
@@ -31530,7 +31602,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764237</v>
       </c>
     </row>
-    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>144</v>
       </c>
@@ -31564,7 +31636,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379919794</v>
       </c>
     </row>
-    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>10</v>
       </c>
@@ -31598,7 +31670,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360972941</v>
       </c>
     </row>
-    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1018</v>
       </c>
@@ -31632,7 +31704,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381658883</v>
       </c>
     </row>
-    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>10</v>
       </c>
@@ -31669,7 +31741,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361703757</v>
       </c>
     </row>
-    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1021</v>
       </c>
@@ -31805,7 +31877,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381500253</v>
       </c>
     </row>
-    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>144</v>
       </c>
@@ -31839,7 +31911,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369676996</v>
       </c>
     </row>
-    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>110</v>
       </c>
@@ -31873,7 +31945,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666082</v>
       </c>
     </row>
-    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1023</v>
       </c>
@@ -31907,7 +31979,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363819054</v>
       </c>
     </row>
-    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>10</v>
       </c>
@@ -31941,7 +32013,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666188</v>
       </c>
     </row>
-    <row r="778" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1025</v>
       </c>
@@ -31975,7 +32047,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370659321</v>
       </c>
     </row>
-    <row r="779" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>519</v>
       </c>
@@ -32012,7 +32084,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361706756</v>
       </c>
     </row>
-    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1027</v>
       </c>
@@ -32049,7 +32121,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369142503</v>
       </c>
     </row>
-    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1030</v>
       </c>
@@ -32083,7 +32155,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381063707</v>
       </c>
     </row>
-    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>144</v>
       </c>
@@ -32117,7 +32189,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381056249</v>
       </c>
     </row>
-    <row r="783" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1007</v>
       </c>
@@ -32151,7 +32223,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371675405</v>
       </c>
     </row>
-    <row r="784" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>189</v>
       </c>
@@ -32188,7 +32260,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385704888</v>
       </c>
     </row>
-    <row r="785" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>884</v>
       </c>
@@ -32222,7 +32294,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381633526</v>
       </c>
     </row>
-    <row r="786" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1032</v>
       </c>
@@ -32256,7 +32328,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369689373</v>
       </c>
     </row>
-    <row r="787" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>144</v>
       </c>
@@ -32290,7 +32362,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147827</v>
       </c>
     </row>
-    <row r="788" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>144</v>
       </c>
@@ -32324,7 +32396,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
-    <row r="789" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>144</v>
       </c>
@@ -32426,7 +32498,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369681520</v>
       </c>
     </row>
-    <row r="792" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1038</v>
       </c>
@@ -32463,7 +32535,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372859629</v>
       </c>
     </row>
-    <row r="793" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>110</v>
       </c>
@@ -32497,7 +32569,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372851493</v>
       </c>
     </row>
-    <row r="794" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>144</v>
       </c>
@@ -32531,7 +32603,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381059386</v>
       </c>
     </row>
-    <row r="795" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>144</v>
       </c>
@@ -32565,7 +32637,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2304696128</v>
       </c>
     </row>
-    <row r="796" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>10</v>
       </c>
@@ -32599,7 +32671,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379522826</v>
       </c>
     </row>
-    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>144</v>
       </c>
@@ -32633,7 +32705,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386195976</v>
       </c>
     </row>
-    <row r="798" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>144</v>
       </c>
@@ -32667,7 +32739,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368477962</v>
       </c>
     </row>
-    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>144</v>
       </c>
@@ -32738,7 +32810,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362727424</v>
       </c>
     </row>
-    <row r="801" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>144</v>
       </c>
@@ -32775,7 +32847,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374648415</v>
       </c>
     </row>
-    <row r="802" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1047</v>
       </c>
@@ -32812,7 +32884,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2383667508</v>
       </c>
     </row>
-    <row r="803" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1048</v>
       </c>
@@ -32846,7 +32918,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147398</v>
       </c>
     </row>
-    <row r="804" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1049</v>
       </c>
@@ -32880,7 +32952,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369673851</v>
       </c>
     </row>
-    <row r="805" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>144</v>
       </c>
@@ -32914,7 +32986,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373665723</v>
       </c>
     </row>
-    <row r="806" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>10</v>
       </c>
@@ -33019,7 +33091,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374040643</v>
       </c>
     </row>
-    <row r="809" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1052</v>
       </c>
@@ -33053,7 +33125,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371666673</v>
       </c>
     </row>
-    <row r="810" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>189</v>
       </c>
@@ -33087,7 +33159,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786851</v>
       </c>
     </row>
-    <row r="811" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1054</v>
       </c>
@@ -33121,7 +33193,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786724</v>
       </c>
     </row>
-    <row r="812" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1057</v>
       </c>
@@ -33151,7 +33223,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="813" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>908</v>
       </c>
@@ -33178,7 +33250,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="814" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1060</v>
       </c>
@@ -33212,7 +33284,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386150009</v>
       </c>
     </row>
-    <row r="815" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>144</v>
       </c>
@@ -33283,7 +33355,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374919220</v>
       </c>
     </row>
-    <row r="817" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>144</v>
       </c>
@@ -33351,7 +33423,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374070633</v>
       </c>
     </row>
-    <row r="819" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1054</v>
       </c>
@@ -33419,7 +33491,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374079669</v>
       </c>
     </row>
-    <row r="821" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1064</v>
       </c>
@@ -33456,7 +33528,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388194855</v>
       </c>
     </row>
-    <row r="822" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>144</v>
       </c>
@@ -33493,7 +33565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367084531</v>
       </c>
     </row>
-    <row r="823" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>144</v>
       </c>
@@ -33527,7 +33599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2389399659</v>
       </c>
     </row>
-    <row r="824" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>144</v>
       </c>
@@ -33561,7 +33633,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388042311</v>
       </c>
     </row>
-    <row r="825" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1070</v>
       </c>
@@ -33595,7 +33667,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388175503</v>
       </c>
     </row>
-    <row r="826" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1072</v>
       </c>
@@ -33629,7 +33701,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367097752</v>
       </c>
     </row>
-    <row r="827" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1078</v>
       </c>
@@ -33656,7 +33728,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="828" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>110</v>
       </c>
@@ -33683,7 +33755,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="829" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>300</v>
       </c>
@@ -33710,7 +33782,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="830" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>316</v>
       </c>
@@ -33737,7 +33809,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="831" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>908</v>
       </c>
@@ -33764,7 +33836,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="832" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>908</v>
       </c>
@@ -33791,7 +33863,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="833" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1084</v>
       </c>
@@ -33818,7 +33890,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="834" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>293</v>
       </c>
@@ -33845,7 +33917,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="835" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1087</v>
       </c>
@@ -33875,7 +33947,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="836" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1090</v>
       </c>
@@ -33909,7 +33981,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="837" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>519</v>
       </c>
@@ -33943,7 +34015,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
-    <row r="838" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>144</v>
       </c>
@@ -33977,7 +34049,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377822673</v>
       </c>
     </row>
-    <row r="839" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1091</v>
       </c>
@@ -34011,7 +34083,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374060955</v>
       </c>
     </row>
-    <row r="840" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1093</v>
       </c>
@@ -34045,7 +34117,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377887650</v>
       </c>
     </row>
-    <row r="841" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1095</v>
       </c>
@@ -34079,7 +34151,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2390326178</v>
       </c>
     </row>
-    <row r="842" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1097</v>
       </c>
@@ -34113,7 +34185,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370680356</v>
       </c>
     </row>
-    <row r="843" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1097</v>
       </c>
@@ -34147,7 +34219,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376362654</v>
       </c>
     </row>
-    <row r="844" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>144</v>
       </c>
@@ -34181,7 +34253,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393117700</v>
       </c>
     </row>
-    <row r="845" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>884</v>
       </c>
@@ -34249,7 +34321,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2378864395</v>
       </c>
     </row>
-    <row r="847" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1101</v>
       </c>
@@ -34283,7 +34355,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377869634</v>
       </c>
     </row>
-    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>10</v>
       </c>
@@ -34317,7 +34389,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374940174</v>
       </c>
     </row>
-    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1103</v>
       </c>
@@ -34354,7 +34426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382091467</v>
       </c>
     </row>
-    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1105</v>
       </c>
@@ -34388,7 +34460,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2365599512</v>
       </c>
     </row>
-    <row r="851" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1107</v>
       </c>
@@ -34422,7 +34494,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386891606</v>
       </c>
     </row>
-    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1110</v>
       </c>
@@ -34459,7 +34531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858716</v>
       </c>
     </row>
-    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1112</v>
       </c>
@@ -34496,7 +34568,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2287832985</v>
       </c>
     </row>
-    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1113</v>
       </c>
@@ -34533,7 +34605,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381495210</v>
       </c>
     </row>
-    <row r="855" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1110</v>
       </c>
@@ -34570,7 +34642,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858719</v>
       </c>
     </row>
-    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>144</v>
       </c>
@@ -34607,7 +34679,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2258367876</v>
       </c>
     </row>
-    <row r="857" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>10</v>
       </c>
@@ -34644,7 +34716,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311948015</v>
       </c>
     </row>
-    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1114</v>
       </c>
@@ -34681,7 +34753,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311047818</v>
       </c>
     </row>
-    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1115</v>
       </c>
@@ -34718,7 +34790,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1115</v>
       </c>
@@ -34755,7 +34827,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="861" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1115</v>
       </c>
@@ -34792,7 +34864,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
-    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1116</v>
       </c>
@@ -34829,7 +34901,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367897041</v>
       </c>
     </row>
-    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1117</v>
       </c>
@@ -34866,7 +34938,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2308280816</v>
       </c>
     </row>
-    <row r="864" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1118</v>
       </c>
@@ -34903,7 +34975,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393033909</v>
       </c>
     </row>
-    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1120</v>
       </c>
@@ -34940,7 +35012,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394483545</v>
       </c>
     </row>
-    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>144</v>
       </c>
@@ -34977,7 +35049,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381954250</v>
       </c>
     </row>
-    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>884</v>
       </c>
@@ -35014,7 +35086,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388115374</v>
       </c>
     </row>
-    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>911</v>
       </c>
@@ -35048,7 +35120,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379438871</v>
       </c>
     </row>
-    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1122</v>
       </c>
@@ -35116,7 +35188,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2380339742</v>
       </c>
     </row>
-    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>377</v>
       </c>
@@ -35150,7 +35222,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374401373</v>
       </c>
     </row>
-    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>1127</v>
       </c>
@@ -35218,7 +35290,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369695871</v>
       </c>
     </row>
-    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>1107</v>
       </c>
@@ -35252,7 +35324,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2397629788</v>
       </c>
     </row>
-    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>144</v>
       </c>
@@ -35286,7 +35358,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2396249342</v>
       </c>
     </row>
-    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>10</v>
       </c>
@@ -35320,7 +35392,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376177251</v>
       </c>
     </row>
-    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>1129</v>
       </c>
@@ -35354,7 +35426,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382440246</v>
       </c>
     </row>
-    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>519</v>
       </c>
@@ -35388,7 +35460,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381399425</v>
       </c>
     </row>
-    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>110</v>
       </c>
@@ -35425,7 +35497,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374939415</v>
       </c>
     </row>
-    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>144</v>
       </c>
@@ -35459,7 +35531,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2400918909</v>
       </c>
     </row>
-    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>316</v>
       </c>
@@ -35493,7 +35565,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367035673</v>
       </c>
     </row>
-    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>144</v>
       </c>
@@ -35527,7 +35599,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379751026</v>
       </c>
     </row>
-    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>110</v>
       </c>
@@ -35561,7 +35633,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2398017025</v>
       </c>
     </row>
-    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>144</v>
       </c>
@@ -35595,7 +35667,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2398071537</v>
       </c>
     </row>
-    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>10</v>
       </c>
@@ -35629,7 +35701,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2400342548</v>
       </c>
     </row>
-    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1134</v>
       </c>
@@ -35663,7 +35735,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2390963119</v>
       </c>
     </row>
-    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>144</v>
       </c>
@@ -35697,7 +35769,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2395265517</v>
       </c>
     </row>
-    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1136</v>
       </c>
@@ -35731,7 +35803,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
       </c>
     </row>
-    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1138</v>
       </c>
@@ -35765,7 +35837,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403984709</v>
       </c>
     </row>
-    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1140</v>
       </c>
@@ -35788,6 +35860,9 @@
       <c r="H890" s="5">
         <v>44228</v>
       </c>
+      <c r="I890" s="5">
+        <v>44230</v>
+      </c>
       <c r="L890">
         <v>2404006603</v>
       </c>
@@ -35796,7 +35871,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2404006603</v>
       </c>
     </row>
-    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>144</v>
       </c>
@@ -35822,6 +35897,9 @@
       <c r="H891" s="5">
         <v>44228</v>
       </c>
+      <c r="I891" s="5">
+        <v>44231</v>
+      </c>
       <c r="L891">
         <v>2397650270</v>
       </c>
@@ -35830,7 +35908,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2397650270</v>
       </c>
     </row>
-    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>1144</v>
       </c>
@@ -35864,7 +35942,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393656286</v>
       </c>
     </row>
-    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>10</v>
       </c>
@@ -35898,7 +35976,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2384551990</v>
       </c>
     </row>
-    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1145</v>
       </c>
@@ -35929,7 +36007,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399600876</v>
       </c>
     </row>
-    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>110</v>
       </c>
@@ -35963,7 +36041,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2384574784</v>
       </c>
     </row>
-    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>144</v>
       </c>
@@ -35997,7 +36075,7 @@
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
       </c>
     </row>
-    <row r="897" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>144</v>
       </c>
@@ -36027,7 +36105,7 @@
         <v>2388288764</v>
       </c>
       <c r="M897" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L897</f>
+        <f t="shared" ref="M897:M905" si="54">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L897</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388288764</v>
       </c>
     </row>
@@ -36061,8 +36139,923 @@
         <v>2374932085</v>
       </c>
       <c r="M898" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L898</f>
+        <f t="shared" si="54"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374932085</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>822</v>
+      </c>
+      <c r="B899" t="s">
+        <v>535</v>
+      </c>
+      <c r="C899" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D899" t="s">
+        <v>214</v>
+      </c>
+      <c r="E899" t="s">
+        <v>398</v>
+      </c>
+      <c r="F899" s="16" t="str">
+        <f>VLOOKUP(E899,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G899" s="5">
+        <v>44231</v>
+      </c>
+      <c r="H899" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L899">
+        <v>2394795125</v>
+      </c>
+      <c r="M899" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2394795125</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>10</v>
+      </c>
+      <c r="B900" t="s">
+        <v>262</v>
+      </c>
+      <c r="C900" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D900" t="s">
+        <v>368</v>
+      </c>
+      <c r="E900" t="s">
+        <v>398</v>
+      </c>
+      <c r="F900" s="16" t="str">
+        <f>VLOOKUP(E900,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G900" s="5">
+        <v>44231</v>
+      </c>
+      <c r="H900" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L900">
+        <v>2394778824</v>
+      </c>
+      <c r="M900" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2394778824</v>
+      </c>
+    </row>
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>10</v>
+      </c>
+      <c r="B901" t="s">
+        <v>262</v>
+      </c>
+      <c r="C901" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E901" t="s">
+        <v>417</v>
+      </c>
+      <c r="F901" s="16" t="str">
+        <f>VLOOKUP(E901,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Kentucky</v>
+      </c>
+      <c r="G901" s="5">
+        <v>44229</v>
+      </c>
+      <c r="H901" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L901">
+        <v>2391007119</v>
+      </c>
+      <c r="M901" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2391007119</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>911</v>
+      </c>
+      <c r="B902" t="s">
+        <v>262</v>
+      </c>
+      <c r="C902" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D902" t="s">
+        <v>17</v>
+      </c>
+      <c r="E902" t="s">
+        <v>394</v>
+      </c>
+      <c r="F902" s="16" t="str">
+        <f>VLOOKUP(E902,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G902" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H902" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L902">
+        <v>2394703231</v>
+      </c>
+      <c r="M902" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2394703231</v>
+      </c>
+    </row>
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B903" t="s">
+        <v>262</v>
+      </c>
+      <c r="C903" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D903" t="s">
+        <v>489</v>
+      </c>
+      <c r="E903" t="s">
+        <v>396</v>
+      </c>
+      <c r="F903" s="16" t="str">
+        <f>VLOOKUP(E903,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G903" s="5">
+        <v>44229</v>
+      </c>
+      <c r="H903" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L903">
+        <v>2389899887</v>
+      </c>
+      <c r="M903" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2389899887</v>
+      </c>
+    </row>
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B904" t="s">
+        <v>262</v>
+      </c>
+      <c r="C904" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D904" t="s">
+        <v>228</v>
+      </c>
+      <c r="E904" t="s">
+        <v>397</v>
+      </c>
+      <c r="F904" s="16" t="str">
+        <f>VLOOKUP(E904,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G904" s="5">
+        <v>44230</v>
+      </c>
+      <c r="H904" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L904">
+        <v>2392358085</v>
+      </c>
+      <c r="M904" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2392358085</v>
+      </c>
+    </row>
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>144</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C905" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E905" t="s">
+        <v>398</v>
+      </c>
+      <c r="F905" s="16" t="str">
+        <f>VLOOKUP(E905,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G905" s="5">
+        <v>44230</v>
+      </c>
+      <c r="H905" s="5">
+        <v>44231</v>
+      </c>
+      <c r="L905">
+        <v>2408408809</v>
+      </c>
+      <c r="M905" t="str">
+        <f t="shared" si="54"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2408408809</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>316</v>
+      </c>
+      <c r="B906" t="s">
+        <v>687</v>
+      </c>
+      <c r="C906" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D906" t="s">
+        <v>742</v>
+      </c>
+      <c r="E906" t="s">
+        <v>395</v>
+      </c>
+      <c r="F906" s="16" t="str">
+        <f>VLOOKUP(E906,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G906" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H906" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L906">
+        <v>2416383130</v>
+      </c>
+      <c r="M906" t="str">
+        <f t="shared" ref="M906:M916" si="55">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L906</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416383130</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>10</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C907" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D907" t="s">
+        <v>78</v>
+      </c>
+      <c r="E907" t="s">
+        <v>393</v>
+      </c>
+      <c r="F907" s="16" t="str">
+        <f>VLOOKUP(E907,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G907" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H907" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L907">
+        <v>2415778735</v>
+      </c>
+      <c r="M907" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2415778735</v>
+      </c>
+    </row>
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>10</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C908" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D908" t="s">
+        <v>81</v>
+      </c>
+      <c r="E908" t="s">
+        <v>395</v>
+      </c>
+      <c r="F908" s="16" t="str">
+        <f>VLOOKUP(E908,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G908" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H908" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L908">
+        <v>2403592213</v>
+      </c>
+      <c r="M908" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403592213</v>
+      </c>
+    </row>
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>144</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C909" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E909" t="s">
+        <v>577</v>
+      </c>
+      <c r="F909" s="16" t="str">
+        <f>VLOOKUP(E909,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G909" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H909" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L909">
+        <v>2403595322</v>
+      </c>
+      <c r="M909" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403595322</v>
+      </c>
+    </row>
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>144</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C910" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E910" t="s">
+        <v>406</v>
+      </c>
+      <c r="F910" s="16" t="str">
+        <f>VLOOKUP(E910,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>South Carolina</v>
+      </c>
+      <c r="G910" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H910" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L910">
+        <v>2396573991</v>
+      </c>
+      <c r="M910" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2396573991</v>
+      </c>
+    </row>
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>98</v>
+      </c>
+      <c r="B911" t="s">
+        <v>329</v>
+      </c>
+      <c r="C911" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D911" t="s">
+        <v>78</v>
+      </c>
+      <c r="E911" t="s">
+        <v>393</v>
+      </c>
+      <c r="F911" s="16" t="str">
+        <f>VLOOKUP(E911,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G911" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H911" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L911">
+        <v>2416950867</v>
+      </c>
+      <c r="M911" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416950867</v>
+      </c>
+    </row>
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>10</v>
+      </c>
+      <c r="B912" t="s">
+        <v>262</v>
+      </c>
+      <c r="C912" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D912" t="s">
+        <v>368</v>
+      </c>
+      <c r="E912" t="s">
+        <v>398</v>
+      </c>
+      <c r="F912" s="16" t="str">
+        <f>VLOOKUP(E912,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G912" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H912" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L912">
+        <v>2403588459</v>
+      </c>
+      <c r="M912" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403588459</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B913" t="s">
+        <v>262</v>
+      </c>
+      <c r="C913" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D913" t="s">
+        <v>79</v>
+      </c>
+      <c r="E913" t="s">
+        <v>418</v>
+      </c>
+      <c r="F913" s="16" t="str">
+        <f>VLOOKUP(E913,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Utah</v>
+      </c>
+      <c r="G913" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H913" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L913">
+        <v>2403588607</v>
+      </c>
+      <c r="M913" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403588607</v>
+      </c>
+    </row>
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>110</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D914" t="s">
+        <v>228</v>
+      </c>
+      <c r="E914" t="s">
+        <v>397</v>
+      </c>
+      <c r="F914" s="16" t="str">
+        <f>VLOOKUP(E914,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G914" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H914" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L914">
+        <v>2396563907</v>
+      </c>
+      <c r="M914" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2396563907</v>
+      </c>
+    </row>
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B915" t="s">
+        <v>687</v>
+      </c>
+      <c r="C915" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E915" t="s">
+        <v>577</v>
+      </c>
+      <c r="F915" s="16" t="str">
+        <f>VLOOKUP(E915,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G915" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H915" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L915">
+        <v>2415904767</v>
+      </c>
+      <c r="M915" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2415904767</v>
+      </c>
+    </row>
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B916" t="s">
+        <v>259</v>
+      </c>
+      <c r="C916" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D916" t="s">
+        <v>228</v>
+      </c>
+      <c r="E916" t="s">
+        <v>397</v>
+      </c>
+      <c r="F916" s="16" t="str">
+        <f>VLOOKUP(E916,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G916" s="5">
+        <v>44234</v>
+      </c>
+      <c r="H916" s="5">
+        <v>44236</v>
+      </c>
+      <c r="L916">
+        <v>2403573322</v>
+      </c>
+      <c r="M916" t="str">
+        <f t="shared" si="55"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403573322</v>
+      </c>
+    </row>
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>144</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C917" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D917" t="s">
+        <v>228</v>
+      </c>
+      <c r="E917" t="s">
+        <v>397</v>
+      </c>
+      <c r="F917" s="16" t="str">
+        <f>VLOOKUP(E917,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G917" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H917" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L917">
+        <v>2404831712</v>
+      </c>
+      <c r="M917" t="str">
+        <f t="shared" ref="M917:M925" si="56">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L917</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2404831712</v>
+      </c>
+    </row>
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>144</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C918" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D918" t="s">
+        <v>115</v>
+      </c>
+      <c r="E918" t="s">
+        <v>405</v>
+      </c>
+      <c r="F918" s="16" t="str">
+        <f>VLOOKUP(E918,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G918" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H918" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L918">
+        <v>2394599856</v>
+      </c>
+      <c r="M918" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2394599856</v>
+      </c>
+    </row>
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>10</v>
+      </c>
+      <c r="B919" t="s">
+        <v>821</v>
+      </c>
+      <c r="C919" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D919" t="s">
+        <v>11</v>
+      </c>
+      <c r="E919" t="s">
+        <v>400</v>
+      </c>
+      <c r="F919" s="16" t="str">
+        <f>VLOOKUP(E919,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G919" s="5">
+        <v>44233</v>
+      </c>
+      <c r="H919" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L919">
+        <v>2398176838</v>
+      </c>
+      <c r="M919" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2398176838</v>
+      </c>
+    </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>144</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C920" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D920" t="s">
+        <v>115</v>
+      </c>
+      <c r="E920" t="s">
+        <v>405</v>
+      </c>
+      <c r="F920" s="16" t="str">
+        <f>VLOOKUP(E920,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G920" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H920" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L920">
+        <v>2404809686</v>
+      </c>
+      <c r="M920" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2404809686</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C921" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D921" t="s">
+        <v>188</v>
+      </c>
+      <c r="E921" t="s">
+        <v>410</v>
+      </c>
+      <c r="F921" s="16" t="str">
+        <f>VLOOKUP(E921,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G921" s="5">
+        <v>44233</v>
+      </c>
+      <c r="H921" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L921">
+        <v>2410417208</v>
+      </c>
+      <c r="M921" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410417208</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>10</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C922" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D922" t="s">
+        <v>524</v>
+      </c>
+      <c r="E922" t="s">
+        <v>393</v>
+      </c>
+      <c r="F922" s="16" t="str">
+        <f>VLOOKUP(E922,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G922" s="5">
+        <v>44233</v>
+      </c>
+      <c r="H922" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L922">
+        <v>2410616582</v>
+      </c>
+      <c r="M922" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410616582</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B923" t="s">
+        <v>262</v>
+      </c>
+      <c r="C923" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E923" t="s">
+        <v>398</v>
+      </c>
+      <c r="F923" s="16" t="str">
+        <f>VLOOKUP(E923,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G923" s="5">
+        <v>44235</v>
+      </c>
+      <c r="H923" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L923">
+        <v>2401933880</v>
+      </c>
+      <c r="M923" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2401933880</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>10</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C924" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D924" t="s">
+        <v>49</v>
+      </c>
+      <c r="E924" t="s">
+        <v>412</v>
+      </c>
+      <c r="F924" s="16" t="str">
+        <f>VLOOKUP(E924,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Colorado</v>
+      </c>
+      <c r="G924" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H924" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L924">
+        <v>2402720523</v>
+      </c>
+      <c r="M924" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2402720523</v>
+      </c>
+    </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>10</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C925" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D925" t="s">
+        <v>214</v>
+      </c>
+      <c r="E925" t="s">
+        <v>398</v>
+      </c>
+      <c r="F925" s="16" t="str">
+        <f>VLOOKUP(E925,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G925" s="5">
+        <v>44233</v>
+      </c>
+      <c r="H925" s="5">
+        <v>44237</v>
+      </c>
+      <c r="L925">
+        <v>2411581598</v>
+      </c>
+      <c r="M925" t="str">
+        <f t="shared" si="56"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411581598</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FB552E-6BCC-4AE9-BFD3-94639789B921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FA0E4-60A2-47BB-867C-B536EA14E70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="178335" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="181980" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1199">
   <si>
     <t>Title</t>
   </si>
@@ -3548,6 +3548,84 @@
   </si>
   <si>
     <t>Interactive Resources</t>
+  </si>
+  <si>
+    <t>Woodbridge</t>
+  </si>
+  <si>
+    <t>WW (formerly Weight Watchers)</t>
+  </si>
+  <si>
+    <t>StaffSource</t>
+  </si>
+  <si>
+    <t>Info Junction LLC</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Corps Team/Mom Corps</t>
+  </si>
+  <si>
+    <t>Life Sciences Data Analyst</t>
+  </si>
+  <si>
+    <t>Fenix Group International, LLC.</t>
+  </si>
+  <si>
+    <t>SkillSoniq</t>
+  </si>
+  <si>
+    <t>DISYS</t>
+  </si>
+  <si>
+    <t>Smyrna</t>
+  </si>
+  <si>
+    <t>Data Scientist, Personalization (Contract) - Retail</t>
+  </si>
+  <si>
+    <t>Remote Data Scientist</t>
+  </si>
+  <si>
+    <t>Abzooba</t>
+  </si>
+  <si>
+    <t>Compunnel Staffing</t>
+  </si>
+  <si>
+    <t>Data Analyst - Risk Analytics</t>
+  </si>
+  <si>
+    <t>CRISIL Limited</t>
+  </si>
+  <si>
+    <t>Pixalate</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>Data Scientist / Analyst - Agriculture</t>
+  </si>
+  <si>
+    <t>Kavaliro</t>
+  </si>
+  <si>
+    <t>Piper Companies</t>
+  </si>
+  <si>
+    <t>Data Scientist (Remote)</t>
+  </si>
+  <si>
+    <t>Analyst, Data Operations</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -4336,9 +4414,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M925" totalsRowShown="0">
-  <autoFilter ref="A1:M925" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
-  <sortState ref="A2:M534">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M951" totalsRowShown="0">
+  <autoFilter ref="A1:M951" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+  <sortState ref="A2:M933">
     <sortCondition ref="H2:H534"/>
   </sortState>
   <tableColumns count="13">
@@ -4659,12 +4737,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M925"/>
+  <dimension ref="A1:M951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A932" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D921" sqref="D921"/>
+      <selection pane="bottomLeft" activeCell="M947" sqref="M947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16888,23 +16966,23 @@
       <c r="B343" t="s">
         <v>388</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="F343" t="str">
+      <c r="F343" s="16" t="str">
         <f>VLOOKUP(E343,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Massachusetts</v>
       </c>
-      <c r="G343" s="5">
+      <c r="G343" s="14">
         <v>44090</v>
       </c>
-      <c r="H343" s="5">
+      <c r="H343" s="14">
         <v>44091</v>
       </c>
       <c r="L343">
@@ -17528,7 +17606,7 @@
         <v>2148173936</v>
       </c>
       <c r="M360" t="str">
-        <f t="shared" ref="M360:M386" si="6">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L360</f>
+        <f t="shared" ref="M360:M423" si="6">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L360</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148173936</v>
       </c>
     </row>
@@ -17838,20 +17916,20 @@
       <c r="E369" t="s">
         <v>398</v>
       </c>
-      <c r="F369" t="str">
+      <c r="F369" s="16" t="str">
         <f>VLOOKUP(E369,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G369" s="5">
+      <c r="G369" s="14">
         <v>44098</v>
       </c>
-      <c r="H369" s="5">
+      <c r="H369" s="14">
         <v>44099</v>
       </c>
       <c r="L369">
         <v>2149908908</v>
       </c>
-      <c r="M369" t="str">
+      <c r="M369" s="16" t="str">
         <f t="shared" si="6"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149908908</v>
       </c>
@@ -17872,14 +17950,14 @@
       <c r="E370" t="s">
         <v>398</v>
       </c>
-      <c r="F370" t="str">
+      <c r="F370" s="16" t="str">
         <f>VLOOKUP(E370,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G370" s="5">
+      <c r="G370" s="14">
         <v>44098</v>
       </c>
-      <c r="H370" s="5">
+      <c r="H370" s="14">
         <v>44099</v>
       </c>
       <c r="L370">
@@ -17943,14 +18021,14 @@
       <c r="E372" t="s">
         <v>181</v>
       </c>
-      <c r="F372" t="str">
+      <c r="F372" s="16" t="str">
         <f>VLOOKUP(E372,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>District Of Columbia</v>
       </c>
-      <c r="G372" s="5">
+      <c r="G372" s="14">
         <v>44098</v>
       </c>
-      <c r="H372" s="5">
+      <c r="H372" s="14">
         <v>44099</v>
       </c>
       <c r="L372">
@@ -17977,14 +18055,14 @@
       <c r="E373" t="s">
         <v>405</v>
       </c>
-      <c r="F373" t="str">
+      <c r="F373" s="16" t="str">
         <f>VLOOKUP(E373,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Georgia</v>
       </c>
-      <c r="G373" s="5">
+      <c r="G373" s="14">
         <v>44098</v>
       </c>
-      <c r="H373" s="5">
+      <c r="H373" s="14">
         <v>44099</v>
       </c>
       <c r="L373">
@@ -18015,10 +18093,10 @@
         <f>VLOOKUP(E374,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Maryland</v>
       </c>
-      <c r="G374" s="5">
+      <c r="G374" s="14">
         <v>44096</v>
       </c>
-      <c r="H374" s="5">
+      <c r="H374" s="14">
         <v>44099</v>
       </c>
       <c r="L374">
@@ -18049,10 +18127,10 @@
         <f>VLOOKUP(E375,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>New Jersey</v>
       </c>
-      <c r="G375" s="5">
+      <c r="G375" s="14">
         <v>44097</v>
       </c>
-      <c r="H375" s="5">
+      <c r="H375" s="14">
         <v>44099</v>
       </c>
       <c r="L375">
@@ -18120,10 +18198,10 @@
         <f>VLOOKUP(E377,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Pennsylvania</v>
       </c>
-      <c r="G377" s="5">
+      <c r="G377" s="14">
         <v>44097</v>
       </c>
-      <c r="H377" s="5">
+      <c r="H377" s="14">
         <v>44099</v>
       </c>
       <c r="K377" s="2">
@@ -18157,10 +18235,10 @@
         <f>VLOOKUP(E378,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Pennsylvania</v>
       </c>
-      <c r="G378" s="5">
+      <c r="G378" s="14">
         <v>44093</v>
       </c>
-      <c r="H378" s="5">
+      <c r="H378" s="14">
         <v>44099</v>
       </c>
       <c r="L378">
@@ -18265,10 +18343,10 @@
         <f>VLOOKUP(E381,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Texas</v>
       </c>
-      <c r="G381" s="5">
+      <c r="G381" s="14">
         <v>44098</v>
       </c>
-      <c r="H381" s="5">
+      <c r="H381" s="14">
         <v>44099</v>
       </c>
       <c r="L381">
@@ -18299,10 +18377,10 @@
         <f>VLOOKUP(E382,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Washington</v>
       </c>
-      <c r="G382" s="5" t="s">
+      <c r="G382" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H382" s="5">
+      <c r="H382" s="14">
         <v>44099</v>
       </c>
       <c r="K382" s="2">
@@ -18333,10 +18411,10 @@
         <f>VLOOKUP(E383,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Washington</v>
       </c>
-      <c r="G383" s="5">
+      <c r="G383" s="14">
         <v>44098</v>
       </c>
-      <c r="H383" s="5">
+      <c r="H383" s="14">
         <v>44099</v>
       </c>
       <c r="L383">
@@ -18438,10 +18516,10 @@
         <f>VLOOKUP(E386,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Colorado</v>
       </c>
-      <c r="G386" s="5" t="s">
+      <c r="G386" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H386" s="5">
+      <c r="H386" s="14">
         <v>44101</v>
       </c>
       <c r="K386" s="2" t="s">
@@ -18502,7 +18580,7 @@
         <f>VLOOKUP(E388,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Illinois</v>
       </c>
-      <c r="G388" s="5">
+      <c r="G388" s="14">
         <v>44099</v>
       </c>
       <c r="H388" s="5">
@@ -18512,7 +18590,7 @@
         <v>2149955311</v>
       </c>
       <c r="M388" t="str">
-        <f t="shared" ref="M388:M419" si="7">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L388</f>
+        <f t="shared" ref="M388:M451" si="7">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L388</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149955311</v>
       </c>
     </row>
@@ -18536,7 +18614,7 @@
         <f>VLOOKUP(E389,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Maryland</v>
       </c>
-      <c r="G389" s="5" t="s">
+      <c r="G389" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H389" s="5">
@@ -19202,6 +19280,7 @@
       <c r="H407" s="5">
         <v>44102</v>
       </c>
+      <c r="I407" s="14"/>
       <c r="L407">
         <v>2172124640</v>
       </c>
@@ -19267,7 +19346,7 @@
         <f>VLOOKUP(E409,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G409" s="5">
+      <c r="G409" s="14">
         <v>44101</v>
       </c>
       <c r="H409" s="5">
@@ -19288,23 +19367,23 @@
       <c r="B410" t="s">
         <v>535</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E410" t="s">
+      <c r="E410" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="F410" t="str">
+      <c r="F410" s="16" t="str">
         <f>VLOOKUP(E410,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G410" s="5" t="s">
+      <c r="G410" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H410" s="5">
+      <c r="H410" s="14">
         <v>44104</v>
       </c>
       <c r="L410">
@@ -19613,6 +19692,7 @@
       <c r="H419" s="5">
         <v>44104</v>
       </c>
+      <c r="I419" s="14"/>
       <c r="L419">
         <v>2182037080</v>
       </c>
@@ -19651,7 +19731,7 @@
         <v>2149970980</v>
       </c>
       <c r="M420" t="str">
-        <f t="shared" ref="M420:M451" si="8">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L420</f>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149970980</v>
       </c>
     </row>
@@ -19678,7 +19758,7 @@
         <v>2155368391</v>
       </c>
       <c r="M421" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155368391</v>
       </c>
     </row>
@@ -19708,7 +19788,7 @@
         <v>2023660526</v>
       </c>
       <c r="M422" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2023660526</v>
       </c>
     </row>
@@ -19745,7 +19825,7 @@
         <v>2183478749</v>
       </c>
       <c r="M423" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183478749</v>
       </c>
     </row>
@@ -19779,7 +19859,7 @@
         <v>2182198220</v>
       </c>
       <c r="M424" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2182198220</v>
       </c>
     </row>
@@ -19816,7 +19896,7 @@
         <v>2179080246</v>
       </c>
       <c r="M425" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
@@ -19853,7 +19933,7 @@
         <v>2173016810</v>
       </c>
       <c r="M426" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173016810</v>
       </c>
     </row>
@@ -19887,7 +19967,7 @@
         <v>2159757472</v>
       </c>
       <c r="M427" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757472</v>
       </c>
     </row>
@@ -19921,7 +20001,7 @@
         <v>2171698821</v>
       </c>
       <c r="M428" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2171698821</v>
       </c>
     </row>
@@ -19958,7 +20038,7 @@
         <v>2183951386</v>
       </c>
       <c r="M429" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183951386</v>
       </c>
     </row>
@@ -19978,14 +20058,14 @@
       <c r="E430" t="s">
         <v>521</v>
       </c>
-      <c r="F430" t="str">
+      <c r="F430" s="16" t="str">
         <f>VLOOKUP(E430,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Minnesota</v>
       </c>
-      <c r="G430" s="5">
+      <c r="G430" s="14">
         <v>44103</v>
       </c>
-      <c r="H430" s="5">
+      <c r="H430" s="14">
         <v>44105</v>
       </c>
       <c r="K430" s="2">
@@ -19994,8 +20074,8 @@
       <c r="L430">
         <v>2179080246</v>
       </c>
-      <c r="M430" t="str">
-        <f t="shared" si="8"/>
+      <c r="M430" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179080246</v>
       </c>
     </row>
@@ -20015,14 +20095,14 @@
       <c r="E431" t="s">
         <v>401</v>
       </c>
-      <c r="F431" t="str">
+      <c r="F431" s="16" t="str">
         <f>VLOOKUP(E431,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>New York</v>
       </c>
-      <c r="G431" s="5">
+      <c r="G431" s="14">
         <v>44105</v>
       </c>
-      <c r="H431" s="5">
+      <c r="H431" s="14">
         <v>44105</v>
       </c>
       <c r="J431" s="5">
@@ -20032,7 +20112,7 @@
         <v>2159757160</v>
       </c>
       <c r="M431" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159757160</v>
       </c>
     </row>
@@ -20052,21 +20132,21 @@
       <c r="E432" t="s">
         <v>393</v>
       </c>
-      <c r="F432" t="str">
+      <c r="F432" s="16" t="str">
         <f>VLOOKUP(E432,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>North Carolina</v>
       </c>
-      <c r="G432" s="5" t="s">
+      <c r="G432" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H432" s="5">
+      <c r="H432" s="14">
         <v>44105</v>
       </c>
       <c r="L432">
         <v>2149771617</v>
       </c>
-      <c r="M432" t="str">
-        <f t="shared" si="8"/>
+      <c r="M432" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149771617</v>
       </c>
     </row>
@@ -20086,21 +20166,21 @@
       <c r="E433" t="s">
         <v>393</v>
       </c>
-      <c r="F433" t="str">
+      <c r="F433" s="16" t="str">
         <f>VLOOKUP(E433,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>North Carolina</v>
       </c>
-      <c r="G433" s="5">
+      <c r="G433" s="14">
         <v>44103</v>
       </c>
-      <c r="H433" s="5">
+      <c r="H433" s="14">
         <v>44105</v>
       </c>
       <c r="L433">
         <v>2155335171</v>
       </c>
-      <c r="M433" t="str">
-        <f t="shared" si="8"/>
+      <c r="M433" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2155335171</v>
       </c>
     </row>
@@ -20111,30 +20191,33 @@
       <c r="B434" t="s">
         <v>335</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C434" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E434" t="s">
+      <c r="E434" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="F434" t="str">
+      <c r="F434" s="16" t="str">
         <f>VLOOKUP(E434,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>North Carolina</v>
       </c>
-      <c r="G434" s="5">
+      <c r="G434" s="14">
         <v>44099</v>
       </c>
-      <c r="H434" s="5">
+      <c r="H434" s="14">
         <v>44105</v>
       </c>
-      <c r="L434">
+      <c r="I434" s="14"/>
+      <c r="J434" s="14"/>
+      <c r="K434" s="18"/>
+      <c r="L434" s="16">
         <v>2151311102</v>
       </c>
-      <c r="M434" t="str">
-        <f t="shared" si="8"/>
+      <c r="M434" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151311102</v>
       </c>
     </row>
@@ -20158,10 +20241,10 @@
         <f>VLOOKUP(E435,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Oregon</v>
       </c>
-      <c r="G435" s="5">
+      <c r="G435" s="14">
         <v>44104</v>
       </c>
-      <c r="H435" s="5">
+      <c r="H435" s="14">
         <v>44105</v>
       </c>
       <c r="K435" s="2">
@@ -20170,8 +20253,8 @@
       <c r="L435">
         <v>2183372249</v>
       </c>
-      <c r="M435" t="str">
-        <f t="shared" si="8"/>
+      <c r="M435" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183372249</v>
       </c>
     </row>
@@ -20195,17 +20278,17 @@
         <f>VLOOKUP(E436,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Pennsylvania</v>
       </c>
-      <c r="G436" s="5" t="s">
+      <c r="G436" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H436" s="5">
+      <c r="H436" s="14">
         <v>44105</v>
       </c>
       <c r="L436">
         <v>2011759907</v>
       </c>
-      <c r="M436" t="str">
-        <f t="shared" si="8"/>
+      <c r="M436" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2011759907</v>
       </c>
     </row>
@@ -20229,17 +20312,17 @@
         <f>VLOOKUP(E437,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Texas</v>
       </c>
-      <c r="G437" s="5">
+      <c r="G437" s="14">
         <v>44105</v>
       </c>
-      <c r="H437" s="5">
+      <c r="H437" s="14">
         <v>44105</v>
       </c>
       <c r="L437">
         <v>2159736898</v>
       </c>
-      <c r="M437" t="str">
-        <f t="shared" si="8"/>
+      <c r="M437" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159736898</v>
       </c>
     </row>
@@ -20263,17 +20346,17 @@
         <f>VLOOKUP(E438,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Texas</v>
       </c>
-      <c r="G438" s="5">
+      <c r="G438" s="14">
         <v>44101</v>
       </c>
-      <c r="H438" s="5">
+      <c r="H438" s="14">
         <v>44105</v>
       </c>
       <c r="L438">
         <v>2150860964</v>
       </c>
       <c r="M438" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2150860964</v>
       </c>
     </row>
@@ -20300,7 +20383,7 @@
         <v>2152177388</v>
       </c>
       <c r="M439" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152177388</v>
       </c>
     </row>
@@ -20324,10 +20407,10 @@
         <f>VLOOKUP(E440,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G440" s="5">
+      <c r="G440" s="14">
         <v>44107</v>
       </c>
-      <c r="H440" s="5">
+      <c r="H440" s="14">
         <v>44109</v>
       </c>
       <c r="J440" s="5">
@@ -20337,7 +20420,7 @@
         <v>2186865305</v>
       </c>
       <c r="M440" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186865305</v>
       </c>
     </row>
@@ -20361,17 +20444,17 @@
         <f>VLOOKUP(E441,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G441" s="5">
+      <c r="G441" s="14">
         <v>44108</v>
       </c>
-      <c r="H441" s="5">
+      <c r="H441" s="14">
         <v>44109</v>
       </c>
       <c r="L441">
         <v>2165552942</v>
       </c>
       <c r="M441" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165552942</v>
       </c>
     </row>
@@ -20408,7 +20491,7 @@
         <v>2185386896</v>
       </c>
       <c r="M442" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185386896</v>
       </c>
     </row>
@@ -20432,17 +20515,17 @@
         <f>VLOOKUP(E443,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G443" s="5">
+      <c r="G443" s="14">
         <v>44107</v>
       </c>
-      <c r="H443" s="5">
+      <c r="H443" s="14">
         <v>44109</v>
       </c>
       <c r="L443">
         <v>2165526955</v>
       </c>
       <c r="M443" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20466,17 +20549,17 @@
         <f>VLOOKUP(E444,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G444" s="5">
+      <c r="G444" s="14">
         <v>44105</v>
       </c>
-      <c r="H444" s="5">
+      <c r="H444" s="14">
         <v>44109</v>
       </c>
       <c r="L444">
         <v>2157971267</v>
       </c>
       <c r="M444" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157971267</v>
       </c>
     </row>
@@ -20500,17 +20583,17 @@
         <f>VLOOKUP(E445,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>District Of Columbia</v>
       </c>
-      <c r="G445" s="5">
+      <c r="G445" s="14">
         <v>44107</v>
       </c>
-      <c r="H445" s="5">
+      <c r="H445" s="14">
         <v>44109</v>
       </c>
       <c r="L445">
         <v>2165526955</v>
       </c>
       <c r="M445" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20534,17 +20617,17 @@
         <f>VLOOKUP(E446,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Georgia</v>
       </c>
-      <c r="G446" s="5">
+      <c r="G446" s="14">
         <v>44107</v>
       </c>
-      <c r="H446" s="5">
+      <c r="H446" s="14">
         <v>44109</v>
       </c>
       <c r="L446">
         <v>2165526955</v>
       </c>
       <c r="M446" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20568,17 +20651,17 @@
         <f>VLOOKUP(E447,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Illinois</v>
       </c>
-      <c r="G447" s="5">
+      <c r="G447" s="14">
         <v>44107</v>
       </c>
-      <c r="H447" s="5">
+      <c r="H447" s="14">
         <v>44109</v>
       </c>
       <c r="L447">
         <v>2165526955</v>
       </c>
       <c r="M447" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20602,17 +20685,17 @@
         <f>VLOOKUP(E448,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Illinois</v>
       </c>
-      <c r="G448" s="5">
+      <c r="G448" s="14">
         <v>44107</v>
       </c>
-      <c r="H448" s="5">
+      <c r="H448" s="14">
         <v>44109</v>
       </c>
       <c r="L448">
         <v>2163554811</v>
       </c>
       <c r="M448" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2163554811</v>
       </c>
     </row>
@@ -20636,17 +20719,17 @@
         <f>VLOOKUP(E449,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Massachusetts</v>
       </c>
-      <c r="G449" s="5">
+      <c r="G449" s="14">
         <v>44107</v>
       </c>
-      <c r="H449" s="5">
+      <c r="H449" s="14">
         <v>44109</v>
       </c>
       <c r="L449">
         <v>2165526955</v>
       </c>
       <c r="M449" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20680,7 +20763,7 @@
         <v>2165557310</v>
       </c>
       <c r="M450" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165557310</v>
       </c>
     </row>
@@ -20714,7 +20797,7 @@
         <v>2189079637</v>
       </c>
       <c r="M451" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189079637</v>
       </c>
     </row>
@@ -20737,7 +20820,7 @@
       <c r="F452" t="s">
         <v>616</v>
       </c>
-      <c r="G452" s="5">
+      <c r="G452" s="14">
         <v>44109</v>
       </c>
       <c r="H452" s="5">
@@ -20747,7 +20830,7 @@
         <v>2189078270</v>
       </c>
       <c r="M452" t="str">
-        <f t="shared" ref="M452:M483" si="9">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L452</f>
+        <f t="shared" ref="M452:M515" si="8">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L452</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189078270</v>
       </c>
     </row>
@@ -20771,17 +20854,18 @@
         <f>VLOOKUP(E453,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>New York</v>
       </c>
-      <c r="G453" s="5">
+      <c r="G453" s="14">
         <v>44107</v>
       </c>
       <c r="H453" s="5">
         <v>44109</v>
       </c>
+      <c r="I453" s="14"/>
       <c r="L453">
         <v>2165526955</v>
       </c>
       <c r="M453" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20805,7 +20889,7 @@
         <f>VLOOKUP(E454,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>New York</v>
       </c>
-      <c r="G454" s="5">
+      <c r="G454" s="14">
         <v>44105</v>
       </c>
       <c r="H454" s="5">
@@ -20815,7 +20899,7 @@
         <v>2152069177</v>
       </c>
       <c r="M454" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2152069177</v>
       </c>
     </row>
@@ -20852,7 +20936,7 @@
         <v>2185261833</v>
       </c>
       <c r="M455" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2185261833</v>
       </c>
     </row>
@@ -20886,7 +20970,7 @@
         <v>2165542461</v>
       </c>
       <c r="M456" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165542461</v>
       </c>
     </row>
@@ -20923,7 +21007,7 @@
         <v>2165526955</v>
       </c>
       <c r="M457" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -20947,7 +21031,7 @@
         <f>VLOOKUP(E458,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Virginia</v>
       </c>
-      <c r="G458" s="5">
+      <c r="G458" s="14">
         <v>44104</v>
       </c>
       <c r="H458" s="5">
@@ -20957,7 +21041,7 @@
         <v>2157909056</v>
       </c>
       <c r="M458" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157909056</v>
       </c>
     </row>
@@ -20991,7 +21075,7 @@
         <v>2157904598</v>
       </c>
       <c r="M459" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2157904598</v>
       </c>
     </row>
@@ -21025,7 +21109,7 @@
         <v>2165547094</v>
       </c>
       <c r="M460" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165547094</v>
       </c>
     </row>
@@ -21059,7 +21143,7 @@
         <v>2165526955</v>
       </c>
       <c r="M461" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165526955</v>
       </c>
     </row>
@@ -21093,7 +21177,7 @@
         <v>2165593155</v>
       </c>
       <c r="M462" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2165593155</v>
       </c>
     </row>
@@ -21130,7 +21214,7 @@
         <v>2189606471</v>
       </c>
       <c r="M463" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189606471</v>
       </c>
     </row>
@@ -21167,7 +21251,7 @@
         <v>2188646478</v>
       </c>
       <c r="M464" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
@@ -21201,7 +21285,7 @@
         <v>2159753905</v>
       </c>
       <c r="M465" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2159753905</v>
       </c>
     </row>
@@ -21241,7 +21325,7 @@
         <v>2190120735</v>
       </c>
       <c r="M466" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
@@ -21271,11 +21355,12 @@
       <c r="H467" s="5">
         <v>44110</v>
       </c>
+      <c r="I467" s="14"/>
       <c r="L467">
         <v>2190416610</v>
       </c>
       <c r="M467" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190416610</v>
       </c>
     </row>
@@ -21315,7 +21400,7 @@
         <v>2190120735</v>
       </c>
       <c r="M468" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
@@ -21352,7 +21437,7 @@
         <v>2188646478</v>
       </c>
       <c r="M469" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2188646478</v>
       </c>
     </row>
@@ -21392,7 +21477,7 @@
         <v>2190120735</v>
       </c>
       <c r="M470" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190120735</v>
       </c>
     </row>
@@ -21429,7 +21514,7 @@
         <v>2190968595</v>
       </c>
       <c r="M471" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2190968595</v>
       </c>
     </row>
@@ -21453,7 +21538,7 @@
         <f>VLOOKUP(E472,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G472" s="5">
+      <c r="G472" s="14">
         <v>44110</v>
       </c>
       <c r="H472" s="5">
@@ -21463,7 +21548,7 @@
         <v>2191690582</v>
       </c>
       <c r="M472" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191690582</v>
       </c>
     </row>
@@ -21487,17 +21572,18 @@
         <f>VLOOKUP(E473,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Illinois</v>
       </c>
-      <c r="G473" s="5">
+      <c r="G473" s="14">
         <v>44110</v>
       </c>
       <c r="H473" s="5">
         <v>44111</v>
       </c>
+      <c r="I473" s="14"/>
       <c r="L473">
         <v>2191817150</v>
       </c>
       <c r="M473" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2191817150</v>
       </c>
     </row>
@@ -21521,7 +21607,7 @@
         <f>VLOOKUP(E474,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Pennsylvania</v>
       </c>
-      <c r="G474" s="5">
+      <c r="G474" s="14">
         <v>44111</v>
       </c>
       <c r="H474" s="5">
@@ -21531,7 +21617,7 @@
         <v>2193169336</v>
       </c>
       <c r="M474" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193169336</v>
       </c>
     </row>
@@ -21568,7 +21654,7 @@
         <v>2193017933</v>
       </c>
       <c r="M475" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193017933</v>
       </c>
     </row>
@@ -21602,7 +21688,7 @@
         <v>2172508115</v>
       </c>
       <c r="M476" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172508115</v>
       </c>
     </row>
@@ -21639,7 +21725,7 @@
         <v>2164741884</v>
       </c>
       <c r="M477" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2164741884</v>
       </c>
     </row>
@@ -21676,7 +21762,7 @@
         <v>2193267345</v>
       </c>
       <c r="M478" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193267345</v>
       </c>
     </row>
@@ -21710,7 +21796,7 @@
         <v>2172509339</v>
       </c>
       <c r="M479" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509339</v>
       </c>
     </row>
@@ -21744,7 +21830,7 @@
         <v>2193132664</v>
       </c>
       <c r="M480" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193132664</v>
       </c>
     </row>
@@ -21755,13 +21841,13 @@
       <c r="B481" t="s">
         <v>745</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C481" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="E481" t="s">
+      <c r="E481" s="16" t="s">
         <v>401</v>
       </c>
       <c r="F481" s="9" t="str">
@@ -21774,11 +21860,14 @@
       <c r="H481" s="12">
         <v>44112</v>
       </c>
-      <c r="L481">
+      <c r="I481" s="14"/>
+      <c r="J481" s="14"/>
+      <c r="K481" s="18"/>
+      <c r="L481" s="16">
         <v>2172522919</v>
       </c>
       <c r="M481" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172522919</v>
       </c>
     </row>
@@ -21812,7 +21901,7 @@
         <v>2170984715</v>
       </c>
       <c r="M482" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170984715</v>
       </c>
     </row>
@@ -21846,7 +21935,7 @@
         <v>2172506338</v>
       </c>
       <c r="M483" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172506338</v>
       </c>
     </row>
@@ -21883,7 +21972,7 @@
         <v>2172509058</v>
       </c>
       <c r="M484" s="9" t="str">
-        <f t="shared" ref="M484:M515" si="10">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L484</f>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172509058</v>
       </c>
     </row>
@@ -21923,7 +22012,7 @@
         <v>2173781459</v>
       </c>
       <c r="M485" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173781459</v>
       </c>
     </row>
@@ -21960,7 +22049,7 @@
         <v>2193716463</v>
       </c>
       <c r="M486" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193716463</v>
       </c>
     </row>
@@ -21980,7 +22069,7 @@
       <c r="E487" t="s">
         <v>412</v>
       </c>
-      <c r="F487" t="str">
+      <c r="F487" s="16" t="str">
         <f>VLOOKUP(E487,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Colorado</v>
       </c>
@@ -21994,7 +22083,7 @@
         <v>2197921135</v>
       </c>
       <c r="M487" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
@@ -22031,7 +22120,7 @@
         <v>2195056161</v>
       </c>
       <c r="M488" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195056161</v>
       </c>
     </row>
@@ -22065,7 +22154,7 @@
         <v>2172593126</v>
       </c>
       <c r="M489" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172593126</v>
       </c>
     </row>
@@ -22105,7 +22194,7 @@
         <v>2197921135</v>
       </c>
       <c r="M490" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2197921135</v>
       </c>
     </row>
@@ -22139,7 +22228,7 @@
         <v>2170855305</v>
       </c>
       <c r="M491" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170855305</v>
       </c>
     </row>
@@ -22170,7 +22259,7 @@
         <v>2189147960</v>
       </c>
       <c r="M492" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2189147960</v>
       </c>
     </row>
@@ -22207,7 +22296,7 @@
         <v>2193706917</v>
       </c>
       <c r="M493" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193706917</v>
       </c>
     </row>
@@ -22241,7 +22330,7 @@
         <v>2172589165</v>
       </c>
       <c r="M494" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172589165</v>
       </c>
     </row>
@@ -22275,7 +22364,7 @@
         <v>2162302023</v>
       </c>
       <c r="M495" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2162302023</v>
       </c>
     </row>
@@ -22309,7 +22398,7 @@
         <v>2170898142</v>
       </c>
       <c r="M496" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170898142</v>
       </c>
     </row>
@@ -22343,7 +22432,7 @@
         <v>2179939169</v>
       </c>
       <c r="M497" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179939169</v>
       </c>
     </row>
@@ -22377,7 +22466,7 @@
         <v>2179929178</v>
       </c>
       <c r="M498" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179929178</v>
       </c>
     </row>
@@ -22411,7 +22500,7 @@
         <v>2202366985</v>
       </c>
       <c r="M499" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202366985</v>
       </c>
     </row>
@@ -22445,7 +22534,7 @@
         <v>2179906495</v>
       </c>
       <c r="M500" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179906495</v>
       </c>
     </row>
@@ -22479,7 +22568,7 @@
         <v>2172575351</v>
       </c>
       <c r="M501" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2172575351</v>
       </c>
     </row>
@@ -22512,7 +22601,7 @@
         <v>2179920328</v>
       </c>
       <c r="M502" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179920328</v>
       </c>
     </row>
@@ -22546,7 +22635,7 @@
         <v>2202434558</v>
       </c>
       <c r="M503" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202434558</v>
       </c>
     </row>
@@ -22580,7 +22669,7 @@
         <v>2196526593</v>
       </c>
       <c r="M504" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2196526593</v>
       </c>
     </row>
@@ -22617,7 +22706,7 @@
         <v>2176217822</v>
       </c>
       <c r="M505" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2176217822</v>
       </c>
     </row>
@@ -22651,7 +22740,7 @@
         <v>2174485612</v>
       </c>
       <c r="M506" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2174485612</v>
       </c>
     </row>
@@ -22685,7 +22774,7 @@
         <v>2179907759</v>
       </c>
       <c r="M507" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2179907759</v>
       </c>
     </row>
@@ -22719,7 +22808,7 @@
         <v>2202381402</v>
       </c>
       <c r="M508" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202381402</v>
       </c>
     </row>
@@ -22753,7 +22842,7 @@
         <v>2170947437</v>
       </c>
       <c r="M509" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2170947437</v>
       </c>
     </row>
@@ -22787,7 +22876,7 @@
         <v>2173732367</v>
       </c>
       <c r="M510" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2173732367</v>
       </c>
     </row>
@@ -22821,7 +22910,7 @@
         <v>2175460661</v>
       </c>
       <c r="M511" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2175460661</v>
       </c>
     </row>
@@ -22855,7 +22944,7 @@
         <v>2181363709</v>
       </c>
       <c r="M512" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2181363709</v>
       </c>
     </row>
@@ -22889,7 +22978,7 @@
         <v>2183081870</v>
       </c>
       <c r="M513" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183081870</v>
       </c>
     </row>
@@ -22923,7 +23012,7 @@
         <v>2206198614</v>
       </c>
       <c r="M514" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206198614</v>
       </c>
     </row>
@@ -22947,7 +23036,7 @@
         <f>VLOOKUP(E515,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Illinois</v>
       </c>
-      <c r="G515" s="5">
+      <c r="G515" s="14">
         <v>44118</v>
       </c>
       <c r="H515" s="5">
@@ -22960,7 +23049,7 @@
         <v>2206335036</v>
       </c>
       <c r="M515" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206335036</v>
       </c>
     </row>
@@ -22997,7 +23086,7 @@
         <v>2205045808</v>
       </c>
       <c r="M516" s="9" t="str">
-        <f t="shared" ref="M516:M535" si="11">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L516</f>
+        <f t="shared" ref="M516:M579" si="9">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L516</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205045808</v>
       </c>
     </row>
@@ -23021,17 +23110,18 @@
         <f>VLOOKUP(E517,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Missouri</v>
       </c>
-      <c r="G517" s="5">
+      <c r="G517" s="14">
         <v>44113</v>
       </c>
       <c r="H517" s="5">
         <v>44119</v>
       </c>
+      <c r="I517" s="14"/>
       <c r="L517">
         <v>2195596704</v>
       </c>
       <c r="M517" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2195596704</v>
       </c>
     </row>
@@ -23055,7 +23145,7 @@
         <f>VLOOKUP(E518,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>New Jersey</v>
       </c>
-      <c r="G518" s="5">
+      <c r="G518" s="14">
         <v>44118</v>
       </c>
       <c r="H518" s="5">
@@ -23065,7 +23155,7 @@
         <v>2206107960</v>
       </c>
       <c r="M518" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2206107960</v>
       </c>
     </row>
@@ -23099,7 +23189,7 @@
         <v>2183029460</v>
       </c>
       <c r="M519" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183029460</v>
       </c>
     </row>
@@ -23133,7 +23223,7 @@
         <v>2184308308</v>
       </c>
       <c r="M520" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184308308</v>
       </c>
     </row>
@@ -23167,7 +23257,7 @@
         <v>2204624044</v>
       </c>
       <c r="M521" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2204624044</v>
       </c>
     </row>
@@ -23201,7 +23291,7 @@
         <v>2209090491</v>
       </c>
       <c r="M522" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2209090491</v>
       </c>
     </row>
@@ -23232,7 +23322,7 @@
         <v>2202487664</v>
       </c>
       <c r="M523" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2202487664</v>
       </c>
     </row>
@@ -23249,7 +23339,7 @@
       <c r="D524" t="s">
         <v>676</v>
       </c>
-      <c r="F524" t="e">
+      <c r="F524" s="16" t="e">
         <f>VLOOKUP(E524,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -23266,7 +23356,7 @@
         <v>2183079310</v>
       </c>
       <c r="M524" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183079310</v>
       </c>
     </row>
@@ -23305,7 +23395,7 @@
         <v>2166001645</v>
       </c>
       <c r="M525" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2166001645</v>
       </c>
     </row>
@@ -23339,7 +23429,7 @@
         <v>2184305114</v>
       </c>
       <c r="M526" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2184305114</v>
       </c>
     </row>
@@ -23376,7 +23466,7 @@
         <v>2183020877</v>
       </c>
       <c r="M527" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183020877</v>
       </c>
     </row>
@@ -23414,7 +23504,7 @@
         <v>2167680222</v>
       </c>
       <c r="M528" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2167680222</v>
       </c>
     </row>
@@ -23447,7 +23537,7 @@
         <v>2211780884</v>
       </c>
       <c r="M529" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2211780884</v>
       </c>
     </row>
@@ -23480,7 +23570,7 @@
         <v>2167699440</v>
       </c>
       <c r="M530" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2167699440</v>
       </c>
     </row>
@@ -23514,7 +23604,7 @@
         <v>2183099248</v>
       </c>
       <c r="M531" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2183099248</v>
       </c>
     </row>
@@ -23548,7 +23638,7 @@
         <v>2149684074</v>
       </c>
       <c r="M532" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2149684074</v>
       </c>
     </row>
@@ -23582,7 +23672,7 @@
         <v>2186317142</v>
       </c>
       <c r="M533" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2186317142</v>
       </c>
     </row>
@@ -23619,7 +23709,7 @@
         <v>2217735669</v>
       </c>
       <c r="M534" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2217735669</v>
       </c>
     </row>
@@ -23653,7 +23743,7 @@
         <v>2194363196</v>
       </c>
       <c r="M535" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194363196</v>
       </c>
     </row>
@@ -23687,7 +23777,7 @@
         <v>2194364148</v>
       </c>
       <c r="M536" t="str">
-        <f t="shared" ref="M536:M540" si="12">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L536</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2194364148</v>
       </c>
     </row>
@@ -23721,7 +23811,7 @@
         <v>2193874004</v>
       </c>
       <c r="M537" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193874004</v>
       </c>
     </row>
@@ -23758,7 +23848,7 @@
         <v>2218701448</v>
       </c>
       <c r="M538" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218701448</v>
       </c>
     </row>
@@ -23792,7 +23882,7 @@
         <v>2218929874</v>
       </c>
       <c r="M539" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218929874</v>
       </c>
     </row>
@@ -23829,7 +23919,7 @@
         <v>2218965080</v>
       </c>
       <c r="M540" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218965080</v>
       </c>
     </row>
@@ -23863,7 +23953,7 @@
         <v>2200152665</v>
       </c>
       <c r="M541" t="str">
-        <f t="shared" ref="M541:M548" si="13">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L541</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200152665</v>
       </c>
     </row>
@@ -23897,7 +23987,7 @@
         <v>2227763771</v>
       </c>
       <c r="M542" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2227763771</v>
       </c>
     </row>
@@ -23931,7 +24021,7 @@
         <v>2218618464</v>
       </c>
       <c r="M543" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218618464</v>
       </c>
     </row>
@@ -23968,7 +24058,7 @@
         <v>2218678601</v>
       </c>
       <c r="M544" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218678601</v>
       </c>
     </row>
@@ -24005,7 +24095,7 @@
         <v>2200151775</v>
       </c>
       <c r="M545" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2200151775</v>
       </c>
     </row>
@@ -24039,7 +24129,7 @@
         <v>2205265334</v>
       </c>
       <c r="M546" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205265334</v>
       </c>
     </row>
@@ -24073,7 +24163,7 @@
         <v>2193872411</v>
       </c>
       <c r="M547" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2193872411</v>
       </c>
     </row>
@@ -24110,7 +24200,7 @@
         <v>2252922985</v>
       </c>
       <c r="M548" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2252922985</v>
       </c>
     </row>
@@ -24147,7 +24237,7 @@
         <v>2213042078</v>
       </c>
       <c r="M549" t="str">
-        <f t="shared" ref="M549:M555" si="14">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L549</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
@@ -24181,7 +24271,7 @@
         <v>2213042078</v>
       </c>
       <c r="M550" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2213042078</v>
       </c>
     </row>
@@ -24218,7 +24308,7 @@
         <v>2218866571</v>
       </c>
       <c r="M551" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2218866571</v>
       </c>
     </row>
@@ -24252,7 +24342,7 @@
         <v>2205262694</v>
       </c>
       <c r="M552" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
@@ -24286,7 +24376,7 @@
         <v>2205262694</v>
       </c>
       <c r="M553" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
@@ -24320,7 +24410,7 @@
         <v>2205262694</v>
       </c>
       <c r="M554" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
@@ -24354,7 +24444,7 @@
         <v>2205262694</v>
       </c>
       <c r="M555" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2205262694</v>
       </c>
     </row>
@@ -24388,7 +24478,7 @@
         <v>2187501790</v>
       </c>
       <c r="M556" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L556</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187501790</v>
       </c>
     </row>
@@ -24425,7 +24515,7 @@
         <v>2232822439</v>
       </c>
       <c r="M557" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L557</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2232822439</v>
       </c>
     </row>
@@ -24459,7 +24549,7 @@
         <v>2187577364</v>
       </c>
       <c r="M558" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L558</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2187577364</v>
       </c>
     </row>
@@ -24496,7 +24586,7 @@
         <v>2241595564</v>
       </c>
       <c r="M559" t="str">
-        <f t="shared" ref="M559:M560" si="15">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L559</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2241595564</v>
       </c>
     </row>
@@ -24530,7 +24620,7 @@
         <v>2268547992</v>
       </c>
       <c r="M560" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2268547992</v>
       </c>
     </row>
@@ -24564,7 +24654,7 @@
         <v>2275705090</v>
       </c>
       <c r="M561" t="str">
-        <f t="shared" ref="M561:M566" si="16">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L561</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2275705090</v>
       </c>
     </row>
@@ -24598,7 +24688,7 @@
         <v>2238583006</v>
       </c>
       <c r="M562" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2238583006</v>
       </c>
     </row>
@@ -24632,7 +24722,7 @@
         <v>2316876761</v>
       </c>
       <c r="M563" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316876761</v>
       </c>
     </row>
@@ -24666,7 +24756,7 @@
         <v>2323935181</v>
       </c>
       <c r="M564" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323935181</v>
       </c>
     </row>
@@ -24700,7 +24790,7 @@
         <v>103644278</v>
       </c>
       <c r="M565" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
@@ -24734,7 +24824,7 @@
         <v>2329009935</v>
       </c>
       <c r="M566" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329009935</v>
       </c>
     </row>
@@ -24768,7 +24858,7 @@
         <v>2328277571</v>
       </c>
       <c r="M567" t="str">
-        <f t="shared" ref="M567:M580" si="17">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L567</f>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328277571</v>
       </c>
     </row>
@@ -24802,7 +24892,7 @@
         <v>2328274427</v>
       </c>
       <c r="M568" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328274427</v>
       </c>
     </row>
@@ -24836,7 +24926,7 @@
         <v>2339593785</v>
       </c>
       <c r="M569" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339593785</v>
       </c>
     </row>
@@ -24873,7 +24963,7 @@
         <v>2335198219</v>
       </c>
       <c r="M570" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335198219</v>
       </c>
     </row>
@@ -24910,7 +25000,7 @@
         <v>2322389312</v>
       </c>
       <c r="M571" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322389312</v>
       </c>
     </row>
@@ -24944,7 +25034,7 @@
         <v>2326288632</v>
       </c>
       <c r="M572" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2326288632</v>
       </c>
     </row>
@@ -24978,7 +25068,7 @@
         <v>2353653997</v>
       </c>
       <c r="M573" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353653997</v>
       </c>
     </row>
@@ -25015,7 +25105,7 @@
         <v>2332220792</v>
       </c>
       <c r="M574" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332220792</v>
       </c>
     </row>
@@ -25049,7 +25139,7 @@
         <v>2344551240</v>
       </c>
       <c r="M575" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344551240</v>
       </c>
     </row>
@@ -25083,7 +25173,7 @@
         <v>2329012353</v>
       </c>
       <c r="M576" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329012353</v>
       </c>
     </row>
@@ -25117,7 +25207,7 @@
         <v>2340612987</v>
       </c>
       <c r="M577" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340612987</v>
       </c>
     </row>
@@ -25151,7 +25241,7 @@
         <v>2348184825</v>
       </c>
       <c r="M578" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184825</v>
       </c>
     </row>
@@ -25185,7 +25275,7 @@
         <v>2353732456</v>
       </c>
       <c r="M579" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353732456</v>
       </c>
     </row>
@@ -25219,7 +25309,7 @@
         <v>2335114908</v>
       </c>
       <c r="M580" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="M580:M643" si="10">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L580</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114908</v>
       </c>
     </row>
@@ -25253,7 +25343,7 @@
         <v>2348185802</v>
       </c>
       <c r="M581" t="str">
-        <f t="shared" ref="M581:M586" si="18">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L581</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185802</v>
       </c>
     </row>
@@ -25287,7 +25377,7 @@
         <v>2337825747</v>
       </c>
       <c r="M582" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2337825747</v>
       </c>
     </row>
@@ -25321,7 +25411,7 @@
         <v>2314542113</v>
       </c>
       <c r="M583" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314542113</v>
       </c>
     </row>
@@ -25355,7 +25445,7 @@
         <v>2335117331</v>
       </c>
       <c r="M584" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335117331</v>
       </c>
     </row>
@@ -25389,7 +25479,7 @@
         <v>2298378514</v>
       </c>
       <c r="M585" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2298378514</v>
       </c>
     </row>
@@ -25423,7 +25513,7 @@
         <v>2316122554</v>
       </c>
       <c r="M586" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316122554</v>
       </c>
     </row>
@@ -25457,7 +25547,7 @@
         <v>2271185716</v>
       </c>
       <c r="M587" t="str">
-        <f t="shared" ref="M587:M596" si="19">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L587</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2271185716</v>
       </c>
     </row>
@@ -25491,7 +25581,7 @@
         <v>2341545173</v>
       </c>
       <c r="M588" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341545173</v>
       </c>
     </row>
@@ -25525,7 +25615,7 @@
         <v>2355460043</v>
       </c>
       <c r="M589" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355460043</v>
       </c>
     </row>
@@ -25552,7 +25642,7 @@
         <v>2306003868</v>
       </c>
       <c r="M590" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2306003868</v>
       </c>
     </row>
@@ -25586,7 +25676,7 @@
         <v>2341554371</v>
       </c>
       <c r="M591" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341554371</v>
       </c>
     </row>
@@ -25620,7 +25710,7 @@
         <v>2353683570</v>
       </c>
       <c r="M592" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353683570</v>
       </c>
     </row>
@@ -25654,7 +25744,7 @@
         <v>2344817540</v>
       </c>
       <c r="M593" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344817540</v>
       </c>
     </row>
@@ -25688,7 +25778,7 @@
         <v>2318782562</v>
       </c>
       <c r="M594" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318782562</v>
       </c>
     </row>
@@ -25725,7 +25815,7 @@
         <v>2321054322</v>
       </c>
       <c r="M595" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321054322</v>
       </c>
     </row>
@@ -25762,7 +25852,7 @@
         <v>2222612216</v>
       </c>
       <c r="M596" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222612216</v>
       </c>
     </row>
@@ -25796,7 +25886,7 @@
         <v>2355013229</v>
       </c>
       <c r="M597" t="str">
-        <f t="shared" ref="M597:M610" si="20">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L597</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355013229</v>
       </c>
     </row>
@@ -25830,7 +25920,7 @@
         <v>2316104905</v>
       </c>
       <c r="M598" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2316104905</v>
       </c>
     </row>
@@ -25864,7 +25954,7 @@
         <v>2340497329</v>
       </c>
       <c r="M599" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340497329</v>
       </c>
     </row>
@@ -25898,7 +25988,7 @@
         <v>2348189277</v>
       </c>
       <c r="M600" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348189277</v>
       </c>
     </row>
@@ -25932,7 +26022,7 @@
         <v>2320787352</v>
       </c>
       <c r="M601" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2320787352</v>
       </c>
     </row>
@@ -25966,7 +26056,7 @@
         <v>2335114213</v>
       </c>
       <c r="M602" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335114213</v>
       </c>
     </row>
@@ -26000,7 +26090,7 @@
         <v>2222476417</v>
       </c>
       <c r="M603" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2222476417</v>
       </c>
     </row>
@@ -26034,7 +26124,7 @@
         <v>2353898804</v>
       </c>
       <c r="M604" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353898804</v>
       </c>
     </row>
@@ -26068,7 +26158,7 @@
         <v>2323009537</v>
       </c>
       <c r="M605" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323009537</v>
       </c>
     </row>
@@ -26102,7 +26192,7 @@
         <v>2329908728</v>
       </c>
       <c r="M606" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329908728</v>
       </c>
     </row>
@@ -26136,7 +26226,7 @@
         <v>2332229796</v>
       </c>
       <c r="M607" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332229796</v>
       </c>
     </row>
@@ -26170,7 +26260,7 @@
         <v>2329072882</v>
       </c>
       <c r="M608" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329072882</v>
       </c>
     </row>
@@ -26207,7 +26297,7 @@
         <v>2329874875</v>
       </c>
       <c r="M609" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329874875</v>
       </c>
     </row>
@@ -26241,7 +26331,7 @@
         <v>2339958199</v>
       </c>
       <c r="M610" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339958199</v>
       </c>
     </row>
@@ -26275,7 +26365,7 @@
         <v>2327291234</v>
       </c>
       <c r="M611" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L611</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2327291234</v>
       </c>
     </row>
@@ -26309,7 +26399,7 @@
         <v>2151377746</v>
       </c>
       <c r="M612" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L612</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151377746</v>
       </c>
     </row>
@@ -26343,7 +26433,7 @@
         <v>2324174090</v>
       </c>
       <c r="M613" t="str">
-        <f t="shared" ref="M613:M621" si="21">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L613</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2324174090</v>
       </c>
     </row>
@@ -26377,7 +26467,7 @@
         <v>2348184182</v>
       </c>
       <c r="M614" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348184182</v>
       </c>
     </row>
@@ -26414,7 +26504,7 @@
         <v>1950764538</v>
       </c>
       <c r="M615" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1950764538</v>
       </c>
     </row>
@@ -26448,7 +26538,7 @@
         <v>2291654300</v>
       </c>
       <c r="M616" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2291654300</v>
       </c>
     </row>
@@ -26482,7 +26572,7 @@
         <v>2321946373</v>
       </c>
       <c r="M617" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321946373</v>
       </c>
     </row>
@@ -26516,7 +26606,7 @@
         <v>2314317360</v>
       </c>
       <c r="M618" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314317360</v>
       </c>
     </row>
@@ -26550,7 +26640,7 @@
         <v>2329264424</v>
       </c>
       <c r="M619" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329264424</v>
       </c>
     </row>
@@ -26584,7 +26674,7 @@
         <v>2326264142</v>
       </c>
       <c r="M620" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2326264142</v>
       </c>
     </row>
@@ -26618,7 +26708,7 @@
         <v>2335184819</v>
       </c>
       <c r="M621" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2335184819</v>
       </c>
     </row>
@@ -26655,7 +26745,7 @@
         <v>2280108348</v>
       </c>
       <c r="M622" t="str">
-        <f t="shared" ref="M622:M628" si="22">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L622</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2280108348</v>
       </c>
     </row>
@@ -26692,7 +26782,7 @@
         <v>2328683109</v>
       </c>
       <c r="M623" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328683109</v>
       </c>
     </row>
@@ -26726,7 +26816,7 @@
         <v>2342484923</v>
       </c>
       <c r="M624" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342484923</v>
       </c>
     </row>
@@ -26760,7 +26850,7 @@
         <v>2348176102</v>
       </c>
       <c r="M625" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348176102</v>
       </c>
     </row>
@@ -26797,7 +26887,7 @@
         <v>2355345116</v>
       </c>
       <c r="M626" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355345116</v>
       </c>
     </row>
@@ -26831,7 +26921,7 @@
         <v>2345890457</v>
       </c>
       <c r="M627" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345890457</v>
       </c>
     </row>
@@ -26871,7 +26961,7 @@
         <v>2338908703</v>
       </c>
       <c r="M628" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338908703</v>
       </c>
     </row>
@@ -26908,7 +26998,7 @@
         <v>2320796069</v>
       </c>
       <c r="M629" t="str">
-        <f t="shared" ref="M629:M635" si="23">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L629</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2320796069</v>
       </c>
     </row>
@@ -26942,7 +27032,7 @@
         <v>2343666264</v>
       </c>
       <c r="M630" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343666264</v>
       </c>
     </row>
@@ -26976,7 +27066,7 @@
         <v>2347303658</v>
       </c>
       <c r="M631" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347303658</v>
       </c>
     </row>
@@ -27010,7 +27100,7 @@
         <v>2348447267</v>
       </c>
       <c r="M632" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348447267</v>
       </c>
     </row>
@@ -27041,13 +27131,13 @@
         <v>44195</v>
       </c>
       <c r="J633" s="5">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="L633">
         <v>2336789108</v>
       </c>
       <c r="M633" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2336789108</v>
       </c>
     </row>
@@ -27081,7 +27171,7 @@
         <v>2332222606</v>
       </c>
       <c r="M634" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332222606</v>
       </c>
     </row>
@@ -27118,7 +27208,7 @@
         <v>2344551263</v>
       </c>
       <c r="M635" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344551263</v>
       </c>
     </row>
@@ -27152,7 +27242,7 @@
         <v>2313257578</v>
       </c>
       <c r="M636" t="str">
-        <f t="shared" ref="M636:M646" si="24">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L636</f>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2313257578</v>
       </c>
     </row>
@@ -27186,7 +27276,7 @@
         <v>2321920622</v>
       </c>
       <c r="M637" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321920622</v>
       </c>
     </row>
@@ -27220,7 +27310,7 @@
         <v>2314546653</v>
       </c>
       <c r="M638" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314546653</v>
       </c>
     </row>
@@ -27257,7 +27347,7 @@
         <v>2328474409</v>
       </c>
       <c r="M639" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
       </c>
     </row>
@@ -27291,7 +27381,7 @@
         <v>2329093655</v>
       </c>
       <c r="M640" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329093655</v>
       </c>
     </row>
@@ -27318,7 +27408,7 @@
         <v>2363470666</v>
       </c>
       <c r="M641" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363470666</v>
       </c>
     </row>
@@ -27352,7 +27442,7 @@
         <v>2362956946</v>
       </c>
       <c r="M642" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362956946</v>
       </c>
     </row>
@@ -27386,7 +27476,7 @@
         <v>2347328544</v>
       </c>
       <c r="M643" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347328544</v>
       </c>
     </row>
@@ -27420,7 +27510,7 @@
         <v>2322762417</v>
       </c>
       <c r="M644" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="M644:M707" si="11">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L644</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322762417</v>
       </c>
     </row>
@@ -27457,7 +27547,7 @@
         <v>2322738291</v>
       </c>
       <c r="M645" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2322738291</v>
       </c>
     </row>
@@ -27491,7 +27581,7 @@
         <v>2354988367</v>
       </c>
       <c r="M646" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354988367</v>
       </c>
     </row>
@@ -27528,7 +27618,7 @@
         <v>2314543406</v>
       </c>
       <c r="M647" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L647</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314543406</v>
       </c>
     </row>
@@ -27562,7 +27652,7 @@
         <v>2328474409</v>
       </c>
       <c r="M648" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L648</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2328474409</v>
       </c>
     </row>
@@ -27596,7 +27686,7 @@
         <v>344675073</v>
       </c>
       <c r="M649" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L649</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=344675073</v>
       </c>
     </row>
@@ -27630,7 +27720,7 @@
         <v>2350245369</v>
       </c>
       <c r="M650" t="str">
-        <f t="shared" ref="M650:M651" si="25">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L650</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350245369</v>
       </c>
     </row>
@@ -27664,7 +27754,7 @@
         <v>2351004425</v>
       </c>
       <c r="M651" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351004425</v>
       </c>
     </row>
@@ -27698,7 +27788,7 @@
         <v>2343339701</v>
       </c>
       <c r="M652" t="str">
-        <f t="shared" ref="M652:M666" si="26">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L652</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343339701</v>
       </c>
     </row>
@@ -27732,7 +27822,7 @@
         <v>2364405651</v>
       </c>
       <c r="M653" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364405651</v>
       </c>
     </row>
@@ -27766,7 +27856,7 @@
         <v>2329250907</v>
       </c>
       <c r="M654" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329250907</v>
       </c>
     </row>
@@ -27800,7 +27890,7 @@
         <v>2351065742</v>
       </c>
       <c r="M655" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351065742</v>
       </c>
     </row>
@@ -27834,7 +27924,7 @@
         <v>2348185803</v>
       </c>
       <c r="M656" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348185803</v>
       </c>
     </row>
@@ -27871,7 +27961,7 @@
         <v>1023481870</v>
       </c>
       <c r="M657" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=1023481870</v>
       </c>
     </row>
@@ -27905,7 +27995,7 @@
         <v>2351086236</v>
       </c>
       <c r="M658" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351086236</v>
       </c>
     </row>
@@ -27942,7 +28032,7 @@
         <v>2363911126</v>
       </c>
       <c r="M659" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363911126</v>
       </c>
     </row>
@@ -27976,7 +28066,7 @@
         <v>2344153924</v>
       </c>
       <c r="M660" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344153924</v>
       </c>
     </row>
@@ -28010,7 +28100,7 @@
         <v>2351060869</v>
       </c>
       <c r="M661" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351060869</v>
       </c>
     </row>
@@ -28044,7 +28134,7 @@
         <v>2364969468</v>
       </c>
       <c r="M662" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364969468</v>
       </c>
     </row>
@@ -28078,7 +28168,7 @@
         <v>2364968701</v>
       </c>
       <c r="M663" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968701</v>
       </c>
     </row>
@@ -28105,7 +28195,7 @@
         <v>2332353686</v>
       </c>
       <c r="M664" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2332353686</v>
       </c>
     </row>
@@ -28139,7 +28229,7 @@
         <v>2151312080</v>
       </c>
       <c r="M665" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2151312080</v>
       </c>
     </row>
@@ -28176,7 +28266,7 @@
         <v>2344542176</v>
       </c>
       <c r="M666" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344542176</v>
       </c>
     </row>
@@ -28210,7 +28300,7 @@
         <v>2351897093</v>
       </c>
       <c r="M667" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L667</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351897093</v>
       </c>
     </row>
@@ -28244,7 +28334,7 @@
         <v>2351878287</v>
       </c>
       <c r="M668" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L668</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2351878287</v>
       </c>
     </row>
@@ -28278,7 +28368,7 @@
         <v>2341527170</v>
       </c>
       <c r="M669" t="str">
-        <f t="shared" ref="M669:M670" si="27">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L669</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341527170</v>
       </c>
     </row>
@@ -28312,7 +28402,7 @@
         <v>2353656370</v>
       </c>
       <c r="M670" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353656370</v>
       </c>
     </row>
@@ -28346,7 +28436,7 @@
         <v>2355381171</v>
       </c>
       <c r="M671" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L671</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355381171</v>
       </c>
     </row>
@@ -28380,7 +28470,7 @@
         <v>2345422476</v>
       </c>
       <c r="M672" t="str">
-        <f t="shared" ref="M672" si="28">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L672</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2345422476</v>
       </c>
     </row>
@@ -28414,7 +28504,7 @@
         <v>2348186696</v>
       </c>
       <c r="M673" t="str">
-        <f t="shared" ref="M673:M685" si="29">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L673</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348186696</v>
       </c>
     </row>
@@ -28448,7 +28538,7 @@
         <v>2364451148</v>
       </c>
       <c r="M674" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364451148</v>
       </c>
     </row>
@@ -28482,7 +28572,7 @@
         <v>2341780885</v>
       </c>
       <c r="M675" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341780885</v>
       </c>
     </row>
@@ -28516,7 +28606,7 @@
         <v>2334433450</v>
       </c>
       <c r="M676" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2334433450</v>
       </c>
     </row>
@@ -28550,7 +28640,7 @@
         <v>2356553293</v>
       </c>
       <c r="M677" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356553293</v>
       </c>
     </row>
@@ -28584,7 +28674,7 @@
         <v>2352978255</v>
       </c>
       <c r="M678" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352978255</v>
       </c>
     </row>
@@ -28618,7 +28708,7 @@
         <v>2342676709</v>
       </c>
       <c r="M679" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2342676709</v>
       </c>
     </row>
@@ -28652,7 +28742,7 @@
         <v>2354456228</v>
       </c>
       <c r="M680" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354456228</v>
       </c>
     </row>
@@ -28686,7 +28776,7 @@
         <v>2356542385</v>
       </c>
       <c r="M681" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356542385</v>
       </c>
     </row>
@@ -28723,7 +28813,7 @@
         <v>2343650668</v>
       </c>
       <c r="M682" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2343650668</v>
       </c>
     </row>
@@ -28757,7 +28847,7 @@
         <v>2364444137</v>
       </c>
       <c r="M683" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364444137</v>
       </c>
     </row>
@@ -28791,7 +28881,7 @@
         <v>2348191034</v>
       </c>
       <c r="M684" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2348191034</v>
       </c>
     </row>
@@ -28825,7 +28915,7 @@
         <v>2344243994</v>
       </c>
       <c r="M685" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344243994</v>
       </c>
     </row>
@@ -28859,7 +28949,7 @@
         <v>2331691077</v>
       </c>
       <c r="M686" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L686</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2331691077</v>
       </c>
     </row>
@@ -28893,7 +28983,7 @@
         <v>2364968617</v>
       </c>
       <c r="M687" t="str">
-        <f t="shared" ref="M687:M688" si="30">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L687</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364968617</v>
       </c>
     </row>
@@ -28927,7 +29017,7 @@
         <v>2364965753</v>
       </c>
       <c r="M688" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364965753</v>
       </c>
     </row>
@@ -28964,7 +29054,7 @@
         <v>2314989841</v>
       </c>
       <c r="M689" t="str">
-        <f t="shared" ref="M689:M701" si="31">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L689</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2314989841</v>
       </c>
     </row>
@@ -28998,7 +29088,7 @@
         <v>2362599708</v>
       </c>
       <c r="M690" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362599708</v>
       </c>
     </row>
@@ -29032,7 +29122,7 @@
         <v>2354107658</v>
       </c>
       <c r="M691" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354107658</v>
       </c>
     </row>
@@ -29066,7 +29156,7 @@
         <v>2352972415</v>
       </c>
       <c r="M692" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352972415</v>
       </c>
     </row>
@@ -29100,7 +29190,7 @@
         <v>2366269149</v>
       </c>
       <c r="M693" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366269149</v>
       </c>
     </row>
@@ -29137,7 +29227,7 @@
         <v>2315550222</v>
       </c>
       <c r="M694" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2315550222</v>
       </c>
     </row>
@@ -29174,7 +29264,7 @@
         <v>2340749860</v>
       </c>
       <c r="M695" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2340749860</v>
       </c>
     </row>
@@ -29211,7 +29301,7 @@
         <v>2318769583</v>
       </c>
       <c r="M696" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2318769583</v>
       </c>
     </row>
@@ -29248,7 +29338,7 @@
         <v>103644278</v>
       </c>
       <c r="M697" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
@@ -29285,7 +29375,7 @@
         <v>2323924889</v>
       </c>
       <c r="M698" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2323924889</v>
       </c>
     </row>
@@ -29322,7 +29412,7 @@
         <v>2350314395</v>
       </c>
       <c r="M699" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350314395</v>
       </c>
     </row>
@@ -29356,7 +29446,7 @@
         <v>2347362934</v>
       </c>
       <c r="M700" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347362934</v>
       </c>
     </row>
@@ -29390,7 +29480,7 @@
         <v>2344691472</v>
       </c>
       <c r="M701" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2344691472</v>
       </c>
     </row>
@@ -29424,7 +29514,7 @@
         <v>2353019990</v>
       </c>
       <c r="M702" t="str">
-        <f t="shared" ref="M702:M710" si="32">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L702</f>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353019990</v>
       </c>
     </row>
@@ -29458,7 +29548,7 @@
         <v>2356062540</v>
       </c>
       <c r="M703" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356062540</v>
       </c>
     </row>
@@ -29492,7 +29582,7 @@
         <v>2359405945</v>
       </c>
       <c r="M704" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359405945</v>
       </c>
     </row>
@@ -29526,7 +29616,7 @@
         <v>2352244134</v>
       </c>
       <c r="M705" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352244134</v>
       </c>
     </row>
@@ -29563,7 +29653,7 @@
         <v>2372903004</v>
       </c>
       <c r="M706" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372903004</v>
       </c>
     </row>
@@ -29597,7 +29687,7 @@
         <v>2370822466</v>
       </c>
       <c r="M707" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370822466</v>
       </c>
     </row>
@@ -29631,7 +29721,7 @@
         <v>2360704412</v>
       </c>
       <c r="M708" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="M708:M771" si="12">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L708</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360704412</v>
       </c>
     </row>
@@ -29665,7 +29755,7 @@
         <v>2372706451</v>
       </c>
       <c r="M709" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372706451</v>
       </c>
     </row>
@@ -29699,7 +29789,7 @@
         <v>2360706175</v>
       </c>
       <c r="M710" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706175</v>
       </c>
     </row>
@@ -29733,7 +29823,7 @@
         <v>2321057334</v>
       </c>
       <c r="M711" t="str">
-        <f t="shared" ref="M711:M718" si="33">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L711</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2321057334</v>
       </c>
     </row>
@@ -29770,7 +29860,7 @@
         <v>2374599942</v>
       </c>
       <c r="M712" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374599942</v>
       </c>
     </row>
@@ -29801,7 +29891,7 @@
         <v>2374558509</v>
       </c>
       <c r="M713" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374558509</v>
       </c>
     </row>
@@ -29838,7 +29928,7 @@
         <v>2373943688</v>
       </c>
       <c r="M714" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373943688</v>
       </c>
     </row>
@@ -29875,7 +29965,7 @@
         <v>2353739646</v>
       </c>
       <c r="M715" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2353739646</v>
       </c>
     </row>
@@ -29909,7 +29999,7 @@
         <v>2374277934</v>
       </c>
       <c r="M716" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277934</v>
       </c>
     </row>
@@ -29943,7 +30033,7 @@
         <v>2374277935</v>
       </c>
       <c r="M717" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374277935</v>
       </c>
     </row>
@@ -29977,7 +30067,7 @@
         <v>2368157280</v>
       </c>
       <c r="M718" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368157280</v>
       </c>
     </row>
@@ -30011,7 +30101,7 @@
         <v>2355644640</v>
       </c>
       <c r="M719" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L719</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355644640</v>
       </c>
     </row>
@@ -30045,7 +30135,7 @@
         <v>2355653268</v>
       </c>
       <c r="M720" t="str">
-        <f t="shared" ref="M720:M723" si="34">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L720</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355653268</v>
       </c>
     </row>
@@ -30079,7 +30169,7 @@
         <v>2352995933</v>
       </c>
       <c r="M721" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2352995933</v>
       </c>
     </row>
@@ -30116,7 +30206,7 @@
         <v>2373845128</v>
       </c>
       <c r="M722" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373845128</v>
       </c>
     </row>
@@ -30150,7 +30240,7 @@
         <v>2339183049</v>
       </c>
       <c r="M723" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2339183049</v>
       </c>
     </row>
@@ -30184,7 +30274,7 @@
         <v>2338913562</v>
       </c>
       <c r="M724" t="str">
-        <f t="shared" ref="M724:M736" si="35">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L724</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2338913562</v>
       </c>
     </row>
@@ -30218,7 +30308,7 @@
         <v>2361560919</v>
       </c>
       <c r="M725" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361560919</v>
       </c>
     </row>
@@ -30252,7 +30342,7 @@
         <v>2354636505</v>
       </c>
       <c r="M726" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
@@ -30286,7 +30376,7 @@
         <v>2354636505</v>
       </c>
       <c r="M727" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354636505</v>
       </c>
     </row>
@@ -30320,7 +30410,7 @@
         <v>2350947337</v>
       </c>
       <c r="M728" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350947337</v>
       </c>
     </row>
@@ -30354,7 +30444,7 @@
         <v>2368589046</v>
       </c>
       <c r="M729" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368589046</v>
       </c>
     </row>
@@ -30388,7 +30478,7 @@
         <v>2372186951</v>
       </c>
       <c r="M730" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372186951</v>
       </c>
     </row>
@@ -30422,7 +30512,7 @@
         <v>2368620019</v>
       </c>
       <c r="M731" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368620019</v>
       </c>
     </row>
@@ -30459,7 +30549,7 @@
         <v>2354650873</v>
       </c>
       <c r="M732" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354650873</v>
       </c>
     </row>
@@ -30493,7 +30583,7 @@
         <v>2354143853</v>
       </c>
       <c r="M733" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2354143853</v>
       </c>
     </row>
@@ -30527,7 +30617,7 @@
         <v>2357764481</v>
       </c>
       <c r="M734" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764481</v>
       </c>
     </row>
@@ -30561,7 +30651,7 @@
         <v>2358678670</v>
       </c>
       <c r="M735" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2358678670</v>
       </c>
     </row>
@@ -30585,17 +30675,17 @@
         <f>VLOOKUP(E736,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G736" s="5">
+      <c r="G736" s="14">
         <v>44202</v>
       </c>
-      <c r="H736" s="5">
+      <c r="H736" s="14">
         <v>44206</v>
       </c>
       <c r="L736">
         <v>2355055800</v>
       </c>
       <c r="M736" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355055800</v>
       </c>
     </row>
@@ -30632,7 +30722,7 @@
         <v>2356993969</v>
       </c>
       <c r="M737" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L737</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2356993969</v>
       </c>
     </row>
@@ -30659,14 +30749,14 @@
       <c r="G738" s="5">
         <v>44204</v>
       </c>
-      <c r="H738" s="5">
+      <c r="H738" s="14">
         <v>44207</v>
       </c>
       <c r="L738">
         <v>2372694423</v>
       </c>
       <c r="M738" t="str">
-        <f t="shared" ref="M738:M745" si="36">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L738</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372694423</v>
       </c>
     </row>
@@ -30693,14 +30783,14 @@
       <c r="G739" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H739" s="5">
+      <c r="H739" s="14">
         <v>44207</v>
       </c>
       <c r="L739">
         <v>2359239610</v>
       </c>
       <c r="M739" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359239610</v>
       </c>
     </row>
@@ -30724,17 +30814,17 @@
         <f>VLOOKUP(E740,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G740" s="5" t="s">
+      <c r="G740" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H740" s="5">
+      <c r="H740" s="14">
         <v>44207</v>
       </c>
       <c r="L740">
         <v>2364729103</v>
       </c>
-      <c r="M740" t="str">
-        <f t="shared" si="36"/>
+      <c r="M740" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2364729103</v>
       </c>
     </row>
@@ -30771,7 +30861,7 @@
         <v>2360706212</v>
       </c>
       <c r="M741" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360706212</v>
       </c>
     </row>
@@ -30808,7 +30898,7 @@
         <v>2355287426</v>
       </c>
       <c r="M742" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2355287426</v>
       </c>
     </row>
@@ -30832,17 +30922,17 @@
         <f>VLOOKUP(E743,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G743" s="5">
+      <c r="G743" s="14">
         <v>44206</v>
       </c>
-      <c r="H743" s="5">
+      <c r="H743" s="14">
         <v>44207</v>
       </c>
       <c r="L743">
         <v>2362798414</v>
       </c>
       <c r="M743" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362798414</v>
       </c>
     </row>
@@ -30876,7 +30966,7 @@
         <v>2372101133</v>
       </c>
       <c r="M744" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372101133</v>
       </c>
     </row>
@@ -30910,7 +31000,7 @@
         <v>2372193668</v>
       </c>
       <c r="M745" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372193668</v>
       </c>
     </row>
@@ -30937,7 +31027,7 @@
         <v>44208</v>
       </c>
       <c r="M746" t="str">
-        <f t="shared" ref="M746:M752" si="37">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L746</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
       </c>
     </row>
@@ -30971,7 +31061,7 @@
         <v>2376748343</v>
       </c>
       <c r="M747" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376748343</v>
       </c>
     </row>
@@ -31005,7 +31095,7 @@
         <v>2359609615</v>
       </c>
       <c r="M748" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359609615</v>
       </c>
     </row>
@@ -31042,7 +31132,7 @@
         <v>2350296378</v>
       </c>
       <c r="M749" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2350296378</v>
       </c>
     </row>
@@ -31076,7 +31166,7 @@
         <v>2368083278</v>
       </c>
       <c r="M750" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368083278</v>
       </c>
     </row>
@@ -31110,7 +31200,7 @@
         <v>2366585560</v>
       </c>
       <c r="M751" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366585560</v>
       </c>
     </row>
@@ -31144,7 +31234,7 @@
         <v>2366505315</v>
       </c>
       <c r="M752" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2366505315</v>
       </c>
     </row>
@@ -31178,7 +31268,7 @@
         <v>2377936621</v>
       </c>
       <c r="M753" t="str">
-        <f t="shared" ref="M753:M760" si="38">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L753</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377936621</v>
       </c>
     </row>
@@ -31215,7 +31305,7 @@
         <v>2373270367</v>
       </c>
       <c r="M754" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373270367</v>
       </c>
     </row>
@@ -31252,7 +31342,7 @@
         <v>2369175427</v>
       </c>
       <c r="M755" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369175427</v>
       </c>
     </row>
@@ -31276,17 +31366,17 @@
         <f>VLOOKUP(E756,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>California</v>
       </c>
-      <c r="G756" s="5">
+      <c r="G756" s="14">
         <v>44210</v>
       </c>
-      <c r="H756" s="5">
+      <c r="H756" s="14">
         <v>44210</v>
       </c>
       <c r="L756">
         <v>2369186406</v>
       </c>
       <c r="M756" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369186406</v>
       </c>
     </row>
@@ -31313,14 +31403,14 @@
       <c r="G757" s="5">
         <v>44210</v>
       </c>
-      <c r="H757" s="5">
+      <c r="H757" s="14">
         <v>44210</v>
       </c>
       <c r="L757">
         <v>2368043859</v>
       </c>
       <c r="M757" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368043859</v>
       </c>
     </row>
@@ -31347,14 +31437,14 @@
       <c r="G758" s="5">
         <v>44209</v>
       </c>
-      <c r="H758" s="5">
+      <c r="H758" s="14">
         <v>44210</v>
       </c>
       <c r="L758">
         <v>2359625710</v>
       </c>
       <c r="M758" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2359625710</v>
       </c>
     </row>
@@ -31378,17 +31468,17 @@
         <f>VLOOKUP(E759,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Florida</v>
       </c>
-      <c r="G759" s="5">
+      <c r="G759" s="14">
         <v>44210</v>
       </c>
-      <c r="H759" s="5">
+      <c r="H759" s="14">
         <v>44210</v>
       </c>
       <c r="L759">
         <v>2380952280</v>
       </c>
-      <c r="M759" t="str">
-        <f t="shared" si="38"/>
+      <c r="M759" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2380952280</v>
       </c>
     </row>
@@ -31412,17 +31502,17 @@
         <f>VLOOKUP(E760,Sheet2!$A$1:$B$76, 2, FALSE)</f>
         <v>Michigan</v>
       </c>
-      <c r="G760" s="5">
+      <c r="G760" s="14">
         <v>44210</v>
       </c>
-      <c r="H760" s="5">
+      <c r="H760" s="14">
         <v>44210</v>
       </c>
       <c r="L760">
         <v>2369603611</v>
       </c>
       <c r="M760" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369603611</v>
       </c>
     </row>
@@ -31456,7 +31546,7 @@
         <v>2381146981</v>
       </c>
       <c r="M761" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L761</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381146981</v>
       </c>
     </row>
@@ -31490,7 +31580,7 @@
         <v>2373008849</v>
       </c>
       <c r="M762" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L762</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373008849</v>
       </c>
     </row>
@@ -31527,7 +31617,7 @@
         <v>2381522305</v>
       </c>
       <c r="M763" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L763</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381522305</v>
       </c>
     </row>
@@ -31564,7 +31654,7 @@
         <v>2381656764</v>
       </c>
       <c r="M764" t="str">
-        <f t="shared" ref="M764:M766" si="39">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L764</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381656764</v>
       </c>
     </row>
@@ -31598,7 +31688,7 @@
         <v>2357764237</v>
       </c>
       <c r="M765" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2357764237</v>
       </c>
     </row>
@@ -31632,7 +31722,7 @@
         <v>2379919794</v>
       </c>
       <c r="M766" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379919794</v>
       </c>
     </row>
@@ -31666,7 +31756,7 @@
         <v>2360972941</v>
       </c>
       <c r="M767" s="8" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L767</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360972941</v>
       </c>
     </row>
@@ -31700,7 +31790,7 @@
         <v>2381658883</v>
       </c>
       <c r="M768" t="str">
-        <f t="shared" ref="M768:M772" si="40">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L768</f>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381658883</v>
       </c>
     </row>
@@ -31737,7 +31827,7 @@
         <v>2361703757</v>
       </c>
       <c r="M769" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361703757</v>
       </c>
     </row>
@@ -31771,7 +31861,7 @@
         <v>2368023936</v>
       </c>
       <c r="M770" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368023936</v>
       </c>
     </row>
@@ -31805,7 +31895,7 @@
         <v>2381499273</v>
       </c>
       <c r="M771" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="12"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381499273</v>
       </c>
     </row>
@@ -31839,7 +31929,7 @@
         <v>2381499282</v>
       </c>
       <c r="M772" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="M772:M835" si="13">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L772</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381499282</v>
       </c>
     </row>
@@ -31873,7 +31963,7 @@
         <v>2381500253</v>
       </c>
       <c r="M773" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L773</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381500253</v>
       </c>
     </row>
@@ -31907,7 +31997,7 @@
         <v>2369676996</v>
       </c>
       <c r="M774" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L774</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369676996</v>
       </c>
     </row>
@@ -31941,7 +32031,7 @@
         <v>2370666082</v>
       </c>
       <c r="M775" t="str">
-        <f t="shared" ref="M775:M777" si="41">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L775</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666082</v>
       </c>
     </row>
@@ -31975,7 +32065,7 @@
         <v>2363819054</v>
       </c>
       <c r="M776" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2363819054</v>
       </c>
     </row>
@@ -32009,7 +32099,7 @@
         <v>2370666188</v>
       </c>
       <c r="M777" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370666188</v>
       </c>
     </row>
@@ -32043,7 +32133,7 @@
         <v>2370659321</v>
       </c>
       <c r="M778" t="str">
-        <f t="shared" ref="M778:M791" si="42">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L778</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370659321</v>
       </c>
     </row>
@@ -32080,7 +32170,7 @@
         <v>2361706756</v>
       </c>
       <c r="M779" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2361706756</v>
       </c>
     </row>
@@ -32117,7 +32207,7 @@
         <v>2369142503</v>
       </c>
       <c r="M780" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369142503</v>
       </c>
     </row>
@@ -32151,7 +32241,7 @@
         <v>2381063707</v>
       </c>
       <c r="M781" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381063707</v>
       </c>
     </row>
@@ -32185,7 +32275,7 @@
         <v>2381056249</v>
       </c>
       <c r="M782" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381056249</v>
       </c>
     </row>
@@ -32219,7 +32309,7 @@
         <v>2371675405</v>
       </c>
       <c r="M783" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371675405</v>
       </c>
     </row>
@@ -32256,7 +32346,7 @@
         <v>2385704888</v>
       </c>
       <c r="M784" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385704888</v>
       </c>
     </row>
@@ -32290,7 +32380,7 @@
         <v>2381633526</v>
       </c>
       <c r="M785" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381633526</v>
       </c>
     </row>
@@ -32324,7 +32414,7 @@
         <v>2369689373</v>
       </c>
       <c r="M786" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369689373</v>
       </c>
     </row>
@@ -32358,7 +32448,7 @@
         <v>2381147827</v>
       </c>
       <c r="M787" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147827</v>
       </c>
     </row>
@@ -32392,7 +32482,7 @@
         <v>2360976234</v>
       </c>
       <c r="M788" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
@@ -32426,7 +32516,7 @@
         <v>2360976234</v>
       </c>
       <c r="M789" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2360976234</v>
       </c>
     </row>
@@ -32460,7 +32550,7 @@
         <v>2369686955</v>
       </c>
       <c r="M790" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369686955</v>
       </c>
     </row>
@@ -32494,7 +32584,7 @@
         <v>2369681520</v>
       </c>
       <c r="M791" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369681520</v>
       </c>
     </row>
@@ -32531,7 +32621,7 @@
         <v>2372859629</v>
       </c>
       <c r="M792" t="str">
-        <f t="shared" ref="M792:M801" si="43">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L792</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372859629</v>
       </c>
     </row>
@@ -32565,7 +32655,7 @@
         <v>2372851493</v>
       </c>
       <c r="M793" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372851493</v>
       </c>
     </row>
@@ -32599,7 +32689,7 @@
         <v>2381059386</v>
       </c>
       <c r="M794" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381059386</v>
       </c>
     </row>
@@ -32633,7 +32723,7 @@
         <v>2304696128</v>
       </c>
       <c r="M795" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2304696128</v>
       </c>
     </row>
@@ -32667,7 +32757,7 @@
         <v>2379522826</v>
       </c>
       <c r="M796" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379522826</v>
       </c>
     </row>
@@ -32701,7 +32791,7 @@
         <v>2386195976</v>
       </c>
       <c r="M797" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386195976</v>
       </c>
     </row>
@@ -32735,7 +32825,7 @@
         <v>2368477962</v>
       </c>
       <c r="M798" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2368477962</v>
       </c>
     </row>
@@ -32769,7 +32859,7 @@
         <v>2372862299</v>
       </c>
       <c r="M799" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2372862299</v>
       </c>
     </row>
@@ -32806,7 +32896,7 @@
         <v>2362727424</v>
       </c>
       <c r="M800" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2362727424</v>
       </c>
     </row>
@@ -32843,7 +32933,7 @@
         <v>2374648415</v>
       </c>
       <c r="M801" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374648415</v>
       </c>
     </row>
@@ -32880,7 +32970,7 @@
         <v>2383667508</v>
       </c>
       <c r="M802" t="str">
-        <f t="shared" ref="M802:M811" si="44">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L802</f>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2383667508</v>
       </c>
     </row>
@@ -32914,7 +33004,7 @@
         <v>2381147398</v>
       </c>
       <c r="M803" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381147398</v>
       </c>
     </row>
@@ -32948,7 +33038,7 @@
         <v>2369673851</v>
       </c>
       <c r="M804" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369673851</v>
       </c>
     </row>
@@ -32982,7 +33072,7 @@
         <v>2373665723</v>
       </c>
       <c r="M805" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373665723</v>
       </c>
     </row>
@@ -33016,7 +33106,7 @@
         <v>2367039143</v>
       </c>
       <c r="M806" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367039143</v>
       </c>
     </row>
@@ -33050,7 +33140,7 @@
         <v>2373656310</v>
       </c>
       <c r="M807" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2373656310</v>
       </c>
     </row>
@@ -33087,7 +33177,7 @@
         <v>2374040643</v>
       </c>
       <c r="M808" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374040643</v>
       </c>
     </row>
@@ -33121,7 +33211,7 @@
         <v>2371666673</v>
       </c>
       <c r="M809" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2371666673</v>
       </c>
     </row>
@@ -33155,7 +33245,7 @@
         <v>2387786851</v>
       </c>
       <c r="M810" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786851</v>
       </c>
     </row>
@@ -33189,7 +33279,7 @@
         <v>2387786724</v>
       </c>
       <c r="M811" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="13"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2387786724</v>
       </c>
     </row>
@@ -33280,7 +33370,7 @@
         <v>2386150009</v>
       </c>
       <c r="M814" t="str">
-        <f t="shared" ref="M814:M826" si="45">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L814</f>
+        <f t="shared" ref="M814:M826" si="14">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L814</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386150009</v>
       </c>
     </row>
@@ -33314,7 +33404,7 @@
         <v>2388213908</v>
       </c>
       <c r="M815" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388213908</v>
       </c>
     </row>
@@ -33351,7 +33441,7 @@
         <v>2374919220</v>
       </c>
       <c r="M816" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374919220</v>
       </c>
     </row>
@@ -33385,7 +33475,7 @@
         <v>2374912203</v>
       </c>
       <c r="M817" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374912203</v>
       </c>
     </row>
@@ -33419,7 +33509,7 @@
         <v>2374070633</v>
       </c>
       <c r="M818" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374070633</v>
       </c>
     </row>
@@ -33453,7 +33543,7 @@
         <v>2388210791</v>
       </c>
       <c r="M819" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388210791</v>
       </c>
     </row>
@@ -33487,7 +33577,7 @@
         <v>2374079669</v>
       </c>
       <c r="M820" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374079669</v>
       </c>
     </row>
@@ -33524,7 +33614,7 @@
         <v>2388194855</v>
       </c>
       <c r="M821" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388194855</v>
       </c>
     </row>
@@ -33561,7 +33651,7 @@
         <v>2367084531</v>
       </c>
       <c r="M822" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367084531</v>
       </c>
     </row>
@@ -33595,7 +33685,7 @@
         <v>2389399659</v>
       </c>
       <c r="M823" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2389399659</v>
       </c>
     </row>
@@ -33629,7 +33719,7 @@
         <v>2388042311</v>
       </c>
       <c r="M824" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388042311</v>
       </c>
     </row>
@@ -33663,7 +33753,7 @@
         <v>2388175503</v>
       </c>
       <c r="M825" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388175503</v>
       </c>
     </row>
@@ -33697,7 +33787,7 @@
         <v>2367097752</v>
       </c>
       <c r="M826" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="14"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367097752</v>
       </c>
     </row>
@@ -33977,7 +34067,7 @@
         <v>103644278</v>
       </c>
       <c r="M836" t="str">
-        <f t="shared" ref="M836:M843" si="46">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L836</f>
+        <f t="shared" ref="M836:M867" si="15">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L836</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
@@ -34011,7 +34101,7 @@
         <v>103644278</v>
       </c>
       <c r="M837" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=103644278</v>
       </c>
     </row>
@@ -34045,7 +34135,7 @@
         <v>2377822673</v>
       </c>
       <c r="M838" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377822673</v>
       </c>
     </row>
@@ -34079,7 +34169,7 @@
         <v>2374060955</v>
       </c>
       <c r="M839" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374060955</v>
       </c>
     </row>
@@ -34113,7 +34203,7 @@
         <v>2377887650</v>
       </c>
       <c r="M840" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377887650</v>
       </c>
     </row>
@@ -34147,7 +34237,7 @@
         <v>2390326178</v>
       </c>
       <c r="M841" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2390326178</v>
       </c>
     </row>
@@ -34181,7 +34271,7 @@
         <v>2370680356</v>
       </c>
       <c r="M842" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2370680356</v>
       </c>
     </row>
@@ -34215,7 +34305,7 @@
         <v>2376362654</v>
       </c>
       <c r="M843" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376362654</v>
       </c>
     </row>
@@ -34249,7 +34339,7 @@
         <v>2393117700</v>
       </c>
       <c r="M844" t="str">
-        <f t="shared" ref="M844:M851" si="47">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L844</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393117700</v>
       </c>
     </row>
@@ -34283,7 +34373,7 @@
         <v>2385880598</v>
       </c>
       <c r="M845" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2385880598</v>
       </c>
     </row>
@@ -34317,7 +34407,7 @@
         <v>2378864395</v>
       </c>
       <c r="M846" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2378864395</v>
       </c>
     </row>
@@ -34351,7 +34441,7 @@
         <v>2377869634</v>
       </c>
       <c r="M847" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2377869634</v>
       </c>
     </row>
@@ -34385,7 +34475,7 @@
         <v>2374940174</v>
       </c>
       <c r="M848" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374940174</v>
       </c>
     </row>
@@ -34422,7 +34512,7 @@
         <v>2382091467</v>
       </c>
       <c r="M849" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382091467</v>
       </c>
     </row>
@@ -34456,7 +34546,7 @@
         <v>2365599512</v>
       </c>
       <c r="M850" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2365599512</v>
       </c>
     </row>
@@ -34490,7 +34580,7 @@
         <v>2386891606</v>
       </c>
       <c r="M851" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386891606</v>
       </c>
     </row>
@@ -34527,7 +34617,7 @@
         <v>2329858716</v>
       </c>
       <c r="M852" t="str">
-        <f t="shared" ref="M852:M857" si="48">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L852</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858716</v>
       </c>
     </row>
@@ -34564,7 +34654,7 @@
         <v>2287832985</v>
       </c>
       <c r="M853" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2287832985</v>
       </c>
     </row>
@@ -34601,7 +34691,7 @@
         <v>2381495210</v>
       </c>
       <c r="M854" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381495210</v>
       </c>
     </row>
@@ -34638,7 +34728,7 @@
         <v>2329858719</v>
       </c>
       <c r="M855" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2329858719</v>
       </c>
     </row>
@@ -34675,7 +34765,7 @@
         <v>2258367876</v>
       </c>
       <c r="M856" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2258367876</v>
       </c>
     </row>
@@ -34712,7 +34802,7 @@
         <v>2311948015</v>
       </c>
       <c r="M857" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311948015</v>
       </c>
     </row>
@@ -34749,7 +34839,7 @@
         <v>2311047818</v>
       </c>
       <c r="M858" t="str">
-        <f t="shared" ref="M858" si="49">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L858</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2311047818</v>
       </c>
     </row>
@@ -34786,7 +34876,7 @@
         <v>2347545335</v>
       </c>
       <c r="M859" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L859</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
@@ -34823,7 +34913,7 @@
         <v>2347545335</v>
       </c>
       <c r="M860" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L860</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
@@ -34860,7 +34950,7 @@
         <v>2347545335</v>
       </c>
       <c r="M861" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L861</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2347545335</v>
       </c>
     </row>
@@ -34897,7 +34987,7 @@
         <v>2367897041</v>
       </c>
       <c r="M862" t="str">
-        <f t="shared" ref="M862:M869" si="50">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L862</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367897041</v>
       </c>
     </row>
@@ -34934,7 +35024,7 @@
         <v>2308280816</v>
       </c>
       <c r="M863" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2308280816</v>
       </c>
     </row>
@@ -34971,7 +35061,7 @@
         <v>2393033909</v>
       </c>
       <c r="M864" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393033909</v>
       </c>
     </row>
@@ -35008,7 +35098,7 @@
         <v>2394483545</v>
       </c>
       <c r="M865" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L865</f>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394483545</v>
       </c>
     </row>
@@ -35045,7 +35135,7 @@
         <v>2381954250</v>
       </c>
       <c r="M866" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381954250</v>
       </c>
     </row>
@@ -35082,7 +35172,7 @@
         <v>2388115374</v>
       </c>
       <c r="M867" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="15"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388115374</v>
       </c>
     </row>
@@ -35116,7 +35206,7 @@
         <v>2379438871</v>
       </c>
       <c r="M868" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="M868:M899" si="16">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L868</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379438871</v>
       </c>
     </row>
@@ -35150,7 +35240,7 @@
         <v>2393047482</v>
       </c>
       <c r="M869" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393047482</v>
       </c>
     </row>
@@ -35184,7 +35274,7 @@
         <v>2380339742</v>
       </c>
       <c r="M870" t="str">
-        <f t="shared" ref="M870:M879" si="51">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L870</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2380339742</v>
       </c>
     </row>
@@ -35218,7 +35308,7 @@
         <v>2374401373</v>
       </c>
       <c r="M871" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374401373</v>
       </c>
     </row>
@@ -35252,7 +35342,7 @@
         <v>2386084891</v>
       </c>
       <c r="M872" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2386084891</v>
       </c>
     </row>
@@ -35286,7 +35376,7 @@
         <v>2369695871</v>
       </c>
       <c r="M873" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2369695871</v>
       </c>
     </row>
@@ -35320,7 +35410,7 @@
         <v>2397629788</v>
       </c>
       <c r="M874" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2397629788</v>
       </c>
     </row>
@@ -35354,7 +35444,7 @@
         <v>2396249342</v>
       </c>
       <c r="M875" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2396249342</v>
       </c>
     </row>
@@ -35388,7 +35478,7 @@
         <v>2376177251</v>
       </c>
       <c r="M876" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2376177251</v>
       </c>
     </row>
@@ -35422,7 +35512,7 @@
         <v>2382440246</v>
       </c>
       <c r="M877" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2382440246</v>
       </c>
     </row>
@@ -35456,7 +35546,7 @@
         <v>2381399425</v>
       </c>
       <c r="M878" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381399425</v>
       </c>
     </row>
@@ -35493,7 +35583,7 @@
         <v>2374939415</v>
       </c>
       <c r="M879" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374939415</v>
       </c>
     </row>
@@ -35527,7 +35617,7 @@
         <v>2400918909</v>
       </c>
       <c r="M880" t="str">
-        <f t="shared" ref="M880:M891" si="52">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L880</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2400918909</v>
       </c>
     </row>
@@ -35561,7 +35651,7 @@
         <v>2367035673</v>
       </c>
       <c r="M881" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2367035673</v>
       </c>
     </row>
@@ -35595,7 +35685,7 @@
         <v>2379751026</v>
       </c>
       <c r="M882" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2379751026</v>
       </c>
     </row>
@@ -35629,7 +35719,7 @@
         <v>2398017025</v>
       </c>
       <c r="M883" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2398017025</v>
       </c>
     </row>
@@ -35659,11 +35749,14 @@
       <c r="H884" s="5">
         <v>44228</v>
       </c>
+      <c r="I884" s="5">
+        <v>44228</v>
+      </c>
       <c r="L884">
         <v>2398071537</v>
       </c>
       <c r="M884" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2398071537</v>
       </c>
     </row>
@@ -35697,7 +35790,7 @@
         <v>2400342548</v>
       </c>
       <c r="M885" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2400342548</v>
       </c>
     </row>
@@ -35731,7 +35824,7 @@
         <v>2390963119</v>
       </c>
       <c r="M886" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2390963119</v>
       </c>
     </row>
@@ -35765,7 +35858,7 @@
         <v>2395265517</v>
       </c>
       <c r="M887" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2395265517</v>
       </c>
     </row>
@@ -35799,7 +35892,7 @@
         <v>2399183457</v>
       </c>
       <c r="M888" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
       </c>
     </row>
@@ -35833,7 +35926,7 @@
         <v>2403984709</v>
       </c>
       <c r="M889" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403984709</v>
       </c>
     </row>
@@ -35867,7 +35960,7 @@
         <v>2404006603</v>
       </c>
       <c r="M890" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2404006603</v>
       </c>
     </row>
@@ -35904,7 +35997,7 @@
         <v>2397650270</v>
       </c>
       <c r="M891" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2397650270</v>
       </c>
     </row>
@@ -35938,7 +36031,7 @@
         <v>2393656286</v>
       </c>
       <c r="M892" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L892</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2393656286</v>
       </c>
     </row>
@@ -35972,7 +36065,7 @@
         <v>2384551990</v>
       </c>
       <c r="M893" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L893</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2384551990</v>
       </c>
     </row>
@@ -36003,7 +36096,7 @@
         <v>2399600876</v>
       </c>
       <c r="M894" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L894</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399600876</v>
       </c>
     </row>
@@ -36037,7 +36130,7 @@
         <v>2384574784</v>
       </c>
       <c r="M895" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L895</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2384574784</v>
       </c>
     </row>
@@ -36071,7 +36164,7 @@
         <v>2399183457</v>
       </c>
       <c r="M896" t="str">
-        <f t="shared" ref="M896" si="53">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L896</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2399183457</v>
       </c>
     </row>
@@ -36105,7 +36198,7 @@
         <v>2388288764</v>
       </c>
       <c r="M897" t="str">
-        <f t="shared" ref="M897:M905" si="54">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L897</f>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2388288764</v>
       </c>
     </row>
@@ -36139,7 +36232,7 @@
         <v>2374932085</v>
       </c>
       <c r="M898" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2374932085</v>
       </c>
     </row>
@@ -36173,7 +36266,7 @@
         <v>2394795125</v>
       </c>
       <c r="M899" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="16"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394795125</v>
       </c>
     </row>
@@ -36207,7 +36300,7 @@
         <v>2394778824</v>
       </c>
       <c r="M900" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="M900:M931" si="17">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L900</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394778824</v>
       </c>
     </row>
@@ -36241,7 +36334,7 @@
         <v>2391007119</v>
       </c>
       <c r="M901" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2391007119</v>
       </c>
     </row>
@@ -36275,7 +36368,7 @@
         <v>2394703231</v>
       </c>
       <c r="M902" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394703231</v>
       </c>
     </row>
@@ -36309,7 +36402,7 @@
         <v>2389899887</v>
       </c>
       <c r="M903" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2389899887</v>
       </c>
     </row>
@@ -36343,7 +36436,7 @@
         <v>2392358085</v>
       </c>
       <c r="M904" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2392358085</v>
       </c>
     </row>
@@ -36377,7 +36470,7 @@
         <v>2408408809</v>
       </c>
       <c r="M905" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2408408809</v>
       </c>
     </row>
@@ -36411,7 +36504,7 @@
         <v>2416383130</v>
       </c>
       <c r="M906" t="str">
-        <f t="shared" ref="M906:M916" si="55">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L906</f>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2416383130</v>
       </c>
     </row>
@@ -36441,11 +36534,14 @@
       <c r="H907" s="5">
         <v>44236</v>
       </c>
+      <c r="J907" s="5">
+        <v>44238</v>
+      </c>
       <c r="L907">
         <v>2415778735</v>
       </c>
       <c r="M907" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2415778735</v>
       </c>
     </row>
@@ -36475,11 +36571,14 @@
       <c r="H908" s="5">
         <v>44236</v>
       </c>
+      <c r="I908" s="5">
+        <v>44239</v>
+      </c>
       <c r="L908">
         <v>2403592213</v>
       </c>
       <c r="M908" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403592213</v>
       </c>
     </row>
@@ -36513,7 +36612,7 @@
         <v>2403595322</v>
       </c>
       <c r="M909" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403595322</v>
       </c>
     </row>
@@ -36547,7 +36646,7 @@
         <v>2396573991</v>
       </c>
       <c r="M910" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2396573991</v>
       </c>
     </row>
@@ -36581,7 +36680,7 @@
         <v>2416950867</v>
       </c>
       <c r="M911" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2416950867</v>
       </c>
     </row>
@@ -36615,7 +36714,7 @@
         <v>2403588459</v>
       </c>
       <c r="M912" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403588459</v>
       </c>
     </row>
@@ -36649,7 +36748,7 @@
         <v>2403588607</v>
       </c>
       <c r="M913" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403588607</v>
       </c>
     </row>
@@ -36680,7 +36779,7 @@
         <v>2396563907</v>
       </c>
       <c r="M914" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2396563907</v>
       </c>
     </row>
@@ -36714,7 +36813,7 @@
         <v>2415904767</v>
       </c>
       <c r="M915" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2415904767</v>
       </c>
     </row>
@@ -36748,7 +36847,7 @@
         <v>2403573322</v>
       </c>
       <c r="M916" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2403573322</v>
       </c>
     </row>
@@ -36782,7 +36881,7 @@
         <v>2404831712</v>
       </c>
       <c r="M917" t="str">
-        <f t="shared" ref="M917:M925" si="56">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L917</f>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2404831712</v>
       </c>
     </row>
@@ -36816,7 +36915,7 @@
         <v>2394599856</v>
       </c>
       <c r="M918" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2394599856</v>
       </c>
     </row>
@@ -36850,7 +36949,7 @@
         <v>2398176838</v>
       </c>
       <c r="M919" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2398176838</v>
       </c>
     </row>
@@ -36880,11 +36979,14 @@
       <c r="H920" s="5">
         <v>44237</v>
       </c>
+      <c r="I920" s="5">
+        <v>44240</v>
+      </c>
       <c r="L920">
         <v>2404809686</v>
       </c>
       <c r="M920" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2404809686</v>
       </c>
     </row>
@@ -36918,7 +37020,7 @@
         <v>2410417208</v>
       </c>
       <c r="M921" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2410417208</v>
       </c>
     </row>
@@ -36948,11 +37050,14 @@
       <c r="H922" s="5">
         <v>44237</v>
       </c>
+      <c r="J922" s="5">
+        <v>44238</v>
+      </c>
       <c r="L922">
         <v>2410616582</v>
       </c>
       <c r="M922" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2410616582</v>
       </c>
     </row>
@@ -36986,7 +37091,7 @@
         <v>2401933880</v>
       </c>
       <c r="M923" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2401933880</v>
       </c>
     </row>
@@ -37020,7 +37125,7 @@
         <v>2402720523</v>
       </c>
       <c r="M924" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2402720523</v>
       </c>
     </row>
@@ -37054,8 +37159,874 @@
         <v>2411581598</v>
       </c>
       <c r="M925" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="17"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2411581598</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>144</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C926" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E926" t="s">
+        <v>415</v>
+      </c>
+      <c r="F926" s="16" t="str">
+        <f>VLOOKUP(E926,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G926" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H926" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L926">
+        <v>2419843547</v>
+      </c>
+      <c r="M926" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419843547</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>760</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C927" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D927" t="s">
+        <v>537</v>
+      </c>
+      <c r="E927" t="s">
+        <v>181</v>
+      </c>
+      <c r="F927" s="16" t="str">
+        <f>VLOOKUP(E927,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>District Of Columbia</v>
+      </c>
+      <c r="G927" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H927" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L927">
+        <v>2419776110</v>
+      </c>
+      <c r="M927" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419776110</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>144</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C928" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D928" t="s">
+        <v>296</v>
+      </c>
+      <c r="E928" t="s">
+        <v>404</v>
+      </c>
+      <c r="F928" s="16" t="str">
+        <f>VLOOKUP(E928,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G928" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H928" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L928">
+        <v>2419544779</v>
+      </c>
+      <c r="M928" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419544779</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>110</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C929" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E929" t="s">
+        <v>398</v>
+      </c>
+      <c r="F929" s="16" t="str">
+        <f>VLOOKUP(E929,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G929" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H929" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L929">
+        <v>2419751688</v>
+      </c>
+      <c r="M929" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419751688</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>10</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C930" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D930" t="s">
+        <v>511</v>
+      </c>
+      <c r="E930" t="s">
+        <v>401</v>
+      </c>
+      <c r="F930" s="16" t="str">
+        <f>VLOOKUP(E930,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G930" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H930" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L930">
+        <v>2419598298</v>
+      </c>
+      <c r="M930" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419598298</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>10</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C931" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D931" t="s">
+        <v>520</v>
+      </c>
+      <c r="E931" t="s">
+        <v>521</v>
+      </c>
+      <c r="F931" s="16" t="str">
+        <f>VLOOKUP(E931,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="G931" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H931" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L931">
+        <v>2400093113</v>
+      </c>
+      <c r="M931" t="str">
+        <f t="shared" si="17"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2400093113</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C932" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D932" t="s">
+        <v>332</v>
+      </c>
+      <c r="E932" t="s">
+        <v>399</v>
+      </c>
+      <c r="F932" s="16" t="str">
+        <f>VLOOKUP(E932,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G932" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H932" s="5">
+        <v>44238</v>
+      </c>
+      <c r="J932" s="5">
+        <v>44239</v>
+      </c>
+      <c r="L932">
+        <v>2400085868</v>
+      </c>
+      <c r="M932" t="str">
+        <f t="shared" ref="M932:M963" si="18">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L932</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2400085868</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>10</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C933" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D933" t="s">
+        <v>368</v>
+      </c>
+      <c r="E933" t="s">
+        <v>398</v>
+      </c>
+      <c r="F933" s="16" t="str">
+        <f>VLOOKUP(E933,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G933" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H933" s="5">
+        <v>44238</v>
+      </c>
+      <c r="L933">
+        <v>2419543595</v>
+      </c>
+      <c r="M933" t="str">
+        <f t="shared" si="18"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419543595</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>713</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C934" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D934" t="s">
+        <v>11</v>
+      </c>
+      <c r="E934" t="s">
+        <v>400</v>
+      </c>
+      <c r="F934" s="16" t="str">
+        <f>VLOOKUP(E934,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G934" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H934" s="5">
+        <v>44240</v>
+      </c>
+      <c r="L934">
+        <v>2405734261</v>
+      </c>
+      <c r="M934" t="str">
+        <f t="shared" si="18"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2405734261</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>144</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E935" t="s">
+        <v>405</v>
+      </c>
+      <c r="F935" s="16" t="str">
+        <f>VLOOKUP(E935,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G935" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H935" s="5">
+        <v>44240</v>
+      </c>
+      <c r="L935">
+        <v>2400029763</v>
+      </c>
+      <c r="M935" t="str">
+        <f t="shared" si="18"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2400029763</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B936" t="s">
+        <v>375</v>
+      </c>
+      <c r="C936" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D936" t="s">
+        <v>80</v>
+      </c>
+      <c r="E936" t="s">
+        <v>419</v>
+      </c>
+      <c r="F936" s="16" t="str">
+        <f>VLOOKUP(E936,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Oregon</v>
+      </c>
+      <c r="G936" s="5">
+        <v>44237</v>
+      </c>
+      <c r="H936" s="5">
+        <v>44240</v>
+      </c>
+      <c r="L936">
+        <v>2403582751</v>
+      </c>
+      <c r="M936" t="str">
+        <f t="shared" si="18"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403582751</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>10</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C937" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D937" t="s">
+        <v>524</v>
+      </c>
+      <c r="E937" t="s">
+        <v>393</v>
+      </c>
+      <c r="F937" s="16" t="str">
+        <f>VLOOKUP(E937,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G937" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H937" s="5">
+        <v>44240</v>
+      </c>
+      <c r="L937">
+        <v>2376167446</v>
+      </c>
+      <c r="M937" t="str">
+        <f t="shared" si="18"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2376167446</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B938" t="s">
+        <v>259</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D938" t="s">
+        <v>228</v>
+      </c>
+      <c r="E938" t="s">
+        <v>397</v>
+      </c>
+      <c r="F938" s="16" t="str">
+        <f>VLOOKUP(E938,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G938" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H938" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L938">
+        <v>2410240328</v>
+      </c>
+      <c r="M938" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L938</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410240328</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>191</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C939" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D939" t="s">
+        <v>524</v>
+      </c>
+      <c r="E939" t="s">
+        <v>393</v>
+      </c>
+      <c r="F939" s="16" t="str">
+        <f>VLOOKUP(E939,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G939" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H939" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L939">
+        <v>2420229251</v>
+      </c>
+      <c r="M939" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L939</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420229251</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>189</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C940" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D940" t="s">
+        <v>676</v>
+      </c>
+      <c r="G940" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H940" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L940">
+        <v>2420192114</v>
+      </c>
+      <c r="M940" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L940</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420192114</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>10</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C941" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E941" t="s">
+        <v>577</v>
+      </c>
+      <c r="F941" s="16" t="str">
+        <f>VLOOKUP(E941,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G941" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H941" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L941">
+        <v>2419977629</v>
+      </c>
+      <c r="M941" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L941</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419977629</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C942" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D942" t="s">
+        <v>511</v>
+      </c>
+      <c r="E942" t="s">
+        <v>401</v>
+      </c>
+      <c r="F942" s="16" t="str">
+        <f>VLOOKUP(E942,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G942" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H942" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L942">
+        <v>2419928072</v>
+      </c>
+      <c r="M942" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L942</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419928072</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>10</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C943" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D943" t="s">
+        <v>676</v>
+      </c>
+      <c r="G943" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H943" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L943">
+        <v>2420264210</v>
+      </c>
+      <c r="M943" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L943</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420264210</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>10</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C944" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E944" t="s">
+        <v>660</v>
+      </c>
+      <c r="F944" s="16" t="str">
+        <f>VLOOKUP(E944,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Wisconsin</v>
+      </c>
+      <c r="G944" s="5">
+        <v>44234</v>
+      </c>
+      <c r="H944" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L944">
+        <v>2419795310</v>
+      </c>
+      <c r="M944" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L944</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419795310</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B945" t="s">
+        <v>798</v>
+      </c>
+      <c r="C945" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D945" t="s">
+        <v>382</v>
+      </c>
+      <c r="E945" t="s">
+        <v>393</v>
+      </c>
+      <c r="F945" s="16" t="str">
+        <f>VLOOKUP(E945,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G945" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H945" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L945">
+        <v>2408912202</v>
+      </c>
+      <c r="M945" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L945</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2408912202</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>10</v>
+      </c>
+      <c r="B946" t="s">
+        <v>180</v>
+      </c>
+      <c r="C946" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D946" t="s">
+        <v>81</v>
+      </c>
+      <c r="E946" t="s">
+        <v>395</v>
+      </c>
+      <c r="F946" s="16" t="str">
+        <f>VLOOKUP(E946,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G946" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H946" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L946">
+        <v>2397753930</v>
+      </c>
+      <c r="M946" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L946</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2397753930</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>519</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C947" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D947" t="s">
+        <v>676</v>
+      </c>
+      <c r="G947" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H947" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L947">
+        <v>2419930768</v>
+      </c>
+      <c r="M947" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L947</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419930768</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>908</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C948" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D948" t="s">
+        <v>78</v>
+      </c>
+      <c r="E948" t="s">
+        <v>393</v>
+      </c>
+      <c r="F948" s="16" t="str">
+        <f>VLOOKUP(E948,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G948" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H948" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L948">
+        <v>2423022546</v>
+      </c>
+      <c r="M948" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L948</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2423022546</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B949" t="s">
+        <v>773</v>
+      </c>
+      <c r="C949" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D949" t="s">
+        <v>489</v>
+      </c>
+      <c r="E949" t="s">
+        <v>396</v>
+      </c>
+      <c r="F949" s="16" t="str">
+        <f>VLOOKUP(E949,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G949" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H949" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L949">
+        <v>2406685792</v>
+      </c>
+      <c r="M949" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L949</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2406685792</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B950" t="s">
+        <v>259</v>
+      </c>
+      <c r="C950" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D950" t="s">
+        <v>32</v>
+      </c>
+      <c r="E950" t="s">
+        <v>409</v>
+      </c>
+      <c r="F950" s="16" t="str">
+        <f>VLOOKUP(E950,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Delaware</v>
+      </c>
+      <c r="G950" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H950" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L950">
+        <v>2410272708</v>
+      </c>
+      <c r="M950" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L950</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410272708</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>144</v>
+      </c>
+      <c r="B951" t="s">
+        <v>259</v>
+      </c>
+      <c r="C951" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E951" t="s">
+        <v>559</v>
+      </c>
+      <c r="F951" s="16" t="str">
+        <f>VLOOKUP(E951,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Alabama</v>
+      </c>
+      <c r="G951" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H951" s="5">
+        <v>44241</v>
+      </c>
+      <c r="L951">
+        <v>2410269913</v>
+      </c>
+      <c r="M951" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L951</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410269913</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FA0E4-60A2-47BB-867C-B536EA14E70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865EAC7-F583-4AA0-9FF9-E7370187C136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="181980" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="188055" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="1222">
   <si>
     <t>Title</t>
   </si>
@@ -3626,6 +3626,75 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>Gotham Technology Group</t>
+  </si>
+  <si>
+    <t>Parsippany</t>
+  </si>
+  <si>
+    <t>Prometheus Group</t>
+  </si>
+  <si>
+    <t>Statistical Analyst</t>
+  </si>
+  <si>
+    <t>Mooresville</t>
+  </si>
+  <si>
+    <t>Bradford &amp; Galt</t>
+  </si>
+  <si>
+    <t>Data Engineer / Data Scientist</t>
+  </si>
+  <si>
+    <t>Advantage Tech</t>
+  </si>
+  <si>
+    <t>Staff Data Scientist</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>TRANZACT</t>
+  </si>
+  <si>
+    <t>Fort Lee</t>
+  </si>
+  <si>
+    <t>Affinity Search Partners</t>
+  </si>
+  <si>
+    <t>Data Analyst (healthcare)</t>
+  </si>
+  <si>
+    <t>Data Analyst (Investments)</t>
+  </si>
+  <si>
+    <t>Envestnet | Yodlee</t>
+  </si>
+  <si>
+    <t>Data Cleansing Analyst</t>
+  </si>
+  <si>
+    <t>Experis</t>
+  </si>
+  <si>
+    <t>Maplewood</t>
+  </si>
+  <si>
+    <t>Data Scientist - Statistician</t>
+  </si>
+  <si>
+    <t>Novetta</t>
+  </si>
+  <si>
+    <t>Data Engineer (100% remote!)</t>
+  </si>
+  <si>
+    <t>Yuba City</t>
   </si>
 </sst>
 </file>
@@ -3666,7 +3735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3718,12 +3787,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3752,6 +3830,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4414,8 +4495,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M951" totalsRowShown="0">
-  <autoFilter ref="A1:M951" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M977" totalsRowShown="0">
+  <autoFilter ref="A1:M977" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M933">
     <sortCondition ref="H2:H534"/>
   </sortState>
@@ -4737,12 +4818,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M951"/>
+  <dimension ref="A1:M977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A932" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M947" sqref="M947"/>
+      <selection pane="bottomLeft" activeCell="L979" sqref="L979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17606,7 +17687,7 @@
         <v>2148173936</v>
       </c>
       <c r="M360" t="str">
-        <f t="shared" ref="M360:M423" si="6">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L360</f>
+        <f t="shared" ref="M360:M386" si="6">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L360</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2148173936</v>
       </c>
     </row>
@@ -31929,7 +32010,7 @@
         <v>2381499282</v>
       </c>
       <c r="M772" t="str">
-        <f t="shared" ref="M772:M835" si="13">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L772</f>
+        <f t="shared" ref="M772:M811" si="13">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L772</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2381499282</v>
       </c>
     </row>
@@ -37155,6 +37236,12 @@
       <c r="H925" s="5">
         <v>44237</v>
       </c>
+      <c r="I925" s="5">
+        <v>44242</v>
+      </c>
+      <c r="J925" s="5">
+        <v>44241</v>
+      </c>
       <c r="L925">
         <v>2411581598</v>
       </c>
@@ -37400,7 +37487,7 @@
         <v>2400085868</v>
       </c>
       <c r="M932" t="str">
-        <f t="shared" ref="M932:M963" si="18">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L932</f>
+        <f t="shared" ref="M932:M937" si="18">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L932</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2400085868</v>
       </c>
     </row>
@@ -37464,6 +37551,9 @@
       <c r="H934" s="5">
         <v>44240</v>
       </c>
+      <c r="I934" s="26">
+        <v>44243</v>
+      </c>
       <c r="L934">
         <v>2405734261</v>
       </c>
@@ -37498,6 +37588,7 @@
       <c r="H935" s="5">
         <v>44240</v>
       </c>
+      <c r="I935" s="7"/>
       <c r="L935">
         <v>2400029763</v>
       </c>
@@ -37532,6 +37623,7 @@
       <c r="H936" s="5">
         <v>44240</v>
       </c>
+      <c r="I936" s="26"/>
       <c r="L936">
         <v>2403582751</v>
       </c>
@@ -37566,6 +37658,7 @@
       <c r="H937" s="5">
         <v>44240</v>
       </c>
+      <c r="I937" s="7"/>
       <c r="L937">
         <v>2376167446</v>
       </c>
@@ -37600,11 +37693,12 @@
       <c r="H938" s="5">
         <v>44241</v>
       </c>
+      <c r="I938" s="26"/>
       <c r="L938">
         <v>2410240328</v>
       </c>
       <c r="M938" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L938</f>
+        <f t="shared" ref="M938:M951" si="19">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L938</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2410240328</v>
       </c>
     </row>
@@ -37634,11 +37728,12 @@
       <c r="H939" s="5">
         <v>44241</v>
       </c>
+      <c r="I939" s="7"/>
       <c r="L939">
         <v>2420229251</v>
       </c>
       <c r="M939" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L939</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2420229251</v>
       </c>
     </row>
@@ -37661,11 +37756,12 @@
       <c r="H940" s="5">
         <v>44241</v>
       </c>
+      <c r="I940" s="26"/>
       <c r="L940">
         <v>2420192114</v>
       </c>
       <c r="M940" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L940</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2420192114</v>
       </c>
     </row>
@@ -37695,11 +37791,12 @@
       <c r="H941" s="5">
         <v>44241</v>
       </c>
+      <c r="I941" s="7"/>
       <c r="L941">
         <v>2419977629</v>
       </c>
       <c r="M941" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L941</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2419977629</v>
       </c>
     </row>
@@ -37729,11 +37826,12 @@
       <c r="H942" s="5">
         <v>44241</v>
       </c>
+      <c r="I942" s="26"/>
       <c r="L942">
         <v>2419928072</v>
       </c>
       <c r="M942" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L942</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2419928072</v>
       </c>
     </row>
@@ -37756,11 +37854,12 @@
       <c r="H943" s="5">
         <v>44241</v>
       </c>
+      <c r="I943" s="7"/>
       <c r="L943">
         <v>2420264210</v>
       </c>
       <c r="M943" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L943</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2420264210</v>
       </c>
     </row>
@@ -37790,11 +37889,14 @@
       <c r="H944" s="5">
         <v>44241</v>
       </c>
+      <c r="I944" s="26">
+        <v>44242</v>
+      </c>
       <c r="L944">
         <v>2419795310</v>
       </c>
       <c r="M944" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L944</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2419795310</v>
       </c>
     </row>
@@ -37828,7 +37930,7 @@
         <v>2408912202</v>
       </c>
       <c r="M945" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L945</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2408912202</v>
       </c>
     </row>
@@ -37862,7 +37964,7 @@
         <v>2397753930</v>
       </c>
       <c r="M946" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L946</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2397753930</v>
       </c>
     </row>
@@ -37889,7 +37991,7 @@
         <v>2419930768</v>
       </c>
       <c r="M947" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L947</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2419930768</v>
       </c>
     </row>
@@ -37923,7 +38025,7 @@
         <v>2423022546</v>
       </c>
       <c r="M948" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L948</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2423022546</v>
       </c>
     </row>
@@ -37957,7 +38059,7 @@
         <v>2406685792</v>
       </c>
       <c r="M949" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L949</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2406685792</v>
       </c>
     </row>
@@ -37991,7 +38093,7 @@
         <v>2410272708</v>
       </c>
       <c r="M950" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L950</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2410272708</v>
       </c>
     </row>
@@ -38025,8 +38127,885 @@
         <v>2410269913</v>
       </c>
       <c r="M951" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L951</f>
+        <f t="shared" si="19"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2410269913</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>110</v>
+      </c>
+      <c r="B952" t="s">
+        <v>504</v>
+      </c>
+      <c r="C952" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D952" t="s">
+        <v>214</v>
+      </c>
+      <c r="E952" t="s">
+        <v>398</v>
+      </c>
+      <c r="F952" s="16" t="str">
+        <f>VLOOKUP(E952,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G952" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H952" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L952">
+        <v>2407631874</v>
+      </c>
+      <c r="M952" t="str">
+        <f t="shared" ref="M952:M959" si="20">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L952</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2407631874</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>10</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C953" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E953" t="s">
+        <v>415</v>
+      </c>
+      <c r="F953" s="16" t="str">
+        <f>VLOOKUP(E953,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G953" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H953" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L953">
+        <v>2381764564</v>
+      </c>
+      <c r="M953" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2381764564</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>98</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C954" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D954" t="s">
+        <v>78</v>
+      </c>
+      <c r="E954" t="s">
+        <v>393</v>
+      </c>
+      <c r="F954" s="16" t="str">
+        <f>VLOOKUP(E954,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G954" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H954" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L954">
+        <v>2419873858</v>
+      </c>
+      <c r="M954" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419873858</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B955" t="s">
+        <v>180</v>
+      </c>
+      <c r="C955" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D955" t="s">
+        <v>81</v>
+      </c>
+      <c r="E955" t="s">
+        <v>395</v>
+      </c>
+      <c r="F955" s="16" t="str">
+        <f>VLOOKUP(E955,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G955" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H955" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L955">
+        <v>2410790722</v>
+      </c>
+      <c r="M955" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2410790722</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>144</v>
+      </c>
+      <c r="B956" t="s">
+        <v>335</v>
+      </c>
+      <c r="C956" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E956" t="s">
+        <v>393</v>
+      </c>
+      <c r="F956" s="16" t="str">
+        <f>VLOOKUP(E956,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G956" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H956" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L956">
+        <v>2402721703</v>
+      </c>
+      <c r="M956" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2402721703</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>10</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C957" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D957" t="s">
+        <v>188</v>
+      </c>
+      <c r="E957" t="s">
+        <v>410</v>
+      </c>
+      <c r="F957" s="16" t="str">
+        <f>VLOOKUP(E957,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G957" s="5">
+        <v>44235</v>
+      </c>
+      <c r="H957" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L957">
+        <v>2405916540</v>
+      </c>
+      <c r="M957" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2405916540</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C958" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D958" t="s">
+        <v>676</v>
+      </c>
+      <c r="G958" s="5">
+        <v>44237</v>
+      </c>
+      <c r="H958" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L958">
+        <v>2416363989</v>
+      </c>
+      <c r="M958" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416363989</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C959" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D959" t="s">
+        <v>214</v>
+      </c>
+      <c r="E959" t="s">
+        <v>398</v>
+      </c>
+      <c r="F959" s="16" t="str">
+        <f>VLOOKUP(E959,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G959" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H959" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L959">
+        <v>2222612420</v>
+      </c>
+      <c r="M959" t="str">
+        <f t="shared" si="20"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2222612420</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>10</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C960" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E960" t="s">
+        <v>415</v>
+      </c>
+      <c r="F960" s="16" t="str">
+        <f>VLOOKUP(E960,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="G960" s="5">
+        <v>44241</v>
+      </c>
+      <c r="H960" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L960">
+        <v>2423709211</v>
+      </c>
+      <c r="M960" t="str">
+        <f t="shared" ref="M960:M970" si="21">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L960</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2423709211</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>10</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C961" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D961" t="s">
+        <v>78</v>
+      </c>
+      <c r="E961" t="s">
+        <v>393</v>
+      </c>
+      <c r="F961" s="16" t="str">
+        <f>VLOOKUP(E961,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G961" s="5">
+        <v>44241</v>
+      </c>
+      <c r="H961" s="5">
+        <v>44242</v>
+      </c>
+      <c r="L961">
+        <v>2423709211</v>
+      </c>
+      <c r="M961" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2423709211</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B962" s="28" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C962" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D962" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E962" t="s">
+        <v>405</v>
+      </c>
+      <c r="F962" s="16" t="str">
+        <f>VLOOKUP(E962,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G962" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H962" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L962">
+        <v>2405299641</v>
+      </c>
+      <c r="M962" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2405299641</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>110</v>
+      </c>
+      <c r="B963" t="s">
+        <v>259</v>
+      </c>
+      <c r="C963" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D963" t="s">
+        <v>726</v>
+      </c>
+      <c r="E963" t="s">
+        <v>397</v>
+      </c>
+      <c r="F963" s="16" t="str">
+        <f>VLOOKUP(E963,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G963" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H963" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L963">
+        <v>2411149232</v>
+      </c>
+      <c r="M963" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411149232</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>10</v>
+      </c>
+      <c r="B964" t="s">
+        <v>262</v>
+      </c>
+      <c r="C964" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D964" t="s">
+        <v>368</v>
+      </c>
+      <c r="E964" t="s">
+        <v>398</v>
+      </c>
+      <c r="F964" s="16" t="str">
+        <f>VLOOKUP(E964,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G964" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H964" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L964">
+        <v>2411968843</v>
+      </c>
+      <c r="M964" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411968843</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>144</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C965" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D965" t="s">
+        <v>296</v>
+      </c>
+      <c r="E965" t="s">
+        <v>404</v>
+      </c>
+      <c r="F965" s="16" t="str">
+        <f>VLOOKUP(E965,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G965" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H965" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L965">
+        <v>2414893715</v>
+      </c>
+      <c r="M965" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2414893715</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>330</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C966" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D966" t="s">
+        <v>17</v>
+      </c>
+      <c r="E966" t="s">
+        <v>394</v>
+      </c>
+      <c r="F966" s="16" t="str">
+        <f>VLOOKUP(E966,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G966" s="5">
+        <v>44236</v>
+      </c>
+      <c r="H966" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L966">
+        <v>2405895906</v>
+      </c>
+      <c r="M966" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2405895906</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B967" t="s">
+        <v>259</v>
+      </c>
+      <c r="C967" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D967" t="s">
+        <v>149</v>
+      </c>
+      <c r="E967" t="s">
+        <v>398</v>
+      </c>
+      <c r="F967" s="16" t="str">
+        <f>VLOOKUP(E967,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G967" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H967" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L967">
+        <v>2407673417</v>
+      </c>
+      <c r="M967" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2407673417</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C968" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D968" t="s">
+        <v>78</v>
+      </c>
+      <c r="E968" t="s">
+        <v>393</v>
+      </c>
+      <c r="F968" s="16" t="str">
+        <f>VLOOKUP(E968,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G968" s="5">
+        <v>44238</v>
+      </c>
+      <c r="H968" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L968">
+        <v>2406614840</v>
+      </c>
+      <c r="M968" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2406614840</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C969" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E969" t="s">
+        <v>521</v>
+      </c>
+      <c r="F969" s="16" t="str">
+        <f>VLOOKUP(E969,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="G969" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H969" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L969">
+        <v>2425306879</v>
+      </c>
+      <c r="M969" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2425306879</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>911</v>
+      </c>
+      <c r="B970" t="s">
+        <v>259</v>
+      </c>
+      <c r="C970" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D970" t="s">
+        <v>17</v>
+      </c>
+      <c r="E970" t="s">
+        <v>394</v>
+      </c>
+      <c r="F970" s="16" t="str">
+        <f>VLOOKUP(E970,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G970" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H970" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L970">
+        <v>2411971343</v>
+      </c>
+      <c r="M970" t="str">
+        <f t="shared" si="21"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411971343</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B971" t="s">
+        <v>375</v>
+      </c>
+      <c r="C971" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D971" t="s">
+        <v>511</v>
+      </c>
+      <c r="E971" t="s">
+        <v>401</v>
+      </c>
+      <c r="F971" s="16" t="str">
+        <f>VLOOKUP(E971,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G971" s="5">
+        <v>44237</v>
+      </c>
+      <c r="H971" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L971">
+        <v>2404897373</v>
+      </c>
+      <c r="M971" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L971</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2404897373</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>10</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C972" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D972" t="s">
+        <v>282</v>
+      </c>
+      <c r="E972" t="s">
+        <v>402</v>
+      </c>
+      <c r="F972" s="16" t="str">
+        <f>VLOOKUP(E972,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G972" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H972" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L972">
+        <v>2341774768</v>
+      </c>
+      <c r="M972" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L972</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2341774768</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B973" t="s">
+        <v>262</v>
+      </c>
+      <c r="C973" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D973" t="s">
+        <v>81</v>
+      </c>
+      <c r="E973" t="s">
+        <v>395</v>
+      </c>
+      <c r="F973" s="16" t="str">
+        <f>VLOOKUP(E973,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G973" s="5">
+        <v>44241</v>
+      </c>
+      <c r="H973" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L973">
+        <v>2411129133</v>
+      </c>
+      <c r="M973" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L973</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411129133</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>144</v>
+      </c>
+      <c r="B974" t="s">
+        <v>259</v>
+      </c>
+      <c r="C974" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E974" t="s">
+        <v>398</v>
+      </c>
+      <c r="F974" s="16" t="str">
+        <f>VLOOKUP(E974,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G974" s="5">
+        <v>44241</v>
+      </c>
+      <c r="H974" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L974">
+        <v>2411129125</v>
+      </c>
+      <c r="M974" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L974</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411129125</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B975" t="s">
+        <v>259</v>
+      </c>
+      <c r="C975" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D975" t="s">
+        <v>149</v>
+      </c>
+      <c r="E975" t="s">
+        <v>398</v>
+      </c>
+      <c r="F975" s="16" t="str">
+        <f>VLOOKUP(E975,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G975" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H975" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L975">
+        <v>2411971269</v>
+      </c>
+      <c r="M975" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L975</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411971269</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>911</v>
+      </c>
+      <c r="B976" t="s">
+        <v>259</v>
+      </c>
+      <c r="C976" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D976" t="s">
+        <v>17</v>
+      </c>
+      <c r="E976" t="s">
+        <v>394</v>
+      </c>
+      <c r="F976" s="16" t="str">
+        <f>VLOOKUP(E976,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G976" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H976" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L976">
+        <v>2407672450</v>
+      </c>
+      <c r="M976" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L976</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2407672450</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>98</v>
+      </c>
+      <c r="B977" t="s">
+        <v>25</v>
+      </c>
+      <c r="C977" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D977" t="s">
+        <v>115</v>
+      </c>
+      <c r="E977" t="s">
+        <v>405</v>
+      </c>
+      <c r="F977" s="16" t="str">
+        <f>VLOOKUP(E977,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G977" s="5">
+        <v>44242</v>
+      </c>
+      <c r="H977" s="5">
+        <v>44243</v>
+      </c>
+      <c r="L977">
+        <v>2408032173</v>
+      </c>
+      <c r="M977" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L977</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2408032173</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865EAC7-F583-4AA0-9FF9-E7370187C136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897142B-8090-4CED-BF9D-57B0193871A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="188055" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="202635" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1276">
   <si>
     <t>Title</t>
   </si>
@@ -3658,9 +3658,6 @@
     <t>Plenty</t>
   </si>
   <si>
-    <t>TRANZACT</t>
-  </si>
-  <si>
     <t>Fort Lee</t>
   </si>
   <si>
@@ -3695,6 +3692,171 @@
   </si>
   <si>
     <t>Yuba City</t>
+  </si>
+  <si>
+    <t>Data Scientist- Python, Modeling</t>
+  </si>
+  <si>
+    <t>Oracle Database Developer with Tableau</t>
+  </si>
+  <si>
+    <t>Kythera Labs</t>
+  </si>
+  <si>
+    <t>(ISC)²</t>
+  </si>
+  <si>
+    <t>Education Data Analyst</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>Big Data Python Application Developer</t>
+  </si>
+  <si>
+    <t>Alkymi</t>
+  </si>
+  <si>
+    <t>Data Analyst / Tableau Developer</t>
+  </si>
+  <si>
+    <t>firstPro 360</t>
+  </si>
+  <si>
+    <t>Data Scientist - REMOTE</t>
+  </si>
+  <si>
+    <t>Mendable, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS </t>
+  </si>
+  <si>
+    <t>Data Scientist/Statistician/Predictive Modeler (3-6 yrs exp)</t>
+  </si>
+  <si>
+    <t>Data Scientist - Job ID 12846</t>
+  </si>
+  <si>
+    <t>infor</t>
+  </si>
+  <si>
+    <t>Zenaide Technologies</t>
+  </si>
+  <si>
+    <t>1-50</t>
+  </si>
+  <si>
+    <t>Kellog Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek </t>
+  </si>
+  <si>
+    <t>Associate Finance Analyst</t>
+  </si>
+  <si>
+    <t>jobhoper.com</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Data Analyst/SQL Developer</t>
+  </si>
+  <si>
+    <t>Pyramid Consulting</t>
+  </si>
+  <si>
+    <t>Data Scientist Intern</t>
+  </si>
+  <si>
+    <t>Genus AI</t>
+  </si>
+  <si>
+    <t>Decision Scientist and Marketing Analyst</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Richfield</t>
+  </si>
+  <si>
+    <t>Data Engineer - Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis Towers Watson </t>
+  </si>
+  <si>
+    <t>Senior Analyst, Revenue Growth Management</t>
+  </si>
+  <si>
+    <t>Data Scientist- Python, R, SQL</t>
+  </si>
+  <si>
+    <t>Entry Level Data Analyst/ Data Scientist</t>
+  </si>
+  <si>
+    <t>SynergisticIT</t>
+  </si>
+  <si>
+    <t>Northbrook</t>
+  </si>
+  <si>
+    <t>Entry level python developer</t>
+  </si>
+  <si>
+    <t>Entry-Level Data Science and AI Developer</t>
+  </si>
+  <si>
+    <t>21-00024</t>
+  </si>
+  <si>
+    <t>21-00018</t>
+  </si>
+  <si>
+    <t>21-00026</t>
+  </si>
+  <si>
+    <t>21-00027</t>
+  </si>
+  <si>
+    <t>21-00004</t>
+  </si>
+  <si>
+    <t>ASK Staffing, Inc.</t>
+  </si>
+  <si>
+    <t>Bernard Nickels &amp; Associates</t>
+  </si>
+  <si>
+    <t>o9 Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>AI Data Scientist</t>
+  </si>
+  <si>
+    <t>CallMiner</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Remote Restaurant Development Data Analyst</t>
+  </si>
+  <si>
+    <t>Prestige Staffing</t>
+  </si>
+  <si>
+    <t>AllianceIT, Inc</t>
+  </si>
+  <si>
+    <t>Consultant Marketing Data Scientist</t>
+  </si>
+  <si>
+    <t>Arcondis</t>
   </si>
 </sst>
 </file>
@@ -3801,7 +3963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3833,12 +3995,16 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3853,6 +4019,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4495,23 +4684,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M977" totalsRowShown="0">
-  <autoFilter ref="A1:M977" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M1038" totalsRowShown="0">
+  <autoFilter ref="A1:M1038" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M933">
     <sortCondition ref="H2:H534"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E47768BE-8101-45FF-ADA4-D6FC9A700205}" name="Title"/>
     <tableColumn id="2" xr3:uid="{F764421A-C44C-483B-8F60-48950F2824DB}" name="Company"/>
-    <tableColumn id="3" xr3:uid="{B4FE7467-3C33-4E2D-856B-6642D899E85B}" name="Size" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B4FE7467-3C33-4E2D-856B-6642D899E85B}" name="Size" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="4" xr3:uid="{7EC17D5D-D7DF-4079-9C36-BF83D332B734}" name="City"/>
     <tableColumn id="5" xr3:uid="{4071357E-F437-403C-A6A9-5547C2697BAD}" name="State_abbv"/>
-    <tableColumn id="6" xr3:uid="{50E984A7-87CB-42E4-98C8-E52483040C99}" name="State"/>
-    <tableColumn id="7" xr3:uid="{A157ABEE-76C7-4BDF-B277-58A151DBF522}" name="Date_Posted" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{375BF482-8A6B-4FBE-BC58-B56A954890C1}" name="Date_Applied" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{6C7842FC-3AE5-4D14-9DDE-94F088E33563}" name="Rejection_Email" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{EABE49B2-1EEB-4C23-9152-735B8C3785DD}" name="Viewed_Email" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{AC4E7481-ADC4-4FA8-A2BF-EF32CD995017}" name="CoID" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{50E984A7-87CB-42E4-98C8-E52483040C99}" name="State" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A157ABEE-76C7-4BDF-B277-58A151DBF522}" name="Date_Posted" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{375BF482-8A6B-4FBE-BC58-B56A954890C1}" name="Date_Applied" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6C7842FC-3AE5-4D14-9DDE-94F088E33563}" name="Rejection_Email" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{EABE49B2-1EEB-4C23-9152-735B8C3785DD}" name="Viewed_Email" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{AC4E7481-ADC4-4FA8-A2BF-EF32CD995017}" name="CoID" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="12" xr3:uid="{8FED16CE-7EDF-40C5-BA6B-DBF90660ACBE}" name="JobID"/>
     <tableColumn id="13" xr3:uid="{1CFEE3CF-8808-4200-B353-75340A36A546}" name="URL">
       <calculatedColumnFormula>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L2</calculatedColumnFormula>
@@ -4818,12 +5007,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M977"/>
+  <dimension ref="A1:M1038"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L979" sqref="L979"/>
+      <selection pane="bottomLeft" activeCell="E1032" sqref="E1032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37960,6 +38149,9 @@
       <c r="H946" s="5">
         <v>44241</v>
       </c>
+      <c r="J946" s="7">
+        <v>44243</v>
+      </c>
       <c r="L946">
         <v>2397753930</v>
       </c>
@@ -37987,6 +38179,9 @@
       <c r="H947" s="5">
         <v>44241</v>
       </c>
+      <c r="J947" s="7">
+        <v>44243</v>
+      </c>
       <c r="L947">
         <v>2419930768</v>
       </c>
@@ -38259,6 +38454,9 @@
       <c r="H955" s="5">
         <v>44242</v>
       </c>
+      <c r="J955" s="7">
+        <v>44243</v>
+      </c>
       <c r="L955">
         <v>2410790722</v>
       </c>
@@ -38388,6 +38586,9 @@
       <c r="H959" s="5">
         <v>44242</v>
       </c>
+      <c r="I959" s="5">
+        <v>44244</v>
+      </c>
       <c r="L959">
         <v>2222612420</v>
       </c>
@@ -38401,13 +38602,13 @@
         <v>10</v>
       </c>
       <c r="B960" t="s">
-        <v>1209</v>
+        <v>1252</v>
       </c>
       <c r="C960" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D960" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E960" t="s">
         <v>415</v>
@@ -38422,6 +38623,9 @@
       <c r="H960" s="5">
         <v>44242</v>
       </c>
+      <c r="I960" s="29">
+        <v>44251</v>
+      </c>
       <c r="L960">
         <v>2423709211</v>
       </c>
@@ -38435,7 +38639,7 @@
         <v>10</v>
       </c>
       <c r="B961" t="s">
-        <v>1209</v>
+        <v>1252</v>
       </c>
       <c r="C961" s="3" t="s">
         <v>100</v>
@@ -38456,6 +38660,9 @@
       <c r="H961" s="5">
         <v>44242</v>
       </c>
+      <c r="I961" s="29">
+        <v>44251</v>
+      </c>
       <c r="L961">
         <v>2423709211</v>
       </c>
@@ -38571,7 +38778,7 @@
         <v>144</v>
       </c>
       <c r="B965" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C965" s="3" t="s">
         <v>281</v>
@@ -38636,7 +38843,7 @@
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B967" t="s">
         <v>259</v>
@@ -38670,10 +38877,10 @@
     </row>
     <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B968" t="s">
         <v>1213</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1214</v>
       </c>
       <c r="C968" s="3" t="s">
         <v>100</v>
@@ -38704,16 +38911,16 @@
     </row>
     <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B969" t="s">
         <v>1215</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1216</v>
       </c>
       <c r="C969" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D969" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E969" t="s">
         <v>521</v>
@@ -38772,7 +38979,7 @@
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B971" t="s">
         <v>375</v>
@@ -38800,7 +39007,7 @@
         <v>2404897373</v>
       </c>
       <c r="M971" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L971</f>
+        <f t="shared" ref="M971:M977" si="22">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L971</f>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2404897373</v>
       </c>
     </row>
@@ -38809,7 +39016,7 @@
         <v>10</v>
       </c>
       <c r="B972" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C972" s="3" t="s">
         <v>261</v>
@@ -38834,13 +39041,13 @@
         <v>2341774768</v>
       </c>
       <c r="M972" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L972</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2341774768</v>
       </c>
     </row>
     <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B973" t="s">
         <v>262</v>
@@ -38868,7 +39075,7 @@
         <v>2411129133</v>
       </c>
       <c r="M973" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L973</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2411129133</v>
       </c>
     </row>
@@ -38883,7 +39090,7 @@
         <v>55</v>
       </c>
       <c r="D974" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E974" t="s">
         <v>398</v>
@@ -38902,13 +39109,13 @@
         <v>2411129125</v>
       </c>
       <c r="M974" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L974</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2411129125</v>
       </c>
     </row>
     <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B975" t="s">
         <v>259</v>
@@ -38936,7 +39143,7 @@
         <v>2411971269</v>
       </c>
       <c r="M975" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L975</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2411971269</v>
       </c>
     </row>
@@ -38970,7 +39177,7 @@
         <v>2407672450</v>
       </c>
       <c r="M976" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L976</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2407672450</v>
       </c>
     </row>
@@ -39004,8 +39211,2116 @@
         <v>2408032173</v>
       </c>
       <c r="M977" t="str">
-        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L977</f>
+        <f t="shared" si="22"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2408032173</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>10</v>
+      </c>
+      <c r="B978" t="s">
+        <v>335</v>
+      </c>
+      <c r="C978" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D978" t="s">
+        <v>115</v>
+      </c>
+      <c r="E978" t="s">
+        <v>405</v>
+      </c>
+      <c r="F978" s="16" t="str">
+        <f>VLOOKUP(E978,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G978" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H978" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L978">
+        <v>2414729894</v>
+      </c>
+      <c r="M978" t="str">
+        <f t="shared" ref="M978:M985" si="23">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L978</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2414729894</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C979" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D979" t="s">
+        <v>188</v>
+      </c>
+      <c r="E979" t="s">
+        <v>410</v>
+      </c>
+      <c r="F979" s="16" t="str">
+        <f>VLOOKUP(E979,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G979" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H979" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L979">
+        <v>2426022042</v>
+      </c>
+      <c r="M979" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426022042</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>908</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C980" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D980" t="s">
+        <v>188</v>
+      </c>
+      <c r="E980" t="s">
+        <v>410</v>
+      </c>
+      <c r="F980" s="16" t="str">
+        <f>VLOOKUP(E980,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G980" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H980" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L980">
+        <v>2412592595</v>
+      </c>
+      <c r="M980" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2412592595</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C981" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D981" t="s">
+        <v>489</v>
+      </c>
+      <c r="E981" t="s">
+        <v>396</v>
+      </c>
+      <c r="F981" s="16" t="str">
+        <f>VLOOKUP(E981,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G981" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H981" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L981">
+        <v>2422019681</v>
+      </c>
+      <c r="M981" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2422019681</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>908</v>
+      </c>
+      <c r="B982" t="s">
+        <v>443</v>
+      </c>
+      <c r="C982" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D982" t="s">
+        <v>721</v>
+      </c>
+      <c r="E982" t="s">
+        <v>395</v>
+      </c>
+      <c r="F982" t="str">
+        <f>VLOOKUP(E982,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G982" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H982" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L982">
+        <v>2420231614</v>
+      </c>
+      <c r="M982" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420231614</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B983" t="s">
+        <v>259</v>
+      </c>
+      <c r="C983" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D983" t="s">
+        <v>149</v>
+      </c>
+      <c r="E983" t="s">
+        <v>398</v>
+      </c>
+      <c r="F983" t="str">
+        <f>VLOOKUP(E983,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G983" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H983" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L983">
+        <v>2412594853</v>
+      </c>
+      <c r="M983" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2412594853</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>230</v>
+      </c>
+      <c r="B984" t="s">
+        <v>917</v>
+      </c>
+      <c r="C984" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D984" t="s">
+        <v>356</v>
+      </c>
+      <c r="E984" t="s">
+        <v>395</v>
+      </c>
+      <c r="F984" t="str">
+        <f>VLOOKUP(E984,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G984" s="5">
+        <v>44239</v>
+      </c>
+      <c r="H984" s="5">
+        <v>44244</v>
+      </c>
+      <c r="L984">
+        <v>2420446119</v>
+      </c>
+      <c r="M984" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420446119</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>519</v>
+      </c>
+      <c r="B985" t="s">
+        <v>809</v>
+      </c>
+      <c r="C985" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D985" t="s">
+        <v>511</v>
+      </c>
+      <c r="E985" t="s">
+        <v>401</v>
+      </c>
+      <c r="F985" s="16" t="str">
+        <f>VLOOKUP(E985,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G985" s="5">
+        <v>44240</v>
+      </c>
+      <c r="H985" s="5">
+        <v>44244</v>
+      </c>
+      <c r="I985" s="5">
+        <v>44247</v>
+      </c>
+      <c r="L985">
+        <v>2403734722</v>
+      </c>
+      <c r="M985" t="str">
+        <f t="shared" si="23"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2403734722</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>10</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C986" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D986" t="s">
+        <v>296</v>
+      </c>
+      <c r="E986" t="s">
+        <v>404</v>
+      </c>
+      <c r="F986" s="16" t="str">
+        <f>VLOOKUP(E986,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G986" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H986" s="5">
+        <v>44248</v>
+      </c>
+      <c r="I986" s="5">
+        <v>44252</v>
+      </c>
+      <c r="L986">
+        <v>2420557650</v>
+      </c>
+      <c r="M986" t="str">
+        <f t="shared" ref="M986:M993" si="24">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L986</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420557650</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>10</v>
+      </c>
+      <c r="B987" t="s">
+        <v>174</v>
+      </c>
+      <c r="C987" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D987" t="s">
+        <v>175</v>
+      </c>
+      <c r="E987" t="s">
+        <v>437</v>
+      </c>
+      <c r="F987" s="16" t="str">
+        <f>VLOOKUP(E987,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Ohio</v>
+      </c>
+      <c r="G987" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H987" s="5">
+        <v>44248</v>
+      </c>
+      <c r="L987">
+        <v>2431900174</v>
+      </c>
+      <c r="M987" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2431900174</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>911</v>
+      </c>
+      <c r="B988" t="s">
+        <v>259</v>
+      </c>
+      <c r="C988" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D988" t="s">
+        <v>17</v>
+      </c>
+      <c r="E988" t="s">
+        <v>394</v>
+      </c>
+      <c r="F988" s="16" t="str">
+        <f>VLOOKUP(E988,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G988" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H988" s="5">
+        <v>44248</v>
+      </c>
+      <c r="L988">
+        <v>2420567750</v>
+      </c>
+      <c r="M988" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420567750</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>300</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C989" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D989" t="s">
+        <v>81</v>
+      </c>
+      <c r="E989" t="s">
+        <v>395</v>
+      </c>
+      <c r="F989" s="16" t="str">
+        <f>VLOOKUP(E989,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G989" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H989" s="5">
+        <v>44248</v>
+      </c>
+      <c r="L989">
+        <v>2431941534</v>
+      </c>
+      <c r="M989" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2431941534</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B990" t="s">
+        <v>773</v>
+      </c>
+      <c r="C990" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D990" t="s">
+        <v>511</v>
+      </c>
+      <c r="E990" t="s">
+        <v>401</v>
+      </c>
+      <c r="F990" s="16" t="str">
+        <f>VLOOKUP(E990,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G990" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H990" s="5">
+        <v>44248</v>
+      </c>
+      <c r="L990">
+        <v>2420545514</v>
+      </c>
+      <c r="M990" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2420545514</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>10</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C991" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D991" t="s">
+        <v>511</v>
+      </c>
+      <c r="E991" t="s">
+        <v>401</v>
+      </c>
+      <c r="F991" s="16" t="str">
+        <f>VLOOKUP(E991,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G991" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H991" s="5">
+        <v>44248</v>
+      </c>
+      <c r="J991" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L991">
+        <v>2418463533</v>
+      </c>
+      <c r="M991" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2418463533</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C992" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D992" t="s">
+        <v>845</v>
+      </c>
+      <c r="E992" t="s">
+        <v>405</v>
+      </c>
+      <c r="F992" s="16" t="str">
+        <f>VLOOKUP(E992,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G992" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H992" s="5">
+        <v>44248</v>
+      </c>
+      <c r="I992" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L992">
+        <v>2413467538</v>
+      </c>
+      <c r="M992" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2413467538</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>144</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C993" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D993" t="s">
+        <v>115</v>
+      </c>
+      <c r="E993" t="s">
+        <v>405</v>
+      </c>
+      <c r="F993" s="16" t="str">
+        <f>VLOOKUP(E993,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G993" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H993" s="5">
+        <v>44248</v>
+      </c>
+      <c r="I993" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L993">
+        <v>2416765361</v>
+      </c>
+      <c r="M993" t="str">
+        <f t="shared" si="24"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416765361</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>10</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C994" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D994" t="s">
+        <v>115</v>
+      </c>
+      <c r="E994" t="s">
+        <v>405</v>
+      </c>
+      <c r="F994" s="16" t="str">
+        <f>VLOOKUP(E994,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G994" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H994" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L994">
+        <v>2416766114</v>
+      </c>
+      <c r="M994" t="str">
+        <f t="shared" ref="M994:M1012" si="25">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L994</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416766114</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C995" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D995" t="s">
+        <v>78</v>
+      </c>
+      <c r="E995" t="s">
+        <v>393</v>
+      </c>
+      <c r="F995" s="16" t="str">
+        <f>VLOOKUP(E995,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G995" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H995" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L995">
+        <v>2416748242</v>
+      </c>
+      <c r="M995" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416748242</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B996" t="s">
+        <v>262</v>
+      </c>
+      <c r="C996" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D996" t="s">
+        <v>489</v>
+      </c>
+      <c r="E996" t="s">
+        <v>396</v>
+      </c>
+      <c r="F996" s="16" t="str">
+        <f>VLOOKUP(E996,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G996" s="5">
+        <v>44248</v>
+      </c>
+      <c r="H996" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L996">
+        <v>2421616473</v>
+      </c>
+      <c r="M996" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2421616473</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>10</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C997" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D997" t="s">
+        <v>81</v>
+      </c>
+      <c r="E997" t="s">
+        <v>395</v>
+      </c>
+      <c r="F997" s="16" t="str">
+        <f>VLOOKUP(E997,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G997" s="5">
+        <v>44248</v>
+      </c>
+      <c r="H997" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L997">
+        <v>2432986061</v>
+      </c>
+      <c r="M997" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2432986061</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>10</v>
+      </c>
+      <c r="B998" t="s">
+        <v>201</v>
+      </c>
+      <c r="C998" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D998" t="s">
+        <v>511</v>
+      </c>
+      <c r="E998" t="s">
+        <v>401</v>
+      </c>
+      <c r="F998" s="16" t="str">
+        <f>VLOOKUP(E998,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G998" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H998" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I998" s="5">
+        <v>44250</v>
+      </c>
+      <c r="L998">
+        <v>2416767950</v>
+      </c>
+      <c r="M998" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416767950</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>10</v>
+      </c>
+      <c r="B999" t="s">
+        <v>503</v>
+      </c>
+      <c r="D999" t="s">
+        <v>339</v>
+      </c>
+      <c r="E999" t="s">
+        <v>404</v>
+      </c>
+      <c r="F999" s="16" t="str">
+        <f>VLOOKUP(E999,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G999" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H999" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L999">
+        <v>2416773968</v>
+      </c>
+      <c r="M999" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416773968</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1000" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1000" s="16" t="str">
+        <f>VLOOKUP(E1000,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G1000" s="5">
+        <v>44248</v>
+      </c>
+      <c r="H1000" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1000">
+        <v>2432509278</v>
+      </c>
+      <c r="M1000" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2432509278</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1001" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1001" s="16" t="str">
+        <f>VLOOKUP(E1001,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1001" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H1001" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I1001" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L1001">
+        <v>2412152434</v>
+      </c>
+      <c r="M1001" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2412152434</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1002" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1002" s="16" t="str">
+        <f>VLOOKUP(E1002,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1002" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H1002" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1002">
+        <v>2430763420</v>
+      </c>
+      <c r="M1002" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2430763420</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1003" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1003" s="16" t="str">
+        <f>VLOOKUP(E1003,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="G1003" s="5">
+        <v>44244</v>
+      </c>
+      <c r="H1003" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1003">
+        <v>2426900441</v>
+      </c>
+      <c r="M1003" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426900441</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1004" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1004" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H1004" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1004">
+        <v>2416720710</v>
+      </c>
+      <c r="M1004" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2416720710</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1005" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1005" s="16" t="str">
+        <f>VLOOKUP(E1005,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1005" s="5">
+        <v>44249</v>
+      </c>
+      <c r="H1005" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1005">
+        <v>2431646627</v>
+      </c>
+      <c r="M1005" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2431646627</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1006" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1006" s="16" t="str">
+        <f>VLOOKUP(E1006,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G1006" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H1006" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I1006" s="5">
+        <v>44249</v>
+      </c>
+      <c r="K1006" s="2">
+        <v>714753900</v>
+      </c>
+      <c r="L1006">
+        <v>2408014552</v>
+      </c>
+      <c r="M1006" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2408014552</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1007" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1007" s="16" t="str">
+        <f>VLOOKUP(E1007,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1007" s="5">
+        <v>44243</v>
+      </c>
+      <c r="H1007" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I1007" s="5">
+        <v>44250</v>
+      </c>
+      <c r="K1007" s="2">
+        <v>714746000</v>
+      </c>
+      <c r="L1007">
+        <v>2408013879</v>
+      </c>
+      <c r="M1007" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2408013879</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1008" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1008" s="16" t="str">
+        <f>VLOOKUP(E1008,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G1008" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1008" s="5">
+        <v>44249</v>
+      </c>
+      <c r="K1008" s="2">
+        <v>714079800</v>
+      </c>
+      <c r="M1008" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1009" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1009" s="16" t="str">
+        <f>VLOOKUP(E1009,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Michigan</v>
+      </c>
+      <c r="G1009" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1009" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I1009" s="5">
+        <v>44249</v>
+      </c>
+      <c r="K1009" s="2">
+        <v>710953500</v>
+      </c>
+      <c r="L1009">
+        <v>2418472397</v>
+      </c>
+      <c r="M1009" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2418472397</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1010" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1010" s="16" t="str">
+        <f>VLOOKUP(E1010,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G1010" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H1010" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1010">
+        <v>2429547824</v>
+      </c>
+      <c r="M1010" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2429547824</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1011" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1011" s="16" t="str">
+        <f>VLOOKUP(E1011,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G1011" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H1011" s="5">
+        <v>44249</v>
+      </c>
+      <c r="L1011">
+        <v>2417257405</v>
+      </c>
+      <c r="M1011" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2417257405</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1012" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1012" s="16" t="str">
+        <f>VLOOKUP(E1012,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G1012" s="5">
+        <v>44214</v>
+      </c>
+      <c r="H1012" s="5">
+        <v>44249</v>
+      </c>
+      <c r="I1012" s="5">
+        <v>44252</v>
+      </c>
+      <c r="L1012">
+        <v>2429515226</v>
+      </c>
+      <c r="M1012" t="str">
+        <f t="shared" si="25"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2429515226</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1013" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1013" s="16" t="str">
+        <f>VLOOKUP(E1013,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Florida</v>
+      </c>
+      <c r="G1013" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H1013" s="5">
+        <v>44250</v>
+      </c>
+      <c r="L1013">
+        <v>2431603842</v>
+      </c>
+      <c r="M1013" t="str">
+        <f t="shared" ref="M1013:M1020" si="26">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1013</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2431603842</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1014" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1014" s="16" t="str">
+        <f>VLOOKUP(E1014,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Alabama</v>
+      </c>
+      <c r="G1014" s="5">
+        <v>44250</v>
+      </c>
+      <c r="H1014" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L1014">
+        <v>2435352448</v>
+      </c>
+      <c r="M1014" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2435352448</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1015" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1015" s="16" t="str">
+        <f>VLOOKUP(E1015,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Virginia</v>
+      </c>
+      <c r="G1015" s="5">
+        <v>44250</v>
+      </c>
+      <c r="H1015" s="5">
+        <v>44251</v>
+      </c>
+      <c r="I1015" s="5">
+        <v>44254</v>
+      </c>
+      <c r="L1015">
+        <v>2434741062</v>
+      </c>
+      <c r="M1015" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2434741062</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1016" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1016" s="16" t="str">
+        <f>VLOOKUP(E1016,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Tennessee</v>
+      </c>
+      <c r="G1016" s="5">
+        <v>44251</v>
+      </c>
+      <c r="H1016" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L1016">
+        <v>2426131096</v>
+      </c>
+      <c r="M1016" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426131096</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1017" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1017" s="16" t="str">
+        <f>VLOOKUP(E1017,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1017" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1017" s="5">
+        <v>44251</v>
+      </c>
+      <c r="L1017">
+        <v>2185778500</v>
+      </c>
+      <c r="M1017" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2185778500</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1018" s="16" t="str">
+        <f>VLOOKUP(E1018,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1018" s="5">
+        <v>44250</v>
+      </c>
+      <c r="H1018" s="5">
+        <v>44251</v>
+      </c>
+      <c r="I1018" s="5">
+        <v>44254</v>
+      </c>
+      <c r="L1018">
+        <v>2424295853</v>
+      </c>
+      <c r="M1018" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2424295853</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1019" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1019" s="16" t="str">
+        <f>VLOOKUP(E1019,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1019" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1019" s="5">
+        <v>44251</v>
+      </c>
+      <c r="M1019" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1020" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1020" s="16" t="str">
+        <f>VLOOKUP(E1020,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="G1020" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1020" s="5">
+        <v>44251</v>
+      </c>
+      <c r="I1020" s="5">
+        <v>44252</v>
+      </c>
+      <c r="L1020">
+        <v>2431864774</v>
+      </c>
+      <c r="M1020" t="str">
+        <f t="shared" si="26"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2431864774</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1021" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1021" s="16" t="str">
+        <f>VLOOKUP(E1021,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+      <c r="G1021" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1021" s="5">
+        <v>44251</v>
+      </c>
+      <c r="I1021" s="5">
+        <v>44252</v>
+      </c>
+      <c r="L1021">
+        <v>2411999267</v>
+      </c>
+      <c r="M1021" t="str">
+        <f t="shared" ref="M1021:M1030" si="27">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1021</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2411999267</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1022" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1022" s="5">
+        <v>44251</v>
+      </c>
+      <c r="H1022" s="5">
+        <v>44252</v>
+      </c>
+      <c r="M1022" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1023" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1023" s="16" t="str">
+        <f>VLOOKUP(E1023,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Washington</v>
+      </c>
+      <c r="G1023" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1023" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1023">
+        <v>2427060125</v>
+      </c>
+      <c r="M1023" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2427060125</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1024" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1024" s="16" t="str">
+        <f>VLOOKUP(E1024,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Missouri</v>
+      </c>
+      <c r="G1024" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1024" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1024">
+        <v>2426033112</v>
+      </c>
+      <c r="M1024" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426033112</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1025" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1025" s="16" t="str">
+        <f>VLOOKUP(E1025,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1025" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1025" s="5">
+        <v>44253</v>
+      </c>
+      <c r="K1025" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L1025">
+        <v>2435148068</v>
+      </c>
+      <c r="M1025" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2435148068</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1026" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1026" s="16" t="str">
+        <f>VLOOKUP(E1026,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1026" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1026" s="5">
+        <v>44253</v>
+      </c>
+      <c r="K1026" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L1026">
+        <v>2435148068</v>
+      </c>
+      <c r="M1026" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2435148068</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1027" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1027" s="16" t="str">
+        <f>VLOOKUP(E1027,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1027" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1027" s="5">
+        <v>44253</v>
+      </c>
+      <c r="K1027" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L1027">
+        <v>2435146128</v>
+      </c>
+      <c r="M1027" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2435146128</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1028" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1028" s="16" t="str">
+        <f>VLOOKUP(E1028,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1028" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1028" s="5">
+        <v>44253</v>
+      </c>
+      <c r="K1028" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L1028">
+        <v>2438844200</v>
+      </c>
+      <c r="M1028" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438844200</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1029" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1029" s="16" t="str">
+        <f>VLOOKUP(E1029,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G1029" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1029" s="5">
+        <v>44253</v>
+      </c>
+      <c r="K1029" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L1029">
+        <v>2372024740</v>
+      </c>
+      <c r="M1029" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372024740</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1030" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1030" s="16" t="str">
+        <f>VLOOKUP(E1030,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G1030" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1030" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1030">
+        <v>2372932528</v>
+      </c>
+      <c r="M1030" t="str">
+        <f t="shared" si="27"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2372932528</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1031" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1031" s="16" t="str">
+        <f>VLOOKUP(E1031,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Indiana</v>
+      </c>
+      <c r="G1031" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1031" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1031">
+        <v>2438659337</v>
+      </c>
+      <c r="M1031" t="str">
+        <f t="shared" ref="M1031:M1038" si="28">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1031</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438659337</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1032" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1032" s="16"/>
+      <c r="G1032" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1032" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1032">
+        <v>2438539897</v>
+      </c>
+      <c r="M1032" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438539897</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1033" s="16"/>
+      <c r="G1033" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1033" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1033">
+        <v>2438657309</v>
+      </c>
+      <c r="M1033" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438657309</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1034" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1034" s="16" t="str">
+        <f>VLOOKUP(E1034,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G1034" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1034" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1034">
+        <v>2438659337</v>
+      </c>
+      <c r="M1034" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438659337</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1035" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1035" s="16" t="str">
+        <f>VLOOKUP(E1035,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1035" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1035" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1035">
+        <v>2438438183</v>
+      </c>
+      <c r="M1035" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438438183</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1036" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1036" s="16" t="str">
+        <f>VLOOKUP(E1036,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1036" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1036" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1036">
+        <v>2438413116</v>
+      </c>
+      <c r="M1036" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2438413116</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1037" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1037" s="16" t="str">
+        <f>VLOOKUP(E1037,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G1037" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1037" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1037">
+        <v>2427081885</v>
+      </c>
+      <c r="M1037" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2427081885</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1038" s="16" t="str">
+        <f>VLOOKUP(E1038,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Massachusetts</v>
+      </c>
+      <c r="G1038" s="5">
+        <v>44251</v>
+      </c>
+      <c r="H1038" s="5">
+        <v>44253</v>
+      </c>
+      <c r="I1038" s="5">
+        <v>44253</v>
+      </c>
+      <c r="L1038">
+        <v>2436351598</v>
+      </c>
+      <c r="M1038" t="str">
+        <f t="shared" si="28"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2436351598</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Jobs.xlsx
+++ b/docs/Jobs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data Science\Completed\Jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\Data Science\Completed\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897142B-8090-4CED-BF9D-57B0193871A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2058741-90FB-4487-89EB-ED6A3FD35801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="202635" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
+    <workbookView xWindow="0" yWindow="206280" windowWidth="13800" windowHeight="1170" xr2:uid="{3C9481F9-B50F-43EA-8691-D0B46E74CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="1295">
   <si>
     <t>Title</t>
   </si>
@@ -3857,6 +3857,63 @@
   </si>
   <si>
     <t>Arcondis</t>
+  </si>
+  <si>
+    <t>Myticas Consulting ULC</t>
+  </si>
+  <si>
+    <t>Data Scientist - Python</t>
+  </si>
+  <si>
+    <t>TargetCW</t>
+  </si>
+  <si>
+    <t>Data Analyst (International)</t>
+  </si>
+  <si>
+    <t>Bandwith, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analyst/ Visualization</t>
+  </si>
+  <si>
+    <t>Data Analyst - Data Integrity, Cleansing, Tableau</t>
+  </si>
+  <si>
+    <t>Computer Enterprises, Inc.</t>
+  </si>
+  <si>
+    <t>Scouted</t>
+  </si>
+  <si>
+    <t>Chandra Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Data Analytics Specialist</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Python Developer (Client Analytics)</t>
+  </si>
+  <si>
+    <t>pymetrics</t>
+  </si>
+  <si>
+    <t>eHire</t>
+  </si>
+  <si>
+    <t>21-00919</t>
+  </si>
+  <si>
+    <t>Data Scientist - Data Analytics</t>
+  </si>
+  <si>
+    <t>Impossible Foods</t>
+  </si>
+  <si>
+    <t>MMC Corporation</t>
   </si>
 </sst>
 </file>
@@ -4684,23 +4741,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M1038" totalsRowShown="0">
-  <autoFilter ref="A1:M1038" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDF55EE6-B960-495F-9274-7E310C4098F1}" name="Table2" displayName="Table2" ref="A1:M1057" totalsRowShown="0">
+  <autoFilter ref="A1:M1057" xr:uid="{906C6C78-6F13-4F81-9B96-227A7FA28A71}"/>
   <sortState ref="A2:M933">
     <sortCondition ref="H2:H534"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E47768BE-8101-45FF-ADA4-D6FC9A700205}" name="Title"/>
     <tableColumn id="2" xr3:uid="{F764421A-C44C-483B-8F60-48950F2824DB}" name="Company"/>
-    <tableColumn id="3" xr3:uid="{B4FE7467-3C33-4E2D-856B-6642D899E85B}" name="Size" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B4FE7467-3C33-4E2D-856B-6642D899E85B}" name="Size" dataDxfId="11" totalsRowDxfId="12"/>
     <tableColumn id="4" xr3:uid="{7EC17D5D-D7DF-4079-9C36-BF83D332B734}" name="City"/>
     <tableColumn id="5" xr3:uid="{4071357E-F437-403C-A6A9-5547C2697BAD}" name="State_abbv"/>
     <tableColumn id="6" xr3:uid="{50E984A7-87CB-42E4-98C8-E52483040C99}" name="State" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{A157ABEE-76C7-4BDF-B277-58A151DBF522}" name="Date_Posted" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{375BF482-8A6B-4FBE-BC58-B56A954890C1}" name="Date_Applied" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6C7842FC-3AE5-4D14-9DDE-94F088E33563}" name="Rejection_Email" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{EABE49B2-1EEB-4C23-9152-735B8C3785DD}" name="Viewed_Email" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{AC4E7481-ADC4-4FA8-A2BF-EF32CD995017}" name="CoID" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{A157ABEE-76C7-4BDF-B277-58A151DBF522}" name="Date_Posted" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{375BF482-8A6B-4FBE-BC58-B56A954890C1}" name="Date_Applied" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6C7842FC-3AE5-4D14-9DDE-94F088E33563}" name="Rejection_Email" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EABE49B2-1EEB-4C23-9152-735B8C3785DD}" name="Viewed_Email" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AC4E7481-ADC4-4FA8-A2BF-EF32CD995017}" name="CoID" dataDxfId="0" totalsRowDxfId="1"/>
     <tableColumn id="12" xr3:uid="{8FED16CE-7EDF-40C5-BA6B-DBF90660ACBE}" name="JobID"/>
     <tableColumn id="13" xr3:uid="{1CFEE3CF-8808-4200-B353-75340A36A546}" name="URL">
       <calculatedColumnFormula>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L2</calculatedColumnFormula>
@@ -5007,12 +5064,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA8C9C-47D8-46D3-9E5D-6ED2B07EF53F}">
-  <dimension ref="A1:M1038"/>
+  <dimension ref="A1:M1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1024" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E1032" sqref="E1032"/>
+      <selection pane="bottomLeft" activeCell="A1047" sqref="A1047:M1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30917,6 +30974,9 @@
       <c r="H735" s="5">
         <v>44206</v>
       </c>
+      <c r="I735" s="5">
+        <v>44258</v>
+      </c>
       <c r="L735">
         <v>2358678670</v>
       </c>
@@ -39309,6 +39369,9 @@
       <c r="H980" s="5">
         <v>44244</v>
       </c>
+      <c r="I980" s="5">
+        <v>44259</v>
+      </c>
       <c r="L980">
         <v>2412592595</v>
       </c>
@@ -41244,6 +41307,9 @@
       <c r="H1036" s="5">
         <v>44253</v>
       </c>
+      <c r="I1036" s="5">
+        <v>44256</v>
+      </c>
       <c r="L1036">
         <v>2438413116</v>
       </c>
@@ -41321,6 +41387,655 @@
       <c r="M1038" t="str">
         <f t="shared" si="28"/>
         <v>https://www.linkedin.com/jobs/search/?currentJobId=2436351598</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1039" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1039" s="16" t="str">
+        <f>VLOOKUP(E1039,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1039" s="5">
+        <v>44255</v>
+      </c>
+      <c r="H1039" s="5">
+        <v>44256</v>
+      </c>
+      <c r="J1039" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1039">
+        <v>2442050151</v>
+      </c>
+      <c r="M1039" t="str">
+        <f t="shared" ref="M1039:M1045" si="29">"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1039</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2442050151</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1040" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1040" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1040" s="5">
+        <v>44256</v>
+      </c>
+      <c r="L1040">
+        <v>2421389906</v>
+      </c>
+      <c r="M1040" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2421389906</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1041" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1041" s="5">
+        <v>44254</v>
+      </c>
+      <c r="H1041" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1041">
+        <v>2428427991</v>
+      </c>
+      <c r="M1041" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2428427991</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1042" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1042" s="16" t="str">
+        <f>VLOOKUP(E1042,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1042" s="5">
+        <v>44252</v>
+      </c>
+      <c r="H1042" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1042">
+        <v>2440080955</v>
+      </c>
+      <c r="M1042" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2440080955</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1043" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1043" s="16" t="str">
+        <f>VLOOKUP(E1043,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G1043" s="5">
+        <v>44254</v>
+      </c>
+      <c r="H1043" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1043">
+        <v>2440103913</v>
+      </c>
+      <c r="M1043" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2440103913</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1044" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1044" s="16" t="str">
+        <f>VLOOKUP(E1044,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G1044" s="5">
+        <v>44253</v>
+      </c>
+      <c r="H1044" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1044">
+        <v>2427848481</v>
+      </c>
+      <c r="M1044" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2427848481</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1045" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1045" s="16" t="str">
+        <f>VLOOKUP(E1045,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Indiana</v>
+      </c>
+      <c r="G1045" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1045" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1045">
+        <v>2407669863</v>
+      </c>
+      <c r="M1045" t="str">
+        <f t="shared" si="29"/>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2407669863</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1046" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1046" s="16" t="str">
+        <f>VLOOKUP(E1046,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G1046" s="5">
+        <v>44256</v>
+      </c>
+      <c r="H1046" s="5">
+        <v>44257</v>
+      </c>
+      <c r="L1046">
+        <v>2423110201</v>
+      </c>
+      <c r="M1046" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1046</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2423110201</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1047" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1047" s="16" t="str">
+        <f>VLOOKUP(E1047,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1047" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1047" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1047">
+        <v>2418710056</v>
+      </c>
+      <c r="M1047" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1047</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2418710056</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1048" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1048" s="16" t="str">
+        <f>VLOOKUP(E1048,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>North Carolina</v>
+      </c>
+      <c r="G1048" s="5">
+        <v>44256</v>
+      </c>
+      <c r="H1048" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1048">
+        <v>2430001595</v>
+      </c>
+      <c r="M1048" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1049" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1049" s="16" t="str">
+        <f>VLOOKUP(E1049,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1049" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1049" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1049">
+        <v>2434722553</v>
+      </c>
+      <c r="M1049" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1049</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2434722553</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1050" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1050" s="16" t="str">
+        <f>VLOOKUP(E1050,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Indiana</v>
+      </c>
+      <c r="G1050" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1050" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1050">
+        <v>2434722553</v>
+      </c>
+      <c r="M1050" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1050</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2434722553</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>928</v>
+      </c>
+      <c r="C1051" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1051" s="16" t="str">
+        <f>VLOOKUP(E1051,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Illinois</v>
+      </c>
+      <c r="G1051" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1051" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1051">
+        <v>2426178917</v>
+      </c>
+      <c r="M1051" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1051</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426178917</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1052" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1052" s="16" t="str">
+        <f>VLOOKUP(E1052,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New Hampshire</v>
+      </c>
+      <c r="G1052" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1052" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1052">
+        <v>2426754824</v>
+      </c>
+      <c r="M1052" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1052</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2426754824</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1053" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1053" s="16" t="str">
+        <f>VLOOKUP(E1053,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>New York</v>
+      </c>
+      <c r="G1053" s="5">
+        <v>44258</v>
+      </c>
+      <c r="H1053" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1053">
+        <v>2445266697</v>
+      </c>
+      <c r="M1053" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1053</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2445266697</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1054" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1054" s="16" t="str">
+        <f>VLOOKUP(E1054,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Georgia</v>
+      </c>
+      <c r="G1054" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1054" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1054">
+        <v>2424580264</v>
+      </c>
+      <c r="M1054" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1054</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2424580264</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1055" s="16" t="str">
+        <f>VLOOKUP(E1055,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G1055" s="5">
+        <v>44281</v>
+      </c>
+      <c r="H1055" s="5">
+        <v>44259</v>
+      </c>
+      <c r="K1055" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L1055">
+        <v>2427876396</v>
+      </c>
+      <c r="M1055" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1055</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2427876396</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1056" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1056" s="16" t="str">
+        <f>VLOOKUP(E1056,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>California</v>
+      </c>
+      <c r="G1056" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1056" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1056">
+        <v>2419679874</v>
+      </c>
+      <c r="M1056" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1056</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2419679874</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1057" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1057" s="16" t="str">
+        <f>VLOOKUP(E1057,Sheet2!$A$1:$B$76, 2, FALSE)</f>
+        <v>Texas</v>
+      </c>
+      <c r="G1057" s="5">
+        <v>44258</v>
+      </c>
+      <c r="H1057" s="5">
+        <v>44259</v>
+      </c>
+      <c r="L1057">
+        <v>2445466746</v>
+      </c>
+      <c r="M1057" t="str">
+        <f>"https://www.linkedin.com/jobs/search/?currentJobId=" &amp; L1057</f>
+        <v>https://www.linkedin.com/jobs/search/?currentJobId=2445466746</v>
       </c>
     </row>
   </sheetData>
